--- a/Aufnahmebogen/Aufnahmebögen_digitalisiert.xlsx
+++ b/Aufnahmebogen/Aufnahmebögen_digitalisiert.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mainplot" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="105">
   <si>
     <t>Plot-ID</t>
   </si>
@@ -261,9 +261,6 @@
     <t>hylocomium / thuidium</t>
   </si>
   <si>
-    <t>orthotrichum</t>
-  </si>
-  <si>
     <t>isothecium</t>
   </si>
   <si>
@@ -322,6 +319,18 @@
   </si>
   <si>
     <t>auf rinde</t>
+  </si>
+  <si>
+    <t>pleurothium schreiberii</t>
+  </si>
+  <si>
+    <t>metzgeria con/sym</t>
+  </si>
+  <si>
+    <t>: conjugata oder simplex</t>
+  </si>
+  <si>
+    <t>orthotrichum affine</t>
   </si>
 </sst>
 </file>
@@ -357,8 +366,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -655,7 +667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
@@ -2496,8 +2508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K166"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="I156" sqref="I156"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2531,7 +2543,7 @@
         <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -2544,14 +2556,14 @@
       <c r="C2" t="s">
         <v>59</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>60</v>
       </c>
       <c r="I2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2564,7 +2576,7 @@
       <c r="C3" t="s">
         <v>61</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F3" t="s">
@@ -2581,17 +2593,17 @@
       <c r="C4" t="s">
         <v>62</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F4" t="s">
         <v>55</v>
       </c>
       <c r="I4" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" t="s">
         <v>91</v>
-      </c>
-      <c r="K4" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2604,7 +2616,7 @@
       <c r="C5" t="s">
         <v>63</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F5" t="s">
@@ -2614,10 +2626,10 @@
         <v>67</v>
       </c>
       <c r="I5" t="s">
+        <v>92</v>
+      </c>
+      <c r="K5" t="s">
         <v>93</v>
-      </c>
-      <c r="K5" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2630,7 +2642,7 @@
       <c r="C6" t="s">
         <v>59</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>2</v>
       </c>
       <c r="F6" t="s">
@@ -2647,11 +2659,17 @@
       <c r="C7" t="s">
         <v>61</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>4</v>
       </c>
       <c r="F7" t="s">
         <v>60</v>
+      </c>
+      <c r="I7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K7" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2664,7 +2682,7 @@
       <c r="C8" t="s">
         <v>62</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" t="s">
@@ -2681,7 +2699,7 @@
       <c r="C9" t="s">
         <v>59</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F9" t="s">
@@ -2698,7 +2716,7 @@
       <c r="C10" t="s">
         <v>59</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F10" t="s">
@@ -2715,7 +2733,7 @@
       <c r="C11" t="s">
         <v>59</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F11" t="s">
@@ -2732,7 +2750,7 @@
       <c r="C12" t="s">
         <v>61</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>5</v>
       </c>
       <c r="F12" t="s">
@@ -2752,7 +2770,7 @@
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" t="s">
@@ -2772,7 +2790,7 @@
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F14" t="s">
@@ -2789,7 +2807,7 @@
       <c r="C15" t="s">
         <v>59</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F15" t="s">
@@ -2806,7 +2824,7 @@
       <c r="C16" t="s">
         <v>61</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F16" t="s">
@@ -2826,7 +2844,7 @@
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F17" t="s">
@@ -2846,7 +2864,7 @@
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F18" t="s">
@@ -2866,7 +2884,7 @@
       <c r="C19" t="s">
         <v>59</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>4</v>
       </c>
       <c r="F19" t="s">
@@ -2883,7 +2901,7 @@
       <c r="C20" t="s">
         <v>61</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F20" t="s">
@@ -2900,7 +2918,7 @@
       <c r="C21" t="s">
         <v>70</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>1</v>
       </c>
       <c r="F21" t="s">
@@ -2917,7 +2935,7 @@
       <c r="C22" t="s">
         <v>61</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <v>2</v>
       </c>
       <c r="F22" t="s">
@@ -2934,7 +2952,7 @@
       <c r="C23" t="s">
         <v>62</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>3</v>
       </c>
       <c r="F23" t="s">
@@ -2951,7 +2969,7 @@
       <c r="C24" t="s">
         <v>63</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <v>1</v>
       </c>
       <c r="F24" t="s">
@@ -2971,7 +2989,7 @@
       <c r="C25" t="s">
         <v>71</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F25" t="s">
@@ -2988,7 +3006,7 @@
       <c r="C26" t="s">
         <v>72</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="F26" t="s">
@@ -3008,7 +3026,7 @@
       <c r="C27" t="s">
         <v>73</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F27" t="s">
@@ -3028,7 +3046,7 @@
       <c r="D28">
         <v>1</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
         <v>2</v>
       </c>
       <c r="F28" t="s">
@@ -3048,7 +3066,7 @@
       <c r="D29">
         <v>1</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1">
         <v>1</v>
       </c>
       <c r="F29" t="s">
@@ -3065,7 +3083,7 @@
       <c r="C30" t="s">
         <v>59</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <v>3</v>
       </c>
       <c r="F30" t="s">
@@ -3082,7 +3100,7 @@
       <c r="C31" t="s">
         <v>61</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="1">
         <v>2</v>
       </c>
       <c r="F31" t="s">
@@ -3099,7 +3117,7 @@
       <c r="C32" t="s">
         <v>59</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="1">
         <v>1</v>
       </c>
       <c r="F32" t="s">
@@ -3116,7 +3134,7 @@
       <c r="C33" t="s">
         <v>61</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="1">
         <v>1</v>
       </c>
       <c r="F33" t="s">
@@ -3136,7 +3154,7 @@
       <c r="C34" t="s">
         <v>62</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="1">
         <v>1</v>
       </c>
       <c r="F34" t="s">
@@ -3153,7 +3171,7 @@
       <c r="C35" t="s">
         <v>63</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F35" t="s">
@@ -3173,7 +3191,7 @@
       <c r="D36">
         <v>1</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="1">
         <v>2</v>
       </c>
       <c r="F36" t="s">
@@ -3193,7 +3211,7 @@
       <c r="D37">
         <v>1</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="1">
         <v>2</v>
       </c>
       <c r="F37" t="s">
@@ -3213,7 +3231,7 @@
       <c r="D38">
         <v>1</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F38" t="s">
@@ -3233,7 +3251,7 @@
       <c r="D39">
         <v>2</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="1">
         <v>1</v>
       </c>
       <c r="F39" t="s">
@@ -3250,7 +3268,7 @@
       <c r="C40" t="s">
         <v>59</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="1">
         <v>4</v>
       </c>
       <c r="F40" t="s">
@@ -3267,7 +3285,7 @@
       <c r="C41" t="s">
         <v>61</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="1">
         <v>1</v>
       </c>
       <c r="F41" t="s">
@@ -3284,7 +3302,7 @@
       <c r="C42" t="s">
         <v>62</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="1">
         <v>1</v>
       </c>
       <c r="F42" t="s">
@@ -3304,7 +3322,7 @@
       <c r="C43" t="s">
         <v>63</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F43" t="s">
@@ -3321,7 +3339,7 @@
       <c r="C44" t="s">
         <v>71</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F44" t="s">
@@ -3344,7 +3362,7 @@
       <c r="D45">
         <v>1</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="1">
         <v>3</v>
       </c>
       <c r="F45" t="s">
@@ -3364,7 +3382,7 @@
       <c r="D46">
         <v>1</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="1">
         <v>1</v>
       </c>
       <c r="F46" t="s">
@@ -3384,7 +3402,7 @@
       <c r="D47">
         <v>2</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="1">
         <v>1</v>
       </c>
       <c r="F47" t="s">
@@ -3404,11 +3422,11 @@
       <c r="D48">
         <v>2</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F48" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3421,7 +3439,7 @@
       <c r="C49" t="s">
         <v>59</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="1">
         <v>1</v>
       </c>
       <c r="F49" t="s">
@@ -3438,7 +3456,7 @@
       <c r="C50" t="s">
         <v>61</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="1">
         <v>3</v>
       </c>
       <c r="F50" t="s">
@@ -3455,7 +3473,7 @@
       <c r="C51" t="s">
         <v>62</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="1">
         <v>1</v>
       </c>
       <c r="F51" t="s">
@@ -3472,7 +3490,7 @@
       <c r="C52" t="s">
         <v>63</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F52" t="s">
@@ -3489,7 +3507,7 @@
       <c r="C53" t="s">
         <v>71</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F53" t="s">
@@ -3506,11 +3524,11 @@
       <c r="C54" t="s">
         <v>72</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G54" t="s">
         <v>55</v>
@@ -3526,7 +3544,7 @@
       <c r="C55" t="s">
         <v>73</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F55" t="s">
@@ -3543,7 +3561,7 @@
       <c r="C56" t="s">
         <v>79</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="1">
         <v>1</v>
       </c>
       <c r="F56" t="s">
@@ -3560,7 +3578,7 @@
       <c r="C57" t="s">
         <v>59</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="1">
         <v>1</v>
       </c>
       <c r="F57" t="s">
@@ -3577,7 +3595,7 @@
       <c r="C58" t="s">
         <v>61</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F58" t="s">
@@ -3594,7 +3612,7 @@
       <c r="C59" t="s">
         <v>62</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F59" t="s">
@@ -3614,7 +3632,7 @@
       <c r="C60" t="s">
         <v>59</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F60" t="s">
@@ -3631,7 +3649,7 @@
       <c r="C61" t="s">
         <v>61</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="1">
         <v>3</v>
       </c>
       <c r="F61" t="s">
@@ -3648,7 +3666,7 @@
       <c r="C62" t="s">
         <v>62</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="1">
         <v>3</v>
       </c>
       <c r="F62" t="s">
@@ -3668,7 +3686,7 @@
       <c r="D63">
         <v>1</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="1">
         <v>4</v>
       </c>
       <c r="F63" t="s">
@@ -3688,7 +3706,7 @@
       <c r="D64">
         <v>1</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F64" t="s">
@@ -3711,7 +3729,7 @@
       <c r="D65">
         <v>1</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F65" t="s">
@@ -3723,7 +3741,7 @@
         <v>26</v>
       </c>
       <c r="B66" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C66" t="s">
         <v>63</v>
@@ -3731,11 +3749,11 @@
       <c r="D66">
         <v>1</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F66" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3751,7 +3769,7 @@
       <c r="D67">
         <v>1</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F67" t="s">
@@ -3771,7 +3789,7 @@
       <c r="D68">
         <v>1</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="1">
         <v>4</v>
       </c>
       <c r="F68" t="s">
@@ -3791,7 +3809,7 @@
       <c r="D69">
         <v>2</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="1">
         <v>1</v>
       </c>
       <c r="F69" t="s">
@@ -3808,7 +3826,7 @@
       <c r="C70" t="s">
         <v>59</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F70" t="s">
@@ -3825,7 +3843,7 @@
       <c r="C71" t="s">
         <v>61</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F71" t="s">
@@ -3845,7 +3863,7 @@
       <c r="C72" t="s">
         <v>62</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F72" t="s">
@@ -3862,7 +3880,7 @@
       <c r="C73" t="s">
         <v>59</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="1">
         <v>2</v>
       </c>
       <c r="F73" t="s">
@@ -3879,7 +3897,7 @@
       <c r="C74" t="s">
         <v>61</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="1">
         <v>3</v>
       </c>
       <c r="F74" t="s">
@@ -3899,7 +3917,7 @@
       <c r="D75">
         <v>1</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="1">
         <v>2</v>
       </c>
       <c r="F75" t="s">
@@ -3919,11 +3937,11 @@
       <c r="D76">
         <v>1</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F76" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3939,7 +3957,7 @@
       <c r="D77">
         <v>2</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F77" t="s">
@@ -3959,11 +3977,11 @@
       <c r="D78">
         <v>2</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="1">
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3979,11 +3997,11 @@
       <c r="D79">
         <v>1</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F79" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G79" t="s">
         <v>55</v>
@@ -4002,11 +4020,11 @@
       <c r="D80">
         <v>2</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G80" t="s">
         <v>55</v>
@@ -4025,11 +4043,11 @@
       <c r="D81">
         <v>2</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F81" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G81" t="s">
         <v>55</v>
@@ -4048,7 +4066,7 @@
       <c r="D82">
         <v>1</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="1">
         <v>3</v>
       </c>
       <c r="F82" t="s">
@@ -4068,7 +4086,7 @@
       <c r="D83">
         <v>1</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F83" t="s">
@@ -4088,11 +4106,11 @@
       <c r="D84">
         <v>1</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="1">
         <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G84" t="s">
         <v>55</v>
@@ -4111,7 +4129,7 @@
       <c r="D85">
         <v>2</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="1">
         <v>1</v>
       </c>
       <c r="F85" t="s">
@@ -4128,7 +4146,7 @@
       <c r="C86" t="s">
         <v>59</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="1">
         <v>4</v>
       </c>
       <c r="F86" t="s">
@@ -4145,7 +4163,7 @@
       <c r="C87" t="s">
         <v>61</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="1">
         <v>2</v>
       </c>
       <c r="F87" t="s">
@@ -4162,7 +4180,7 @@
       <c r="C88" t="s">
         <v>59</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F88" t="s">
@@ -4179,7 +4197,7 @@
       <c r="C89" t="s">
         <v>61</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F89" t="s">
@@ -4196,7 +4214,7 @@
       <c r="C90" t="s">
         <v>62</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F90" t="s">
@@ -4216,7 +4234,7 @@
       <c r="C91" t="s">
         <v>63</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F91" t="s">
@@ -4236,7 +4254,7 @@
       <c r="D92">
         <v>1</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="1">
         <v>2</v>
       </c>
       <c r="F92" t="s">
@@ -4256,7 +4274,7 @@
       <c r="D93">
         <v>1</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F93" t="s">
@@ -4279,11 +4297,11 @@
       <c r="D94">
         <v>1</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F94" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -4299,7 +4317,7 @@
       <c r="D95">
         <v>2</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="1">
         <v>1</v>
       </c>
       <c r="F95" t="s">
@@ -4319,11 +4337,11 @@
       <c r="D96">
         <v>2</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F96" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -4339,7 +4357,7 @@
       <c r="D97">
         <v>1</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="1">
         <v>3</v>
       </c>
       <c r="F97" t="s">
@@ -4359,7 +4377,7 @@
       <c r="D98">
         <v>1</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F98" t="s">
@@ -4379,7 +4397,7 @@
       <c r="D99">
         <v>1</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F99" t="s">
@@ -4402,7 +4420,7 @@
       <c r="D100">
         <v>1</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E100" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F100" t="s">
@@ -4422,7 +4440,7 @@
       <c r="D101">
         <v>1</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E101" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F101" t="s">
@@ -4442,7 +4460,7 @@
       <c r="D102">
         <v>1</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="1">
         <v>1</v>
       </c>
       <c r="F102" t="s">
@@ -4462,7 +4480,7 @@
       <c r="D103">
         <v>1</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E103" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F103" t="s">
@@ -4479,7 +4497,7 @@
       <c r="C104" t="s">
         <v>59</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E104" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F104" t="s">
@@ -4496,7 +4514,7 @@
       <c r="C105" t="s">
         <v>61</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E105" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F105" t="s">
@@ -4513,11 +4531,11 @@
       <c r="C106" t="s">
         <v>62</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E106" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F106" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4530,7 +4548,7 @@
       <c r="C107" t="s">
         <v>63</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="1">
         <v>4</v>
       </c>
       <c r="F107" t="s">
@@ -4547,7 +4565,7 @@
       <c r="C108" t="s">
         <v>71</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E108" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F108" t="s">
@@ -4567,11 +4585,11 @@
       <c r="C109" t="s">
         <v>72</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E109" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F109" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G109" t="s">
         <v>55</v>
@@ -4587,11 +4605,11 @@
       <c r="C110" t="s">
         <v>59</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="1">
         <v>2</v>
       </c>
       <c r="F110" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4602,9 +4620,9 @@
         <v>41</v>
       </c>
       <c r="C111" t="s">
-        <v>86</v>
-      </c>
-      <c r="E111">
+        <v>85</v>
+      </c>
+      <c r="E111" s="1">
         <v>2</v>
       </c>
       <c r="F111" t="s">
@@ -4621,7 +4639,7 @@
       <c r="C112" t="s">
         <v>62</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E112" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F112" t="s">
@@ -4631,7 +4649,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:8">
       <c r="A113" t="s">
         <v>32</v>
       </c>
@@ -4644,14 +4662,14 @@
       <c r="D113">
         <v>1</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="1">
         <v>1</v>
       </c>
       <c r="F113" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:8">
       <c r="A114" t="s">
         <v>32</v>
       </c>
@@ -4661,14 +4679,14 @@
       <c r="C114" t="s">
         <v>59</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="1">
         <v>5</v>
       </c>
       <c r="F114" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:8">
       <c r="A115" t="s">
         <v>32</v>
       </c>
@@ -4678,14 +4696,14 @@
       <c r="C115" t="s">
         <v>61</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E115" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F115" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:8">
       <c r="A116" t="s">
         <v>32</v>
       </c>
@@ -4695,7 +4713,7 @@
       <c r="C116" t="s">
         <v>62</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E116" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F116" t="s">
@@ -4705,7 +4723,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:8">
       <c r="A117" t="s">
         <v>32</v>
       </c>
@@ -4715,14 +4733,14 @@
       <c r="C117" t="s">
         <v>63</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E117" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F117" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:8">
       <c r="A118" t="s">
         <v>32</v>
       </c>
@@ -4732,17 +4750,20 @@
       <c r="C118" t="s">
         <v>59</v>
       </c>
-      <c r="E118">
+      <c r="E118" s="1">
         <v>2</v>
       </c>
       <c r="F118" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G118" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="119" spans="1:7">
+      <c r="H118" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" t="s">
         <v>32</v>
       </c>
@@ -4752,14 +4773,17 @@
       <c r="C119" t="s">
         <v>61</v>
       </c>
-      <c r="E119">
+      <c r="E119" s="1">
         <v>2</v>
       </c>
       <c r="F119" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="120" spans="1:7">
+      <c r="G119" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" t="s">
         <v>32</v>
       </c>
@@ -4769,14 +4793,14 @@
       <c r="C120" t="s">
         <v>62</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E120" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F120" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" t="s">
         <v>32</v>
       </c>
@@ -4786,17 +4810,17 @@
       <c r="C121" t="s">
         <v>63</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E121" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F121" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G121" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:8">
       <c r="A122" t="s">
         <v>32</v>
       </c>
@@ -4806,7 +4830,7 @@
       <c r="C122" t="s">
         <v>71</v>
       </c>
-      <c r="E122" t="s">
+      <c r="E122" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F122" t="s">
@@ -4816,7 +4840,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:8">
       <c r="A123" t="s">
         <v>32</v>
       </c>
@@ -4826,14 +4850,14 @@
       <c r="C123" t="s">
         <v>72</v>
       </c>
-      <c r="E123" t="s">
+      <c r="E123" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F123" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:8">
       <c r="A124" t="s">
         <v>33</v>
       </c>
@@ -4846,14 +4870,14 @@
       <c r="D124">
         <v>1</v>
       </c>
-      <c r="E124">
+      <c r="E124" s="1">
         <v>1</v>
       </c>
       <c r="F124" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:8">
       <c r="A125" t="s">
         <v>33</v>
       </c>
@@ -4863,14 +4887,14 @@
       <c r="C125" t="s">
         <v>59</v>
       </c>
-      <c r="E125">
+      <c r="E125" s="1">
         <v>5</v>
       </c>
       <c r="F125" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:8">
       <c r="A126" t="s">
         <v>33</v>
       </c>
@@ -4880,14 +4904,14 @@
       <c r="C126" t="s">
         <v>61</v>
       </c>
-      <c r="E126" t="s">
+      <c r="E126" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F126" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:8">
       <c r="A127" t="s">
         <v>33</v>
       </c>
@@ -4897,17 +4921,17 @@
       <c r="C127" t="s">
         <v>62</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E127" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F127" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G127" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:8">
       <c r="A128" t="s">
         <v>33</v>
       </c>
@@ -4917,11 +4941,11 @@
       <c r="C128" t="s">
         <v>63</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E128" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F128" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G128" t="s">
         <v>55</v>
@@ -4937,7 +4961,7 @@
       <c r="C129" t="s">
         <v>71</v>
       </c>
-      <c r="E129" t="s">
+      <c r="E129" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F129" t="s">
@@ -4954,7 +4978,7 @@
       <c r="C130" t="s">
         <v>59</v>
       </c>
-      <c r="E130">
+      <c r="E130" s="1">
         <v>1</v>
       </c>
       <c r="F130" t="s">
@@ -4971,14 +4995,14 @@
       <c r="C131" t="s">
         <v>61</v>
       </c>
-      <c r="E131">
+      <c r="E131" s="1">
         <v>2</v>
       </c>
       <c r="F131" t="s">
+        <v>96</v>
+      </c>
+      <c r="G131" t="s">
         <v>97</v>
-      </c>
-      <c r="G131" t="s">
-        <v>98</v>
       </c>
       <c r="H131" t="s">
         <v>55</v>
@@ -4994,7 +5018,7 @@
       <c r="C132" t="s">
         <v>62</v>
       </c>
-      <c r="E132">
+      <c r="E132" s="1">
         <v>2</v>
       </c>
       <c r="F132" t="s">
@@ -5011,11 +5035,11 @@
       <c r="C133" t="s">
         <v>63</v>
       </c>
-      <c r="E133">
+      <c r="E133" s="1">
         <v>1</v>
       </c>
       <c r="F133" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G133" t="s">
         <v>55</v>
@@ -5031,11 +5055,11 @@
       <c r="C134" t="s">
         <v>71</v>
       </c>
-      <c r="E134" t="s">
+      <c r="E134" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F134" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G134" t="s">
         <v>55</v>
@@ -5051,7 +5075,7 @@
       <c r="C135" t="s">
         <v>72</v>
       </c>
-      <c r="E135">
+      <c r="E135" s="1">
         <v>1</v>
       </c>
       <c r="F135" t="s">
@@ -5068,7 +5092,7 @@
       <c r="C136" t="s">
         <v>73</v>
       </c>
-      <c r="E136" t="s">
+      <c r="E136" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F136" t="s">
@@ -5085,7 +5109,7 @@
       <c r="C137" t="s">
         <v>79</v>
       </c>
-      <c r="E137" t="s">
+      <c r="E137" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F137" t="s">
@@ -5102,7 +5126,7 @@
       <c r="C138" t="s">
         <v>59</v>
       </c>
-      <c r="E138">
+      <c r="E138" s="1">
         <v>5</v>
       </c>
       <c r="F138" t="s">
@@ -5119,7 +5143,7 @@
       <c r="C139" t="s">
         <v>61</v>
       </c>
-      <c r="E139" t="s">
+      <c r="E139" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F139" t="s">
@@ -5139,7 +5163,7 @@
       <c r="C140" t="s">
         <v>62</v>
       </c>
-      <c r="E140" t="s">
+      <c r="E140" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F140" t="s">
@@ -5159,7 +5183,7 @@
       <c r="C141" t="s">
         <v>59</v>
       </c>
-      <c r="E141" t="s">
+      <c r="E141" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F141" t="s">
@@ -5176,7 +5200,7 @@
       <c r="C142" t="s">
         <v>61</v>
       </c>
-      <c r="E142" t="s">
+      <c r="E142" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F142" t="s">
@@ -5196,7 +5220,7 @@
       <c r="C143" t="s">
         <v>59</v>
       </c>
-      <c r="E143" t="s">
+      <c r="E143" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F143" t="s">
@@ -5213,7 +5237,7 @@
       <c r="C144" t="s">
         <v>61</v>
       </c>
-      <c r="E144" t="s">
+      <c r="E144" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F144" t="s">
@@ -5230,11 +5254,11 @@
       <c r="C145" t="s">
         <v>62</v>
       </c>
-      <c r="E145" t="s">
+      <c r="E145" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F145" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G145" t="s">
         <v>55</v>
@@ -5250,7 +5274,7 @@
       <c r="C146" t="s">
         <v>59</v>
       </c>
-      <c r="E146">
+      <c r="E146" s="1">
         <v>4</v>
       </c>
       <c r="F146" t="s">
@@ -5267,7 +5291,7 @@
       <c r="C147" t="s">
         <v>61</v>
       </c>
-      <c r="E147">
+      <c r="E147" s="1">
         <v>1</v>
       </c>
       <c r="F147" t="s">
@@ -5284,7 +5308,7 @@
       <c r="C148" t="s">
         <v>62</v>
       </c>
-      <c r="E148" t="s">
+      <c r="E148" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F148" t="s">
@@ -5304,14 +5328,14 @@
       <c r="C149" t="s">
         <v>63</v>
       </c>
-      <c r="E149" t="s">
+      <c r="E149" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F149" t="s">
         <v>55</v>
       </c>
       <c r="G149" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -5327,7 +5351,7 @@
       <c r="D150">
         <v>1</v>
       </c>
-      <c r="E150">
+      <c r="E150" s="1">
         <v>4</v>
       </c>
       <c r="F150" t="s">
@@ -5347,7 +5371,7 @@
       <c r="D151">
         <v>1</v>
       </c>
-      <c r="E151" t="s">
+      <c r="E151" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F151" t="s">
@@ -5367,11 +5391,11 @@
       <c r="D152">
         <v>1</v>
       </c>
-      <c r="E152" t="s">
+      <c r="E152" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F152" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -5387,7 +5411,7 @@
       <c r="D153">
         <v>2</v>
       </c>
-      <c r="E153">
+      <c r="E153" s="1">
         <v>2</v>
       </c>
       <c r="F153" t="s">
@@ -5407,11 +5431,11 @@
       <c r="D154">
         <v>2</v>
       </c>
-      <c r="E154">
+      <c r="E154" s="1">
         <v>1</v>
       </c>
       <c r="F154" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -5427,11 +5451,11 @@
       <c r="D155">
         <v>2</v>
       </c>
-      <c r="E155" t="s">
+      <c r="E155" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F155" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -5447,7 +5471,7 @@
       <c r="D156">
         <v>3</v>
       </c>
-      <c r="E156" t="s">
+      <c r="E156" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F156" t="s">
@@ -5467,11 +5491,11 @@
       <c r="D157">
         <v>3</v>
       </c>
-      <c r="E157" t="s">
+      <c r="E157" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F157" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -5487,11 +5511,11 @@
       <c r="D158">
         <v>3</v>
       </c>
-      <c r="E158" t="s">
+      <c r="E158" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F158" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -5507,7 +5531,7 @@
       <c r="D159">
         <v>1</v>
       </c>
-      <c r="E159">
+      <c r="E159" s="1">
         <v>2</v>
       </c>
       <c r="F159" t="s">
@@ -5527,7 +5551,7 @@
       <c r="D160">
         <v>2</v>
       </c>
-      <c r="E160" t="s">
+      <c r="E160" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F160" t="s">
@@ -5547,7 +5571,7 @@
       <c r="D161">
         <v>1</v>
       </c>
-      <c r="E161">
+      <c r="E161" s="1">
         <v>1</v>
       </c>
       <c r="F161" t="s">
@@ -5567,7 +5591,7 @@
       <c r="D162">
         <v>1</v>
       </c>
-      <c r="E162" t="s">
+      <c r="E162" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F162" t="s">
@@ -5590,11 +5614,11 @@
       <c r="D163">
         <v>1</v>
       </c>
-      <c r="E163" t="s">
+      <c r="E163" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F163" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G163" t="s">
         <v>55</v>
@@ -5613,7 +5637,7 @@
       <c r="D164">
         <v>1</v>
       </c>
-      <c r="E164" t="s">
+      <c r="E164" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F164" t="s">
@@ -5633,7 +5657,7 @@
       <c r="D165">
         <v>1</v>
       </c>
-      <c r="E165">
+      <c r="E165" s="1">
         <v>1</v>
       </c>
       <c r="F165" t="s">
@@ -5653,7 +5677,7 @@
       <c r="D166">
         <v>1</v>
       </c>
-      <c r="E166" t="s">
+      <c r="E166" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F166" t="s">

--- a/Aufnahmebogen/Aufnahmebögen_digitalisiert.xlsx
+++ b/Aufnahmebogen/Aufnahmebögen_digitalisiert.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Mainplot" sheetId="2" r:id="rId1"/>
     <sheet name="Subplot" sheetId="1" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet name="Bestimmungshilfe" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="108">
   <si>
     <t>Plot-ID</t>
   </si>
@@ -331,6 +331,15 @@
   </si>
   <si>
     <t>orthotrichum affine</t>
+  </si>
+  <si>
+    <t>Mnium hornum hat nur eine Rippe und keine Assimilationslamellen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atrichum undulatum hat Assimilationslamellen </t>
+  </si>
+  <si>
+    <t>Bestimmungshilfe</t>
   </si>
 </sst>
 </file>
@@ -2506,10 +2515,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K166"/>
+  <dimension ref="A1:H166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2520,7 +2529,7 @@
     <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2542,11 +2551,8 @@
       <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -2562,11 +2568,8 @@
       <c r="F2" t="s">
         <v>60</v>
       </c>
-      <c r="I2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2583,7 +2586,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -2599,14 +2602,8 @@
       <c r="F4" t="s">
         <v>55</v>
       </c>
-      <c r="I4" t="s">
-        <v>90</v>
-      </c>
-      <c r="K4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2625,14 +2622,8 @@
       <c r="G5" t="s">
         <v>67</v>
       </c>
-      <c r="I5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -2649,7 +2640,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -2665,14 +2656,8 @@
       <c r="F7" t="s">
         <v>60</v>
       </c>
-      <c r="I7" t="s">
-        <v>102</v>
-      </c>
-      <c r="K7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -2689,7 +2674,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2706,7 +2691,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -2723,7 +2708,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -2740,7 +2725,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2757,7 +2742,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -2777,7 +2762,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -2797,7 +2782,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -2814,7 +2799,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -5695,12 +5680,64 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>

--- a/Aufnahmebogen/Aufnahmebögen_digitalisiert.xlsx
+++ b/Aufnahmebogen/Aufnahmebögen_digitalisiert.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="109">
   <si>
     <t>Plot-ID</t>
   </si>
@@ -249,9 +249,6 @@
     <t>rhytidiadelphus</t>
   </si>
   <si>
-    <t>eurhynchium</t>
-  </si>
-  <si>
     <t>rhytidiadelphus loreus</t>
   </si>
   <si>
@@ -324,9 +321,6 @@
     <t>pleurothium schreiberii</t>
   </si>
   <si>
-    <t>metzgeria con/sym</t>
-  </si>
-  <si>
     <t>: conjugata oder simplex</t>
   </si>
   <si>
@@ -340,19 +334,35 @@
   </si>
   <si>
     <t>Bestimmungshilfe</t>
+  </si>
+  <si>
+    <t>eurhynchium striatum</t>
+  </si>
+  <si>
+    <t>scleropodium purum</t>
+  </si>
+  <si>
+    <t>metzgeria con/sim</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -375,11 +385,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2518,7 +2529,7 @@
   <dimension ref="A1:H166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:N16"/>
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2958,10 +2969,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>55</v>
-      </c>
-      <c r="G24" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3106,7 +3114,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3123,7 +3131,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s">
         <v>55</v>
@@ -3220,7 +3228,7 @@
         <v>65</v>
       </c>
       <c r="F38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3328,7 +3336,7 @@
         <v>64</v>
       </c>
       <c r="F44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s">
         <v>55</v>
@@ -3411,7 +3419,7 @@
         <v>65</v>
       </c>
       <c r="F48" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3428,7 +3436,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3444,8 +3452,8 @@
       <c r="E50" s="1">
         <v>3</v>
       </c>
-      <c r="F50" t="s">
-        <v>80</v>
+      <c r="F50" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3496,7 +3504,7 @@
         <v>64</v>
       </c>
       <c r="F53" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3513,7 +3521,7 @@
         <v>65</v>
       </c>
       <c r="F54" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G54" t="s">
         <v>55</v>
@@ -3544,13 +3552,13 @@
         <v>41</v>
       </c>
       <c r="C56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E56" s="1">
         <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -3726,7 +3734,7 @@
         <v>26</v>
       </c>
       <c r="B66" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C66" t="s">
         <v>63</v>
@@ -3738,7 +3746,7 @@
         <v>65</v>
       </c>
       <c r="F66" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3926,7 +3934,7 @@
         <v>64</v>
       </c>
       <c r="F76" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3966,7 +3974,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3986,7 +3994,7 @@
         <v>65</v>
       </c>
       <c r="F79" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G79" t="s">
         <v>55</v>
@@ -4009,7 +4017,7 @@
         <v>65</v>
       </c>
       <c r="F80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G80" t="s">
         <v>55</v>
@@ -4032,7 +4040,7 @@
         <v>65</v>
       </c>
       <c r="F81" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G81" t="s">
         <v>55</v>
@@ -4095,7 +4103,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G84" t="s">
         <v>55</v>
@@ -4286,7 +4294,7 @@
         <v>65</v>
       </c>
       <c r="F94" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -4326,7 +4334,7 @@
         <v>64</v>
       </c>
       <c r="F96" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -4520,7 +4528,7 @@
         <v>65</v>
       </c>
       <c r="F106" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4553,11 +4561,8 @@
       <c r="E108" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F108" t="s">
-        <v>69</v>
-      </c>
-      <c r="G108" t="s">
-        <v>55</v>
+      <c r="F108" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4574,7 +4579,7 @@
         <v>64</v>
       </c>
       <c r="F109" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G109" t="s">
         <v>55</v>
@@ -4594,7 +4599,7 @@
         <v>2</v>
       </c>
       <c r="F110" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4605,13 +4610,13 @@
         <v>41</v>
       </c>
       <c r="C111" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E111" s="1">
         <v>2</v>
       </c>
       <c r="F111" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -4738,14 +4743,14 @@
       <c r="E118" s="1">
         <v>2</v>
       </c>
-      <c r="F118" t="s">
-        <v>81</v>
+      <c r="F118" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="G118" t="s">
         <v>55</v>
       </c>
       <c r="H118" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4782,7 +4787,7 @@
         <v>64</v>
       </c>
       <c r="F120" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4799,7 +4804,7 @@
         <v>65</v>
       </c>
       <c r="F121" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G121" t="s">
         <v>55</v>
@@ -4819,7 +4824,7 @@
         <v>65</v>
       </c>
       <c r="F122" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="G122" t="s">
         <v>55</v>
@@ -4910,7 +4915,7 @@
         <v>65</v>
       </c>
       <c r="F127" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G127" t="s">
         <v>55</v>
@@ -4930,7 +4935,7 @@
         <v>65</v>
       </c>
       <c r="F128" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G128" t="s">
         <v>55</v>
@@ -4984,10 +4989,10 @@
         <v>2</v>
       </c>
       <c r="F131" t="s">
+        <v>95</v>
+      </c>
+      <c r="G131" t="s">
         <v>96</v>
-      </c>
-      <c r="G131" t="s">
-        <v>97</v>
       </c>
       <c r="H131" t="s">
         <v>55</v>
@@ -5007,7 +5012,7 @@
         <v>2</v>
       </c>
       <c r="F132" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5024,7 +5029,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G133" t="s">
         <v>55</v>
@@ -5044,7 +5049,7 @@
         <v>65</v>
       </c>
       <c r="F134" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G134" t="s">
         <v>55</v>
@@ -5092,7 +5097,7 @@
         <v>41</v>
       </c>
       <c r="C137" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>65</v>
@@ -5243,7 +5248,7 @@
         <v>65</v>
       </c>
       <c r="F145" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G145" t="s">
         <v>55</v>
@@ -5297,7 +5302,7 @@
         <v>64</v>
       </c>
       <c r="F148" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="G148" t="s">
         <v>55</v>
@@ -5320,7 +5325,7 @@
         <v>55</v>
       </c>
       <c r="G149" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -5380,7 +5385,7 @@
         <v>65</v>
       </c>
       <c r="F152" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -5420,7 +5425,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -5440,7 +5445,7 @@
         <v>65</v>
       </c>
       <c r="F155" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -5480,7 +5485,7 @@
         <v>64</v>
       </c>
       <c r="F157" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -5500,7 +5505,7 @@
         <v>65</v>
       </c>
       <c r="F158" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -5603,7 +5608,7 @@
         <v>65</v>
       </c>
       <c r="F163" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G163" t="s">
         <v>55</v>
@@ -5674,7 +5679,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5683,58 +5688,58 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" t="s">
         <v>90</v>
-      </c>
-      <c r="C6" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" t="s">
         <v>92</v>
-      </c>
-      <c r="C7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/Aufnahmebogen/Aufnahmebögen_digitalisiert.xlsx
+++ b/Aufnahmebogen/Aufnahmebögen_digitalisiert.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mainplot" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="109">
   <si>
     <t>Plot-ID</t>
   </si>
@@ -258,9 +258,6 @@
     <t>hylocomium / thuidium</t>
   </si>
   <si>
-    <t>isothecium</t>
-  </si>
-  <si>
     <t>EO01</t>
   </si>
   <si>
@@ -343,6 +340,9 @@
   </si>
   <si>
     <t>metzgeria con/sim</t>
+  </si>
+  <si>
+    <t>isothecium myosuroides</t>
   </si>
 </sst>
 </file>
@@ -2528,8 +2528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H166"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2969,7 +2969,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3114,7 +3114,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3419,7 +3419,7 @@
         <v>65</v>
       </c>
       <c r="F48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3436,7 +3436,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3453,7 +3453,7 @@
         <v>3</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3504,7 +3504,7 @@
         <v>64</v>
       </c>
       <c r="F53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3521,10 +3521,7 @@
         <v>65</v>
       </c>
       <c r="F54" t="s">
-        <v>80</v>
-      </c>
-      <c r="G54" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -3734,7 +3731,7 @@
         <v>26</v>
       </c>
       <c r="B66" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C66" t="s">
         <v>63</v>
@@ -3746,7 +3743,7 @@
         <v>65</v>
       </c>
       <c r="F66" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3934,7 +3931,7 @@
         <v>64</v>
       </c>
       <c r="F76" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3974,7 +3971,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3994,7 +3991,7 @@
         <v>65</v>
       </c>
       <c r="F79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G79" t="s">
         <v>55</v>
@@ -4017,7 +4014,7 @@
         <v>65</v>
       </c>
       <c r="F80" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G80" t="s">
         <v>55</v>
@@ -4040,7 +4037,7 @@
         <v>65</v>
       </c>
       <c r="F81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G81" t="s">
         <v>55</v>
@@ -4103,10 +4100,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>80</v>
-      </c>
-      <c r="G84" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -4294,7 +4288,7 @@
         <v>65</v>
       </c>
       <c r="F94" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -4334,7 +4328,7 @@
         <v>64</v>
       </c>
       <c r="F96" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -4528,7 +4522,7 @@
         <v>65</v>
       </c>
       <c r="F106" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4562,7 +4556,7 @@
         <v>65</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4579,7 +4573,7 @@
         <v>64</v>
       </c>
       <c r="F109" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G109" t="s">
         <v>55</v>
@@ -4599,7 +4593,7 @@
         <v>2</v>
       </c>
       <c r="F110" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4610,13 +4604,13 @@
         <v>41</v>
       </c>
       <c r="C111" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E111" s="1">
         <v>2</v>
       </c>
       <c r="F111" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -4744,13 +4738,13 @@
         <v>2</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G118" t="s">
         <v>55</v>
       </c>
       <c r="H118" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4787,7 +4781,7 @@
         <v>64</v>
       </c>
       <c r="F120" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4804,7 +4798,7 @@
         <v>65</v>
       </c>
       <c r="F121" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G121" t="s">
         <v>55</v>
@@ -4824,7 +4818,7 @@
         <v>65</v>
       </c>
       <c r="F122" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G122" t="s">
         <v>55</v>
@@ -4915,7 +4909,7 @@
         <v>65</v>
       </c>
       <c r="F127" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G127" t="s">
         <v>55</v>
@@ -4935,7 +4929,7 @@
         <v>65</v>
       </c>
       <c r="F128" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G128" t="s">
         <v>55</v>
@@ -4989,10 +4983,10 @@
         <v>2</v>
       </c>
       <c r="F131" t="s">
+        <v>94</v>
+      </c>
+      <c r="G131" t="s">
         <v>95</v>
-      </c>
-      <c r="G131" t="s">
-        <v>96</v>
       </c>
       <c r="H131" t="s">
         <v>55</v>
@@ -5029,7 +5023,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G133" t="s">
         <v>55</v>
@@ -5049,7 +5043,7 @@
         <v>65</v>
       </c>
       <c r="F134" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G134" t="s">
         <v>55</v>
@@ -5248,7 +5242,7 @@
         <v>65</v>
       </c>
       <c r="F145" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G145" t="s">
         <v>55</v>
@@ -5302,7 +5296,7 @@
         <v>64</v>
       </c>
       <c r="F148" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G148" t="s">
         <v>55</v>
@@ -5325,7 +5319,7 @@
         <v>55</v>
       </c>
       <c r="G149" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -5385,7 +5379,7 @@
         <v>65</v>
       </c>
       <c r="F152" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -5425,7 +5419,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -5445,7 +5439,7 @@
         <v>65</v>
       </c>
       <c r="F155" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -5485,7 +5479,7 @@
         <v>64</v>
       </c>
       <c r="F157" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -5505,7 +5499,7 @@
         <v>65</v>
       </c>
       <c r="F158" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -5608,7 +5602,7 @@
         <v>65</v>
       </c>
       <c r="F163" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G163" t="s">
         <v>55</v>
@@ -5687,7 +5681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -5695,51 +5689,51 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" t="s">
         <v>89</v>
-      </c>
-      <c r="C6" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" t="s">
         <v>91</v>
-      </c>
-      <c r="C7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/Aufnahmebogen/Aufnahmebögen_digitalisiert.xlsx
+++ b/Aufnahmebogen/Aufnahmebögen_digitalisiert.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="103" windowWidth="15120" windowHeight="8014" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mainplot" sheetId="2" r:id="rId1"/>
     <sheet name="Subplot" sheetId="1" r:id="rId2"/>
     <sheet name="Bestimmungshilfe" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="116">
   <si>
     <t>Plot-ID</t>
   </si>
@@ -343,6 +343,27 @@
   </si>
   <si>
     <t>isothecium myosuroides</t>
+  </si>
+  <si>
+    <t>P06</t>
+  </si>
+  <si>
+    <t>thuidium tamariscinum / hylocomium splendens</t>
+  </si>
+  <si>
+    <t>P05</t>
+  </si>
+  <si>
+    <t>16.5.19</t>
+  </si>
+  <si>
+    <t>Buchenforst</t>
+  </si>
+  <si>
+    <t>trocken</t>
+  </si>
+  <si>
+    <t>dunkel</t>
   </si>
 </sst>
 </file>
@@ -685,19 +706,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
   <cols>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.15234375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.69140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.84375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.3828125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -2516,6 +2537,243 @@
       </c>
       <c r="M48" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" t="s">
+        <v>109</v>
+      </c>
+      <c r="B49" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49">
+        <v>477610</v>
+      </c>
+      <c r="D49">
+        <v>5632193</v>
+      </c>
+      <c r="E49" t="s">
+        <v>39</v>
+      </c>
+      <c r="F49">
+        <v>60</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49" t="s">
+        <v>113</v>
+      </c>
+      <c r="K49" t="s">
+        <v>114</v>
+      </c>
+      <c r="L49" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50">
+        <v>477610</v>
+      </c>
+      <c r="D50">
+        <v>5632193</v>
+      </c>
+      <c r="E50" t="s">
+        <v>39</v>
+      </c>
+      <c r="F50">
+        <v>60</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50" t="s">
+        <v>113</v>
+      </c>
+      <c r="K50" t="s">
+        <v>114</v>
+      </c>
+      <c r="L50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51">
+        <v>477610</v>
+      </c>
+      <c r="D51">
+        <v>5632193</v>
+      </c>
+      <c r="E51" t="s">
+        <v>39</v>
+      </c>
+      <c r="F51">
+        <v>60</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51" t="s">
+        <v>113</v>
+      </c>
+      <c r="K51" t="s">
+        <v>114</v>
+      </c>
+      <c r="L51" t="s">
+        <v>42</v>
+      </c>
+      <c r="M51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52">
+        <v>477610</v>
+      </c>
+      <c r="D52">
+        <v>5632193</v>
+      </c>
+      <c r="E52" t="s">
+        <v>39</v>
+      </c>
+      <c r="F52">
+        <v>60</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52" t="s">
+        <v>113</v>
+      </c>
+      <c r="K52" t="s">
+        <v>114</v>
+      </c>
+      <c r="L52" t="s">
+        <v>43</v>
+      </c>
+      <c r="M52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53">
+        <v>477632</v>
+      </c>
+      <c r="D53">
+        <v>5632272</v>
+      </c>
+      <c r="E53" t="s">
+        <v>39</v>
+      </c>
+      <c r="F53">
+        <v>90</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53" t="s">
+        <v>39</v>
+      </c>
+      <c r="K53" t="s">
+        <v>115</v>
+      </c>
+      <c r="L53" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54">
+        <v>477632</v>
+      </c>
+      <c r="D54">
+        <v>5632272</v>
+      </c>
+      <c r="E54" t="s">
+        <v>39</v>
+      </c>
+      <c r="F54">
+        <v>90</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54" t="s">
+        <v>39</v>
+      </c>
+      <c r="K54" t="s">
+        <v>115</v>
+      </c>
+      <c r="L54" t="s">
+        <v>42</v>
+      </c>
+      <c r="M54" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2526,18 +2784,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H166"/>
+  <dimension ref="A1:H204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="F205" sqref="F205"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.3828125" customWidth="1"/>
+    <col min="5" max="5" width="15.3828125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -5669,6 +5927,736 @@
       </c>
       <c r="G166" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" t="s">
+        <v>109</v>
+      </c>
+      <c r="B167" t="s">
+        <v>41</v>
+      </c>
+      <c r="C167" t="s">
+        <v>59</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+      <c r="F167" t="s">
+        <v>69</v>
+      </c>
+      <c r="G167" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" t="s">
+        <v>109</v>
+      </c>
+      <c r="B168" t="s">
+        <v>41</v>
+      </c>
+      <c r="C168" t="s">
+        <v>61</v>
+      </c>
+      <c r="E168" t="s">
+        <v>64</v>
+      </c>
+      <c r="F168" t="s">
+        <v>60</v>
+      </c>
+      <c r="G168" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" t="s">
+        <v>109</v>
+      </c>
+      <c r="B169" t="s">
+        <v>41</v>
+      </c>
+      <c r="C169" t="s">
+        <v>62</v>
+      </c>
+      <c r="E169" t="s">
+        <v>64</v>
+      </c>
+      <c r="F169" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" t="s">
+        <v>109</v>
+      </c>
+      <c r="B170" t="s">
+        <v>41</v>
+      </c>
+      <c r="C170" t="s">
+        <v>63</v>
+      </c>
+      <c r="E170" t="s">
+        <v>64</v>
+      </c>
+      <c r="F170" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" t="s">
+        <v>109</v>
+      </c>
+      <c r="B171" t="s">
+        <v>41</v>
+      </c>
+      <c r="C171" t="s">
+        <v>71</v>
+      </c>
+      <c r="E171" t="s">
+        <v>65</v>
+      </c>
+      <c r="F171" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" t="s">
+        <v>109</v>
+      </c>
+      <c r="B172" t="s">
+        <v>41</v>
+      </c>
+      <c r="C172" t="s">
+        <v>72</v>
+      </c>
+      <c r="E172" t="s">
+        <v>64</v>
+      </c>
+      <c r="F172" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" t="s">
+        <v>109</v>
+      </c>
+      <c r="B173" t="s">
+        <v>41</v>
+      </c>
+      <c r="C173" t="s">
+        <v>73</v>
+      </c>
+      <c r="E173" t="s">
+        <v>65</v>
+      </c>
+      <c r="F173" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" t="s">
+        <v>109</v>
+      </c>
+      <c r="B174" t="s">
+        <v>41</v>
+      </c>
+      <c r="C174" t="s">
+        <v>78</v>
+      </c>
+      <c r="E174" t="s">
+        <v>65</v>
+      </c>
+      <c r="F174" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" t="s">
+        <v>109</v>
+      </c>
+      <c r="B175" t="s">
+        <v>44</v>
+      </c>
+      <c r="C175" t="s">
+        <v>59</v>
+      </c>
+      <c r="E175">
+        <v>4</v>
+      </c>
+      <c r="F175" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" t="s">
+        <v>109</v>
+      </c>
+      <c r="B176" t="s">
+        <v>44</v>
+      </c>
+      <c r="C176" t="s">
+        <v>61</v>
+      </c>
+      <c r="E176">
+        <v>4</v>
+      </c>
+      <c r="F176" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" t="s">
+        <v>109</v>
+      </c>
+      <c r="B177" t="s">
+        <v>44</v>
+      </c>
+      <c r="C177" t="s">
+        <v>62</v>
+      </c>
+      <c r="E177" t="s">
+        <v>64</v>
+      </c>
+      <c r="F177" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" t="s">
+        <v>109</v>
+      </c>
+      <c r="B178" t="s">
+        <v>44</v>
+      </c>
+      <c r="C178" t="s">
+        <v>63</v>
+      </c>
+      <c r="E178" t="s">
+        <v>65</v>
+      </c>
+      <c r="F178" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" t="s">
+        <v>109</v>
+      </c>
+      <c r="B179" t="s">
+        <v>44</v>
+      </c>
+      <c r="C179" t="s">
+        <v>71</v>
+      </c>
+      <c r="E179" t="s">
+        <v>65</v>
+      </c>
+      <c r="F179" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" t="s">
+        <v>109</v>
+      </c>
+      <c r="B180" t="s">
+        <v>42</v>
+      </c>
+      <c r="C180" t="s">
+        <v>59</v>
+      </c>
+      <c r="D180">
+        <v>1</v>
+      </c>
+      <c r="E180">
+        <v>1</v>
+      </c>
+      <c r="F180" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" t="s">
+        <v>109</v>
+      </c>
+      <c r="B181" t="s">
+        <v>42</v>
+      </c>
+      <c r="C181" t="s">
+        <v>61</v>
+      </c>
+      <c r="D181">
+        <v>1</v>
+      </c>
+      <c r="E181" t="s">
+        <v>64</v>
+      </c>
+      <c r="F181" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" t="s">
+        <v>109</v>
+      </c>
+      <c r="B182" t="s">
+        <v>43</v>
+      </c>
+      <c r="C182" t="s">
+        <v>59</v>
+      </c>
+      <c r="D182">
+        <v>1</v>
+      </c>
+      <c r="E182">
+        <v>3</v>
+      </c>
+      <c r="F182" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" t="s">
+        <v>109</v>
+      </c>
+      <c r="B183" t="s">
+        <v>43</v>
+      </c>
+      <c r="C183" t="s">
+        <v>59</v>
+      </c>
+      <c r="D183">
+        <v>2</v>
+      </c>
+      <c r="E183">
+        <v>2</v>
+      </c>
+      <c r="F183" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" t="s">
+        <v>109</v>
+      </c>
+      <c r="B184" t="s">
+        <v>43</v>
+      </c>
+      <c r="C184" t="s">
+        <v>59</v>
+      </c>
+      <c r="D184">
+        <v>3</v>
+      </c>
+      <c r="E184">
+        <v>2</v>
+      </c>
+      <c r="F184" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" t="s">
+        <v>109</v>
+      </c>
+      <c r="B185" t="s">
+        <v>43</v>
+      </c>
+      <c r="C185" t="s">
+        <v>59</v>
+      </c>
+      <c r="D185">
+        <v>1</v>
+      </c>
+      <c r="E185" t="s">
+        <v>64</v>
+      </c>
+      <c r="F185" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" t="s">
+        <v>109</v>
+      </c>
+      <c r="B186" t="s">
+        <v>43</v>
+      </c>
+      <c r="C186" t="s">
+        <v>61</v>
+      </c>
+      <c r="D186">
+        <v>1</v>
+      </c>
+      <c r="E186" t="s">
+        <v>64</v>
+      </c>
+      <c r="F186" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" t="s">
+        <v>109</v>
+      </c>
+      <c r="B187" t="s">
+        <v>43</v>
+      </c>
+      <c r="C187" t="s">
+        <v>62</v>
+      </c>
+      <c r="D187">
+        <v>2</v>
+      </c>
+      <c r="E187">
+        <v>2</v>
+      </c>
+      <c r="F187" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" t="s">
+        <v>109</v>
+      </c>
+      <c r="B188" t="s">
+        <v>43</v>
+      </c>
+      <c r="C188" t="s">
+        <v>62</v>
+      </c>
+      <c r="D188">
+        <v>2</v>
+      </c>
+      <c r="E188" t="s">
+        <v>65</v>
+      </c>
+      <c r="F188" t="s">
+        <v>55</v>
+      </c>
+      <c r="G188" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" t="s">
+        <v>109</v>
+      </c>
+      <c r="B189" t="s">
+        <v>43</v>
+      </c>
+      <c r="C189" t="s">
+        <v>63</v>
+      </c>
+      <c r="D189">
+        <v>3</v>
+      </c>
+      <c r="E189" t="s">
+        <v>65</v>
+      </c>
+      <c r="F189" t="s">
+        <v>55</v>
+      </c>
+      <c r="G189" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" t="s">
+        <v>109</v>
+      </c>
+      <c r="B190" t="s">
+        <v>43</v>
+      </c>
+      <c r="C190" t="s">
+        <v>63</v>
+      </c>
+      <c r="D190">
+        <v>2</v>
+      </c>
+      <c r="E190" t="s">
+        <v>65</v>
+      </c>
+      <c r="F190" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" t="s">
+        <v>109</v>
+      </c>
+      <c r="B191" t="s">
+        <v>43</v>
+      </c>
+      <c r="C191" t="s">
+        <v>63</v>
+      </c>
+      <c r="D191">
+        <v>3</v>
+      </c>
+      <c r="E191" t="s">
+        <v>65</v>
+      </c>
+      <c r="F191" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" t="s">
+        <v>109</v>
+      </c>
+      <c r="B192" t="s">
+        <v>43</v>
+      </c>
+      <c r="C192" t="s">
+        <v>62</v>
+      </c>
+      <c r="D192">
+        <v>3</v>
+      </c>
+      <c r="E192">
+        <v>2</v>
+      </c>
+      <c r="F192" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" t="s">
+        <v>111</v>
+      </c>
+      <c r="B193" t="s">
+        <v>44</v>
+      </c>
+      <c r="C193" t="s">
+        <v>59</v>
+      </c>
+      <c r="E193">
+        <v>4</v>
+      </c>
+      <c r="F193" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" t="s">
+        <v>111</v>
+      </c>
+      <c r="B194" t="s">
+        <v>44</v>
+      </c>
+      <c r="C194" t="s">
+        <v>61</v>
+      </c>
+      <c r="E194">
+        <v>4</v>
+      </c>
+      <c r="F194" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" t="s">
+        <v>111</v>
+      </c>
+      <c r="B195" t="s">
+        <v>44</v>
+      </c>
+      <c r="C195" t="s">
+        <v>62</v>
+      </c>
+      <c r="E195" t="s">
+        <v>65</v>
+      </c>
+      <c r="F195" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" t="s">
+        <v>111</v>
+      </c>
+      <c r="B196" t="s">
+        <v>42</v>
+      </c>
+      <c r="C196" t="s">
+        <v>59</v>
+      </c>
+      <c r="D196">
+        <v>1</v>
+      </c>
+      <c r="E196">
+        <v>1</v>
+      </c>
+      <c r="F196" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" t="s">
+        <v>111</v>
+      </c>
+      <c r="B197" t="s">
+        <v>42</v>
+      </c>
+      <c r="C197" t="s">
+        <v>61</v>
+      </c>
+      <c r="D197">
+        <v>1</v>
+      </c>
+      <c r="E197" t="s">
+        <v>64</v>
+      </c>
+      <c r="F197" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" t="s">
+        <v>111</v>
+      </c>
+      <c r="B198" t="s">
+        <v>42</v>
+      </c>
+      <c r="C198" t="s">
+        <v>62</v>
+      </c>
+      <c r="D198">
+        <v>1</v>
+      </c>
+      <c r="E198" t="s">
+        <v>64</v>
+      </c>
+      <c r="F198" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" t="s">
+        <v>111</v>
+      </c>
+      <c r="B199" t="s">
+        <v>42</v>
+      </c>
+      <c r="C199" t="s">
+        <v>63</v>
+      </c>
+      <c r="D199">
+        <v>1</v>
+      </c>
+      <c r="E199" t="s">
+        <v>64</v>
+      </c>
+      <c r="F199" t="s">
+        <v>55</v>
+      </c>
+      <c r="G199" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" t="s">
+        <v>111</v>
+      </c>
+      <c r="B200" t="s">
+        <v>42</v>
+      </c>
+      <c r="C200" t="s">
+        <v>71</v>
+      </c>
+      <c r="D200">
+        <v>1</v>
+      </c>
+      <c r="E200" t="s">
+        <v>65</v>
+      </c>
+      <c r="F200" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" t="s">
+        <v>111</v>
+      </c>
+      <c r="B201" t="s">
+        <v>42</v>
+      </c>
+      <c r="C201" t="s">
+        <v>59</v>
+      </c>
+      <c r="D201">
+        <v>2</v>
+      </c>
+      <c r="E201" t="s">
+        <v>64</v>
+      </c>
+      <c r="F201" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" t="s">
+        <v>111</v>
+      </c>
+      <c r="B202" t="s">
+        <v>42</v>
+      </c>
+      <c r="C202" t="s">
+        <v>61</v>
+      </c>
+      <c r="D202">
+        <v>2</v>
+      </c>
+      <c r="E202">
+        <v>2</v>
+      </c>
+      <c r="F202" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" t="s">
+        <v>111</v>
+      </c>
+      <c r="B203" t="s">
+        <v>42</v>
+      </c>
+      <c r="C203" t="s">
+        <v>63</v>
+      </c>
+      <c r="D203">
+        <v>2</v>
+      </c>
+      <c r="E203">
+        <v>1</v>
+      </c>
+      <c r="F203" t="s">
+        <v>55</v>
+      </c>
+      <c r="G203" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" t="s">
+        <v>111</v>
+      </c>
+      <c r="B204" t="s">
+        <v>42</v>
+      </c>
+      <c r="C204" t="s">
+        <v>71</v>
+      </c>
+      <c r="D204">
+        <v>2</v>
+      </c>
+      <c r="E204" t="s">
+        <v>64</v>
+      </c>
+      <c r="F204" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -5685,7 +6673,7 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">

--- a/Aufnahmebogen/Aufnahmebögen_digitalisiert.xlsx
+++ b/Aufnahmebogen/Aufnahmebögen_digitalisiert.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="138">
   <si>
     <t>Plot-ID</t>
   </si>
@@ -364,6 +364,72 @@
   </si>
   <si>
     <t>dunkel</t>
+  </si>
+  <si>
+    <t>P04</t>
+  </si>
+  <si>
+    <t>Junger Buchenwald</t>
+  </si>
+  <si>
+    <t>kein SL/RK</t>
+  </si>
+  <si>
+    <t>dicranum heter</t>
+  </si>
+  <si>
+    <t>P03</t>
+  </si>
+  <si>
+    <t>Unterhang</t>
+  </si>
+  <si>
+    <t>dicranum</t>
+  </si>
+  <si>
+    <t>P02</t>
+  </si>
+  <si>
+    <t>Meisten bäume nur lvl1</t>
+  </si>
+  <si>
+    <t>RK01</t>
+  </si>
+  <si>
+    <t>Rinde</t>
+  </si>
+  <si>
+    <t>klein dunkel häufig</t>
+  </si>
+  <si>
+    <t>P01</t>
+  </si>
+  <si>
+    <t>02.5.19</t>
+  </si>
+  <si>
+    <t>Bachlauf</t>
+  </si>
+  <si>
+    <t>viel totholz ohne rinde</t>
+  </si>
+  <si>
+    <t>RB01</t>
+  </si>
+  <si>
+    <t>DW02</t>
+  </si>
+  <si>
+    <t>Laubforst</t>
+  </si>
+  <si>
+    <t>M13</t>
+  </si>
+  <si>
+    <t>M14</t>
+  </si>
+  <si>
+    <t>M15</t>
   </si>
 </sst>
 </file>
@@ -706,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="M69" sqref="M69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
@@ -2776,6 +2842,603 @@
         <v>55</v>
       </c>
     </row>
+    <row r="55" spans="1:13">
+      <c r="A55" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55">
+        <v>477629</v>
+      </c>
+      <c r="D55">
+        <v>5632168</v>
+      </c>
+      <c r="E55" t="s">
+        <v>39</v>
+      </c>
+      <c r="F55">
+        <v>60</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55" t="s">
+        <v>117</v>
+      </c>
+      <c r="K55" t="s">
+        <v>118</v>
+      </c>
+      <c r="L55" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" t="s">
+        <v>116</v>
+      </c>
+      <c r="B56" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56">
+        <v>477629</v>
+      </c>
+      <c r="D56">
+        <v>5632168</v>
+      </c>
+      <c r="E56" t="s">
+        <v>39</v>
+      </c>
+      <c r="F56">
+        <v>60</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56" t="s">
+        <v>117</v>
+      </c>
+      <c r="K56" t="s">
+        <v>118</v>
+      </c>
+      <c r="L56" t="s">
+        <v>42</v>
+      </c>
+      <c r="M56" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" t="s">
+        <v>120</v>
+      </c>
+      <c r="B57" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57">
+        <v>477770</v>
+      </c>
+      <c r="D57">
+        <v>5632252</v>
+      </c>
+      <c r="E57" t="s">
+        <v>39</v>
+      </c>
+      <c r="F57">
+        <v>80</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57" t="s">
+        <v>27</v>
+      </c>
+      <c r="K57" t="s">
+        <v>121</v>
+      </c>
+      <c r="L57" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" t="s">
+        <v>120</v>
+      </c>
+      <c r="B58" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58">
+        <v>477770</v>
+      </c>
+      <c r="D58">
+        <v>5632252</v>
+      </c>
+      <c r="E58" t="s">
+        <v>39</v>
+      </c>
+      <c r="F58">
+        <v>80</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58" t="s">
+        <v>27</v>
+      </c>
+      <c r="K58" t="s">
+        <v>121</v>
+      </c>
+      <c r="L58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" t="s">
+        <v>112</v>
+      </c>
+      <c r="C59">
+        <v>477770</v>
+      </c>
+      <c r="D59">
+        <v>5632252</v>
+      </c>
+      <c r="E59" t="s">
+        <v>39</v>
+      </c>
+      <c r="F59">
+        <v>80</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59" t="s">
+        <v>27</v>
+      </c>
+      <c r="K59" t="s">
+        <v>121</v>
+      </c>
+      <c r="L59" t="s">
+        <v>42</v>
+      </c>
+      <c r="M59" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60">
+        <v>477770</v>
+      </c>
+      <c r="D60">
+        <v>5632252</v>
+      </c>
+      <c r="E60" t="s">
+        <v>39</v>
+      </c>
+      <c r="F60">
+        <v>80</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60" t="s">
+        <v>27</v>
+      </c>
+      <c r="K60" t="s">
+        <v>121</v>
+      </c>
+      <c r="L60" t="s">
+        <v>43</v>
+      </c>
+      <c r="M60" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" t="s">
+        <v>112</v>
+      </c>
+      <c r="C61">
+        <v>477770</v>
+      </c>
+      <c r="D61">
+        <v>5632252</v>
+      </c>
+      <c r="E61" t="s">
+        <v>39</v>
+      </c>
+      <c r="F61">
+        <v>80</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61" t="s">
+        <v>27</v>
+      </c>
+      <c r="K61" t="s">
+        <v>121</v>
+      </c>
+      <c r="L61" t="s">
+        <v>48</v>
+      </c>
+      <c r="M61" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" t="s">
+        <v>123</v>
+      </c>
+      <c r="B62" t="s">
+        <v>112</v>
+      </c>
+      <c r="C62">
+        <v>477936</v>
+      </c>
+      <c r="D62">
+        <v>5632190</v>
+      </c>
+      <c r="E62" t="s">
+        <v>39</v>
+      </c>
+      <c r="F62">
+        <v>70</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62" t="s">
+        <v>27</v>
+      </c>
+      <c r="K62" t="s">
+        <v>124</v>
+      </c>
+      <c r="L62" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" t="s">
+        <v>112</v>
+      </c>
+      <c r="C63">
+        <v>477936</v>
+      </c>
+      <c r="D63">
+        <v>5632190</v>
+      </c>
+      <c r="E63" t="s">
+        <v>39</v>
+      </c>
+      <c r="F63">
+        <v>70</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63" t="s">
+        <v>27</v>
+      </c>
+      <c r="K63" t="s">
+        <v>124</v>
+      </c>
+      <c r="L63" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" t="s">
+        <v>123</v>
+      </c>
+      <c r="B64" t="s">
+        <v>112</v>
+      </c>
+      <c r="C64">
+        <v>477936</v>
+      </c>
+      <c r="D64">
+        <v>5632190</v>
+      </c>
+      <c r="E64" t="s">
+        <v>39</v>
+      </c>
+      <c r="F64">
+        <v>70</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64" t="s">
+        <v>27</v>
+      </c>
+      <c r="K64" t="s">
+        <v>124</v>
+      </c>
+      <c r="L64" t="s">
+        <v>42</v>
+      </c>
+      <c r="M64" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" t="s">
+        <v>123</v>
+      </c>
+      <c r="B65" t="s">
+        <v>112</v>
+      </c>
+      <c r="C65">
+        <v>477936</v>
+      </c>
+      <c r="D65">
+        <v>5632190</v>
+      </c>
+      <c r="E65" t="s">
+        <v>39</v>
+      </c>
+      <c r="F65">
+        <v>70</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65" t="s">
+        <v>27</v>
+      </c>
+      <c r="K65" t="s">
+        <v>124</v>
+      </c>
+      <c r="L65" t="s">
+        <v>43</v>
+      </c>
+      <c r="M65" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" t="s">
+        <v>129</v>
+      </c>
+      <c r="C66">
+        <v>477684</v>
+      </c>
+      <c r="D66">
+        <v>5632338</v>
+      </c>
+      <c r="E66">
+        <v>273</v>
+      </c>
+      <c r="F66">
+        <v>10</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66" t="s">
+        <v>130</v>
+      </c>
+      <c r="K66" t="s">
+        <v>131</v>
+      </c>
+      <c r="L66" t="s">
+        <v>42</v>
+      </c>
+      <c r="M66" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" t="s">
+        <v>128</v>
+      </c>
+      <c r="B67" t="s">
+        <v>129</v>
+      </c>
+      <c r="C67">
+        <v>477684</v>
+      </c>
+      <c r="D67">
+        <v>5632338</v>
+      </c>
+      <c r="E67">
+        <v>273</v>
+      </c>
+      <c r="F67">
+        <v>10</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67" t="s">
+        <v>130</v>
+      </c>
+      <c r="K67" t="s">
+        <v>131</v>
+      </c>
+      <c r="L67" t="s">
+        <v>44</v>
+      </c>
+      <c r="M67" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" t="s">
+        <v>128</v>
+      </c>
+      <c r="B68" t="s">
+        <v>129</v>
+      </c>
+      <c r="C68">
+        <v>477684</v>
+      </c>
+      <c r="D68">
+        <v>5632338</v>
+      </c>
+      <c r="E68">
+        <v>273</v>
+      </c>
+      <c r="F68">
+        <v>10</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68" t="s">
+        <v>130</v>
+      </c>
+      <c r="K68" t="s">
+        <v>131</v>
+      </c>
+      <c r="L68" t="s">
+        <v>133</v>
+      </c>
+      <c r="M68" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" t="s">
+        <v>128</v>
+      </c>
+      <c r="B69" t="s">
+        <v>129</v>
+      </c>
+      <c r="C69">
+        <v>477684</v>
+      </c>
+      <c r="D69">
+        <v>5632338</v>
+      </c>
+      <c r="E69">
+        <v>273</v>
+      </c>
+      <c r="F69">
+        <v>10</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69" t="s">
+        <v>130</v>
+      </c>
+      <c r="K69" t="s">
+        <v>131</v>
+      </c>
+      <c r="L69" t="s">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -2784,10 +3447,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H204"/>
+  <dimension ref="A1:H305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="F205" sqref="F205"/>
+    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
+      <selection activeCell="G306" sqref="G306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
@@ -6657,6 +7320,2011 @@
       </c>
       <c r="F204" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" t="s">
+        <v>116</v>
+      </c>
+      <c r="B205" t="s">
+        <v>44</v>
+      </c>
+      <c r="C205" t="s">
+        <v>59</v>
+      </c>
+      <c r="E205">
+        <v>5</v>
+      </c>
+      <c r="F205" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" t="s">
+        <v>116</v>
+      </c>
+      <c r="B206" t="s">
+        <v>44</v>
+      </c>
+      <c r="C206" t="s">
+        <v>61</v>
+      </c>
+      <c r="E206">
+        <v>2</v>
+      </c>
+      <c r="F206" t="s">
+        <v>69</v>
+      </c>
+      <c r="G206" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" t="s">
+        <v>116</v>
+      </c>
+      <c r="B207" t="s">
+        <v>44</v>
+      </c>
+      <c r="C207" t="s">
+        <v>62</v>
+      </c>
+      <c r="E207" t="s">
+        <v>64</v>
+      </c>
+      <c r="F207" t="s">
+        <v>66</v>
+      </c>
+      <c r="G207" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" t="s">
+        <v>116</v>
+      </c>
+      <c r="B208" t="s">
+        <v>44</v>
+      </c>
+      <c r="C208" t="s">
+        <v>63</v>
+      </c>
+      <c r="E208" t="s">
+        <v>64</v>
+      </c>
+      <c r="F208" t="s">
+        <v>119</v>
+      </c>
+      <c r="G208" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" t="s">
+        <v>116</v>
+      </c>
+      <c r="B209" t="s">
+        <v>44</v>
+      </c>
+      <c r="C209" t="s">
+        <v>71</v>
+      </c>
+      <c r="E209" t="s">
+        <v>65</v>
+      </c>
+      <c r="F209" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" t="s">
+        <v>116</v>
+      </c>
+      <c r="B210" t="s">
+        <v>42</v>
+      </c>
+      <c r="C210" t="s">
+        <v>59</v>
+      </c>
+      <c r="D210">
+        <v>1</v>
+      </c>
+      <c r="E210">
+        <v>4</v>
+      </c>
+      <c r="F210" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" t="s">
+        <v>116</v>
+      </c>
+      <c r="B211" t="s">
+        <v>42</v>
+      </c>
+      <c r="C211" t="s">
+        <v>61</v>
+      </c>
+      <c r="D211">
+        <v>1</v>
+      </c>
+      <c r="E211" t="s">
+        <v>65</v>
+      </c>
+      <c r="F211" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" t="s">
+        <v>116</v>
+      </c>
+      <c r="B212" t="s">
+        <v>42</v>
+      </c>
+      <c r="C212" t="s">
+        <v>62</v>
+      </c>
+      <c r="D212">
+        <v>1</v>
+      </c>
+      <c r="E212" t="s">
+        <v>64</v>
+      </c>
+      <c r="F212" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" t="s">
+        <v>116</v>
+      </c>
+      <c r="B213" t="s">
+        <v>42</v>
+      </c>
+      <c r="C213" t="s">
+        <v>59</v>
+      </c>
+      <c r="D213">
+        <v>2</v>
+      </c>
+      <c r="E213">
+        <v>1</v>
+      </c>
+      <c r="F213" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" t="s">
+        <v>116</v>
+      </c>
+      <c r="B214" t="s">
+        <v>42</v>
+      </c>
+      <c r="C214" t="s">
+        <v>62</v>
+      </c>
+      <c r="D214">
+        <v>2</v>
+      </c>
+      <c r="E214">
+        <v>1</v>
+      </c>
+      <c r="F214" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" t="s">
+        <v>116</v>
+      </c>
+      <c r="B215" t="s">
+        <v>42</v>
+      </c>
+      <c r="C215" t="s">
+        <v>63</v>
+      </c>
+      <c r="D215">
+        <v>2</v>
+      </c>
+      <c r="E215" t="s">
+        <v>65</v>
+      </c>
+      <c r="F215" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" t="s">
+        <v>116</v>
+      </c>
+      <c r="B216" t="s">
+        <v>42</v>
+      </c>
+      <c r="C216" t="s">
+        <v>71</v>
+      </c>
+      <c r="D216">
+        <v>2</v>
+      </c>
+      <c r="E216" t="s">
+        <v>65</v>
+      </c>
+      <c r="F216" t="s">
+        <v>93</v>
+      </c>
+      <c r="G216" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" t="s">
+        <v>116</v>
+      </c>
+      <c r="B217" t="s">
+        <v>42</v>
+      </c>
+      <c r="C217" t="s">
+        <v>59</v>
+      </c>
+      <c r="D217">
+        <v>3</v>
+      </c>
+      <c r="E217">
+        <v>1</v>
+      </c>
+      <c r="F217" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" t="s">
+        <v>116</v>
+      </c>
+      <c r="B218" t="s">
+        <v>42</v>
+      </c>
+      <c r="C218" t="s">
+        <v>62</v>
+      </c>
+      <c r="D218">
+        <v>3</v>
+      </c>
+      <c r="E218">
+        <v>2</v>
+      </c>
+      <c r="F218" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" t="s">
+        <v>116</v>
+      </c>
+      <c r="B219" t="s">
+        <v>42</v>
+      </c>
+      <c r="C219" t="s">
+        <v>63</v>
+      </c>
+      <c r="D219">
+        <v>3</v>
+      </c>
+      <c r="E219" t="s">
+        <v>65</v>
+      </c>
+      <c r="F219" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" t="s">
+        <v>120</v>
+      </c>
+      <c r="B220" t="s">
+        <v>42</v>
+      </c>
+      <c r="C220" t="s">
+        <v>59</v>
+      </c>
+      <c r="D220">
+        <v>1</v>
+      </c>
+      <c r="E220">
+        <v>2</v>
+      </c>
+      <c r="F220" t="s">
+        <v>108</v>
+      </c>
+      <c r="G220" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" t="s">
+        <v>120</v>
+      </c>
+      <c r="B221" t="s">
+        <v>42</v>
+      </c>
+      <c r="C221" t="s">
+        <v>61</v>
+      </c>
+      <c r="D221">
+        <v>1</v>
+      </c>
+      <c r="E221">
+        <v>3</v>
+      </c>
+      <c r="F221" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" t="s">
+        <v>120</v>
+      </c>
+      <c r="B222" t="s">
+        <v>42</v>
+      </c>
+      <c r="C222" t="s">
+        <v>62</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" t="s">
+        <v>120</v>
+      </c>
+      <c r="B223" t="s">
+        <v>42</v>
+      </c>
+      <c r="C223" t="s">
+        <v>63</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223" t="s">
+        <v>65</v>
+      </c>
+      <c r="G223" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" t="s">
+        <v>120</v>
+      </c>
+      <c r="B224" t="s">
+        <v>42</v>
+      </c>
+      <c r="C224" t="s">
+        <v>71</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224" t="s">
+        <v>65</v>
+      </c>
+      <c r="F224" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" t="s">
+        <v>120</v>
+      </c>
+      <c r="B225" t="s">
+        <v>42</v>
+      </c>
+      <c r="C225" t="s">
+        <v>59</v>
+      </c>
+      <c r="D225">
+        <v>2</v>
+      </c>
+      <c r="E225" t="s">
+        <v>65</v>
+      </c>
+      <c r="F225" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" t="s">
+        <v>120</v>
+      </c>
+      <c r="B226" t="s">
+        <v>48</v>
+      </c>
+      <c r="C226" t="s">
+        <v>59</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>2</v>
+      </c>
+      <c r="F226" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" t="s">
+        <v>120</v>
+      </c>
+      <c r="B227" t="s">
+        <v>48</v>
+      </c>
+      <c r="C227" t="s">
+        <v>61</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>2</v>
+      </c>
+      <c r="F227" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" t="s">
+        <v>120</v>
+      </c>
+      <c r="B228" t="s">
+        <v>48</v>
+      </c>
+      <c r="C228" t="s">
+        <v>62</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228" t="s">
+        <v>65</v>
+      </c>
+      <c r="F228" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" t="s">
+        <v>120</v>
+      </c>
+      <c r="B229" t="s">
+        <v>48</v>
+      </c>
+      <c r="C229" t="s">
+        <v>63</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" t="s">
+        <v>120</v>
+      </c>
+      <c r="B230" t="s">
+        <v>48</v>
+      </c>
+      <c r="C230" t="s">
+        <v>71</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230" t="s">
+        <v>64</v>
+      </c>
+      <c r="F230" t="s">
+        <v>93</v>
+      </c>
+      <c r="G230" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" t="s">
+        <v>120</v>
+      </c>
+      <c r="B231" t="s">
+        <v>48</v>
+      </c>
+      <c r="C231" t="s">
+        <v>59</v>
+      </c>
+      <c r="D231">
+        <v>2</v>
+      </c>
+      <c r="E231" t="s">
+        <v>64</v>
+      </c>
+      <c r="F231" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" t="s">
+        <v>120</v>
+      </c>
+      <c r="B232" t="s">
+        <v>48</v>
+      </c>
+      <c r="C232" t="s">
+        <v>61</v>
+      </c>
+      <c r="D232">
+        <v>2</v>
+      </c>
+      <c r="E232">
+        <v>2</v>
+      </c>
+      <c r="F232" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" t="s">
+        <v>120</v>
+      </c>
+      <c r="B233" t="s">
+        <v>48</v>
+      </c>
+      <c r="C233" t="s">
+        <v>71</v>
+      </c>
+      <c r="D233">
+        <v>2</v>
+      </c>
+      <c r="E233" t="s">
+        <v>65</v>
+      </c>
+      <c r="F233" t="s">
+        <v>93</v>
+      </c>
+      <c r="G233" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" t="s">
+        <v>120</v>
+      </c>
+      <c r="B234" t="s">
+        <v>48</v>
+      </c>
+      <c r="C234" t="s">
+        <v>59</v>
+      </c>
+      <c r="D234">
+        <v>3</v>
+      </c>
+      <c r="E234" t="s">
+        <v>64</v>
+      </c>
+      <c r="F234" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" t="s">
+        <v>120</v>
+      </c>
+      <c r="B235" t="s">
+        <v>48</v>
+      </c>
+      <c r="C235" t="s">
+        <v>61</v>
+      </c>
+      <c r="D235">
+        <v>3</v>
+      </c>
+      <c r="E235">
+        <v>1</v>
+      </c>
+      <c r="F235" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" t="s">
+        <v>120</v>
+      </c>
+      <c r="B236" t="s">
+        <v>43</v>
+      </c>
+      <c r="C236" t="s">
+        <v>59</v>
+      </c>
+      <c r="D236">
+        <v>1</v>
+      </c>
+      <c r="E236">
+        <v>2</v>
+      </c>
+      <c r="F236" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" t="s">
+        <v>120</v>
+      </c>
+      <c r="B237" t="s">
+        <v>43</v>
+      </c>
+      <c r="C237" t="s">
+        <v>61</v>
+      </c>
+      <c r="D237">
+        <v>1</v>
+      </c>
+      <c r="E237">
+        <v>2</v>
+      </c>
+      <c r="F237" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" t="s">
+        <v>120</v>
+      </c>
+      <c r="B238" t="s">
+        <v>43</v>
+      </c>
+      <c r="C238" t="s">
+        <v>62</v>
+      </c>
+      <c r="D238">
+        <v>1</v>
+      </c>
+      <c r="E238" t="s">
+        <v>64</v>
+      </c>
+      <c r="F238" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" t="s">
+        <v>120</v>
+      </c>
+      <c r="B239" t="s">
+        <v>43</v>
+      </c>
+      <c r="C239" t="s">
+        <v>63</v>
+      </c>
+      <c r="D239">
+        <v>1</v>
+      </c>
+      <c r="E239">
+        <v>4</v>
+      </c>
+      <c r="F239" t="s">
+        <v>93</v>
+      </c>
+      <c r="G239" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" t="s">
+        <v>120</v>
+      </c>
+      <c r="B240" t="s">
+        <v>43</v>
+      </c>
+      <c r="C240" t="s">
+        <v>59</v>
+      </c>
+      <c r="D240">
+        <v>2</v>
+      </c>
+      <c r="E240">
+        <v>1</v>
+      </c>
+      <c r="F240" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" t="s">
+        <v>120</v>
+      </c>
+      <c r="B241" t="s">
+        <v>43</v>
+      </c>
+      <c r="C241" t="s">
+        <v>71</v>
+      </c>
+      <c r="D241">
+        <v>2</v>
+      </c>
+      <c r="E241" t="s">
+        <v>65</v>
+      </c>
+      <c r="F241" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" t="s">
+        <v>120</v>
+      </c>
+      <c r="B242" t="s">
+        <v>43</v>
+      </c>
+      <c r="C242" t="s">
+        <v>63</v>
+      </c>
+      <c r="D242">
+        <v>2</v>
+      </c>
+      <c r="E242">
+        <v>3</v>
+      </c>
+      <c r="F242" t="s">
+        <v>93</v>
+      </c>
+      <c r="G242" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" t="s">
+        <v>120</v>
+      </c>
+      <c r="B243" t="s">
+        <v>41</v>
+      </c>
+      <c r="C243" t="s">
+        <v>59</v>
+      </c>
+      <c r="E243" t="s">
+        <v>65</v>
+      </c>
+      <c r="F243" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" t="s">
+        <v>120</v>
+      </c>
+      <c r="B244" t="s">
+        <v>41</v>
+      </c>
+      <c r="C244" t="s">
+        <v>61</v>
+      </c>
+      <c r="E244" t="s">
+        <v>65</v>
+      </c>
+      <c r="F244" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" t="s">
+        <v>120</v>
+      </c>
+      <c r="B245" t="s">
+        <v>41</v>
+      </c>
+      <c r="C245" t="s">
+        <v>62</v>
+      </c>
+      <c r="E245" t="s">
+        <v>65</v>
+      </c>
+      <c r="F245" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" t="s">
+        <v>120</v>
+      </c>
+      <c r="B246" t="s">
+        <v>44</v>
+      </c>
+      <c r="C246" t="s">
+        <v>59</v>
+      </c>
+      <c r="E246" t="s">
+        <v>65</v>
+      </c>
+      <c r="F246" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" t="s">
+        <v>120</v>
+      </c>
+      <c r="B247" t="s">
+        <v>44</v>
+      </c>
+      <c r="C247" t="s">
+        <v>61</v>
+      </c>
+      <c r="E247">
+        <v>2</v>
+      </c>
+      <c r="F247" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248" t="s">
+        <v>120</v>
+      </c>
+      <c r="B248" t="s">
+        <v>44</v>
+      </c>
+      <c r="C248" t="s">
+        <v>62</v>
+      </c>
+      <c r="E248">
+        <v>3</v>
+      </c>
+      <c r="F248" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" t="s">
+        <v>120</v>
+      </c>
+      <c r="B249" t="s">
+        <v>44</v>
+      </c>
+      <c r="C249" t="s">
+        <v>63</v>
+      </c>
+      <c r="E249">
+        <v>3</v>
+      </c>
+      <c r="F249" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" t="s">
+        <v>120</v>
+      </c>
+      <c r="B250" t="s">
+        <v>44</v>
+      </c>
+      <c r="C250" t="s">
+        <v>71</v>
+      </c>
+      <c r="E250" t="s">
+        <v>65</v>
+      </c>
+      <c r="F250" t="s">
+        <v>122</v>
+      </c>
+      <c r="G250" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251" t="s">
+        <v>120</v>
+      </c>
+      <c r="B251" t="s">
+        <v>44</v>
+      </c>
+      <c r="C251" t="s">
+        <v>72</v>
+      </c>
+      <c r="E251" t="s">
+        <v>65</v>
+      </c>
+      <c r="F251" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" t="s">
+        <v>120</v>
+      </c>
+      <c r="B252" t="s">
+        <v>44</v>
+      </c>
+      <c r="C252" t="s">
+        <v>73</v>
+      </c>
+      <c r="E252" t="s">
+        <v>65</v>
+      </c>
+      <c r="F252" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" t="s">
+        <v>123</v>
+      </c>
+      <c r="B253" t="s">
+        <v>125</v>
+      </c>
+      <c r="C253" t="s">
+        <v>59</v>
+      </c>
+      <c r="E253">
+        <v>3</v>
+      </c>
+      <c r="F253" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" t="s">
+        <v>123</v>
+      </c>
+      <c r="B254" t="s">
+        <v>125</v>
+      </c>
+      <c r="C254" t="s">
+        <v>61</v>
+      </c>
+      <c r="E254" t="s">
+        <v>65</v>
+      </c>
+      <c r="F254" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" t="s">
+        <v>123</v>
+      </c>
+      <c r="B255" t="s">
+        <v>125</v>
+      </c>
+      <c r="C255" t="s">
+        <v>62</v>
+      </c>
+      <c r="E255" t="s">
+        <v>65</v>
+      </c>
+      <c r="F255" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" t="s">
+        <v>123</v>
+      </c>
+      <c r="B256" t="s">
+        <v>125</v>
+      </c>
+      <c r="C256" t="s">
+        <v>63</v>
+      </c>
+      <c r="E256">
+        <v>1</v>
+      </c>
+      <c r="F256" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" t="s">
+        <v>123</v>
+      </c>
+      <c r="B257" t="s">
+        <v>125</v>
+      </c>
+      <c r="C257" t="s">
+        <v>71</v>
+      </c>
+      <c r="E257">
+        <v>1</v>
+      </c>
+      <c r="F257" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" t="s">
+        <v>123</v>
+      </c>
+      <c r="B258" t="s">
+        <v>125</v>
+      </c>
+      <c r="C258" t="s">
+        <v>72</v>
+      </c>
+      <c r="E258" t="s">
+        <v>65</v>
+      </c>
+      <c r="F258" t="s">
+        <v>55</v>
+      </c>
+      <c r="G258" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" t="s">
+        <v>123</v>
+      </c>
+      <c r="B259" t="s">
+        <v>44</v>
+      </c>
+      <c r="C259" t="s">
+        <v>59</v>
+      </c>
+      <c r="E259">
+        <v>5</v>
+      </c>
+      <c r="F259" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" t="s">
+        <v>123</v>
+      </c>
+      <c r="B260" t="s">
+        <v>44</v>
+      </c>
+      <c r="C260" t="s">
+        <v>61</v>
+      </c>
+      <c r="E260" t="s">
+        <v>64</v>
+      </c>
+      <c r="F260" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" t="s">
+        <v>123</v>
+      </c>
+      <c r="B261" t="s">
+        <v>44</v>
+      </c>
+      <c r="C261" t="s">
+        <v>62</v>
+      </c>
+      <c r="E261" t="s">
+        <v>65</v>
+      </c>
+      <c r="F261" t="s">
+        <v>55</v>
+      </c>
+      <c r="G261" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" t="s">
+        <v>123</v>
+      </c>
+      <c r="B262" t="s">
+        <v>44</v>
+      </c>
+      <c r="C262" t="s">
+        <v>63</v>
+      </c>
+      <c r="E262">
+        <v>3</v>
+      </c>
+      <c r="F262" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" t="s">
+        <v>123</v>
+      </c>
+      <c r="B263" t="s">
+        <v>44</v>
+      </c>
+      <c r="C263" t="s">
+        <v>71</v>
+      </c>
+      <c r="E263" t="s">
+        <v>64</v>
+      </c>
+      <c r="F263" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" t="s">
+        <v>123</v>
+      </c>
+      <c r="B264" t="s">
+        <v>42</v>
+      </c>
+      <c r="C264" t="s">
+        <v>59</v>
+      </c>
+      <c r="D264">
+        <v>1</v>
+      </c>
+      <c r="E264">
+        <v>3</v>
+      </c>
+      <c r="F264" t="s">
+        <v>55</v>
+      </c>
+      <c r="G264" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265" t="s">
+        <v>123</v>
+      </c>
+      <c r="B265" t="s">
+        <v>42</v>
+      </c>
+      <c r="C265" t="s">
+        <v>61</v>
+      </c>
+      <c r="D265">
+        <v>1</v>
+      </c>
+      <c r="E265">
+        <v>4</v>
+      </c>
+      <c r="F265" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266" t="s">
+        <v>123</v>
+      </c>
+      <c r="B266" t="s">
+        <v>42</v>
+      </c>
+      <c r="C266" t="s">
+        <v>62</v>
+      </c>
+      <c r="D266">
+        <v>1</v>
+      </c>
+      <c r="E266" t="s">
+        <v>64</v>
+      </c>
+      <c r="F266" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" t="s">
+        <v>123</v>
+      </c>
+      <c r="B267" t="s">
+        <v>42</v>
+      </c>
+      <c r="C267" t="s">
+        <v>63</v>
+      </c>
+      <c r="D267">
+        <v>1</v>
+      </c>
+      <c r="E267" t="s">
+        <v>65</v>
+      </c>
+      <c r="F267" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268" t="s">
+        <v>123</v>
+      </c>
+      <c r="B268" t="s">
+        <v>42</v>
+      </c>
+      <c r="C268" t="s">
+        <v>71</v>
+      </c>
+      <c r="D268">
+        <v>1</v>
+      </c>
+      <c r="E268" t="s">
+        <v>65</v>
+      </c>
+      <c r="F268" t="s">
+        <v>93</v>
+      </c>
+      <c r="G268" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269" t="s">
+        <v>123</v>
+      </c>
+      <c r="B269" t="s">
+        <v>42</v>
+      </c>
+      <c r="C269" t="s">
+        <v>72</v>
+      </c>
+      <c r="D269">
+        <v>1</v>
+      </c>
+      <c r="E269" t="s">
+        <v>65</v>
+      </c>
+      <c r="F269" t="s">
+        <v>126</v>
+      </c>
+      <c r="G269" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270" t="s">
+        <v>123</v>
+      </c>
+      <c r="B270" t="s">
+        <v>42</v>
+      </c>
+      <c r="C270" t="s">
+        <v>59</v>
+      </c>
+      <c r="D270">
+        <v>2</v>
+      </c>
+      <c r="E270" t="s">
+        <v>64</v>
+      </c>
+      <c r="F270" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271" t="s">
+        <v>123</v>
+      </c>
+      <c r="B271" t="s">
+        <v>42</v>
+      </c>
+      <c r="C271" t="s">
+        <v>61</v>
+      </c>
+      <c r="D271">
+        <v>2</v>
+      </c>
+      <c r="E271" t="s">
+        <v>64</v>
+      </c>
+      <c r="F271" t="s">
+        <v>126</v>
+      </c>
+      <c r="G271" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272" t="s">
+        <v>123</v>
+      </c>
+      <c r="B272" t="s">
+        <v>43</v>
+      </c>
+      <c r="C272" t="s">
+        <v>59</v>
+      </c>
+      <c r="D272">
+        <v>1</v>
+      </c>
+      <c r="E272">
+        <v>3</v>
+      </c>
+      <c r="F272" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273" t="s">
+        <v>123</v>
+      </c>
+      <c r="B273" t="s">
+        <v>43</v>
+      </c>
+      <c r="C273" t="s">
+        <v>61</v>
+      </c>
+      <c r="D273">
+        <v>1</v>
+      </c>
+      <c r="E273" t="s">
+        <v>65</v>
+      </c>
+      <c r="F273" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274" t="s">
+        <v>123</v>
+      </c>
+      <c r="B274" t="s">
+        <v>43</v>
+      </c>
+      <c r="C274" t="s">
+        <v>62</v>
+      </c>
+      <c r="D274">
+        <v>1</v>
+      </c>
+      <c r="E274" t="s">
+        <v>65</v>
+      </c>
+      <c r="F274" t="s">
+        <v>93</v>
+      </c>
+      <c r="G274" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275" t="s">
+        <v>123</v>
+      </c>
+      <c r="B275" t="s">
+        <v>43</v>
+      </c>
+      <c r="C275" t="s">
+        <v>63</v>
+      </c>
+      <c r="D275">
+        <v>1</v>
+      </c>
+      <c r="E275" t="s">
+        <v>65</v>
+      </c>
+      <c r="F275" t="s">
+        <v>127</v>
+      </c>
+      <c r="G275" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276" t="s">
+        <v>123</v>
+      </c>
+      <c r="B276" t="s">
+        <v>43</v>
+      </c>
+      <c r="C276" t="s">
+        <v>59</v>
+      </c>
+      <c r="D276">
+        <v>2</v>
+      </c>
+      <c r="E276">
+        <v>2</v>
+      </c>
+      <c r="F276" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277" t="s">
+        <v>123</v>
+      </c>
+      <c r="B277" t="s">
+        <v>43</v>
+      </c>
+      <c r="C277" t="s">
+        <v>63</v>
+      </c>
+      <c r="D277">
+        <v>2</v>
+      </c>
+      <c r="E277" t="s">
+        <v>64</v>
+      </c>
+      <c r="F277" t="s">
+        <v>127</v>
+      </c>
+      <c r="G277" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" t="s">
+        <v>123</v>
+      </c>
+      <c r="B278" t="s">
+        <v>43</v>
+      </c>
+      <c r="C278" t="s">
+        <v>71</v>
+      </c>
+      <c r="D278">
+        <v>2</v>
+      </c>
+      <c r="E278" t="s">
+        <v>65</v>
+      </c>
+      <c r="F278" t="s">
+        <v>93</v>
+      </c>
+      <c r="G278" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" t="s">
+        <v>128</v>
+      </c>
+      <c r="B279" t="s">
+        <v>42</v>
+      </c>
+      <c r="C279" t="s">
+        <v>59</v>
+      </c>
+      <c r="D279">
+        <v>1</v>
+      </c>
+      <c r="E279">
+        <v>2</v>
+      </c>
+      <c r="F279" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280" t="s">
+        <v>128</v>
+      </c>
+      <c r="B280" t="s">
+        <v>42</v>
+      </c>
+      <c r="C280" t="s">
+        <v>61</v>
+      </c>
+      <c r="D280">
+        <v>1</v>
+      </c>
+      <c r="E280">
+        <v>1</v>
+      </c>
+      <c r="F280" t="s">
+        <v>55</v>
+      </c>
+      <c r="G280" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281" t="s">
+        <v>128</v>
+      </c>
+      <c r="B281" t="s">
+        <v>42</v>
+      </c>
+      <c r="C281" t="s">
+        <v>62</v>
+      </c>
+      <c r="D281">
+        <v>1</v>
+      </c>
+      <c r="E281">
+        <v>1</v>
+      </c>
+      <c r="F281" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282" t="s">
+        <v>128</v>
+      </c>
+      <c r="B282" t="s">
+        <v>42</v>
+      </c>
+      <c r="C282" t="s">
+        <v>59</v>
+      </c>
+      <c r="D282">
+        <v>2</v>
+      </c>
+      <c r="E282">
+        <v>1</v>
+      </c>
+      <c r="F282" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283" t="s">
+        <v>128</v>
+      </c>
+      <c r="B283" t="s">
+        <v>42</v>
+      </c>
+      <c r="C283" t="s">
+        <v>61</v>
+      </c>
+      <c r="D283">
+        <v>2</v>
+      </c>
+      <c r="E283" t="s">
+        <v>65</v>
+      </c>
+      <c r="F283" t="s">
+        <v>55</v>
+      </c>
+      <c r="G283" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284" t="s">
+        <v>128</v>
+      </c>
+      <c r="B284" t="s">
+        <v>42</v>
+      </c>
+      <c r="C284" t="s">
+        <v>62</v>
+      </c>
+      <c r="D284">
+        <v>2</v>
+      </c>
+      <c r="E284" t="s">
+        <v>65</v>
+      </c>
+      <c r="F284" t="s">
+        <v>55</v>
+      </c>
+      <c r="G284" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285" t="s">
+        <v>128</v>
+      </c>
+      <c r="B285" t="s">
+        <v>42</v>
+      </c>
+      <c r="C285" t="s">
+        <v>59</v>
+      </c>
+      <c r="D285">
+        <v>3</v>
+      </c>
+      <c r="E285" t="s">
+        <v>65</v>
+      </c>
+      <c r="F285" t="s">
+        <v>55</v>
+      </c>
+      <c r="G285" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286" t="s">
+        <v>128</v>
+      </c>
+      <c r="B286" t="s">
+        <v>42</v>
+      </c>
+      <c r="C286" t="s">
+        <v>61</v>
+      </c>
+      <c r="D286">
+        <v>3</v>
+      </c>
+      <c r="E286" t="s">
+        <v>65</v>
+      </c>
+      <c r="F286" t="s">
+        <v>55</v>
+      </c>
+      <c r="G286" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287" t="s">
+        <v>128</v>
+      </c>
+      <c r="B287" t="s">
+        <v>44</v>
+      </c>
+      <c r="C287" t="s">
+        <v>59</v>
+      </c>
+      <c r="E287">
+        <v>2</v>
+      </c>
+      <c r="F287" t="s">
+        <v>55</v>
+      </c>
+      <c r="G287" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288" t="s">
+        <v>128</v>
+      </c>
+      <c r="B288" t="s">
+        <v>44</v>
+      </c>
+      <c r="C288" t="s">
+        <v>61</v>
+      </c>
+      <c r="E288">
+        <v>5</v>
+      </c>
+      <c r="F288" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="A289" t="s">
+        <v>128</v>
+      </c>
+      <c r="B289" t="s">
+        <v>44</v>
+      </c>
+      <c r="C289" t="s">
+        <v>62</v>
+      </c>
+      <c r="E289">
+        <v>1</v>
+      </c>
+      <c r="F289" t="s">
+        <v>110</v>
+      </c>
+      <c r="G289" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290" t="s">
+        <v>128</v>
+      </c>
+      <c r="B290" t="s">
+        <v>44</v>
+      </c>
+      <c r="C290" t="s">
+        <v>63</v>
+      </c>
+      <c r="E290" t="s">
+        <v>65</v>
+      </c>
+      <c r="F290" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291" t="s">
+        <v>128</v>
+      </c>
+      <c r="B291" t="s">
+        <v>44</v>
+      </c>
+      <c r="C291" t="s">
+        <v>59</v>
+      </c>
+      <c r="E291">
+        <v>4</v>
+      </c>
+      <c r="F291" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292" t="s">
+        <v>128</v>
+      </c>
+      <c r="B292" t="s">
+        <v>44</v>
+      </c>
+      <c r="C292" t="s">
+        <v>61</v>
+      </c>
+      <c r="E292">
+        <v>1</v>
+      </c>
+      <c r="F292" t="s">
+        <v>110</v>
+      </c>
+      <c r="G292" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
+      <c r="A293" t="s">
+        <v>128</v>
+      </c>
+      <c r="B293" t="s">
+        <v>44</v>
+      </c>
+      <c r="C293" t="s">
+        <v>62</v>
+      </c>
+      <c r="E293" t="s">
+        <v>65</v>
+      </c>
+      <c r="F293" t="s">
+        <v>110</v>
+      </c>
+      <c r="G293" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294" t="s">
+        <v>128</v>
+      </c>
+      <c r="B294" t="s">
+        <v>44</v>
+      </c>
+      <c r="C294" t="s">
+        <v>63</v>
+      </c>
+      <c r="E294">
+        <v>1</v>
+      </c>
+      <c r="F294" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295" t="s">
+        <v>128</v>
+      </c>
+      <c r="B295" t="s">
+        <v>44</v>
+      </c>
+      <c r="C295" t="s">
+        <v>71</v>
+      </c>
+      <c r="E295">
+        <v>1</v>
+      </c>
+      <c r="F295" t="s">
+        <v>66</v>
+      </c>
+      <c r="G295" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296" t="s">
+        <v>128</v>
+      </c>
+      <c r="B296" t="s">
+        <v>44</v>
+      </c>
+      <c r="C296" t="s">
+        <v>72</v>
+      </c>
+      <c r="E296">
+        <v>1</v>
+      </c>
+      <c r="F296" t="s">
+        <v>55</v>
+      </c>
+      <c r="G296" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="A297" t="s">
+        <v>128</v>
+      </c>
+      <c r="B297" t="s">
+        <v>132</v>
+      </c>
+      <c r="C297" t="s">
+        <v>59</v>
+      </c>
+      <c r="E297" t="s">
+        <v>65</v>
+      </c>
+      <c r="F297" t="s">
+        <v>55</v>
+      </c>
+      <c r="G297" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
+      <c r="A298" t="s">
+        <v>128</v>
+      </c>
+      <c r="B298" t="s">
+        <v>132</v>
+      </c>
+      <c r="C298" t="s">
+        <v>61</v>
+      </c>
+      <c r="E298" t="s">
+        <v>65</v>
+      </c>
+      <c r="F298" t="s">
+        <v>55</v>
+      </c>
+      <c r="G298" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="A299" t="s">
+        <v>128</v>
+      </c>
+      <c r="B299" t="s">
+        <v>132</v>
+      </c>
+      <c r="C299" t="s">
+        <v>62</v>
+      </c>
+      <c r="E299" t="s">
+        <v>65</v>
+      </c>
+      <c r="F299" t="s">
+        <v>66</v>
+      </c>
+      <c r="G299" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300" t="s">
+        <v>128</v>
+      </c>
+      <c r="B300" t="s">
+        <v>132</v>
+      </c>
+      <c r="C300" t="s">
+        <v>63</v>
+      </c>
+      <c r="E300" t="s">
+        <v>65</v>
+      </c>
+      <c r="F300" t="s">
+        <v>66</v>
+      </c>
+      <c r="G300" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
+      <c r="A301" t="s">
+        <v>128</v>
+      </c>
+      <c r="B301" t="s">
+        <v>132</v>
+      </c>
+      <c r="C301" t="s">
+        <v>71</v>
+      </c>
+      <c r="E301" t="s">
+        <v>65</v>
+      </c>
+      <c r="F301" t="s">
+        <v>66</v>
+      </c>
+      <c r="G301" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
+      <c r="A302" t="s">
+        <v>128</v>
+      </c>
+      <c r="B302" t="s">
+        <v>132</v>
+      </c>
+      <c r="C302" t="s">
+        <v>72</v>
+      </c>
+      <c r="E302" t="s">
+        <v>65</v>
+      </c>
+      <c r="F302" t="s">
+        <v>55</v>
+      </c>
+      <c r="G302" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
+      <c r="A303" t="s">
+        <v>128</v>
+      </c>
+      <c r="B303" t="s">
+        <v>132</v>
+      </c>
+      <c r="C303" t="s">
+        <v>135</v>
+      </c>
+      <c r="E303" t="s">
+        <v>65</v>
+      </c>
+      <c r="F303" t="s">
+        <v>55</v>
+      </c>
+      <c r="G303" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
+      <c r="A304" t="s">
+        <v>128</v>
+      </c>
+      <c r="B304" t="s">
+        <v>132</v>
+      </c>
+      <c r="C304" t="s">
+        <v>136</v>
+      </c>
+      <c r="E304">
+        <v>1</v>
+      </c>
+      <c r="F304" t="s">
+        <v>110</v>
+      </c>
+      <c r="G304" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="A305" t="s">
+        <v>128</v>
+      </c>
+      <c r="B305" t="s">
+        <v>132</v>
+      </c>
+      <c r="C305" t="s">
+        <v>137</v>
+      </c>
+      <c r="E305" t="s">
+        <v>65</v>
+      </c>
+      <c r="F305" t="s">
+        <v>55</v>
+      </c>
+      <c r="G305" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Aufnahmebogen/Aufnahmebögen_digitalisiert.xlsx
+++ b/Aufnahmebogen/Aufnahmebögen_digitalisiert.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="103" windowWidth="15120" windowHeight="8014" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mainplot" sheetId="2" r:id="rId1"/>
     <sheet name="Subplot" sheetId="1" r:id="rId2"/>
     <sheet name="Bestimmungshilfe" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2122" uniqueCount="154">
   <si>
     <t>Plot-ID</t>
   </si>
@@ -258,9 +258,6 @@
     <t>hylocomium / thuidium</t>
   </si>
   <si>
-    <t>EO01</t>
-  </si>
-  <si>
     <t>metzgeria</t>
   </si>
   <si>
@@ -303,9 +300,6 @@
     <t>plagiomnium undulatum</t>
   </si>
   <si>
-    <t xml:space="preserve">plagiomnium affine </t>
-  </si>
-  <si>
     <t>rhytidiadelphus / eurynthium</t>
   </si>
   <si>
@@ -315,9 +309,6 @@
     <t>auf rinde</t>
   </si>
   <si>
-    <t>pleurothium schreiberii</t>
-  </si>
-  <si>
     <t>: conjugata oder simplex</t>
   </si>
   <si>
@@ -430,6 +421,63 @@
   </si>
   <si>
     <t>M15</t>
+  </si>
+  <si>
+    <t>Art überprüft</t>
+  </si>
+  <si>
+    <t>atrichum undulatum</t>
+  </si>
+  <si>
+    <t>plagiomnium affine</t>
+  </si>
+  <si>
+    <t>rytidiadelpus squarrosus</t>
+  </si>
+  <si>
+    <t>M0X</t>
+  </si>
+  <si>
+    <t>ü</t>
+  </si>
+  <si>
+    <t>Mxyz</t>
+  </si>
+  <si>
+    <t>plagiothecium undulatum</t>
+  </si>
+  <si>
+    <t>ortho dicranum flagellare</t>
+  </si>
+  <si>
+    <t>hylocomium splendens</t>
+  </si>
+  <si>
+    <t>metzgeria furcata</t>
+  </si>
+  <si>
+    <t>M0?</t>
+  </si>
+  <si>
+    <t>metzgeria cf. simplex/conjugata</t>
+  </si>
+  <si>
+    <t>Mxyz2</t>
+  </si>
+  <si>
+    <t>mnium spec.</t>
+  </si>
+  <si>
+    <t>rhizomnium punctatum</t>
+  </si>
+  <si>
+    <t>pleurozium schreberi</t>
+  </si>
+  <si>
+    <t>scapania nemorosa cf.</t>
+  </si>
+  <si>
+    <t>frullania dilatata</t>
   </si>
 </sst>
 </file>
@@ -452,12 +500,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -472,12 +526,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -774,17 +832,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="M69" sqref="M69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="12.15234375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.69140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.3828125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -2607,10 +2665,10 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" t="s">
+        <v>106</v>
+      </c>
+      <c r="B49" t="s">
         <v>109</v>
-      </c>
-      <c r="B49" t="s">
-        <v>112</v>
       </c>
       <c r="C49">
         <v>477610</v>
@@ -2634,10 +2692,10 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K49" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L49" t="s">
         <v>41</v>
@@ -2645,10 +2703,10 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" t="s">
         <v>109</v>
-      </c>
-      <c r="B50" t="s">
-        <v>112</v>
       </c>
       <c r="C50">
         <v>477610</v>
@@ -2672,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K50" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L50" t="s">
         <v>44</v>
@@ -2683,10 +2741,10 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51" t="s">
         <v>109</v>
-      </c>
-      <c r="B51" t="s">
-        <v>112</v>
       </c>
       <c r="C51">
         <v>477610</v>
@@ -2710,10 +2768,10 @@
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K51" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L51" t="s">
         <v>42</v>
@@ -2724,10 +2782,10 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" t="s">
         <v>109</v>
-      </c>
-      <c r="B52" t="s">
-        <v>112</v>
       </c>
       <c r="C52">
         <v>477610</v>
@@ -2751,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K52" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L52" t="s">
         <v>43</v>
@@ -2765,10 +2823,10 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B53" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C53">
         <v>477632</v>
@@ -2795,7 +2853,7 @@
         <v>39</v>
       </c>
       <c r="K53" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L53" t="s">
         <v>44</v>
@@ -2803,10 +2861,10 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B54" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C54">
         <v>477632</v>
@@ -2833,7 +2891,7 @@
         <v>39</v>
       </c>
       <c r="K54" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L54" t="s">
         <v>42</v>
@@ -2844,10 +2902,10 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B55" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C55">
         <v>477629</v>
@@ -2871,10 +2929,10 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K55" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L55" t="s">
         <v>44</v>
@@ -2882,10 +2940,10 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B56" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C56">
         <v>477629</v>
@@ -2909,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K56" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L56" t="s">
         <v>42</v>
@@ -2923,10 +2981,10 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B57" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C57">
         <v>477770</v>
@@ -2953,7 +3011,7 @@
         <v>27</v>
       </c>
       <c r="K57" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L57" t="s">
         <v>41</v>
@@ -2961,10 +3019,10 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B58" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C58">
         <v>477770</v>
@@ -2991,7 +3049,7 @@
         <v>27</v>
       </c>
       <c r="K58" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L58" t="s">
         <v>44</v>
@@ -2999,10 +3057,10 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B59" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C59">
         <v>477770</v>
@@ -3029,7 +3087,7 @@
         <v>27</v>
       </c>
       <c r="K59" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L59" t="s">
         <v>42</v>
@@ -3040,10 +3098,10 @@
     </row>
     <row r="60" spans="1:13">
       <c r="A60" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B60" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C60">
         <v>477770</v>
@@ -3070,7 +3128,7 @@
         <v>27</v>
       </c>
       <c r="K60" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L60" t="s">
         <v>43</v>
@@ -3081,10 +3139,10 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B61" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C61">
         <v>477770</v>
@@ -3111,7 +3169,7 @@
         <v>27</v>
       </c>
       <c r="K61" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L61" t="s">
         <v>48</v>
@@ -3122,10 +3180,10 @@
     </row>
     <row r="62" spans="1:13">
       <c r="A62" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B62" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C62">
         <v>477936</v>
@@ -3152,18 +3210,18 @@
         <v>27</v>
       </c>
       <c r="K62" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L62" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B63" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C63">
         <v>477936</v>
@@ -3190,7 +3248,7 @@
         <v>27</v>
       </c>
       <c r="K63" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L63" t="s">
         <v>44</v>
@@ -3198,10 +3256,10 @@
     </row>
     <row r="64" spans="1:13">
       <c r="A64" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B64" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C64">
         <v>477936</v>
@@ -3228,7 +3286,7 @@
         <v>27</v>
       </c>
       <c r="K64" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L64" t="s">
         <v>42</v>
@@ -3239,10 +3297,10 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B65" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C65">
         <v>477936</v>
@@ -3269,7 +3327,7 @@
         <v>27</v>
       </c>
       <c r="K65" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L65" t="s">
         <v>43</v>
@@ -3280,10 +3338,10 @@
     </row>
     <row r="66" spans="1:13">
       <c r="A66" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B66" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C66">
         <v>477684</v>
@@ -3307,10 +3365,10 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K66" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L66" t="s">
         <v>42</v>
@@ -3321,10 +3379,10 @@
     </row>
     <row r="67" spans="1:13">
       <c r="A67" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B67" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C67">
         <v>477684</v>
@@ -3348,10 +3406,10 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L67" t="s">
         <v>44</v>
@@ -3362,10 +3420,10 @@
     </row>
     <row r="68" spans="1:13">
       <c r="A68" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B68" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C68">
         <v>477684</v>
@@ -3389,24 +3447,24 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
+        <v>127</v>
+      </c>
+      <c r="K68" t="s">
+        <v>128</v>
+      </c>
+      <c r="L68" t="s">
         <v>130</v>
       </c>
-      <c r="K68" t="s">
+      <c r="M68" t="s">
         <v>131</v>
-      </c>
-      <c r="L68" t="s">
-        <v>133</v>
-      </c>
-      <c r="M68" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B69" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C69">
         <v>477684</v>
@@ -3430,13 +3488,13 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K69" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L69" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -3447,21 +3505,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H305"/>
+  <dimension ref="A1:I310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
-      <selection activeCell="G306" sqref="G306"/>
+    <sheetView tabSelected="1" topLeftCell="A300" workbookViewId="0">
+      <selection activeCell="G315" sqref="G315"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.3828125" customWidth="1"/>
-    <col min="5" max="5" width="15.3828125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.53515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3481,10 +3540,13 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -3500,8 +3562,11 @@
       <c r="F2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -3518,7 +3583,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -3535,7 +3600,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -3551,11 +3616,11 @@
       <c r="F5" t="s">
         <v>55</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -3571,25 +3636,31 @@
       <c r="F6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
+      <c r="G6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="3" customFormat="1">
+      <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>4</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -3605,8 +3676,11 @@
       <c r="F8" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -3622,8 +3696,11 @@
       <c r="F9" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -3639,8 +3716,11 @@
       <c r="F10" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -3656,8 +3736,11 @@
       <c r="F11" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -3673,8 +3756,11 @@
       <c r="F12" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -3693,8 +3779,11 @@
       <c r="F13" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -3713,8 +3802,11 @@
       <c r="F14" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -3730,8 +3822,11 @@
       <c r="F15" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -3747,8 +3842,11 @@
       <c r="F16" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="G16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -3767,8 +3865,11 @@
       <c r="F17" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -3788,10 +3889,13 @@
         <v>74</v>
       </c>
       <c r="G18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>143</v>
+      </c>
+      <c r="H18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -3807,8 +3911,11 @@
       <c r="F19" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="G19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -3825,7 +3932,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -3841,8 +3948,11 @@
       <c r="F21" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="G21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3858,8 +3968,11 @@
       <c r="F22" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="G22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3875,8 +3988,11 @@
       <c r="F23" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="G23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -3890,10 +4006,13 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>103</v>
+      </c>
+      <c r="G24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -3910,7 +4029,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -3926,11 +4045,11 @@
       <c r="F26" t="s">
         <v>76</v>
       </c>
-      <c r="G26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -3946,8 +4065,11 @@
       <c r="F27" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="G27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -3966,8 +4088,11 @@
       <c r="F28" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="G28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -3986,8 +4111,11 @@
       <c r="F29" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="G29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -4003,8 +4131,11 @@
       <c r="F30" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="G30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -4020,8 +4151,11 @@
       <c r="F31" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="G31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -4035,10 +4169,10 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -4054,11 +4188,11 @@
       <c r="F33" t="s">
         <v>77</v>
       </c>
-      <c r="G33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -4074,8 +4208,11 @@
       <c r="F34" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="G34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -4091,8 +4228,11 @@
       <c r="F35" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="G35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>23</v>
       </c>
@@ -4111,8 +4251,11 @@
       <c r="F36" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="G36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -4131,8 +4274,11 @@
       <c r="F37" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="G37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -4152,7 +4298,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>23</v>
       </c>
@@ -4171,8 +4317,11 @@
       <c r="F39" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="G39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>23</v>
       </c>
@@ -4188,8 +4337,11 @@
       <c r="F40" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="G40" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>23</v>
       </c>
@@ -4205,8 +4357,11 @@
       <c r="F41" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="G41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -4223,10 +4378,13 @@
         <v>75</v>
       </c>
       <c r="G42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>75</v>
+      </c>
+      <c r="H42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>23</v>
       </c>
@@ -4242,8 +4400,11 @@
       <c r="F43" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="G43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>23</v>
       </c>
@@ -4260,10 +4421,13 @@
         <v>79</v>
       </c>
       <c r="G44" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>89</v>
+      </c>
+      <c r="H44" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>23</v>
       </c>
@@ -4282,8 +4446,11 @@
       <c r="F45" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="G45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>23</v>
       </c>
@@ -4302,8 +4469,11 @@
       <c r="F46" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="G46" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>23</v>
       </c>
@@ -4322,8 +4492,11 @@
       <c r="F47" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="G47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>23</v>
       </c>
@@ -4340,10 +4513,13 @@
         <v>65</v>
       </c>
       <c r="F48" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>98</v>
+      </c>
+      <c r="G48" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>23</v>
       </c>
@@ -4357,10 +4533,10 @@
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>23</v>
       </c>
@@ -4374,10 +4550,13 @@
         <v>3</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>103</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>23</v>
       </c>
@@ -4393,8 +4572,11 @@
       <c r="F51" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="G51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>23</v>
       </c>
@@ -4411,7 +4593,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>23</v>
       </c>
@@ -4425,10 +4607,13 @@
         <v>64</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>103</v>
+      </c>
+      <c r="G53" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>23</v>
       </c>
@@ -4442,10 +4627,13 @@
         <v>65</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>105</v>
+      </c>
+      <c r="G54" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>23</v>
       </c>
@@ -4461,8 +4649,11 @@
       <c r="F55" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="G55" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>23</v>
       </c>
@@ -4478,8 +4669,11 @@
       <c r="F56" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="G56" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>26</v>
       </c>
@@ -4495,8 +4689,11 @@
       <c r="F57" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="G57" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>26</v>
       </c>
@@ -4512,8 +4709,11 @@
       <c r="F58" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="G58" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>26</v>
       </c>
@@ -4530,10 +4730,13 @@
         <v>66</v>
       </c>
       <c r="G59" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>136</v>
+      </c>
+      <c r="H59" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>26</v>
       </c>
@@ -4550,7 +4753,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>26</v>
       </c>
@@ -4566,8 +4769,11 @@
       <c r="F61" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="G61" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>26</v>
       </c>
@@ -4583,8 +4789,11 @@
       <c r="F62" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="G62" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>26</v>
       </c>
@@ -4603,8 +4812,11 @@
       <c r="F63" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="G63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>26</v>
       </c>
@@ -4624,10 +4836,13 @@
         <v>74</v>
       </c>
       <c r="G64" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>143</v>
+      </c>
+      <c r="H64" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>26</v>
       </c>
@@ -4646,13 +4861,16 @@
       <c r="F65" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="G65" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>26</v>
       </c>
       <c r="B66" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="C66" t="s">
         <v>63</v>
@@ -4664,10 +4882,13 @@
         <v>65</v>
       </c>
       <c r="F66" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>98</v>
+      </c>
+      <c r="G66" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>26</v>
       </c>
@@ -4686,8 +4907,11 @@
       <c r="F67" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="G67" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>26</v>
       </c>
@@ -4706,8 +4930,11 @@
       <c r="F68" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="G68" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>26</v>
       </c>
@@ -4726,8 +4953,11 @@
       <c r="F69" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="G69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>28</v>
       </c>
@@ -4743,8 +4973,11 @@
       <c r="F70" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="G70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>28</v>
       </c>
@@ -4761,10 +4994,13 @@
         <v>66</v>
       </c>
       <c r="G71" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>136</v>
+      </c>
+      <c r="H71" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>28</v>
       </c>
@@ -4780,8 +5016,11 @@
       <c r="F72" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="G72" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>28</v>
       </c>
@@ -4797,8 +5036,11 @@
       <c r="F73" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="G73" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>28</v>
       </c>
@@ -4814,8 +5056,11 @@
       <c r="F74" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="G74" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>28</v>
       </c>
@@ -4834,8 +5079,11 @@
       <c r="F75" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="G75" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>28</v>
       </c>
@@ -4852,10 +5100,13 @@
         <v>64</v>
       </c>
       <c r="F76" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>98</v>
+      </c>
+      <c r="G76" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>28</v>
       </c>
@@ -4874,8 +5125,11 @@
       <c r="F77" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="G77" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>28</v>
       </c>
@@ -4892,10 +5146,13 @@
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>98</v>
+      </c>
+      <c r="G78" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>28</v>
       </c>
@@ -4912,13 +5169,13 @@
         <v>65</v>
       </c>
       <c r="F79" t="s">
-        <v>81</v>
-      </c>
-      <c r="G79" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>80</v>
+      </c>
+      <c r="H79" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>28</v>
       </c>
@@ -4935,13 +5192,16 @@
         <v>65</v>
       </c>
       <c r="F80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G80" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>153</v>
+      </c>
+      <c r="H80" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>28</v>
       </c>
@@ -4958,13 +5218,16 @@
         <v>65</v>
       </c>
       <c r="F81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G81" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>152</v>
+      </c>
+      <c r="H81" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>28</v>
       </c>
@@ -4983,8 +5246,11 @@
       <c r="F82" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="G82" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>28</v>
       </c>
@@ -5003,8 +5269,11 @@
       <c r="F83" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="G83" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>28</v>
       </c>
@@ -5021,10 +5290,13 @@
         <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>105</v>
+      </c>
+      <c r="G84" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>28</v>
       </c>
@@ -5043,8 +5315,11 @@
       <c r="F85" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="G85" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>29</v>
       </c>
@@ -5060,8 +5335,11 @@
       <c r="F86" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="G86" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
         <v>29</v>
       </c>
@@ -5077,8 +5355,11 @@
       <c r="F87" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="G87" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>29</v>
       </c>
@@ -5094,8 +5375,11 @@
       <c r="F88" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="G88" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
         <v>29</v>
       </c>
@@ -5111,8 +5395,11 @@
       <c r="F89" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="90" spans="1:7">
+      <c r="G89" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
         <v>29</v>
       </c>
@@ -5129,10 +5416,13 @@
         <v>66</v>
       </c>
       <c r="G90" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>136</v>
+      </c>
+      <c r="H90" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
         <v>29</v>
       </c>
@@ -5148,8 +5438,11 @@
       <c r="F91" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="G91" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
         <v>29</v>
       </c>
@@ -5168,8 +5461,11 @@
       <c r="F92" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="93" spans="1:7">
+      <c r="G92" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
         <v>29</v>
       </c>
@@ -5189,10 +5485,13 @@
         <v>74</v>
       </c>
       <c r="G93" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>143</v>
+      </c>
+      <c r="H93" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
         <v>29</v>
       </c>
@@ -5209,10 +5508,13 @@
         <v>65</v>
       </c>
       <c r="F94" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>98</v>
+      </c>
+      <c r="G94" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
         <v>29</v>
       </c>
@@ -5231,8 +5533,11 @@
       <c r="F95" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="96" spans="1:7">
+      <c r="G95" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
         <v>29</v>
       </c>
@@ -5249,10 +5554,13 @@
         <v>64</v>
       </c>
       <c r="F96" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>98</v>
+      </c>
+      <c r="G96" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
         <v>29</v>
       </c>
@@ -5271,8 +5579,11 @@
       <c r="F97" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="G97" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
         <v>29</v>
       </c>
@@ -5291,8 +5602,11 @@
       <c r="F98" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="99" spans="1:7">
+      <c r="G98" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
         <v>29</v>
       </c>
@@ -5312,10 +5626,13 @@
         <v>74</v>
       </c>
       <c r="G99" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>143</v>
+      </c>
+      <c r="H99" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
         <v>29</v>
       </c>
@@ -5335,47 +5652,42 @@
         <v>66</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
-      <c r="A101" t="s">
+    <row r="101" spans="1:8" s="3" customFormat="1">
+      <c r="A101" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C101" t="s">
-        <v>71</v>
-      </c>
-      <c r="D101">
-        <v>1</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F101" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+      <c r="C101" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E101" s="4"/>
+      <c r="G101" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B102" t="s">
         <v>42</v>
       </c>
       <c r="C102" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D102">
         <v>1</v>
       </c>
-      <c r="E102" s="1">
-        <v>1</v>
+      <c r="E102" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="F102" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
         <v>30</v>
       </c>
@@ -5383,36 +5695,42 @@
         <v>42</v>
       </c>
       <c r="C103" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D103">
         <v>1</v>
       </c>
-      <c r="E103" s="1" t="s">
-        <v>64</v>
+      <c r="E103" s="1">
+        <v>1</v>
       </c>
       <c r="F103" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>68</v>
+      </c>
+      <c r="G103" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
         <v>30</v>
       </c>
       <c r="B104" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C104" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F104" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
         <v>30</v>
       </c>
@@ -5420,16 +5738,19 @@
         <v>44</v>
       </c>
       <c r="C105" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F105" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
+        <v>60</v>
+      </c>
+      <c r="G105" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
         <v>30</v>
       </c>
@@ -5437,16 +5758,19 @@
         <v>44</v>
       </c>
       <c r="C106" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F106" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
+        <v>75</v>
+      </c>
+      <c r="G106" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
         <v>30</v>
       </c>
@@ -5454,16 +5778,19 @@
         <v>44</v>
       </c>
       <c r="C107" t="s">
-        <v>63</v>
-      </c>
-      <c r="E107" s="1">
-        <v>4</v>
+        <v>62</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="F107" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
+        <v>98</v>
+      </c>
+      <c r="G107" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" t="s">
         <v>30</v>
       </c>
@@ -5471,16 +5798,19 @@
         <v>44</v>
       </c>
       <c r="C108" t="s">
-        <v>71</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
+        <v>63</v>
+      </c>
+      <c r="E108" s="1">
+        <v>4</v>
+      </c>
+      <c r="F108" t="s">
+        <v>68</v>
+      </c>
+      <c r="G108" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" t="s">
         <v>30</v>
       </c>
@@ -5488,36 +5818,39 @@
         <v>44</v>
       </c>
       <c r="C109" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F109" t="s">
-        <v>84</v>
-      </c>
-      <c r="G109" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
+        <v>65</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
         <v>30</v>
       </c>
       <c r="B110" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C110" t="s">
-        <v>59</v>
-      </c>
-      <c r="E110" s="1">
-        <v>2</v>
+        <v>72</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="F110" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
+        <v>83</v>
+      </c>
+      <c r="H110" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" t="s">
         <v>30</v>
       </c>
@@ -5525,16 +5858,19 @@
         <v>41</v>
       </c>
       <c r="C111" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E111" s="1">
         <v>2</v>
       </c>
       <c r="F111" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
+        <v>84</v>
+      </c>
+      <c r="G111" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" t="s">
         <v>30</v>
       </c>
@@ -5542,56 +5878,65 @@
         <v>41</v>
       </c>
       <c r="C112" t="s">
+        <v>82</v>
+      </c>
+      <c r="E112" s="1">
+        <v>2</v>
+      </c>
+      <c r="F112" t="s">
+        <v>103</v>
+      </c>
+      <c r="G112" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" t="s">
+        <v>30</v>
+      </c>
+      <c r="B113" t="s">
+        <v>41</v>
+      </c>
+      <c r="C113" t="s">
         <v>62</v>
       </c>
-      <c r="E112" s="1" t="s">
+      <c r="E113" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F113" t="s">
         <v>75</v>
       </c>
-      <c r="G112" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="A113" t="s">
-        <v>32</v>
-      </c>
-      <c r="B113" t="s">
-        <v>42</v>
-      </c>
-      <c r="C113" t="s">
-        <v>59</v>
-      </c>
-      <c r="D113">
-        <v>1</v>
-      </c>
-      <c r="E113" s="1">
-        <v>1</v>
-      </c>
-      <c r="F113" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+      <c r="G113" t="s">
+        <v>75</v>
+      </c>
+      <c r="H113" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" t="s">
         <v>32</v>
       </c>
       <c r="B114" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C114" t="s">
         <v>59</v>
       </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
       <c r="E114" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F114" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="115" spans="1:8">
+      <c r="G114" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
         <v>32</v>
       </c>
@@ -5599,16 +5944,19 @@
         <v>44</v>
       </c>
       <c r="C115" t="s">
-        <v>61</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
+      </c>
+      <c r="E115" s="1">
+        <v>5</v>
       </c>
       <c r="F115" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="G115" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" t="s">
         <v>32</v>
       </c>
@@ -5616,19 +5964,16 @@
         <v>44</v>
       </c>
       <c r="C116" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F116" t="s">
-        <v>74</v>
-      </c>
-      <c r="G116" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" t="s">
         <v>32</v>
       </c>
@@ -5636,39 +5981,39 @@
         <v>44</v>
       </c>
       <c r="C117" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F117" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="H117" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
         <v>32</v>
       </c>
       <c r="B118" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C118" t="s">
-        <v>59</v>
-      </c>
-      <c r="E118" s="1">
-        <v>2</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>106</v>
+        <v>63</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F118" t="s">
+        <v>69</v>
       </c>
       <c r="G118" t="s">
-        <v>55</v>
-      </c>
-      <c r="H118" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" t="s">
         <v>32</v>
       </c>
@@ -5676,56 +6021,72 @@
         <v>41</v>
       </c>
       <c r="C119" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E119" s="1">
         <v>2</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F119" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H119" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" s="3" customFormat="1">
+      <c r="A120" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E120" s="4">
+        <v>2</v>
+      </c>
+      <c r="F120" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G119" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="A120" t="s">
+      <c r="G120"/>
+      <c r="H120" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" s="3" customFormat="1">
+      <c r="A121" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B121" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C120" t="s">
-        <v>62</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F120" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
-      <c r="A121" t="s">
-        <v>32</v>
-      </c>
-      <c r="B121" t="s">
-        <v>41</v>
-      </c>
-      <c r="C121" t="s">
-        <v>63</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F121" t="s">
-        <v>85</v>
-      </c>
-      <c r="G121" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+      <c r="C121" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E121" s="4">
+        <v>2</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" t="s">
         <v>32</v>
       </c>
@@ -5733,19 +6094,19 @@
         <v>41</v>
       </c>
       <c r="C122" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F122" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="G122" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" t="s">
         <v>32</v>
       </c>
@@ -5753,70 +6114,79 @@
         <v>41</v>
       </c>
       <c r="C123" t="s">
+        <v>63</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F123" t="s">
+        <v>84</v>
+      </c>
+      <c r="H123" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" t="s">
+        <v>32</v>
+      </c>
+      <c r="B124" t="s">
+        <v>41</v>
+      </c>
+      <c r="C124" t="s">
+        <v>71</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F124" t="s">
+        <v>102</v>
+      </c>
+      <c r="H124" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" t="s">
+        <v>32</v>
+      </c>
+      <c r="B125" t="s">
+        <v>41</v>
+      </c>
+      <c r="C125" t="s">
         <v>72</v>
       </c>
-      <c r="E123" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F123" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="A124" t="s">
-        <v>33</v>
-      </c>
-      <c r="B124" t="s">
-        <v>42</v>
-      </c>
-      <c r="C124" t="s">
-        <v>59</v>
-      </c>
-      <c r="D124">
-        <v>1</v>
-      </c>
-      <c r="E124" s="1">
-        <v>1</v>
-      </c>
-      <c r="F124" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="A125" t="s">
-        <v>33</v>
-      </c>
-      <c r="B125" t="s">
-        <v>44</v>
-      </c>
-      <c r="C125" t="s">
-        <v>59</v>
-      </c>
-      <c r="E125" s="1">
-        <v>5</v>
+      <c r="E125" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="F125" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" t="s">
         <v>33</v>
       </c>
       <c r="B126" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C126" t="s">
-        <v>61</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126" s="1">
+        <v>1</v>
       </c>
       <c r="F126" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="G126" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" t="s">
         <v>33</v>
       </c>
@@ -5824,19 +6194,19 @@
         <v>44</v>
       </c>
       <c r="C127" t="s">
-        <v>62</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
+      </c>
+      <c r="E127" s="1">
+        <v>5</v>
       </c>
       <c r="F127" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="G127" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" t="s">
         <v>33</v>
       </c>
@@ -5844,16 +6214,16 @@
         <v>44</v>
       </c>
       <c r="C128" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F128" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="G128" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5864,13 +6234,16 @@
         <v>44</v>
       </c>
       <c r="C129" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F129" t="s">
-        <v>66</v>
+        <v>84</v>
+      </c>
+      <c r="H129" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5878,16 +6251,19 @@
         <v>33</v>
       </c>
       <c r="B130" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C130" t="s">
-        <v>59</v>
-      </c>
-      <c r="E130" s="1">
-        <v>1</v>
+        <v>63</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="F130" t="s">
-        <v>60</v>
+        <v>92</v>
+      </c>
+      <c r="H130" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5895,22 +6271,16 @@
         <v>33</v>
       </c>
       <c r="B131" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C131" t="s">
-        <v>61</v>
-      </c>
-      <c r="E131" s="1">
-        <v>2</v>
+        <v>71</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="F131" t="s">
-        <v>94</v>
-      </c>
-      <c r="G131" t="s">
-        <v>95</v>
-      </c>
-      <c r="H131" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5921,13 +6291,16 @@
         <v>41</v>
       </c>
       <c r="C132" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E132" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F132" t="s">
-        <v>77</v>
+        <v>60</v>
+      </c>
+      <c r="G132" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5938,16 +6311,16 @@
         <v>41</v>
       </c>
       <c r="C133" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E133" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F133" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G133" t="s">
-        <v>55</v>
+        <v>150</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5958,16 +6331,16 @@
         <v>41</v>
       </c>
       <c r="C134" t="s">
-        <v>71</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
+      </c>
+      <c r="E134" s="1">
+        <v>2</v>
       </c>
       <c r="F134" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="G134" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5978,13 +6351,16 @@
         <v>41</v>
       </c>
       <c r="C135" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E135" s="1">
         <v>1</v>
       </c>
       <c r="F135" t="s">
-        <v>55</v>
+        <v>94</v>
+      </c>
+      <c r="G135" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5995,13 +6371,16 @@
         <v>41</v>
       </c>
       <c r="C136" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F136" t="s">
-        <v>75</v>
+        <v>92</v>
+      </c>
+      <c r="H136" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -6012,50 +6391,53 @@
         <v>41</v>
       </c>
       <c r="C137" t="s">
-        <v>78</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
+      </c>
+      <c r="E137" s="1">
+        <v>1</v>
       </c>
       <c r="F137" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B138" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C138" t="s">
-        <v>59</v>
-      </c>
-      <c r="E138" s="1">
-        <v>5</v>
+        <v>73</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="F138" t="s">
-        <v>68</v>
+        <v>75</v>
+      </c>
+      <c r="G138" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B139" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C139" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F139" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G139" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -6066,16 +6448,16 @@
         <v>44</v>
       </c>
       <c r="C140" t="s">
-        <v>62</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
+      </c>
+      <c r="E140" s="1">
+        <v>5</v>
       </c>
       <c r="F140" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G140" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -6083,16 +6465,22 @@
         <v>35</v>
       </c>
       <c r="B141" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C141" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F141" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="G141" t="s">
+        <v>69</v>
+      </c>
+      <c r="H141" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -6100,10 +6488,10 @@
         <v>35</v>
       </c>
       <c r="B142" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C142" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>65</v>
@@ -6112,15 +6500,18 @@
         <v>69</v>
       </c>
       <c r="G142" t="s">
+        <v>69</v>
+      </c>
+      <c r="H142" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B143" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C143" t="s">
         <v>59</v>
@@ -6129,15 +6520,18 @@
         <v>65</v>
       </c>
       <c r="F143" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="G143" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B144" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C144" t="s">
         <v>61</v>
@@ -6148,8 +6542,14 @@
       <c r="F144" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="145" spans="1:7">
+      <c r="G144" t="s">
+        <v>69</v>
+      </c>
+      <c r="H144" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" t="s">
         <v>37</v>
       </c>
@@ -6157,53 +6557,59 @@
         <v>41</v>
       </c>
       <c r="C145" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F145" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="G145" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" t="s">
         <v>37</v>
       </c>
       <c r="B146" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C146" t="s">
-        <v>59</v>
-      </c>
-      <c r="E146" s="1">
-        <v>4</v>
+        <v>61</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="F146" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
+        <v>69</v>
+      </c>
+      <c r="G146" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" t="s">
         <v>37</v>
       </c>
       <c r="B147" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C147" t="s">
-        <v>61</v>
-      </c>
-      <c r="E147" s="1">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="F147" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7">
+        <v>95</v>
+      </c>
+      <c r="H147" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" t="s">
         <v>37</v>
       </c>
@@ -6211,19 +6617,19 @@
         <v>44</v>
       </c>
       <c r="C148" t="s">
-        <v>62</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
+      </c>
+      <c r="E148" s="1">
+        <v>4</v>
       </c>
       <c r="F148" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="G148" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" t="s">
         <v>37</v>
       </c>
@@ -6231,59 +6637,59 @@
         <v>44</v>
       </c>
       <c r="C149" t="s">
-        <v>63</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
+      </c>
+      <c r="E149" s="1">
+        <v>1</v>
       </c>
       <c r="F149" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="G149" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" t="s">
         <v>37</v>
       </c>
       <c r="B150" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C150" t="s">
-        <v>59</v>
-      </c>
-      <c r="D150">
-        <v>1</v>
-      </c>
-      <c r="E150" s="1">
-        <v>4</v>
+        <v>62</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="F150" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7">
+        <v>102</v>
+      </c>
+      <c r="H150" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" t="s">
         <v>37</v>
       </c>
       <c r="B151" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C151" t="s">
-        <v>61</v>
-      </c>
-      <c r="D151">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F151" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7">
+        <v>55</v>
+      </c>
+      <c r="H151" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" t="s">
         <v>37</v>
       </c>
@@ -6291,19 +6697,22 @@
         <v>42</v>
       </c>
       <c r="C152" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D152">
         <v>1</v>
       </c>
-      <c r="E152" s="1" t="s">
-        <v>65</v>
+      <c r="E152" s="1">
+        <v>4</v>
       </c>
       <c r="F152" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
+        <v>68</v>
+      </c>
+      <c r="G152" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" t="s">
         <v>37</v>
       </c>
@@ -6311,19 +6720,22 @@
         <v>42</v>
       </c>
       <c r="C153" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D153">
-        <v>2</v>
-      </c>
-      <c r="E153" s="1">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="F153" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7">
+        <v>69</v>
+      </c>
+      <c r="G153" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" t="s">
         <v>37</v>
       </c>
@@ -6331,19 +6743,22 @@
         <v>42</v>
       </c>
       <c r="C154" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D154">
-        <v>2</v>
-      </c>
-      <c r="E154" s="1">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="F154" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7">
+        <v>98</v>
+      </c>
+      <c r="G154" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" t="s">
         <v>37</v>
       </c>
@@ -6351,19 +6766,22 @@
         <v>42</v>
       </c>
       <c r="C155" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D155">
         <v>2</v>
       </c>
-      <c r="E155" s="1" t="s">
-        <v>65</v>
+      <c r="E155" s="1">
+        <v>2</v>
       </c>
       <c r="F155" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7">
+        <v>68</v>
+      </c>
+      <c r="G155" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" t="s">
         <v>37</v>
       </c>
@@ -6371,19 +6789,22 @@
         <v>42</v>
       </c>
       <c r="C156" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D156">
-        <v>3</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>64</v>
+        <v>2</v>
+      </c>
+      <c r="E156" s="1">
+        <v>1</v>
       </c>
       <c r="F156" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7">
+        <v>98</v>
+      </c>
+      <c r="G156" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" t="s">
         <v>37</v>
       </c>
@@ -6391,19 +6812,19 @@
         <v>42</v>
       </c>
       <c r="C157" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D157">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F157" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158" t="s">
         <v>37</v>
       </c>
@@ -6411,64 +6832,70 @@
         <v>42</v>
       </c>
       <c r="C158" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D158">
         <v>3</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F158" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7">
+        <v>68</v>
+      </c>
+      <c r="G158" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" t="s">
         <v>37</v>
       </c>
       <c r="B159" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C159" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D159">
-        <v>1</v>
-      </c>
-      <c r="E159" s="1">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="F159" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7">
+        <v>98</v>
+      </c>
+      <c r="G159" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" t="s">
         <v>37</v>
       </c>
       <c r="B160" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C160" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D160">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F160" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161" t="s">
         <v>37</v>
       </c>
       <c r="B161" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C161" t="s">
         <v>59</v>
@@ -6477,36 +6904,39 @@
         <v>1</v>
       </c>
       <c r="E161" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F161" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="162" spans="1:7">
+      <c r="G161" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" t="s">
         <v>37</v>
       </c>
       <c r="B162" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C162" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F162" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G162" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" t="s">
         <v>37</v>
       </c>
@@ -6514,22 +6944,22 @@
         <v>43</v>
       </c>
       <c r="C163" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D163">
         <v>1</v>
       </c>
-      <c r="E163" s="1" t="s">
-        <v>65</v>
+      <c r="E163" s="1">
+        <v>1</v>
       </c>
       <c r="F163" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G163" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164" t="s">
         <v>37</v>
       </c>
@@ -6537,7 +6967,7 @@
         <v>43</v>
       </c>
       <c r="C164" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D164">
         <v>1</v>
@@ -6546,325 +6976,361 @@
         <v>65</v>
       </c>
       <c r="F164" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7">
+        <v>74</v>
+      </c>
+      <c r="H164" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165" t="s">
         <v>37</v>
       </c>
       <c r="B165" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C165" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D165">
         <v>1</v>
       </c>
-      <c r="E165" s="1">
-        <v>1</v>
+      <c r="E165" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="F165" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7">
+        <v>83</v>
+      </c>
+      <c r="H165" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166" t="s">
         <v>37</v>
       </c>
       <c r="B166" t="s">
+        <v>43</v>
+      </c>
+      <c r="C166" t="s">
+        <v>63</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F166" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" t="s">
+        <v>37</v>
+      </c>
+      <c r="B167" t="s">
         <v>48</v>
-      </c>
-      <c r="C166" t="s">
-        <v>61</v>
-      </c>
-      <c r="D166">
-        <v>1</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F166" t="s">
-        <v>74</v>
-      </c>
-      <c r="G166" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7">
-      <c r="A167" t="s">
-        <v>109</v>
-      </c>
-      <c r="B167" t="s">
-        <v>41</v>
       </c>
       <c r="C167" t="s">
         <v>59</v>
       </c>
-      <c r="E167">
+      <c r="D167">
+        <v>1</v>
+      </c>
+      <c r="E167" s="1">
         <v>1</v>
       </c>
       <c r="F167" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G167" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168" t="s">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="B168" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C168" t="s">
         <v>61</v>
       </c>
-      <c r="E168" t="s">
-        <v>64</v>
+      <c r="D168">
+        <v>1</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="F168" t="s">
-        <v>60</v>
-      </c>
-      <c r="G168" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7">
+        <v>74</v>
+      </c>
+      <c r="H168" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B169" t="s">
         <v>41</v>
       </c>
       <c r="C169" t="s">
-        <v>62</v>
-      </c>
-      <c r="E169" t="s">
-        <v>64</v>
+        <v>59</v>
+      </c>
+      <c r="E169">
+        <v>1</v>
       </c>
       <c r="F169" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7">
+        <v>69</v>
+      </c>
+      <c r="G169" t="s">
+        <v>69</v>
+      </c>
+      <c r="H169" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B170" t="s">
         <v>41</v>
       </c>
       <c r="C170" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E170" t="s">
         <v>64</v>
       </c>
       <c r="F170" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7">
+        <v>60</v>
+      </c>
+      <c r="G170" t="s">
+        <v>60</v>
+      </c>
+      <c r="H170" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B171" t="s">
         <v>41</v>
       </c>
       <c r="C171" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E171" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F171" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7">
+        <v>66</v>
+      </c>
+      <c r="G171" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B172" t="s">
         <v>41</v>
       </c>
       <c r="C172" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E172" t="s">
         <v>64</v>
       </c>
       <c r="F172" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7">
+        <v>68</v>
+      </c>
+      <c r="G172" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B173" t="s">
         <v>41</v>
       </c>
       <c r="C173" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E173" t="s">
         <v>65</v>
       </c>
       <c r="F173" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B174" t="s">
         <v>41</v>
       </c>
       <c r="C174" t="s">
+        <v>72</v>
+      </c>
+      <c r="E174" t="s">
+        <v>64</v>
+      </c>
+      <c r="F174" t="s">
+        <v>55</v>
+      </c>
+      <c r="G174" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" t="s">
+        <v>106</v>
+      </c>
+      <c r="B175" t="s">
+        <v>41</v>
+      </c>
+      <c r="C175" t="s">
+        <v>73</v>
+      </c>
+      <c r="E175" t="s">
+        <v>65</v>
+      </c>
+      <c r="F175" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" t="s">
+        <v>106</v>
+      </c>
+      <c r="B176" t="s">
+        <v>41</v>
+      </c>
+      <c r="C176" t="s">
         <v>78</v>
       </c>
-      <c r="E174" t="s">
-        <v>65</v>
-      </c>
-      <c r="F174" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7">
-      <c r="A175" t="s">
-        <v>109</v>
-      </c>
-      <c r="B175" t="s">
-        <v>44</v>
-      </c>
-      <c r="C175" t="s">
-        <v>59</v>
-      </c>
-      <c r="E175">
-        <v>4</v>
-      </c>
-      <c r="F175" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7">
-      <c r="A176" t="s">
-        <v>109</v>
-      </c>
-      <c r="B176" t="s">
-        <v>44</v>
-      </c>
-      <c r="C176" t="s">
-        <v>61</v>
-      </c>
-      <c r="E176">
-        <v>4</v>
+      <c r="E176" t="s">
+        <v>65</v>
       </c>
       <c r="F176" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7">
+        <v>55</v>
+      </c>
+      <c r="G176" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B177" t="s">
         <v>44</v>
       </c>
       <c r="C177" t="s">
-        <v>62</v>
-      </c>
-      <c r="E177" t="s">
-        <v>64</v>
+        <v>59</v>
+      </c>
+      <c r="E177">
+        <v>4</v>
       </c>
       <c r="F177" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7">
+        <v>68</v>
+      </c>
+      <c r="G177" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B178" t="s">
         <v>44</v>
       </c>
       <c r="C178" t="s">
-        <v>63</v>
-      </c>
-      <c r="E178" t="s">
-        <v>65</v>
+        <v>61</v>
+      </c>
+      <c r="E178">
+        <v>4</v>
       </c>
       <c r="F178" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7">
+        <v>69</v>
+      </c>
+      <c r="G178" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B179" t="s">
         <v>44</v>
       </c>
       <c r="C179" t="s">
+        <v>62</v>
+      </c>
+      <c r="E179" t="s">
+        <v>64</v>
+      </c>
+      <c r="F179" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" t="s">
+        <v>106</v>
+      </c>
+      <c r="B180" t="s">
+        <v>44</v>
+      </c>
+      <c r="C180" t="s">
+        <v>63</v>
+      </c>
+      <c r="E180" t="s">
+        <v>65</v>
+      </c>
+      <c r="F180" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" t="s">
+        <v>106</v>
+      </c>
+      <c r="B181" t="s">
+        <v>44</v>
+      </c>
+      <c r="C181" t="s">
         <v>71</v>
       </c>
-      <c r="E179" t="s">
-        <v>65</v>
-      </c>
-      <c r="F179" t="s">
+      <c r="E181" t="s">
+        <v>65</v>
+      </c>
+      <c r="F181" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="180" spans="1:7">
-      <c r="A180" t="s">
-        <v>109</v>
-      </c>
-      <c r="B180" t="s">
+      <c r="G181" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182" t="s">
+        <v>106</v>
+      </c>
+      <c r="B182" t="s">
         <v>42</v>
-      </c>
-      <c r="C180" t="s">
-        <v>59</v>
-      </c>
-      <c r="D180">
-        <v>1</v>
-      </c>
-      <c r="E180">
-        <v>1</v>
-      </c>
-      <c r="F180" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7">
-      <c r="A181" t="s">
-        <v>109</v>
-      </c>
-      <c r="B181" t="s">
-        <v>42</v>
-      </c>
-      <c r="C181" t="s">
-        <v>61</v>
-      </c>
-      <c r="D181">
-        <v>1</v>
-      </c>
-      <c r="E181" t="s">
-        <v>64</v>
-      </c>
-      <c r="F181" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7">
-      <c r="A182" t="s">
-        <v>109</v>
-      </c>
-      <c r="B182" t="s">
-        <v>43</v>
       </c>
       <c r="C182" t="s">
         <v>59</v>
@@ -6873,35 +7339,41 @@
         <v>1</v>
       </c>
       <c r="E182">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F182" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="183" spans="1:7">
+      <c r="G182" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B183" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C183" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D183">
-        <v>2</v>
-      </c>
-      <c r="E183">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E183" t="s">
+        <v>64</v>
       </c>
       <c r="F183" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7">
+        <v>69</v>
+      </c>
+      <c r="G183" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B184" t="s">
         <v>43</v>
@@ -6910,18 +7382,21 @@
         <v>59</v>
       </c>
       <c r="D184">
+        <v>1</v>
+      </c>
+      <c r="E184">
         <v>3</v>
       </c>
-      <c r="E184">
-        <v>2</v>
-      </c>
       <c r="F184" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="185" spans="1:7">
+      <c r="G184" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B185" t="s">
         <v>43</v>
@@ -6930,110 +7405,119 @@
         <v>59</v>
       </c>
       <c r="D185">
-        <v>1</v>
-      </c>
-      <c r="E185" t="s">
-        <v>64</v>
+        <v>2</v>
+      </c>
+      <c r="E185">
+        <v>2</v>
       </c>
       <c r="F185" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7">
+        <v>68</v>
+      </c>
+      <c r="G185" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B186" t="s">
         <v>43</v>
       </c>
       <c r="C186" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D186">
-        <v>1</v>
-      </c>
-      <c r="E186" t="s">
-        <v>64</v>
+        <v>3</v>
+      </c>
+      <c r="E186">
+        <v>2</v>
       </c>
       <c r="F186" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7">
+        <v>68</v>
+      </c>
+      <c r="G186" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B187" t="s">
         <v>43</v>
       </c>
       <c r="C187" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D187">
-        <v>2</v>
-      </c>
-      <c r="E187">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E187" t="s">
+        <v>64</v>
       </c>
       <c r="F187" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7">
+        <v>69</v>
+      </c>
+      <c r="G187" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B188" t="s">
         <v>43</v>
       </c>
       <c r="C188" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E188" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F188" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="G188" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B189" t="s">
         <v>43</v>
       </c>
       <c r="C189" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D189">
-        <v>3</v>
-      </c>
-      <c r="E189" t="s">
-        <v>65</v>
+        <v>2</v>
+      </c>
+      <c r="E189">
+        <v>2</v>
       </c>
       <c r="F189" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="G189" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B190" t="s">
         <v>43</v>
       </c>
       <c r="C190" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D190">
         <v>2</v>
@@ -7042,12 +7526,15 @@
         <v>65</v>
       </c>
       <c r="F190" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7">
+        <v>55</v>
+      </c>
+      <c r="H190" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B191" t="s">
         <v>43</v>
@@ -7062,149 +7549,164 @@
         <v>65</v>
       </c>
       <c r="F191" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7">
+        <v>55</v>
+      </c>
+      <c r="H191" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B192" t="s">
         <v>43</v>
       </c>
       <c r="C192" t="s">
+        <v>63</v>
+      </c>
+      <c r="D192">
+        <v>2</v>
+      </c>
+      <c r="E192" t="s">
+        <v>65</v>
+      </c>
+      <c r="F192" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193" t="s">
+        <v>106</v>
+      </c>
+      <c r="B193" t="s">
+        <v>43</v>
+      </c>
+      <c r="C193" t="s">
+        <v>63</v>
+      </c>
+      <c r="D193">
+        <v>3</v>
+      </c>
+      <c r="E193" t="s">
+        <v>65</v>
+      </c>
+      <c r="F193" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194" t="s">
+        <v>106</v>
+      </c>
+      <c r="B194" t="s">
+        <v>43</v>
+      </c>
+      <c r="C194" t="s">
         <v>62</v>
       </c>
-      <c r="D192">
+      <c r="D194">
         <v>3</v>
       </c>
-      <c r="E192">
+      <c r="E194">
         <v>2</v>
       </c>
-      <c r="F192" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7">
-      <c r="A193" t="s">
-        <v>111</v>
-      </c>
-      <c r="B193" t="s">
-        <v>44</v>
-      </c>
-      <c r="C193" t="s">
-        <v>59</v>
-      </c>
-      <c r="E193">
-        <v>4</v>
-      </c>
-      <c r="F193" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7">
-      <c r="A194" t="s">
-        <v>111</v>
-      </c>
-      <c r="B194" t="s">
-        <v>44</v>
-      </c>
-      <c r="C194" t="s">
-        <v>61</v>
-      </c>
-      <c r="E194">
-        <v>4</v>
-      </c>
       <c r="F194" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7">
+        <v>98</v>
+      </c>
+      <c r="G194" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B195" t="s">
         <v>44</v>
       </c>
       <c r="C195" t="s">
+        <v>59</v>
+      </c>
+      <c r="E195">
+        <v>4</v>
+      </c>
+      <c r="F195" t="s">
+        <v>68</v>
+      </c>
+      <c r="G195" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196" t="s">
+        <v>108</v>
+      </c>
+      <c r="B196" t="s">
+        <v>44</v>
+      </c>
+      <c r="C196" t="s">
+        <v>61</v>
+      </c>
+      <c r="E196">
+        <v>4</v>
+      </c>
+      <c r="F196" t="s">
+        <v>69</v>
+      </c>
+      <c r="G196" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197" t="s">
+        <v>108</v>
+      </c>
+      <c r="B197" t="s">
+        <v>44</v>
+      </c>
+      <c r="C197" t="s">
         <v>62</v>
       </c>
-      <c r="E195" t="s">
-        <v>65</v>
-      </c>
-      <c r="F195" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7">
-      <c r="A196" t="s">
-        <v>111</v>
-      </c>
-      <c r="B196" t="s">
-        <v>42</v>
-      </c>
-      <c r="C196" t="s">
-        <v>59</v>
-      </c>
-      <c r="D196">
-        <v>1</v>
-      </c>
-      <c r="E196">
-        <v>1</v>
-      </c>
-      <c r="F196" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7">
-      <c r="A197" t="s">
-        <v>111</v>
-      </c>
-      <c r="B197" t="s">
-        <v>42</v>
-      </c>
-      <c r="C197" t="s">
-        <v>61</v>
-      </c>
-      <c r="D197">
-        <v>1</v>
-      </c>
       <c r="E197" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F197" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
       <c r="A198" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B198" t="s">
         <v>42</v>
       </c>
       <c r="C198" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D198">
         <v>1</v>
       </c>
-      <c r="E198" t="s">
-        <v>64</v>
+      <c r="E198">
+        <v>1</v>
       </c>
       <c r="F198" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7">
+        <v>68</v>
+      </c>
+      <c r="G198" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
       <c r="A199" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B199" t="s">
         <v>42</v>
       </c>
       <c r="C199" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D199">
         <v>1</v>
@@ -7213,292 +7715,322 @@
         <v>64</v>
       </c>
       <c r="F199" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="G199" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
       <c r="A200" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B200" t="s">
         <v>42</v>
       </c>
       <c r="C200" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D200">
         <v>1</v>
       </c>
       <c r="E200" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F200" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7">
+        <v>98</v>
+      </c>
+      <c r="G200" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
       <c r="A201" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B201" t="s">
         <v>42</v>
       </c>
       <c r="C201" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E201" t="s">
         <v>64</v>
       </c>
       <c r="F201" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7">
+        <v>55</v>
+      </c>
+      <c r="H201" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
       <c r="A202" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B202" t="s">
         <v>42</v>
       </c>
       <c r="C202" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D202">
-        <v>2</v>
-      </c>
-      <c r="E202">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E202" t="s">
+        <v>65</v>
       </c>
       <c r="F202" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7">
+        <v>80</v>
+      </c>
+      <c r="G202" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
       <c r="A203" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B203" t="s">
         <v>42</v>
       </c>
       <c r="C203" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D203">
         <v>2</v>
       </c>
-      <c r="E203">
-        <v>1</v>
+      <c r="E203" t="s">
+        <v>64</v>
       </c>
       <c r="F203" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="G203" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
       <c r="A204" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B204" t="s">
         <v>42</v>
       </c>
       <c r="C204" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D204">
         <v>2</v>
       </c>
-      <c r="E204" t="s">
+      <c r="E204">
+        <v>2</v>
+      </c>
+      <c r="F204" t="s">
+        <v>98</v>
+      </c>
+      <c r="G204" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205" t="s">
+        <v>108</v>
+      </c>
+      <c r="B205" t="s">
+        <v>42</v>
+      </c>
+      <c r="C205" t="s">
+        <v>63</v>
+      </c>
+      <c r="D205">
+        <v>2</v>
+      </c>
+      <c r="E205">
+        <v>1</v>
+      </c>
+      <c r="F205" t="s">
+        <v>55</v>
+      </c>
+      <c r="H205" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206" t="s">
+        <v>108</v>
+      </c>
+      <c r="B206" t="s">
+        <v>42</v>
+      </c>
+      <c r="C206" t="s">
+        <v>71</v>
+      </c>
+      <c r="D206">
+        <v>2</v>
+      </c>
+      <c r="E206" t="s">
         <v>64</v>
       </c>
-      <c r="F204" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7">
-      <c r="A205" t="s">
-        <v>116</v>
-      </c>
-      <c r="B205" t="s">
-        <v>44</v>
-      </c>
-      <c r="C205" t="s">
-        <v>59</v>
-      </c>
-      <c r="E205">
-        <v>5</v>
-      </c>
-      <c r="F205" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7">
-      <c r="A206" t="s">
-        <v>116</v>
-      </c>
-      <c r="B206" t="s">
-        <v>44</v>
-      </c>
-      <c r="C206" t="s">
-        <v>61</v>
-      </c>
-      <c r="E206">
-        <v>2</v>
-      </c>
       <c r="F206" t="s">
-        <v>69</v>
-      </c>
-      <c r="G206" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
       <c r="A207" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B207" t="s">
         <v>44</v>
       </c>
       <c r="C207" t="s">
-        <v>62</v>
-      </c>
-      <c r="E207" t="s">
-        <v>64</v>
+        <v>59</v>
+      </c>
+      <c r="E207">
+        <v>5</v>
       </c>
       <c r="F207" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G207" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
       <c r="A208" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B208" t="s">
         <v>44</v>
       </c>
       <c r="C208" t="s">
-        <v>63</v>
-      </c>
-      <c r="E208" t="s">
-        <v>64</v>
+        <v>61</v>
+      </c>
+      <c r="E208">
+        <v>2</v>
       </c>
       <c r="F208" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="G208" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7">
+        <v>69</v>
+      </c>
+      <c r="H208" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
       <c r="A209" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B209" t="s">
         <v>44</v>
       </c>
       <c r="C209" t="s">
+        <v>62</v>
+      </c>
+      <c r="E209" t="s">
+        <v>64</v>
+      </c>
+      <c r="F209" t="s">
+        <v>66</v>
+      </c>
+      <c r="H209" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210" t="s">
+        <v>113</v>
+      </c>
+      <c r="B210" t="s">
+        <v>44</v>
+      </c>
+      <c r="C210" t="s">
+        <v>63</v>
+      </c>
+      <c r="E210" t="s">
+        <v>64</v>
+      </c>
+      <c r="F210" t="s">
+        <v>116</v>
+      </c>
+      <c r="H210" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211" t="s">
+        <v>113</v>
+      </c>
+      <c r="B211" t="s">
+        <v>44</v>
+      </c>
+      <c r="C211" t="s">
         <v>71</v>
       </c>
-      <c r="E209" t="s">
-        <v>65</v>
-      </c>
-      <c r="F209" t="s">
+      <c r="E211" t="s">
+        <v>65</v>
+      </c>
+      <c r="F211" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="210" spans="1:7">
-      <c r="A210" t="s">
-        <v>116</v>
-      </c>
-      <c r="B210" t="s">
-        <v>42</v>
-      </c>
-      <c r="C210" t="s">
-        <v>59</v>
-      </c>
-      <c r="D210">
-        <v>1</v>
-      </c>
-      <c r="E210">
-        <v>4</v>
-      </c>
-      <c r="F210" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7">
-      <c r="A211" t="s">
-        <v>116</v>
-      </c>
-      <c r="B211" t="s">
-        <v>42</v>
-      </c>
-      <c r="C211" t="s">
-        <v>61</v>
-      </c>
-      <c r="D211">
-        <v>1</v>
-      </c>
-      <c r="E211" t="s">
-        <v>65</v>
-      </c>
-      <c r="F211" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7">
+      <c r="G211" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
       <c r="A212" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B212" t="s">
         <v>42</v>
       </c>
       <c r="C212" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D212">
         <v>1</v>
       </c>
-      <c r="E212" t="s">
-        <v>64</v>
+      <c r="E212">
+        <v>4</v>
       </c>
       <c r="F212" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7">
+        <v>68</v>
+      </c>
+      <c r="G212" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
       <c r="A213" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B213" t="s">
         <v>42</v>
       </c>
       <c r="C213" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D213">
-        <v>2</v>
-      </c>
-      <c r="E213">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E213" t="s">
+        <v>65</v>
       </c>
       <c r="F213" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7">
+        <v>69</v>
+      </c>
+      <c r="G213" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
       <c r="A214" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B214" t="s">
         <v>42</v>
@@ -7507,1074 +8039,1197 @@
         <v>62</v>
       </c>
       <c r="D214">
-        <v>2</v>
-      </c>
-      <c r="E214">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E214" t="s">
+        <v>64</v>
       </c>
       <c r="F214" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7">
+        <v>98</v>
+      </c>
+      <c r="G214" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
       <c r="A215" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B215" t="s">
         <v>42</v>
       </c>
       <c r="C215" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D215">
         <v>2</v>
       </c>
-      <c r="E215" t="s">
-        <v>65</v>
+      <c r="E215">
+        <v>1</v>
       </c>
       <c r="F215" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7">
+        <v>68</v>
+      </c>
+      <c r="G215" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
       <c r="A216" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B216" t="s">
         <v>42</v>
       </c>
       <c r="C216" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D216">
         <v>2</v>
       </c>
-      <c r="E216" t="s">
-        <v>65</v>
+      <c r="E216">
+        <v>1</v>
       </c>
       <c r="F216" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G216" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
       <c r="A217" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B217" t="s">
         <v>42</v>
       </c>
       <c r="C217" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D217">
-        <v>3</v>
-      </c>
-      <c r="E217">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E217" t="s">
+        <v>65</v>
       </c>
       <c r="F217" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
       <c r="A218" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B218" t="s">
         <v>42</v>
       </c>
       <c r="C218" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D218">
-        <v>3</v>
-      </c>
-      <c r="E218">
         <v>2</v>
       </c>
+      <c r="E218" t="s">
+        <v>65</v>
+      </c>
       <c r="F218" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7">
+        <v>92</v>
+      </c>
+      <c r="G218" t="s">
+        <v>147</v>
+      </c>
+      <c r="H218" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
       <c r="A219" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B219" t="s">
         <v>42</v>
       </c>
       <c r="C219" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D219">
         <v>3</v>
       </c>
-      <c r="E219" t="s">
-        <v>65</v>
+      <c r="E219">
+        <v>1</v>
       </c>
       <c r="F219" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7">
+        <v>68</v>
+      </c>
+      <c r="G219" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
       <c r="A220" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B220" t="s">
         <v>42</v>
       </c>
       <c r="C220" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D220">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E220">
         <v>2</v>
       </c>
       <c r="F220" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G220" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
       <c r="A221" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B221" t="s">
         <v>42</v>
       </c>
       <c r="C221" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D221">
-        <v>1</v>
-      </c>
-      <c r="E221">
         <v>3</v>
       </c>
+      <c r="E221" t="s">
+        <v>65</v>
+      </c>
       <c r="F221" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
       <c r="A222" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B222" t="s">
         <v>42</v>
       </c>
       <c r="C222" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D222">
         <v>1</v>
       </c>
       <c r="E222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F222" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7">
+        <v>105</v>
+      </c>
+      <c r="G222" t="s">
+        <v>105</v>
+      </c>
+      <c r="H222" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
       <c r="A223" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B223" t="s">
         <v>42</v>
       </c>
       <c r="C223" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D223">
         <v>1</v>
       </c>
-      <c r="E223" t="s">
-        <v>65</v>
+      <c r="E223">
+        <v>3</v>
+      </c>
+      <c r="F223" t="s">
+        <v>68</v>
       </c>
       <c r="G223" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
       <c r="A224" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B224" t="s">
         <v>42</v>
       </c>
       <c r="C224" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D224">
         <v>1</v>
       </c>
-      <c r="E224" t="s">
-        <v>65</v>
+      <c r="E224">
+        <v>1</v>
       </c>
       <c r="F224" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7">
+        <v>69</v>
+      </c>
+      <c r="G224" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
       <c r="A225" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B225" t="s">
         <v>42</v>
       </c>
       <c r="C225" t="s">
+        <v>63</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225" t="s">
+        <v>65</v>
+      </c>
+      <c r="H225" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="A226" t="s">
+        <v>117</v>
+      </c>
+      <c r="B226" t="s">
+        <v>42</v>
+      </c>
+      <c r="C226" t="s">
+        <v>71</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226" t="s">
+        <v>65</v>
+      </c>
+      <c r="F226" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
+      <c r="A227" t="s">
+        <v>117</v>
+      </c>
+      <c r="B227" t="s">
+        <v>42</v>
+      </c>
+      <c r="C227" t="s">
         <v>59</v>
       </c>
-      <c r="D225">
+      <c r="D227">
         <v>2</v>
       </c>
-      <c r="E225" t="s">
-        <v>65</v>
-      </c>
-      <c r="F225" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7">
-      <c r="A226" t="s">
-        <v>120</v>
-      </c>
-      <c r="B226" t="s">
-        <v>48</v>
-      </c>
-      <c r="C226" t="s">
-        <v>59</v>
-      </c>
-      <c r="D226">
-        <v>1</v>
-      </c>
-      <c r="E226">
-        <v>2</v>
-      </c>
-      <c r="F226" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7">
-      <c r="A227" t="s">
-        <v>120</v>
-      </c>
-      <c r="B227" t="s">
-        <v>48</v>
-      </c>
-      <c r="C227" t="s">
-        <v>61</v>
-      </c>
-      <c r="D227">
-        <v>1</v>
-      </c>
-      <c r="E227">
-        <v>2</v>
+      <c r="E227" t="s">
+        <v>65</v>
       </c>
       <c r="F227" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7">
+        <v>68</v>
+      </c>
+      <c r="G227" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
       <c r="A228" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B228" t="s">
         <v>48</v>
       </c>
       <c r="C228" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D228">
         <v>1</v>
       </c>
-      <c r="E228" t="s">
-        <v>65</v>
+      <c r="E228">
+        <v>2</v>
       </c>
       <c r="F228" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7">
+        <v>68</v>
+      </c>
+      <c r="G228" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
       <c r="A229" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B229" t="s">
         <v>48</v>
       </c>
       <c r="C229" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D229">
         <v>1</v>
       </c>
       <c r="E229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F229" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7">
+        <v>98</v>
+      </c>
+      <c r="G229" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
       <c r="A230" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B230" t="s">
         <v>48</v>
       </c>
       <c r="C230" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D230">
         <v>1</v>
       </c>
       <c r="E230" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F230" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="G230" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
       <c r="A231" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B231" t="s">
         <v>48</v>
       </c>
       <c r="C231" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D231">
-        <v>2</v>
-      </c>
-      <c r="E231" t="s">
-        <v>64</v>
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
       </c>
       <c r="F231" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7">
+        <v>80</v>
+      </c>
+      <c r="G231" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
       <c r="A232" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B232" t="s">
         <v>48</v>
       </c>
       <c r="C232" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D232">
-        <v>2</v>
-      </c>
-      <c r="E232">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E232" t="s">
+        <v>64</v>
       </c>
       <c r="F232" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7">
+        <v>92</v>
+      </c>
+      <c r="H232" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
       <c r="A233" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B233" t="s">
         <v>48</v>
       </c>
       <c r="C233" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D233">
         <v>2</v>
       </c>
       <c r="E233" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F233" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="G233" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
       <c r="A234" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B234" t="s">
         <v>48</v>
       </c>
       <c r="C234" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D234">
-        <v>3</v>
-      </c>
-      <c r="E234" t="s">
-        <v>64</v>
+        <v>2</v>
+      </c>
+      <c r="E234">
+        <v>2</v>
       </c>
       <c r="F234" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7">
+        <v>98</v>
+      </c>
+      <c r="G234" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
       <c r="A235" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B235" t="s">
         <v>48</v>
       </c>
       <c r="C235" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D235">
-        <v>3</v>
-      </c>
-      <c r="E235">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E235" t="s">
+        <v>65</v>
       </c>
       <c r="F235" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7">
+        <v>92</v>
+      </c>
+      <c r="H235" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
       <c r="A236" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B236" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C236" t="s">
         <v>59</v>
       </c>
       <c r="D236">
-        <v>1</v>
-      </c>
-      <c r="E236">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="E236" t="s">
+        <v>64</v>
       </c>
       <c r="F236" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="237" spans="1:7">
+      <c r="G236" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
       <c r="A237" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B237" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C237" t="s">
         <v>61</v>
       </c>
       <c r="D237">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F237" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7">
+        <v>98</v>
+      </c>
+      <c r="G237" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
       <c r="A238" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B238" t="s">
         <v>43</v>
       </c>
       <c r="C238" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D238">
         <v>1</v>
       </c>
-      <c r="E238" t="s">
-        <v>64</v>
+      <c r="E238">
+        <v>2</v>
       </c>
       <c r="F238" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7">
+        <v>68</v>
+      </c>
+      <c r="G238" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
       <c r="A239" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B239" t="s">
         <v>43</v>
       </c>
       <c r="C239" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D239">
         <v>1</v>
       </c>
       <c r="E239">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F239" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="G239" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
       <c r="A240" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B240" t="s">
         <v>43</v>
       </c>
       <c r="C240" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D240">
-        <v>2</v>
-      </c>
-      <c r="E240">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E240" t="s">
+        <v>64</v>
       </c>
       <c r="F240" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7">
+        <v>105</v>
+      </c>
+      <c r="G240" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
       <c r="A241" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B241" t="s">
         <v>43</v>
       </c>
       <c r="C241" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D241">
-        <v>2</v>
-      </c>
-      <c r="E241" t="s">
-        <v>65</v>
+        <v>1</v>
+      </c>
+      <c r="E241">
+        <v>4</v>
       </c>
       <c r="F241" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7">
+        <v>92</v>
+      </c>
+      <c r="G241" t="s">
+        <v>145</v>
+      </c>
+      <c r="H241" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
       <c r="A242" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B242" t="s">
         <v>43</v>
       </c>
       <c r="C242" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D242">
         <v>2</v>
       </c>
       <c r="E242">
+        <v>1</v>
+      </c>
+      <c r="F242" t="s">
+        <v>68</v>
+      </c>
+      <c r="G242" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
+      <c r="A243" t="s">
+        <v>117</v>
+      </c>
+      <c r="B243" t="s">
+        <v>43</v>
+      </c>
+      <c r="C243" t="s">
+        <v>71</v>
+      </c>
+      <c r="D243">
+        <v>2</v>
+      </c>
+      <c r="E243" t="s">
+        <v>65</v>
+      </c>
+      <c r="F243" t="s">
+        <v>98</v>
+      </c>
+      <c r="G243" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
+      <c r="A244" t="s">
+        <v>117</v>
+      </c>
+      <c r="B244" t="s">
+        <v>43</v>
+      </c>
+      <c r="C244" t="s">
+        <v>63</v>
+      </c>
+      <c r="D244">
+        <v>2</v>
+      </c>
+      <c r="E244">
         <v>3</v>
       </c>
-      <c r="F242" t="s">
-        <v>93</v>
-      </c>
-      <c r="G242" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7">
-      <c r="A243" t="s">
-        <v>120</v>
-      </c>
-      <c r="B243" t="s">
-        <v>41</v>
-      </c>
-      <c r="C243" t="s">
-        <v>59</v>
-      </c>
-      <c r="E243" t="s">
-        <v>65</v>
-      </c>
-      <c r="F243" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7">
-      <c r="A244" t="s">
-        <v>120</v>
-      </c>
-      <c r="B244" t="s">
-        <v>41</v>
-      </c>
-      <c r="C244" t="s">
-        <v>61</v>
-      </c>
-      <c r="E244" t="s">
-        <v>65</v>
-      </c>
       <c r="F244" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7">
+        <v>92</v>
+      </c>
+      <c r="H244" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
       <c r="A245" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B245" t="s">
         <v>41</v>
       </c>
       <c r="C245" t="s">
+        <v>59</v>
+      </c>
+      <c r="E245" t="s">
+        <v>65</v>
+      </c>
+      <c r="F245" t="s">
+        <v>60</v>
+      </c>
+      <c r="G245" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="A246" t="s">
+        <v>117</v>
+      </c>
+      <c r="B246" t="s">
+        <v>41</v>
+      </c>
+      <c r="C246" t="s">
+        <v>61</v>
+      </c>
+      <c r="E246" t="s">
+        <v>65</v>
+      </c>
+      <c r="F246" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
+      <c r="A247" t="s">
+        <v>117</v>
+      </c>
+      <c r="B247" t="s">
+        <v>41</v>
+      </c>
+      <c r="C247" t="s">
         <v>62</v>
       </c>
-      <c r="E245" t="s">
-        <v>65</v>
-      </c>
-      <c r="F245" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7">
-      <c r="A246" t="s">
-        <v>120</v>
-      </c>
-      <c r="B246" t="s">
-        <v>44</v>
-      </c>
-      <c r="C246" t="s">
-        <v>59</v>
-      </c>
-      <c r="E246" t="s">
-        <v>65</v>
-      </c>
-      <c r="F246" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7">
-      <c r="A247" t="s">
-        <v>120</v>
-      </c>
-      <c r="B247" t="s">
-        <v>44</v>
-      </c>
-      <c r="C247" t="s">
-        <v>61</v>
-      </c>
-      <c r="E247">
-        <v>2</v>
+      <c r="E247" t="s">
+        <v>65</v>
       </c>
       <c r="F247" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7">
+        <v>105</v>
+      </c>
+      <c r="G247" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
       <c r="A248" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B248" t="s">
         <v>44</v>
       </c>
       <c r="C248" t="s">
-        <v>62</v>
-      </c>
-      <c r="E248">
-        <v>3</v>
+        <v>59</v>
+      </c>
+      <c r="E248" t="s">
+        <v>65</v>
       </c>
       <c r="F248" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7">
+        <v>60</v>
+      </c>
+      <c r="G248" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
       <c r="A249" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B249" t="s">
         <v>44</v>
       </c>
       <c r="C249" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E249">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F249" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
       <c r="A250" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B250" t="s">
         <v>44</v>
       </c>
       <c r="C250" t="s">
-        <v>71</v>
-      </c>
-      <c r="E250" t="s">
-        <v>65</v>
+        <v>62</v>
+      </c>
+      <c r="E250">
+        <v>3</v>
       </c>
       <c r="F250" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="G250" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
       <c r="A251" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B251" t="s">
         <v>44</v>
       </c>
       <c r="C251" t="s">
-        <v>72</v>
-      </c>
-      <c r="E251" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="E251">
+        <v>3</v>
       </c>
       <c r="F251" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7">
+        <v>69</v>
+      </c>
+      <c r="G251" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
       <c r="A252" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B252" t="s">
         <v>44</v>
       </c>
       <c r="C252" t="s">
+        <v>71</v>
+      </c>
+      <c r="E252" t="s">
+        <v>65</v>
+      </c>
+      <c r="F252" t="s">
+        <v>119</v>
+      </c>
+      <c r="H252" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
+      <c r="A253" t="s">
+        <v>117</v>
+      </c>
+      <c r="B253" t="s">
+        <v>44</v>
+      </c>
+      <c r="C253" t="s">
+        <v>72</v>
+      </c>
+      <c r="E253" t="s">
+        <v>65</v>
+      </c>
+      <c r="F253" t="s">
+        <v>98</v>
+      </c>
+      <c r="G253" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
+      <c r="A254" t="s">
+        <v>117</v>
+      </c>
+      <c r="B254" t="s">
+        <v>44</v>
+      </c>
+      <c r="C254" t="s">
         <v>73</v>
       </c>
-      <c r="E252" t="s">
-        <v>65</v>
-      </c>
-      <c r="F252" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7">
-      <c r="A253" t="s">
-        <v>123</v>
-      </c>
-      <c r="B253" t="s">
-        <v>125</v>
-      </c>
-      <c r="C253" t="s">
+      <c r="E254" t="s">
+        <v>65</v>
+      </c>
+      <c r="F254" t="s">
+        <v>80</v>
+      </c>
+      <c r="G254" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
+      <c r="A255" t="s">
+        <v>120</v>
+      </c>
+      <c r="B255" t="s">
+        <v>122</v>
+      </c>
+      <c r="C255" t="s">
         <v>59</v>
       </c>
-      <c r="E253">
+      <c r="E255">
         <v>3</v>
       </c>
-      <c r="F253" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7">
-      <c r="A254" t="s">
-        <v>123</v>
-      </c>
-      <c r="B254" t="s">
-        <v>125</v>
-      </c>
-      <c r="C254" t="s">
+      <c r="F255" t="s">
+        <v>68</v>
+      </c>
+      <c r="G255" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" s="3" customFormat="1">
+      <c r="A256" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C256" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E254" t="s">
-        <v>65</v>
-      </c>
-      <c r="F254" t="s">
+      <c r="E256" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F256" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="255" spans="1:7">
-      <c r="A255" t="s">
-        <v>123</v>
-      </c>
-      <c r="B255" t="s">
-        <v>125</v>
-      </c>
-      <c r="C255" t="s">
+      <c r="G256" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
+      <c r="A257" t="s">
+        <v>120</v>
+      </c>
+      <c r="B257" t="s">
+        <v>122</v>
+      </c>
+      <c r="C257" t="s">
         <v>62</v>
       </c>
-      <c r="E255" t="s">
-        <v>65</v>
-      </c>
-      <c r="F255" t="s">
+      <c r="E257" t="s">
+        <v>65</v>
+      </c>
+      <c r="F257" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="256" spans="1:7">
-      <c r="A256" t="s">
-        <v>123</v>
-      </c>
-      <c r="B256" t="s">
-        <v>125</v>
-      </c>
-      <c r="C256" t="s">
+      <c r="G257" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
+      <c r="A258" t="s">
+        <v>120</v>
+      </c>
+      <c r="B258" t="s">
+        <v>122</v>
+      </c>
+      <c r="C258" t="s">
         <v>63</v>
       </c>
-      <c r="E256">
-        <v>1</v>
-      </c>
-      <c r="F256" t="s">
+      <c r="E258">
+        <v>1</v>
+      </c>
+      <c r="F258" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="257" spans="1:7">
-      <c r="A257" t="s">
-        <v>123</v>
-      </c>
-      <c r="B257" t="s">
-        <v>125</v>
-      </c>
-      <c r="C257" t="s">
+      <c r="G258" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
+      <c r="A259" t="s">
+        <v>120</v>
+      </c>
+      <c r="B259" t="s">
+        <v>122</v>
+      </c>
+      <c r="C259" t="s">
         <v>71</v>
       </c>
-      <c r="E257">
-        <v>1</v>
-      </c>
-      <c r="F257" t="s">
+      <c r="E259">
+        <v>1</v>
+      </c>
+      <c r="F259" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="258" spans="1:7">
-      <c r="A258" t="s">
-        <v>123</v>
-      </c>
-      <c r="B258" t="s">
-        <v>125</v>
-      </c>
-      <c r="C258" t="s">
+      <c r="G259" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" s="3" customFormat="1">
+      <c r="A260" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C260" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E258" t="s">
-        <v>65</v>
-      </c>
-      <c r="F258" t="s">
-        <v>55</v>
-      </c>
-      <c r="G258" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7">
-      <c r="A259" t="s">
-        <v>123</v>
-      </c>
-      <c r="B259" t="s">
-        <v>44</v>
-      </c>
-      <c r="C259" t="s">
-        <v>59</v>
-      </c>
-      <c r="E259">
-        <v>5</v>
-      </c>
-      <c r="F259" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7">
-      <c r="A260" t="s">
-        <v>123</v>
-      </c>
-      <c r="B260" t="s">
-        <v>44</v>
-      </c>
-      <c r="C260" t="s">
-        <v>61</v>
-      </c>
-      <c r="E260" t="s">
-        <v>64</v>
-      </c>
-      <c r="F260" t="s">
+      <c r="E260" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F260" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G260" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="261" spans="1:7">
+      <c r="H260" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
       <c r="A261" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B261" t="s">
         <v>44</v>
       </c>
       <c r="C261" t="s">
-        <v>62</v>
-      </c>
-      <c r="E261" t="s">
-        <v>65</v>
+        <v>59</v>
+      </c>
+      <c r="E261">
+        <v>5</v>
       </c>
       <c r="F261" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="G261" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
       <c r="A262" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B262" t="s">
         <v>44</v>
       </c>
       <c r="C262" t="s">
-        <v>63</v>
-      </c>
-      <c r="E262">
-        <v>3</v>
+        <v>61</v>
+      </c>
+      <c r="E262" t="s">
+        <v>64</v>
       </c>
       <c r="F262" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
       <c r="A263" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B263" t="s">
         <v>44</v>
       </c>
       <c r="C263" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E263" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F263" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7">
+        <v>55</v>
+      </c>
+      <c r="H263" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
       <c r="A264" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B264" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C264" t="s">
-        <v>59</v>
-      </c>
-      <c r="D264">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="E264">
         <v>3</v>
       </c>
       <c r="F264" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="G264" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
       <c r="A265" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B265" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C265" t="s">
-        <v>61</v>
-      </c>
-      <c r="D265">
-        <v>1</v>
-      </c>
-      <c r="E265">
-        <v>4</v>
+        <v>71</v>
+      </c>
+      <c r="E265" t="s">
+        <v>64</v>
       </c>
       <c r="F265" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7">
+        <v>66</v>
+      </c>
+      <c r="G265" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
       <c r="A266" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B266" t="s">
         <v>42</v>
       </c>
       <c r="C266" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D266">
         <v>1</v>
       </c>
-      <c r="E266" t="s">
-        <v>64</v>
+      <c r="E266">
+        <v>3</v>
       </c>
       <c r="F266" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7">
+        <v>55</v>
+      </c>
+      <c r="H266" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
       <c r="A267" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B267" t="s">
         <v>42</v>
       </c>
       <c r="C267" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D267">
         <v>1</v>
       </c>
-      <c r="E267" t="s">
-        <v>65</v>
+      <c r="E267">
+        <v>4</v>
       </c>
       <c r="F267" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7">
+        <v>68</v>
+      </c>
+      <c r="G267" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
       <c r="A268" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B268" t="s">
         <v>42</v>
       </c>
       <c r="C268" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D268">
         <v>1</v>
       </c>
       <c r="E268" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F268" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="G268" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
       <c r="A269" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B269" t="s">
         <v>42</v>
       </c>
       <c r="C269" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D269">
         <v>1</v>
@@ -8583,127 +9238,133 @@
         <v>65</v>
       </c>
       <c r="F269" t="s">
-        <v>126</v>
-      </c>
-      <c r="G269" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
       <c r="A270" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B270" t="s">
         <v>42</v>
       </c>
       <c r="C270" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D270">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E270" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F270" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7">
+        <v>92</v>
+      </c>
+      <c r="H270" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
       <c r="A271" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B271" t="s">
         <v>42</v>
       </c>
       <c r="C271" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="D271">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E271" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F271" t="s">
-        <v>126</v>
-      </c>
-      <c r="G271" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7">
+        <v>123</v>
+      </c>
+      <c r="H271" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
       <c r="A272" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B272" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C272" t="s">
         <v>59</v>
       </c>
       <c r="D272">
-        <v>1</v>
-      </c>
-      <c r="E272">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="E272" t="s">
+        <v>64</v>
       </c>
       <c r="F272" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="273" spans="1:7">
+      <c r="G272" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9">
       <c r="A273" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B273" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C273" t="s">
         <v>61</v>
       </c>
       <c r="D273">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E273" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F273" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7">
+        <v>123</v>
+      </c>
+      <c r="H273" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9">
       <c r="A274" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B274" t="s">
         <v>43</v>
       </c>
       <c r="C274" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D274">
         <v>1</v>
       </c>
-      <c r="E274" t="s">
-        <v>65</v>
+      <c r="E274">
+        <v>3</v>
       </c>
       <c r="F274" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="G274" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9">
       <c r="A275" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B275" t="s">
         <v>43</v>
       </c>
       <c r="C275" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D275">
         <v>1</v>
@@ -8712,35 +9373,38 @@
         <v>65</v>
       </c>
       <c r="F275" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="G275" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9">
       <c r="A276" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B276" t="s">
         <v>43</v>
       </c>
       <c r="C276" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D276">
-        <v>2</v>
-      </c>
-      <c r="E276">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E276" t="s">
+        <v>65</v>
       </c>
       <c r="F276" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7">
+        <v>92</v>
+      </c>
+      <c r="H276" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9">
       <c r="A277" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B277" t="s">
         <v>43</v>
@@ -8749,107 +9413,107 @@
         <v>63</v>
       </c>
       <c r="D277">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E277" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F277" t="s">
-        <v>127</v>
-      </c>
-      <c r="G277" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7">
+        <v>124</v>
+      </c>
+      <c r="H277" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9">
       <c r="A278" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B278" t="s">
         <v>43</v>
       </c>
       <c r="C278" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D278">
         <v>2</v>
       </c>
-      <c r="E278" t="s">
-        <v>65</v>
+      <c r="E278">
+        <v>2</v>
       </c>
       <c r="F278" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="G278" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9">
       <c r="A279" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B279" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C279" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D279">
-        <v>1</v>
-      </c>
-      <c r="E279">
         <v>2</v>
       </c>
+      <c r="E279" t="s">
+        <v>64</v>
+      </c>
       <c r="F279" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7">
-      <c r="A280" t="s">
-        <v>128</v>
-      </c>
-      <c r="B280" t="s">
-        <v>42</v>
-      </c>
-      <c r="C280" t="s">
-        <v>61</v>
-      </c>
-      <c r="D280">
-        <v>1</v>
-      </c>
-      <c r="E280">
-        <v>1</v>
-      </c>
-      <c r="F280" t="s">
-        <v>55</v>
-      </c>
-      <c r="G280" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7">
+        <v>124</v>
+      </c>
+      <c r="H279" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" s="3" customFormat="1">
+      <c r="A280" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G280" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I280" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9">
       <c r="A281" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B281" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C281" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D281">
-        <v>1</v>
-      </c>
-      <c r="E281">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E281" t="s">
+        <v>65</v>
       </c>
       <c r="F281" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7">
+        <v>92</v>
+      </c>
+      <c r="H281" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9">
       <c r="A282" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B282" t="s">
         <v>42</v>
@@ -8858,18 +9522,21 @@
         <v>59</v>
       </c>
       <c r="D282">
+        <v>1</v>
+      </c>
+      <c r="E282">
         <v>2</v>
       </c>
-      <c r="E282">
-        <v>1</v>
-      </c>
       <c r="F282" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="283" spans="1:7">
+      <c r="G282" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9">
       <c r="A283" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B283" t="s">
         <v>42</v>
@@ -8878,44 +9545,47 @@
         <v>61</v>
       </c>
       <c r="D283">
-        <v>2</v>
-      </c>
-      <c r="E283" t="s">
-        <v>65</v>
+        <v>1</v>
+      </c>
+      <c r="E283">
+        <v>1</v>
       </c>
       <c r="F283" t="s">
         <v>55</v>
       </c>
-      <c r="G283" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7">
-      <c r="A284" t="s">
-        <v>128</v>
-      </c>
-      <c r="B284" t="s">
+      <c r="H283" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" s="3" customFormat="1">
+      <c r="A284" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B284" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C284" t="s">
+      <c r="C284" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D284">
-        <v>2</v>
-      </c>
-      <c r="E284" t="s">
-        <v>65</v>
-      </c>
-      <c r="F284" t="s">
-        <v>55</v>
-      </c>
-      <c r="G284" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7">
+      <c r="D284" s="3">
+        <v>1</v>
+      </c>
+      <c r="E284" s="3">
+        <v>1</v>
+      </c>
+      <c r="F284" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G284" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I284" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9">
       <c r="A285" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B285" t="s">
         <v>42</v>
@@ -8924,21 +9594,21 @@
         <v>59</v>
       </c>
       <c r="D285">
-        <v>3</v>
-      </c>
-      <c r="E285" t="s">
-        <v>65</v>
+        <v>2</v>
+      </c>
+      <c r="E285">
+        <v>1</v>
       </c>
       <c r="F285" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="G285" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9">
       <c r="A286" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B286" t="s">
         <v>42</v>
@@ -8947,384 +9617,517 @@
         <v>61</v>
       </c>
       <c r="D286">
+        <v>2</v>
+      </c>
+      <c r="E286" t="s">
+        <v>65</v>
+      </c>
+      <c r="F286" t="s">
+        <v>55</v>
+      </c>
+      <c r="H286" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" s="3" customFormat="1">
+      <c r="A287" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D287" s="3">
+        <v>2</v>
+      </c>
+      <c r="E287" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F287" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H287" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9">
+      <c r="A288" t="s">
+        <v>125</v>
+      </c>
+      <c r="B288" t="s">
+        <v>42</v>
+      </c>
+      <c r="C288" t="s">
+        <v>59</v>
+      </c>
+      <c r="D288">
         <v>3</v>
       </c>
-      <c r="E286" t="s">
-        <v>65</v>
-      </c>
-      <c r="F286" t="s">
-        <v>55</v>
-      </c>
-      <c r="G286" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7">
-      <c r="A287" t="s">
-        <v>128</v>
-      </c>
-      <c r="B287" t="s">
-        <v>44</v>
-      </c>
-      <c r="C287" t="s">
-        <v>59</v>
-      </c>
-      <c r="E287">
-        <v>2</v>
-      </c>
-      <c r="F287" t="s">
-        <v>55</v>
-      </c>
-      <c r="G287" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7">
-      <c r="A288" t="s">
-        <v>128</v>
-      </c>
-      <c r="B288" t="s">
-        <v>44</v>
-      </c>
-      <c r="C288" t="s">
+      <c r="E288" t="s">
+        <v>65</v>
+      </c>
+      <c r="F288" t="s">
+        <v>55</v>
+      </c>
+      <c r="H288" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
+      <c r="A289" t="s">
+        <v>125</v>
+      </c>
+      <c r="B289" t="s">
+        <v>42</v>
+      </c>
+      <c r="C289" t="s">
         <v>61</v>
       </c>
-      <c r="E288">
-        <v>5</v>
-      </c>
-      <c r="F288" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7">
-      <c r="A289" t="s">
-        <v>128</v>
-      </c>
-      <c r="B289" t="s">
-        <v>44</v>
-      </c>
-      <c r="C289" t="s">
-        <v>62</v>
-      </c>
-      <c r="E289">
-        <v>1</v>
+      <c r="D289">
+        <v>3</v>
+      </c>
+      <c r="E289" t="s">
+        <v>65</v>
       </c>
       <c r="F289" t="s">
-        <v>110</v>
-      </c>
-      <c r="G289" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7">
+        <v>55</v>
+      </c>
+      <c r="H289" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
       <c r="A290" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B290" t="s">
         <v>44</v>
       </c>
       <c r="C290" t="s">
-        <v>63</v>
-      </c>
-      <c r="E290" t="s">
-        <v>65</v>
+        <v>59</v>
+      </c>
+      <c r="E290">
+        <v>2</v>
       </c>
       <c r="F290" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="291" spans="1:7">
+      <c r="H290" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
       <c r="A291" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B291" t="s">
         <v>44</v>
       </c>
       <c r="C291" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E291">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F291" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7">
+        <v>68</v>
+      </c>
+      <c r="G291" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8">
       <c r="A292" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B292" t="s">
         <v>44</v>
       </c>
       <c r="C292" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E292">
         <v>1</v>
       </c>
       <c r="F292" t="s">
-        <v>110</v>
-      </c>
-      <c r="G292" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7">
+        <v>107</v>
+      </c>
+      <c r="H292" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
       <c r="A293" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B293" t="s">
         <v>44</v>
       </c>
       <c r="C293" t="s">
+        <v>63</v>
+      </c>
+      <c r="E293" t="s">
+        <v>65</v>
+      </c>
+      <c r="F293" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8">
+      <c r="A294" t="s">
+        <v>125</v>
+      </c>
+      <c r="B294" t="s">
+        <v>130</v>
+      </c>
+      <c r="C294" t="s">
+        <v>59</v>
+      </c>
+      <c r="E294">
+        <v>4</v>
+      </c>
+      <c r="F294" t="s">
+        <v>69</v>
+      </c>
+      <c r="G294" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8">
+      <c r="A295" t="s">
+        <v>125</v>
+      </c>
+      <c r="B295" t="s">
+        <v>130</v>
+      </c>
+      <c r="C295" t="s">
+        <v>61</v>
+      </c>
+      <c r="E295">
+        <v>1</v>
+      </c>
+      <c r="F295" t="s">
+        <v>107</v>
+      </c>
+      <c r="H295" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8">
+      <c r="A296" t="s">
+        <v>125</v>
+      </c>
+      <c r="B296" t="s">
+        <v>130</v>
+      </c>
+      <c r="C296" t="s">
         <v>62</v>
       </c>
-      <c r="E293" t="s">
-        <v>65</v>
-      </c>
-      <c r="F293" t="s">
-        <v>110</v>
-      </c>
-      <c r="G293" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7">
-      <c r="A294" t="s">
-        <v>128</v>
-      </c>
-      <c r="B294" t="s">
-        <v>44</v>
-      </c>
-      <c r="C294" t="s">
+      <c r="E296" t="s">
+        <v>65</v>
+      </c>
+      <c r="F296" t="s">
+        <v>107</v>
+      </c>
+      <c r="H296" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8">
+      <c r="A297" t="s">
+        <v>125</v>
+      </c>
+      <c r="B297" t="s">
+        <v>130</v>
+      </c>
+      <c r="C297" t="s">
         <v>63</v>
       </c>
-      <c r="E294">
-        <v>1</v>
-      </c>
-      <c r="F294" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7">
-      <c r="A295" t="s">
-        <v>128</v>
-      </c>
-      <c r="B295" t="s">
-        <v>44</v>
-      </c>
-      <c r="C295" t="s">
+      <c r="E297">
+        <v>1</v>
+      </c>
+      <c r="F297" t="s">
+        <v>68</v>
+      </c>
+      <c r="G297" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8">
+      <c r="A298" t="s">
+        <v>125</v>
+      </c>
+      <c r="B298" t="s">
+        <v>130</v>
+      </c>
+      <c r="C298" t="s">
         <v>71</v>
       </c>
-      <c r="E295">
-        <v>1</v>
-      </c>
-      <c r="F295" t="s">
+      <c r="E298">
+        <v>1</v>
+      </c>
+      <c r="F298" t="s">
         <v>66</v>
       </c>
-      <c r="G295" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7">
-      <c r="A296" t="s">
-        <v>128</v>
-      </c>
-      <c r="B296" t="s">
-        <v>44</v>
-      </c>
-      <c r="C296" t="s">
+      <c r="H298" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8">
+      <c r="A299" t="s">
+        <v>125</v>
+      </c>
+      <c r="B299" t="s">
+        <v>130</v>
+      </c>
+      <c r="C299" t="s">
         <v>72</v>
       </c>
-      <c r="E296">
-        <v>1</v>
-      </c>
-      <c r="F296" t="s">
-        <v>55</v>
-      </c>
-      <c r="G296" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7">
-      <c r="A297" t="s">
-        <v>128</v>
-      </c>
-      <c r="B297" t="s">
+      <c r="E299">
+        <v>1</v>
+      </c>
+      <c r="F299" t="s">
+        <v>55</v>
+      </c>
+      <c r="H299" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8">
+      <c r="A300" t="s">
+        <v>125</v>
+      </c>
+      <c r="B300" t="s">
+        <v>129</v>
+      </c>
+      <c r="C300" t="s">
+        <v>59</v>
+      </c>
+      <c r="E300" t="s">
+        <v>65</v>
+      </c>
+      <c r="F300" t="s">
+        <v>55</v>
+      </c>
+      <c r="H300" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8">
+      <c r="A301" t="s">
+        <v>125</v>
+      </c>
+      <c r="B301" t="s">
+        <v>129</v>
+      </c>
+      <c r="C301" t="s">
+        <v>61</v>
+      </c>
+      <c r="E301" t="s">
+        <v>65</v>
+      </c>
+      <c r="F301" t="s">
+        <v>55</v>
+      </c>
+      <c r="H301" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8">
+      <c r="A302" t="s">
+        <v>125</v>
+      </c>
+      <c r="B302" t="s">
+        <v>129</v>
+      </c>
+      <c r="C302" t="s">
+        <v>62</v>
+      </c>
+      <c r="E302" t="s">
+        <v>65</v>
+      </c>
+      <c r="F302" t="s">
+        <v>66</v>
+      </c>
+      <c r="G302" t="s">
+        <v>91</v>
+      </c>
+      <c r="H302" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8">
+      <c r="A303" t="s">
+        <v>125</v>
+      </c>
+      <c r="B303" t="s">
+        <v>129</v>
+      </c>
+      <c r="C303" t="s">
+        <v>63</v>
+      </c>
+      <c r="E303" t="s">
+        <v>65</v>
+      </c>
+      <c r="F303" t="s">
+        <v>66</v>
+      </c>
+      <c r="H303" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8">
+      <c r="A304" t="s">
+        <v>125</v>
+      </c>
+      <c r="B304" t="s">
+        <v>129</v>
+      </c>
+      <c r="C304" t="s">
+        <v>71</v>
+      </c>
+      <c r="E304" t="s">
+        <v>65</v>
+      </c>
+      <c r="F304" t="s">
+        <v>66</v>
+      </c>
+      <c r="G304" t="s">
+        <v>93</v>
+      </c>
+      <c r="H304" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9">
+      <c r="A305" t="s">
+        <v>125</v>
+      </c>
+      <c r="B305" t="s">
+        <v>129</v>
+      </c>
+      <c r="C305" t="s">
+        <v>72</v>
+      </c>
+      <c r="E305" t="s">
+        <v>65</v>
+      </c>
+      <c r="F305" t="s">
+        <v>55</v>
+      </c>
+      <c r="H305" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9">
+      <c r="A306" t="s">
+        <v>125</v>
+      </c>
+      <c r="B306" t="s">
+        <v>129</v>
+      </c>
+      <c r="C306" t="s">
         <v>132</v>
       </c>
-      <c r="C297" t="s">
-        <v>59</v>
-      </c>
-      <c r="E297" t="s">
-        <v>65</v>
-      </c>
-      <c r="F297" t="s">
-        <v>55</v>
-      </c>
-      <c r="G297" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7">
-      <c r="A298" t="s">
-        <v>128</v>
-      </c>
-      <c r="B298" t="s">
-        <v>132</v>
-      </c>
-      <c r="C298" t="s">
-        <v>61</v>
-      </c>
-      <c r="E298" t="s">
-        <v>65</v>
-      </c>
-      <c r="F298" t="s">
-        <v>55</v>
-      </c>
-      <c r="G298" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7">
-      <c r="A299" t="s">
-        <v>128</v>
-      </c>
-      <c r="B299" t="s">
-        <v>132</v>
-      </c>
-      <c r="C299" t="s">
-        <v>62</v>
-      </c>
-      <c r="E299" t="s">
-        <v>65</v>
-      </c>
-      <c r="F299" t="s">
-        <v>66</v>
-      </c>
-      <c r="G299" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7">
-      <c r="A300" t="s">
-        <v>128</v>
-      </c>
-      <c r="B300" t="s">
-        <v>132</v>
-      </c>
-      <c r="C300" t="s">
-        <v>63</v>
-      </c>
-      <c r="E300" t="s">
-        <v>65</v>
-      </c>
-      <c r="F300" t="s">
-        <v>66</v>
-      </c>
-      <c r="G300" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="301" spans="1:7">
-      <c r="A301" t="s">
-        <v>128</v>
-      </c>
-      <c r="B301" t="s">
-        <v>132</v>
-      </c>
-      <c r="C301" t="s">
-        <v>71</v>
-      </c>
-      <c r="E301" t="s">
-        <v>65</v>
-      </c>
-      <c r="F301" t="s">
-        <v>66</v>
-      </c>
-      <c r="G301" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="302" spans="1:7">
-      <c r="A302" t="s">
-        <v>128</v>
-      </c>
-      <c r="B302" t="s">
-        <v>132</v>
-      </c>
-      <c r="C302" t="s">
-        <v>72</v>
-      </c>
-      <c r="E302" t="s">
-        <v>65</v>
-      </c>
-      <c r="F302" t="s">
-        <v>55</v>
-      </c>
-      <c r="G302" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="303" spans="1:7">
-      <c r="A303" t="s">
-        <v>128</v>
-      </c>
-      <c r="B303" t="s">
-        <v>132</v>
-      </c>
-      <c r="C303" t="s">
-        <v>135</v>
-      </c>
-      <c r="E303" t="s">
-        <v>65</v>
-      </c>
-      <c r="F303" t="s">
-        <v>55</v>
-      </c>
-      <c r="G303" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7">
-      <c r="A304" t="s">
-        <v>128</v>
-      </c>
-      <c r="B304" t="s">
-        <v>132</v>
-      </c>
-      <c r="C304" t="s">
-        <v>136</v>
-      </c>
-      <c r="E304">
-        <v>1</v>
-      </c>
-      <c r="F304" t="s">
-        <v>110</v>
-      </c>
-      <c r="G304" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="305" spans="1:7">
-      <c r="A305" t="s">
-        <v>128</v>
-      </c>
-      <c r="B305" t="s">
-        <v>132</v>
-      </c>
-      <c r="C305" t="s">
-        <v>137</v>
-      </c>
-      <c r="E305" t="s">
-        <v>65</v>
-      </c>
-      <c r="F305" t="s">
-        <v>55</v>
-      </c>
-      <c r="G305" t="s">
-        <v>55</v>
+      <c r="E306" t="s">
+        <v>65</v>
+      </c>
+      <c r="F306" t="s">
+        <v>55</v>
+      </c>
+      <c r="H306" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9">
+      <c r="A307" t="s">
+        <v>125</v>
+      </c>
+      <c r="B307" t="s">
+        <v>129</v>
+      </c>
+      <c r="C307" t="s">
+        <v>133</v>
+      </c>
+      <c r="E307">
+        <v>1</v>
+      </c>
+      <c r="F307" t="s">
+        <v>107</v>
+      </c>
+      <c r="G307" t="s">
+        <v>91</v>
+      </c>
+      <c r="H307" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9">
+      <c r="A308" t="s">
+        <v>125</v>
+      </c>
+      <c r="B308" t="s">
+        <v>129</v>
+      </c>
+      <c r="C308" t="s">
+        <v>134</v>
+      </c>
+      <c r="E308" t="s">
+        <v>65</v>
+      </c>
+      <c r="F308" t="s">
+        <v>55</v>
+      </c>
+      <c r="H308" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" s="3" customFormat="1">
+      <c r="A309" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E309" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F309" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H309" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I309" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" s="3" customFormat="1">
+      <c r="A310" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C310" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E310" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G310" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H310" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I310" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -9341,55 +10144,55 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" t="s">
         <v>88</v>
-      </c>
-      <c r="C6" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" t="s">
         <v>90</v>
-      </c>
-      <c r="C7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Aufnahmebogen/Aufnahmebögen_digitalisiert.xlsx
+++ b/Aufnahmebogen/Aufnahmebögen_digitalisiert.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2122" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2131" uniqueCount="154">
   <si>
     <t>Plot-ID</t>
   </si>
@@ -3507,8 +3507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A300" workbookViewId="0">
-      <selection activeCell="G315" sqref="G315"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3931,6 +3931,9 @@
       <c r="F20" t="s">
         <v>75</v>
       </c>
+      <c r="G20" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
@@ -4028,6 +4031,9 @@
       <c r="F25" t="s">
         <v>75</v>
       </c>
+      <c r="G25" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
@@ -4752,6 +4758,9 @@
       <c r="F60" t="s">
         <v>75</v>
       </c>
+      <c r="G60" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
@@ -5686,6 +5695,9 @@
       <c r="F102" t="s">
         <v>75</v>
       </c>
+      <c r="G102" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
@@ -5972,6 +5984,9 @@
       <c r="F116" t="s">
         <v>75</v>
       </c>
+      <c r="G116" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" t="s">
@@ -7173,6 +7188,9 @@
       <c r="F173" t="s">
         <v>75</v>
       </c>
+      <c r="G173" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" t="s">
@@ -7304,6 +7322,9 @@
       <c r="F180" t="s">
         <v>75</v>
       </c>
+      <c r="G180" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="181" spans="1:8">
       <c r="A181" t="s">
@@ -9091,6 +9112,9 @@
       <c r="F262" t="s">
         <v>75</v>
       </c>
+      <c r="G262" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="263" spans="1:8">
       <c r="A263" t="s">
@@ -9238,6 +9262,9 @@
         <v>65</v>
       </c>
       <c r="F269" t="s">
+        <v>75</v>
+      </c>
+      <c r="G269" t="s">
         <v>75</v>
       </c>
     </row>

--- a/Aufnahmebogen/Aufnahmebögen_digitalisiert.xlsx
+++ b/Aufnahmebogen/Aufnahmebögen_digitalisiert.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2131" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2132" uniqueCount="154">
   <si>
     <t>Plot-ID</t>
   </si>
@@ -3508,7 +3508,7 @@
   <dimension ref="A1:I310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="G123" sqref="G123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6135,6 +6135,9 @@
         <v>65</v>
       </c>
       <c r="F123" t="s">
+        <v>84</v>
+      </c>
+      <c r="G123" t="s">
         <v>84</v>
       </c>
       <c r="H123" t="s">

--- a/Aufnahmebogen/Aufnahmebögen_digitalisiert.xlsx
+++ b/Aufnahmebogen/Aufnahmebögen_digitalisiert.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Mainplot" sheetId="2" r:id="rId1"/>
@@ -832,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="M69" sqref="M69"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="M65" sqref="M65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3507,7 +3507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I310"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A140" workbookViewId="0">
       <selection activeCell="G123" sqref="G123"/>
     </sheetView>
   </sheetViews>

--- a/Aufnahmebogen/Aufnahmebögen_digitalisiert.xlsx
+++ b/Aufnahmebogen/Aufnahmebögen_digitalisiert.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mainplot" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2132" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2155" uniqueCount="156">
   <si>
     <t>Plot-ID</t>
   </si>
@@ -306,9 +306,6 @@
     <t>lebermoos</t>
   </si>
   <si>
-    <t>auf rinde</t>
-  </si>
-  <si>
     <t>: conjugata oder simplex</t>
   </si>
   <si>
@@ -465,9 +462,6 @@
     <t>Mxyz2</t>
   </si>
   <si>
-    <t>mnium spec.</t>
-  </si>
-  <si>
     <t>rhizomnium punctatum</t>
   </si>
   <si>
@@ -478,6 +472,18 @@
   </si>
   <si>
     <t>frullania dilatata</t>
+  </si>
+  <si>
+    <t>M?</t>
+  </si>
+  <si>
+    <t>herzogiella seligeri</t>
+  </si>
+  <si>
+    <t>M0x</t>
+  </si>
+  <si>
+    <t>plagiothecium laetum</t>
   </si>
 </sst>
 </file>
@@ -832,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="M65" sqref="M65"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2665,10 +2671,10 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C49">
         <v>477610</v>
@@ -2692,10 +2698,10 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
+        <v>109</v>
+      </c>
+      <c r="K49" t="s">
         <v>110</v>
-      </c>
-      <c r="K49" t="s">
-        <v>111</v>
       </c>
       <c r="L49" t="s">
         <v>41</v>
@@ -2703,10 +2709,10 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B50" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C50">
         <v>477610</v>
@@ -2730,10 +2736,10 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
+        <v>109</v>
+      </c>
+      <c r="K50" t="s">
         <v>110</v>
-      </c>
-      <c r="K50" t="s">
-        <v>111</v>
       </c>
       <c r="L50" t="s">
         <v>44</v>
@@ -2741,10 +2747,10 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B51" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C51">
         <v>477610</v>
@@ -2768,10 +2774,10 @@
         <v>0</v>
       </c>
       <c r="J51" t="s">
+        <v>109</v>
+      </c>
+      <c r="K51" t="s">
         <v>110</v>
-      </c>
-      <c r="K51" t="s">
-        <v>111</v>
       </c>
       <c r="L51" t="s">
         <v>42</v>
@@ -2782,10 +2788,10 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C52">
         <v>477610</v>
@@ -2809,10 +2815,10 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
+        <v>109</v>
+      </c>
+      <c r="K52" t="s">
         <v>110</v>
-      </c>
-      <c r="K52" t="s">
-        <v>111</v>
       </c>
       <c r="L52" t="s">
         <v>43</v>
@@ -2823,10 +2829,10 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" t="s">
         <v>108</v>
-      </c>
-      <c r="B53" t="s">
-        <v>109</v>
       </c>
       <c r="C53">
         <v>477632</v>
@@ -2853,7 +2859,7 @@
         <v>39</v>
       </c>
       <c r="K53" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L53" t="s">
         <v>44</v>
@@ -2861,10 +2867,10 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" t="s">
         <v>108</v>
-      </c>
-      <c r="B54" t="s">
-        <v>109</v>
       </c>
       <c r="C54">
         <v>477632</v>
@@ -2891,7 +2897,7 @@
         <v>39</v>
       </c>
       <c r="K54" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L54" t="s">
         <v>42</v>
@@ -2902,10 +2908,10 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C55">
         <v>477629</v>
@@ -2929,10 +2935,10 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
+        <v>113</v>
+      </c>
+      <c r="K55" t="s">
         <v>114</v>
-      </c>
-      <c r="K55" t="s">
-        <v>115</v>
       </c>
       <c r="L55" t="s">
         <v>44</v>
@@ -2940,10 +2946,10 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C56">
         <v>477629</v>
@@ -2967,10 +2973,10 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
+        <v>113</v>
+      </c>
+      <c r="K56" t="s">
         <v>114</v>
-      </c>
-      <c r="K56" t="s">
-        <v>115</v>
       </c>
       <c r="L56" t="s">
         <v>42</v>
@@ -2981,10 +2987,10 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C57">
         <v>477770</v>
@@ -3011,7 +3017,7 @@
         <v>27</v>
       </c>
       <c r="K57" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L57" t="s">
         <v>41</v>
@@ -3019,10 +3025,10 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B58" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C58">
         <v>477770</v>
@@ -3049,7 +3055,7 @@
         <v>27</v>
       </c>
       <c r="K58" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L58" t="s">
         <v>44</v>
@@ -3057,10 +3063,10 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B59" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C59">
         <v>477770</v>
@@ -3087,7 +3093,7 @@
         <v>27</v>
       </c>
       <c r="K59" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L59" t="s">
         <v>42</v>
@@ -3098,10 +3104,10 @@
     </row>
     <row r="60" spans="1:13">
       <c r="A60" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B60" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C60">
         <v>477770</v>
@@ -3128,7 +3134,7 @@
         <v>27</v>
       </c>
       <c r="K60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L60" t="s">
         <v>43</v>
@@ -3139,10 +3145,10 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B61" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C61">
         <v>477770</v>
@@ -3169,7 +3175,7 @@
         <v>27</v>
       </c>
       <c r="K61" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L61" t="s">
         <v>48</v>
@@ -3180,10 +3186,10 @@
     </row>
     <row r="62" spans="1:13">
       <c r="A62" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C62">
         <v>477936</v>
@@ -3210,18 +3216,18 @@
         <v>27</v>
       </c>
       <c r="K62" t="s">
+        <v>120</v>
+      </c>
+      <c r="L62" t="s">
         <v>121</v>
-      </c>
-      <c r="L62" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B63" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C63">
         <v>477936</v>
@@ -3248,7 +3254,7 @@
         <v>27</v>
       </c>
       <c r="K63" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L63" t="s">
         <v>44</v>
@@ -3256,10 +3262,10 @@
     </row>
     <row r="64" spans="1:13">
       <c r="A64" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C64">
         <v>477936</v>
@@ -3286,7 +3292,7 @@
         <v>27</v>
       </c>
       <c r="K64" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L64" t="s">
         <v>42</v>
@@ -3297,10 +3303,10 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B65" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C65">
         <v>477936</v>
@@ -3327,7 +3333,7 @@
         <v>27</v>
       </c>
       <c r="K65" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L65" t="s">
         <v>43</v>
@@ -3338,10 +3344,10 @@
     </row>
     <row r="66" spans="1:13">
       <c r="A66" t="s">
+        <v>124</v>
+      </c>
+      <c r="B66" t="s">
         <v>125</v>
-      </c>
-      <c r="B66" t="s">
-        <v>126</v>
       </c>
       <c r="C66">
         <v>477684</v>
@@ -3365,10 +3371,10 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
+        <v>126</v>
+      </c>
+      <c r="K66" t="s">
         <v>127</v>
-      </c>
-      <c r="K66" t="s">
-        <v>128</v>
       </c>
       <c r="L66" t="s">
         <v>42</v>
@@ -3379,10 +3385,10 @@
     </row>
     <row r="67" spans="1:13">
       <c r="A67" t="s">
+        <v>124</v>
+      </c>
+      <c r="B67" t="s">
         <v>125</v>
-      </c>
-      <c r="B67" t="s">
-        <v>126</v>
       </c>
       <c r="C67">
         <v>477684</v>
@@ -3406,10 +3412,10 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
+        <v>126</v>
+      </c>
+      <c r="K67" t="s">
         <v>127</v>
-      </c>
-      <c r="K67" t="s">
-        <v>128</v>
       </c>
       <c r="L67" t="s">
         <v>44</v>
@@ -3420,10 +3426,10 @@
     </row>
     <row r="68" spans="1:13">
       <c r="A68" t="s">
+        <v>124</v>
+      </c>
+      <c r="B68" t="s">
         <v>125</v>
-      </c>
-      <c r="B68" t="s">
-        <v>126</v>
       </c>
       <c r="C68">
         <v>477684</v>
@@ -3447,24 +3453,24 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
+        <v>126</v>
+      </c>
+      <c r="K68" t="s">
         <v>127</v>
       </c>
-      <c r="K68" t="s">
-        <v>128</v>
-      </c>
       <c r="L68" t="s">
+        <v>129</v>
+      </c>
+      <c r="M68" t="s">
         <v>130</v>
-      </c>
-      <c r="M68" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" t="s">
+        <v>124</v>
+      </c>
+      <c r="B69" t="s">
         <v>125</v>
-      </c>
-      <c r="B69" t="s">
-        <v>126</v>
       </c>
       <c r="C69">
         <v>477684</v>
@@ -3488,13 +3494,13 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
+        <v>126</v>
+      </c>
+      <c r="K69" t="s">
         <v>127</v>
       </c>
-      <c r="K69" t="s">
+      <c r="L69" t="s">
         <v>128</v>
-      </c>
-      <c r="L69" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -3505,10 +3511,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I310"/>
+  <dimension ref="A1:I316"/>
   <sheetViews>
-    <sheetView topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="G123" sqref="G123"/>
+    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="G252" sqref="G252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3540,7 +3546,7 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H1" t="s">
         <v>8</v>
@@ -3657,7 +3663,7 @@
         <v>60</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3823,7 +3829,7 @@
         <v>66</v>
       </c>
       <c r="G15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3846,7 +3852,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -3869,7 +3875,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -3889,13 +3895,10 @@
         <v>74</v>
       </c>
       <c r="G18" t="s">
-        <v>143</v>
-      </c>
-      <c r="H18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -3915,7 +3918,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -3935,7 +3938,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -3955,7 +3958,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3975,7 +3978,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3995,7 +3998,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -4009,13 +4012,13 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -4035,7 +4038,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -4051,11 +4054,11 @@
       <c r="F26" t="s">
         <v>76</v>
       </c>
-      <c r="H26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="G26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -4075,7 +4078,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -4098,7 +4101,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -4121,7 +4124,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -4141,7 +4144,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -4161,7 +4164,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -4175,7 +4178,10 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="G32" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -4194,8 +4200,8 @@
       <c r="F33" t="s">
         <v>77</v>
       </c>
-      <c r="H33" t="s">
-        <v>55</v>
+      <c r="G33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -4303,6 +4309,9 @@
       <c r="F38" t="s">
         <v>79</v>
       </c>
+      <c r="G38" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
@@ -4344,7 +4353,7 @@
         <v>68</v>
       </c>
       <c r="G40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -4429,9 +4438,6 @@
       <c r="G44" t="s">
         <v>89</v>
       </c>
-      <c r="H44" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
@@ -4476,7 +4482,7 @@
         <v>55</v>
       </c>
       <c r="G46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -4519,10 +4525,10 @@
         <v>65</v>
       </c>
       <c r="F48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -4541,6 +4547,9 @@
       <c r="F49" t="s">
         <v>84</v>
       </c>
+      <c r="G49" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
@@ -4556,10 +4565,10 @@
         <v>3</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -4613,10 +4622,10 @@
         <v>64</v>
       </c>
       <c r="F53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -4633,10 +4642,10 @@
         <v>65</v>
       </c>
       <c r="F54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G54" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -4676,7 +4685,7 @@
         <v>77</v>
       </c>
       <c r="G56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -4736,7 +4745,7 @@
         <v>66</v>
       </c>
       <c r="G59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H59" t="s">
         <v>55</v>
@@ -4845,10 +4854,7 @@
         <v>74</v>
       </c>
       <c r="G64" t="s">
-        <v>143</v>
-      </c>
-      <c r="H64" t="s">
-        <v>55</v>
+        <v>142</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4891,10 +4897,10 @@
         <v>65</v>
       </c>
       <c r="F66" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G66" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -5003,7 +5009,7 @@
         <v>66</v>
       </c>
       <c r="G71" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H71" t="s">
         <v>55</v>
@@ -5109,10 +5115,10 @@
         <v>64</v>
       </c>
       <c r="F76" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G76" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -5155,10 +5161,10 @@
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G78" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -5204,7 +5210,7 @@
         <v>81</v>
       </c>
       <c r="G80" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H80" t="s">
         <v>55</v>
@@ -5230,7 +5236,7 @@
         <v>80</v>
       </c>
       <c r="G81" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H81" t="s">
         <v>55</v>
@@ -5299,10 +5305,10 @@
         <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G84" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -5425,7 +5431,7 @@
         <v>66</v>
       </c>
       <c r="G90" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H90" t="s">
         <v>55</v>
@@ -5494,10 +5500,7 @@
         <v>74</v>
       </c>
       <c r="G93" t="s">
-        <v>143</v>
-      </c>
-      <c r="H93" t="s">
-        <v>55</v>
+        <v>142</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -5517,10 +5520,10 @@
         <v>65</v>
       </c>
       <c r="F94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -5563,13 +5566,13 @@
         <v>64</v>
       </c>
       <c r="F96" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G96" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
         <v>29</v>
       </c>
@@ -5592,7 +5595,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:9">
       <c r="A98" t="s">
         <v>29</v>
       </c>
@@ -5615,7 +5618,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:9">
       <c r="A99" t="s">
         <v>29</v>
       </c>
@@ -5635,13 +5638,10 @@
         <v>74</v>
       </c>
       <c r="G99" t="s">
-        <v>143</v>
-      </c>
-      <c r="H99" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
         <v>29</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="101" spans="1:8" s="3" customFormat="1">
+    <row r="101" spans="1:9" s="3" customFormat="1">
       <c r="A101" s="3" t="s">
         <v>29</v>
       </c>
@@ -5669,14 +5669,17 @@
         <v>42</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E101" s="4"/>
       <c r="G101" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" t="s">
         <v>29</v>
       </c>
@@ -5699,7 +5702,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
         <v>30</v>
       </c>
@@ -5722,7 +5725,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:9">
       <c r="A104" t="s">
         <v>30</v>
       </c>
@@ -5742,7 +5745,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:9">
       <c r="A105" t="s">
         <v>30</v>
       </c>
@@ -5762,7 +5765,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
         <v>30</v>
       </c>
@@ -5782,7 +5785,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:9">
       <c r="A107" t="s">
         <v>30</v>
       </c>
@@ -5796,13 +5799,13 @@
         <v>65</v>
       </c>
       <c r="F107" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G107" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" t="s">
         <v>30</v>
       </c>
@@ -5822,7 +5825,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
         <v>30</v>
       </c>
@@ -5836,13 +5839,13 @@
         <v>65</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" t="s">
         <v>30</v>
       </c>
@@ -5862,7 +5865,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:9">
       <c r="A111" t="s">
         <v>30</v>
       </c>
@@ -5879,10 +5882,10 @@
         <v>84</v>
       </c>
       <c r="G111" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
         <v>30</v>
       </c>
@@ -5896,10 +5899,10 @@
         <v>2</v>
       </c>
       <c r="F112" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G112" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -6025,7 +6028,7 @@
         <v>69</v>
       </c>
       <c r="G118" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -6033,46 +6036,39 @@
         <v>32</v>
       </c>
       <c r="B119" t="s">
+        <v>44</v>
+      </c>
+      <c r="C119" t="s">
+        <v>152</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F119" t="s">
+        <v>101</v>
+      </c>
+      <c r="G119" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" t="s">
+        <v>32</v>
+      </c>
+      <c r="B120" t="s">
         <v>41</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C120" t="s">
         <v>59</v>
       </c>
-      <c r="E119" s="1">
+      <c r="E120" s="1">
         <v>2</v>
       </c>
-      <c r="F119" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H119" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" s="3" customFormat="1">
-      <c r="A120" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E120" s="4">
-        <v>2</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G120"/>
-      <c r="H120" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I120" s="3" t="s">
-        <v>140</v>
+      <c r="F120" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="121" spans="1:9" s="3" customFormat="1">
@@ -6091,34 +6087,38 @@
       <c r="F121" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G121" s="3" t="s">
-        <v>102</v>
-      </c>
+      <c r="G121"/>
       <c r="H121" s="3" t="s">
         <v>55</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
-      <c r="A122" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" s="3" customFormat="1">
+      <c r="A122" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C122" t="s">
-        <v>62</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F122" t="s">
-        <v>91</v>
-      </c>
-      <c r="G122" t="s">
-        <v>137</v>
+      <c r="C122" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E122" s="4">
+        <v>2</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -6129,19 +6129,16 @@
         <v>41</v>
       </c>
       <c r="C123" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F123" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G123" t="s">
-        <v>84</v>
-      </c>
-      <c r="H123" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -6152,16 +6149,16 @@
         <v>41</v>
       </c>
       <c r="C124" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F124" t="s">
-        <v>102</v>
-      </c>
-      <c r="H124" t="s">
-        <v>55</v>
+        <v>84</v>
+      </c>
+      <c r="G124" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -6172,56 +6169,50 @@
         <v>41</v>
       </c>
       <c r="C125" t="s">
+        <v>71</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F125" t="s">
+        <v>101</v>
+      </c>
+      <c r="H125" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" s="3" customFormat="1">
+      <c r="A126" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C126" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E125" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F125" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
-      <c r="A126" t="s">
-        <v>33</v>
-      </c>
-      <c r="B126" t="s">
-        <v>42</v>
-      </c>
-      <c r="C126" t="s">
-        <v>59</v>
-      </c>
-      <c r="D126">
-        <v>1</v>
-      </c>
-      <c r="E126" s="1">
-        <v>1</v>
-      </c>
-      <c r="F126" t="s">
-        <v>68</v>
-      </c>
-      <c r="G126" t="s">
-        <v>68</v>
+      <c r="E126" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B127" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C127" t="s">
-        <v>59</v>
-      </c>
-      <c r="E127" s="1">
-        <v>5</v>
+        <v>72</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="F127" t="s">
-        <v>68</v>
-      </c>
-      <c r="G127" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -6229,19 +6220,22 @@
         <v>33</v>
       </c>
       <c r="B128" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C128" t="s">
-        <v>61</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128" s="1">
+        <v>1</v>
       </c>
       <c r="F128" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G128" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -6252,16 +6246,16 @@
         <v>44</v>
       </c>
       <c r="C129" t="s">
-        <v>62</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
+      </c>
+      <c r="E129" s="1">
+        <v>5</v>
       </c>
       <c r="F129" t="s">
-        <v>84</v>
-      </c>
-      <c r="H129" t="s">
-        <v>55</v>
+        <v>68</v>
+      </c>
+      <c r="G129" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -6272,16 +6266,16 @@
         <v>44</v>
       </c>
       <c r="C130" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F130" t="s">
-        <v>92</v>
-      </c>
-      <c r="H130" t="s">
-        <v>55</v>
+        <v>69</v>
+      </c>
+      <c r="G130" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -6292,13 +6286,16 @@
         <v>44</v>
       </c>
       <c r="C131" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F131" t="s">
-        <v>66</v>
+        <v>84</v>
+      </c>
+      <c r="H131" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -6306,19 +6303,19 @@
         <v>33</v>
       </c>
       <c r="B132" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C132" t="s">
-        <v>59</v>
-      </c>
-      <c r="E132" s="1">
-        <v>1</v>
+        <v>63</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="F132" t="s">
-        <v>60</v>
-      </c>
-      <c r="G132" t="s">
-        <v>60</v>
+        <v>92</v>
+      </c>
+      <c r="H132" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -6326,19 +6323,16 @@
         <v>33</v>
       </c>
       <c r="B133" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C133" t="s">
-        <v>61</v>
-      </c>
-      <c r="E133" s="1">
-        <v>2</v>
+        <v>71</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="F133" t="s">
-        <v>93</v>
-      </c>
-      <c r="G133" t="s">
-        <v>150</v>
+        <v>66</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -6349,16 +6343,16 @@
         <v>41</v>
       </c>
       <c r="C134" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E134" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F134" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="G134" t="s">
-        <v>138</v>
+        <v>60</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -6369,16 +6363,16 @@
         <v>41</v>
       </c>
       <c r="C135" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E135" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F135" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G135" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -6389,16 +6383,16 @@
         <v>41</v>
       </c>
       <c r="C136" t="s">
-        <v>71</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
+      </c>
+      <c r="E136" s="1">
+        <v>2</v>
       </c>
       <c r="F136" t="s">
-        <v>92</v>
-      </c>
-      <c r="H136" t="s">
-        <v>55</v>
+        <v>77</v>
+      </c>
+      <c r="G136" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -6409,13 +6403,16 @@
         <v>41</v>
       </c>
       <c r="C137" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E137" s="1">
         <v>1</v>
       </c>
       <c r="F137" t="s">
-        <v>55</v>
+        <v>94</v>
+      </c>
+      <c r="G137" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -6426,102 +6423,94 @@
         <v>41</v>
       </c>
       <c r="C138" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F138" t="s">
-        <v>75</v>
-      </c>
-      <c r="G138" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
-      <c r="A139" t="s">
+        <v>92</v>
+      </c>
+      <c r="H138" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" s="3" customFormat="1">
+      <c r="A139" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C139" t="s">
-        <v>78</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F139" t="s">
-        <v>66</v>
-      </c>
-      <c r="G139" t="s">
-        <v>136</v>
+      <c r="C139" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E139" s="4"/>
+      <c r="G139" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B140" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C140" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E140" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F140" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="G140" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B141" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C141" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F141" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G141" t="s">
-        <v>69</v>
-      </c>
-      <c r="H141" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B142" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C142" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F142" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G142" t="s">
-        <v>69</v>
-      </c>
-      <c r="H142" t="s">
-        <v>55</v>
+        <v>135</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6529,13 +6518,13 @@
         <v>35</v>
       </c>
       <c r="B143" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C143" t="s">
         <v>59</v>
       </c>
-      <c r="E143" s="1" t="s">
-        <v>65</v>
+      <c r="E143" s="1">
+        <v>5</v>
       </c>
       <c r="F143" t="s">
         <v>68</v>
@@ -6549,7 +6538,7 @@
         <v>35</v>
       </c>
       <c r="B144" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C144" t="s">
         <v>61</v>
@@ -6561,41 +6550,33 @@
         <v>69</v>
       </c>
       <c r="G144" t="s">
-        <v>69</v>
-      </c>
-      <c r="H144" t="s">
-        <v>55</v>
+        <v>155</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B145" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C145" t="s">
-        <v>59</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F145" t="s">
-        <v>66</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="E145" s="1"/>
       <c r="G145" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B146" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C146" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>65</v>
@@ -6604,47 +6585,47 @@
         <v>69</v>
       </c>
       <c r="G146" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B147" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C147" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F147" t="s">
-        <v>95</v>
-      </c>
-      <c r="H147" t="s">
-        <v>55</v>
+        <v>68</v>
+      </c>
+      <c r="G147" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B148" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C148" t="s">
-        <v>59</v>
-      </c>
-      <c r="E148" s="1">
-        <v>4</v>
+        <v>61</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="F148" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G148" t="s">
-        <v>68</v>
+        <v>155</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6652,19 +6633,19 @@
         <v>37</v>
       </c>
       <c r="B149" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C149" t="s">
-        <v>61</v>
-      </c>
-      <c r="E149" s="1">
-        <v>1</v>
+        <v>59</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="F149" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G149" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6672,19 +6653,19 @@
         <v>37</v>
       </c>
       <c r="B150" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C150" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F150" t="s">
-        <v>102</v>
-      </c>
-      <c r="H150" t="s">
-        <v>55</v>
+        <v>69</v>
+      </c>
+      <c r="G150" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6692,19 +6673,19 @@
         <v>37</v>
       </c>
       <c r="B151" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C151" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F151" t="s">
+        <v>95</v>
+      </c>
+      <c r="H151" t="s">
         <v>55</v>
-      </c>
-      <c r="H151" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6712,13 +6693,10 @@
         <v>37</v>
       </c>
       <c r="B152" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C152" t="s">
         <v>59</v>
-      </c>
-      <c r="D152">
-        <v>1</v>
       </c>
       <c r="E152" s="1">
         <v>4</v>
@@ -6735,22 +6713,19 @@
         <v>37</v>
       </c>
       <c r="B153" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C153" t="s">
         <v>61</v>
       </c>
-      <c r="D153">
-        <v>1</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>65</v>
+      <c r="E153" s="1">
+        <v>1</v>
       </c>
       <c r="F153" t="s">
         <v>69</v>
       </c>
       <c r="G153" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6758,22 +6733,19 @@
         <v>37</v>
       </c>
       <c r="B154" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C154" t="s">
         <v>62</v>
       </c>
-      <c r="D154">
-        <v>1</v>
-      </c>
       <c r="E154" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F154" t="s">
-        <v>98</v>
-      </c>
-      <c r="G154" t="s">
-        <v>98</v>
+        <v>101</v>
+      </c>
+      <c r="H154" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6781,22 +6753,19 @@
         <v>37</v>
       </c>
       <c r="B155" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C155" t="s">
-        <v>59</v>
-      </c>
-      <c r="D155">
-        <v>2</v>
-      </c>
-      <c r="E155" s="1">
-        <v>2</v>
+        <v>63</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="F155" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="G155" t="s">
-        <v>68</v>
+        <v>153</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6807,19 +6776,19 @@
         <v>42</v>
       </c>
       <c r="C156" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E156" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F156" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="G156" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6830,16 +6799,19 @@
         <v>42</v>
       </c>
       <c r="C157" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F157" t="s">
-        <v>80</v>
+        <v>69</v>
+      </c>
+      <c r="G157" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6850,19 +6822,19 @@
         <v>42</v>
       </c>
       <c r="C158" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D158">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F158" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="G158" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6873,19 +6845,19 @@
         <v>42</v>
       </c>
       <c r="C159" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D159">
-        <v>3</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>64</v>
+        <v>2</v>
+      </c>
+      <c r="E159" s="1">
+        <v>2</v>
       </c>
       <c r="F159" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="G159" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6896,16 +6868,19 @@
         <v>42</v>
       </c>
       <c r="C160" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D160">
-        <v>3</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>65</v>
+        <v>2</v>
+      </c>
+      <c r="E160" s="1">
+        <v>1</v>
       </c>
       <c r="F160" t="s">
-        <v>80</v>
+        <v>97</v>
+      </c>
+      <c r="G160" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6913,22 +6888,19 @@
         <v>37</v>
       </c>
       <c r="B161" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C161" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D161">
-        <v>1</v>
-      </c>
-      <c r="E161" s="1">
         <v>2</v>
       </c>
+      <c r="E161" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="F161" t="s">
-        <v>68</v>
-      </c>
-      <c r="G161" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6936,13 +6908,13 @@
         <v>37</v>
       </c>
       <c r="B162" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C162" t="s">
         <v>59</v>
       </c>
       <c r="D162">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>64</v>
@@ -6959,22 +6931,22 @@
         <v>37</v>
       </c>
       <c r="B163" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C163" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D163">
-        <v>1</v>
-      </c>
-      <c r="E163" s="1">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="F163" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="G163" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6982,22 +6954,19 @@
         <v>37</v>
       </c>
       <c r="B164" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C164" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F164" t="s">
-        <v>74</v>
-      </c>
-      <c r="H164" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -7005,22 +6974,22 @@
         <v>37</v>
       </c>
       <c r="B165" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C165" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D165">
         <v>1</v>
       </c>
-      <c r="E165" s="1" t="s">
-        <v>65</v>
+      <c r="E165" s="1">
+        <v>2</v>
       </c>
       <c r="F165" t="s">
-        <v>83</v>
-      </c>
-      <c r="H165" t="s">
-        <v>55</v>
+        <v>68</v>
+      </c>
+      <c r="G165" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -7028,19 +6997,22 @@
         <v>37</v>
       </c>
       <c r="B166" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C166" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F166" t="s">
-        <v>55</v>
+        <v>68</v>
+      </c>
+      <c r="G166" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -7048,7 +7020,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C167" t="s">
         <v>59</v>
@@ -7071,7 +7043,7 @@
         <v>37</v>
       </c>
       <c r="B168" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C168" t="s">
         <v>61</v>
@@ -7091,22 +7063,22 @@
     </row>
     <row r="169" spans="1:8">
       <c r="A169" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="B169" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C169" t="s">
-        <v>59</v>
-      </c>
-      <c r="E169">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="D169">
+        <v>1</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="F169" t="s">
-        <v>69</v>
-      </c>
-      <c r="G169" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="H169" t="s">
         <v>55</v>
@@ -7114,348 +7086,348 @@
     </row>
     <row r="170" spans="1:8">
       <c r="A170" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="B170" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C170" t="s">
-        <v>61</v>
-      </c>
-      <c r="E170" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="D170">
+        <v>1</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="F170" t="s">
-        <v>60</v>
-      </c>
-      <c r="G170" t="s">
-        <v>60</v>
-      </c>
-      <c r="H170" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="B171" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C171" t="s">
-        <v>62</v>
-      </c>
-      <c r="E171" t="s">
-        <v>64</v>
+        <v>59</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+      <c r="E171" s="1">
+        <v>1</v>
       </c>
       <c r="F171" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G171" t="s">
-        <v>136</v>
+        <v>68</v>
       </c>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="B172" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C172" t="s">
-        <v>63</v>
-      </c>
-      <c r="E172" t="s">
-        <v>64</v>
+        <v>61</v>
+      </c>
+      <c r="D172">
+        <v>1</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="F172" t="s">
-        <v>68</v>
-      </c>
-      <c r="G172" t="s">
-        <v>68</v>
+        <v>74</v>
+      </c>
+      <c r="H172" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B173" t="s">
         <v>41</v>
       </c>
       <c r="C173" t="s">
-        <v>71</v>
-      </c>
-      <c r="E173" t="s">
-        <v>65</v>
+        <v>59</v>
+      </c>
+      <c r="E173">
+        <v>1</v>
       </c>
       <c r="F173" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G173" t="s">
-        <v>75</v>
+        <v>69</v>
+      </c>
+      <c r="H173" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B174" t="s">
         <v>41</v>
       </c>
       <c r="C174" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="E174" t="s">
         <v>64</v>
       </c>
       <c r="F174" t="s">
+        <v>60</v>
+      </c>
+      <c r="G174" t="s">
+        <v>60</v>
+      </c>
+      <c r="H174" t="s">
         <v>55</v>
-      </c>
-      <c r="G174" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B175" t="s">
         <v>41</v>
       </c>
       <c r="C175" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E175" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F175" t="s">
-        <v>55</v>
+        <v>66</v>
+      </c>
+      <c r="G175" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B176" t="s">
         <v>41</v>
       </c>
       <c r="C176" t="s">
+        <v>63</v>
+      </c>
+      <c r="E176" t="s">
+        <v>64</v>
+      </c>
+      <c r="F176" t="s">
+        <v>68</v>
+      </c>
+      <c r="G176" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" t="s">
+        <v>105</v>
+      </c>
+      <c r="B177" t="s">
+        <v>41</v>
+      </c>
+      <c r="C177" t="s">
+        <v>71</v>
+      </c>
+      <c r="E177" t="s">
+        <v>65</v>
+      </c>
+      <c r="F177" t="s">
+        <v>75</v>
+      </c>
+      <c r="G177" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" t="s">
+        <v>105</v>
+      </c>
+      <c r="B178" t="s">
+        <v>41</v>
+      </c>
+      <c r="C178" t="s">
+        <v>72</v>
+      </c>
+      <c r="E178" t="s">
+        <v>64</v>
+      </c>
+      <c r="F178" t="s">
+        <v>55</v>
+      </c>
+      <c r="G178" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" t="s">
+        <v>105</v>
+      </c>
+      <c r="B179" t="s">
+        <v>41</v>
+      </c>
+      <c r="C179" t="s">
+        <v>73</v>
+      </c>
+      <c r="E179" t="s">
+        <v>65</v>
+      </c>
+      <c r="F179" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" t="s">
+        <v>105</v>
+      </c>
+      <c r="B180" t="s">
+        <v>41</v>
+      </c>
+      <c r="C180" t="s">
         <v>78</v>
       </c>
-      <c r="E176" t="s">
-        <v>65</v>
-      </c>
-      <c r="F176" t="s">
+      <c r="E180" t="s">
+        <v>65</v>
+      </c>
+      <c r="F180" t="s">
         <v>55</v>
       </c>
-      <c r="G176" t="s">
+      <c r="G180" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
-      <c r="A177" t="s">
-        <v>106</v>
-      </c>
-      <c r="B177" t="s">
-        <v>44</v>
-      </c>
-      <c r="C177" t="s">
-        <v>59</v>
-      </c>
-      <c r="E177">
-        <v>4</v>
-      </c>
-      <c r="F177" t="s">
-        <v>68</v>
-      </c>
-      <c r="G177" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
-      <c r="A178" t="s">
-        <v>106</v>
-      </c>
-      <c r="B178" t="s">
-        <v>44</v>
-      </c>
-      <c r="C178" t="s">
-        <v>61</v>
-      </c>
-      <c r="E178">
-        <v>4</v>
-      </c>
-      <c r="F178" t="s">
-        <v>69</v>
-      </c>
-      <c r="G178" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
-      <c r="A179" t="s">
-        <v>106</v>
-      </c>
-      <c r="B179" t="s">
-        <v>44</v>
-      </c>
-      <c r="C179" t="s">
-        <v>62</v>
-      </c>
-      <c r="E179" t="s">
-        <v>64</v>
-      </c>
-      <c r="F179" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
-      <c r="A180" t="s">
-        <v>106</v>
-      </c>
-      <c r="B180" t="s">
-        <v>44</v>
-      </c>
-      <c r="C180" t="s">
-        <v>63</v>
-      </c>
-      <c r="E180" t="s">
-        <v>65</v>
-      </c>
-      <c r="F180" t="s">
-        <v>75</v>
-      </c>
-      <c r="G180" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:7">
       <c r="A181" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B181" t="s">
         <v>44</v>
       </c>
       <c r="C181" t="s">
-        <v>71</v>
-      </c>
-      <c r="E181" t="s">
-        <v>65</v>
+        <v>59</v>
+      </c>
+      <c r="E181">
+        <v>4</v>
       </c>
       <c r="F181" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G181" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
       <c r="A182" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B182" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C182" t="s">
-        <v>59</v>
-      </c>
-      <c r="D182">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="E182">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F182" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G182" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
       <c r="A183" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B183" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C183" t="s">
-        <v>61</v>
-      </c>
-      <c r="D183">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="E183" t="s">
         <v>64</v>
       </c>
       <c r="F183" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="G183" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
       <c r="A184" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B184" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C184" t="s">
-        <v>59</v>
-      </c>
-      <c r="D184">
-        <v>1</v>
-      </c>
-      <c r="E184">
-        <v>3</v>
+        <v>63</v>
+      </c>
+      <c r="E184" t="s">
+        <v>65</v>
       </c>
       <c r="F184" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G184" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
       <c r="A185" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B185" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C185" t="s">
-        <v>59</v>
-      </c>
-      <c r="D185">
-        <v>2</v>
-      </c>
-      <c r="E185">
-        <v>2</v>
+        <v>71</v>
+      </c>
+      <c r="E185" t="s">
+        <v>65</v>
       </c>
       <c r="F185" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="G185" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
       <c r="A186" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B186" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C186" t="s">
         <v>59</v>
       </c>
       <c r="D186">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F186" t="s">
         <v>68</v>
@@ -7464,15 +7436,15 @@
         <v>68</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:7">
       <c r="A187" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B187" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C187" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D187">
         <v>1</v>
@@ -7487,38 +7459,38 @@
         <v>69</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:7">
       <c r="A188" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B188" t="s">
         <v>43</v>
       </c>
       <c r="C188" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D188">
         <v>1</v>
       </c>
-      <c r="E188" t="s">
-        <v>64</v>
+      <c r="E188">
+        <v>3</v>
       </c>
       <c r="F188" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="G188" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
       <c r="A189" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B189" t="s">
         <v>43</v>
       </c>
       <c r="C189" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D189">
         <v>2</v>
@@ -7527,101 +7499,107 @@
         <v>2</v>
       </c>
       <c r="F189" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="G189" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
       <c r="A190" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B190" t="s">
         <v>43</v>
       </c>
       <c r="C190" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D190">
+        <v>3</v>
+      </c>
+      <c r="E190">
         <v>2</v>
       </c>
-      <c r="E190" t="s">
-        <v>65</v>
-      </c>
       <c r="F190" t="s">
-        <v>55</v>
-      </c>
-      <c r="H190" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="G190" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
       <c r="A191" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B191" t="s">
         <v>43</v>
       </c>
       <c r="C191" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D191">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E191" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F191" t="s">
-        <v>55</v>
-      </c>
-      <c r="H191" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="G191" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
       <c r="A192" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B192" t="s">
         <v>43</v>
       </c>
       <c r="C192" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E192" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F192" t="s">
-        <v>80</v>
+        <v>97</v>
+      </c>
+      <c r="G192" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="193" spans="1:8">
       <c r="A193" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B193" t="s">
         <v>43</v>
       </c>
       <c r="C193" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D193">
-        <v>3</v>
-      </c>
-      <c r="E193" t="s">
-        <v>65</v>
+        <v>2</v>
+      </c>
+      <c r="E193">
+        <v>2</v>
       </c>
       <c r="F193" t="s">
-        <v>80</v>
+        <v>97</v>
+      </c>
+      <c r="G193" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="194" spans="1:8">
       <c r="A194" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B194" t="s">
         <v>43</v>
@@ -7630,239 +7608,233 @@
         <v>62</v>
       </c>
       <c r="D194">
-        <v>3</v>
-      </c>
-      <c r="E194">
         <v>2</v>
       </c>
+      <c r="E194" t="s">
+        <v>65</v>
+      </c>
       <c r="F194" t="s">
-        <v>98</v>
-      </c>
-      <c r="G194" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="H194" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="195" spans="1:8">
       <c r="A195" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B195" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C195" t="s">
-        <v>59</v>
-      </c>
-      <c r="E195">
-        <v>4</v>
+        <v>63</v>
+      </c>
+      <c r="D195">
+        <v>3</v>
+      </c>
+      <c r="E195" t="s">
+        <v>65</v>
       </c>
       <c r="F195" t="s">
-        <v>68</v>
-      </c>
-      <c r="G195" t="s">
-        <v>68</v>
+        <v>55</v>
+      </c>
+      <c r="H195" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B196" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C196" t="s">
-        <v>61</v>
-      </c>
-      <c r="E196">
-        <v>4</v>
+        <v>63</v>
+      </c>
+      <c r="D196">
+        <v>2</v>
+      </c>
+      <c r="E196" t="s">
+        <v>65</v>
       </c>
       <c r="F196" t="s">
-        <v>69</v>
-      </c>
-      <c r="G196" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="197" spans="1:8">
       <c r="A197" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B197" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C197" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="D197">
+        <v>3</v>
       </c>
       <c r="E197" t="s">
         <v>65</v>
       </c>
       <c r="F197" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
     </row>
     <row r="198" spans="1:8">
       <c r="A198" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B198" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C198" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D198">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F198" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="G198" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
     </row>
     <row r="199" spans="1:8">
       <c r="A199" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B199" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C199" t="s">
-        <v>61</v>
-      </c>
-      <c r="D199">
-        <v>1</v>
-      </c>
-      <c r="E199" t="s">
-        <v>64</v>
+        <v>59</v>
+      </c>
+      <c r="E199">
+        <v>4</v>
       </c>
       <c r="F199" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G199" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B200" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C200" t="s">
-        <v>62</v>
-      </c>
-      <c r="D200">
-        <v>1</v>
-      </c>
-      <c r="E200" t="s">
-        <v>64</v>
+        <v>61</v>
+      </c>
+      <c r="E200">
+        <v>4</v>
       </c>
       <c r="F200" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="G200" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B201" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C201" t="s">
-        <v>63</v>
-      </c>
-      <c r="D201">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="E201" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F201" t="s">
-        <v>55</v>
-      </c>
-      <c r="H201" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
     <row r="202" spans="1:8">
       <c r="A202" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B202" t="s">
         <v>42</v>
       </c>
       <c r="C202" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D202">
         <v>1</v>
       </c>
-      <c r="E202" t="s">
-        <v>65</v>
+      <c r="E202">
+        <v>1</v>
       </c>
       <c r="F202" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="G202" t="s">
-        <v>147</v>
+        <v>68</v>
       </c>
     </row>
     <row r="203" spans="1:8">
       <c r="A203" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B203" t="s">
         <v>42</v>
       </c>
       <c r="C203" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D203">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E203" t="s">
         <v>64</v>
       </c>
       <c r="F203" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G203" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="204" spans="1:8">
       <c r="A204" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B204" t="s">
         <v>42</v>
       </c>
       <c r="C204" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D204">
-        <v>2</v>
-      </c>
-      <c r="E204">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E204" t="s">
+        <v>64</v>
       </c>
       <c r="F204" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G204" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="205" spans="1:8">
       <c r="A205" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B205" t="s">
         <v>42</v>
@@ -7871,10 +7843,10 @@
         <v>63</v>
       </c>
       <c r="D205">
-        <v>2</v>
-      </c>
-      <c r="E205">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E205" t="s">
+        <v>64</v>
       </c>
       <c r="F205" t="s">
         <v>55</v>
@@ -7885,7 +7857,7 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B206" t="s">
         <v>42</v>
@@ -7894,27 +7866,33 @@
         <v>71</v>
       </c>
       <c r="D206">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E206" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F206" t="s">
         <v>80</v>
       </c>
+      <c r="G206" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="207" spans="1:8">
       <c r="A207" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B207" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C207" t="s">
         <v>59</v>
       </c>
-      <c r="E207">
-        <v>5</v>
+      <c r="D207">
+        <v>2</v>
+      </c>
+      <c r="E207" t="s">
+        <v>64</v>
       </c>
       <c r="F207" t="s">
         <v>68</v>
@@ -7925,251 +7903,245 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B208" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C208" t="s">
         <v>61</v>
       </c>
+      <c r="D208">
+        <v>2</v>
+      </c>
       <c r="E208">
         <v>2</v>
       </c>
       <c r="F208" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="G208" t="s">
-        <v>69</v>
-      </c>
-      <c r="H208" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
     </row>
     <row r="209" spans="1:8">
       <c r="A209" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B209" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C209" t="s">
-        <v>62</v>
-      </c>
-      <c r="E209" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="D209">
+        <v>2</v>
+      </c>
+      <c r="E209">
+        <v>1</v>
       </c>
       <c r="F209" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="H209" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
     </row>
     <row r="210" spans="1:8">
       <c r="A210" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B210" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C210" t="s">
-        <v>63</v>
+        <v>71</v>
+      </c>
+      <c r="D210">
+        <v>2</v>
       </c>
       <c r="E210" t="s">
         <v>64</v>
       </c>
       <c r="F210" t="s">
-        <v>116</v>
-      </c>
-      <c r="H210" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="211" spans="1:8">
       <c r="A211" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B211" t="s">
         <v>44</v>
       </c>
       <c r="C211" t="s">
-        <v>71</v>
-      </c>
-      <c r="E211" t="s">
-        <v>65</v>
+        <v>59</v>
+      </c>
+      <c r="E211">
+        <v>5</v>
       </c>
       <c r="F211" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G211" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="212" spans="1:8">
       <c r="A212" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B212" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C212" t="s">
-        <v>59</v>
-      </c>
-      <c r="D212">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="E212">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F212" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G212" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="H212" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="213" spans="1:8">
       <c r="A213" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B213" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C213" t="s">
-        <v>61</v>
-      </c>
-      <c r="D213">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="E213" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F213" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G213" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
     </row>
     <row r="214" spans="1:8">
       <c r="A214" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B214" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C214" t="s">
-        <v>62</v>
-      </c>
-      <c r="D214">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="E214" t="s">
         <v>64</v>
       </c>
       <c r="F214" t="s">
-        <v>98</v>
-      </c>
-      <c r="G214" t="s">
-        <v>98</v>
+        <v>115</v>
+      </c>
+      <c r="H214" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="215" spans="1:8">
       <c r="A215" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B215" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C215" t="s">
-        <v>59</v>
-      </c>
-      <c r="D215">
-        <v>2</v>
-      </c>
-      <c r="E215">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="E215" t="s">
+        <v>65</v>
       </c>
       <c r="F215" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G215" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="216" spans="1:8">
       <c r="A216" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B216" t="s">
         <v>42</v>
       </c>
       <c r="C216" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E216">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F216" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="G216" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
     </row>
     <row r="217" spans="1:8">
       <c r="A217" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B217" t="s">
         <v>42</v>
       </c>
       <c r="C217" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D217">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E217" t="s">
         <v>65</v>
       </c>
       <c r="F217" t="s">
-        <v>80</v>
+        <v>69</v>
+      </c>
+      <c r="G217" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="218" spans="1:8">
       <c r="A218" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B218" t="s">
         <v>42</v>
       </c>
       <c r="C218" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D218">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E218" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F218" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G218" t="s">
-        <v>147</v>
-      </c>
-      <c r="H218" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
     </row>
     <row r="219" spans="1:8">
       <c r="A219" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B219" t="s">
         <v>42</v>
@@ -8178,7 +8150,7 @@
         <v>59</v>
       </c>
       <c r="D219">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E219">
         <v>1</v>
@@ -8192,7 +8164,7 @@
     </row>
     <row r="220" spans="1:8">
       <c r="A220" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B220" t="s">
         <v>42</v>
@@ -8201,21 +8173,21 @@
         <v>62</v>
       </c>
       <c r="D220">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E220">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F220" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G220" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="221" spans="1:8">
       <c r="A221" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B221" t="s">
         <v>42</v>
@@ -8224,7 +8196,7 @@
         <v>63</v>
       </c>
       <c r="D221">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E221" t="s">
         <v>65</v>
@@ -8235,25 +8207,25 @@
     </row>
     <row r="222" spans="1:8">
       <c r="A222" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B222" t="s">
         <v>42</v>
       </c>
       <c r="C222" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D222">
-        <v>1</v>
-      </c>
-      <c r="E222">
         <v>2</v>
       </c>
+      <c r="E222" t="s">
+        <v>65</v>
+      </c>
       <c r="F222" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="G222" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="H222" t="s">
         <v>55</v>
@@ -8261,19 +8233,19 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B223" t="s">
         <v>42</v>
       </c>
       <c r="C223" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D223">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E223">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F223" t="s">
         <v>68</v>
@@ -8284,7 +8256,7 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B224" t="s">
         <v>42</v>
@@ -8293,21 +8265,21 @@
         <v>62</v>
       </c>
       <c r="D224">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F224" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="G224" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
     </row>
     <row r="225" spans="1:8">
       <c r="A225" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B225" t="s">
         <v>42</v>
@@ -8316,50 +8288,56 @@
         <v>63</v>
       </c>
       <c r="D225">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E225" t="s">
         <v>65</v>
       </c>
-      <c r="H225" t="s">
-        <v>55</v>
+      <c r="F225" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="226" spans="1:8">
       <c r="A226" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B226" t="s">
         <v>42</v>
       </c>
       <c r="C226" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D226">
         <v>1</v>
       </c>
-      <c r="E226" t="s">
-        <v>65</v>
+      <c r="E226">
+        <v>2</v>
       </c>
       <c r="F226" t="s">
-        <v>80</v>
+        <v>104</v>
+      </c>
+      <c r="G226" t="s">
+        <v>104</v>
+      </c>
+      <c r="H226" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="227" spans="1:8">
       <c r="A227" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B227" t="s">
         <v>42</v>
       </c>
       <c r="C227" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D227">
-        <v>2</v>
-      </c>
-      <c r="E227" t="s">
-        <v>65</v>
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>3</v>
       </c>
       <c r="F227" t="s">
         <v>68</v>
@@ -8370,59 +8348,56 @@
     </row>
     <row r="228" spans="1:8">
       <c r="A228" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B228" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C228" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D228">
         <v>1</v>
       </c>
       <c r="E228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F228" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G228" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="229" spans="1:8">
       <c r="A229" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B229" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C229" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D229">
         <v>1</v>
       </c>
-      <c r="E229">
-        <v>2</v>
-      </c>
-      <c r="F229" t="s">
-        <v>98</v>
-      </c>
-      <c r="G229" t="s">
-        <v>98</v>
+      <c r="E229" t="s">
+        <v>65</v>
+      </c>
+      <c r="H229" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="230" spans="1:8">
       <c r="A230" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B230" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C230" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D230">
         <v>1</v>
@@ -8431,61 +8406,49 @@
         <v>65</v>
       </c>
       <c r="F230" t="s">
-        <v>69</v>
-      </c>
-      <c r="G230" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="231" spans="1:8">
       <c r="A231" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B231" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C231" t="s">
-        <v>63</v>
-      </c>
-      <c r="D231">
-        <v>1</v>
-      </c>
-      <c r="E231">
-        <v>1</v>
-      </c>
-      <c r="F231" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G231" t="s">
-        <v>145</v>
+        <v>68</v>
       </c>
     </row>
     <row r="232" spans="1:8">
       <c r="A232" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B232" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C232" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D232">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E232" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F232" t="s">
-        <v>92</v>
-      </c>
-      <c r="H232" t="s">
-        <v>55</v>
+        <v>68</v>
+      </c>
+      <c r="G232" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="233" spans="1:8">
       <c r="A233" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B233" t="s">
         <v>48</v>
@@ -8494,10 +8457,10 @@
         <v>59</v>
       </c>
       <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
         <v>2</v>
-      </c>
-      <c r="E233" t="s">
-        <v>64</v>
       </c>
       <c r="F233" t="s">
         <v>68</v>
@@ -8508,7 +8471,7 @@
     </row>
     <row r="234" spans="1:8">
       <c r="A234" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B234" t="s">
         <v>48</v>
@@ -8517,102 +8480,102 @@
         <v>61</v>
       </c>
       <c r="D234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E234">
         <v>2</v>
       </c>
       <c r="F234" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G234" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="235" spans="1:8">
       <c r="A235" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B235" t="s">
         <v>48</v>
       </c>
       <c r="C235" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E235" t="s">
         <v>65</v>
       </c>
       <c r="F235" t="s">
-        <v>92</v>
-      </c>
-      <c r="H235" t="s">
-        <v>55</v>
+        <v>69</v>
+      </c>
+      <c r="G235" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="236" spans="1:8">
       <c r="A236" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B236" t="s">
         <v>48</v>
       </c>
       <c r="C236" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D236">
-        <v>3</v>
-      </c>
-      <c r="E236" t="s">
-        <v>64</v>
+        <v>1</v>
+      </c>
+      <c r="E236">
+        <v>1</v>
       </c>
       <c r="F236" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="G236" t="s">
-        <v>68</v>
+        <v>144</v>
       </c>
     </row>
     <row r="237" spans="1:8">
       <c r="A237" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B237" t="s">
         <v>48</v>
       </c>
       <c r="C237" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D237">
-        <v>3</v>
-      </c>
-      <c r="E237">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E237" t="s">
+        <v>64</v>
       </c>
       <c r="F237" t="s">
-        <v>98</v>
-      </c>
-      <c r="G237" t="s">
-        <v>98</v>
+        <v>92</v>
+      </c>
+      <c r="H237" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="238" spans="1:8">
       <c r="A238" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B238" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C238" t="s">
         <v>59</v>
       </c>
       <c r="D238">
-        <v>1</v>
-      </c>
-      <c r="E238">
         <v>2</v>
+      </c>
+      <c r="E238" t="s">
+        <v>64</v>
       </c>
       <c r="F238" t="s">
         <v>68</v>
@@ -8623,348 +8586,366 @@
     </row>
     <row r="239" spans="1:8">
       <c r="A239" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B239" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C239" t="s">
         <v>61</v>
       </c>
       <c r="D239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E239">
         <v>2</v>
       </c>
       <c r="F239" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="G239" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
     </row>
     <row r="240" spans="1:8">
       <c r="A240" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B240" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C240" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E240" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F240" t="s">
-        <v>105</v>
-      </c>
-      <c r="G240" t="s">
-        <v>105</v>
+        <v>92</v>
+      </c>
+      <c r="H240" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="241" spans="1:8">
       <c r="A241" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B241" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C241" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D241">
-        <v>1</v>
-      </c>
-      <c r="E241">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="E241" t="s">
+        <v>64</v>
       </c>
       <c r="F241" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="G241" t="s">
-        <v>145</v>
-      </c>
-      <c r="H241" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="242" spans="1:8">
       <c r="A242" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B242" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C242" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D242">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E242">
         <v>1</v>
       </c>
       <c r="F242" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="G242" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
     </row>
     <row r="243" spans="1:8">
       <c r="A243" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B243" t="s">
         <v>43</v>
       </c>
       <c r="C243" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D243">
+        <v>1</v>
+      </c>
+      <c r="E243">
         <v>2</v>
       </c>
-      <c r="E243" t="s">
-        <v>65</v>
-      </c>
       <c r="F243" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="G243" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
     </row>
     <row r="244" spans="1:8">
       <c r="A244" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B244" t="s">
         <v>43</v>
       </c>
       <c r="C244" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D244">
+        <v>1</v>
+      </c>
+      <c r="E244">
         <v>2</v>
       </c>
-      <c r="E244">
-        <v>3</v>
-      </c>
       <c r="F244" t="s">
-        <v>92</v>
-      </c>
-      <c r="H244" t="s">
-        <v>55</v>
+        <v>69</v>
+      </c>
+      <c r="G244" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="245" spans="1:8">
       <c r="A245" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B245" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C245" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+      <c r="D245">
+        <v>1</v>
       </c>
       <c r="E245" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F245" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="G245" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
     </row>
     <row r="246" spans="1:8">
       <c r="A246" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B246" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C246" t="s">
-        <v>61</v>
-      </c>
-      <c r="E246" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="D246">
+        <v>1</v>
+      </c>
+      <c r="E246">
+        <v>4</v>
       </c>
       <c r="F246" t="s">
-        <v>66</v>
+        <v>92</v>
+      </c>
+      <c r="G246" t="s">
+        <v>144</v>
+      </c>
+      <c r="H246" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="247" spans="1:8">
       <c r="A247" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B247" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C247" t="s">
-        <v>62</v>
-      </c>
-      <c r="E247" t="s">
-        <v>65</v>
+        <v>59</v>
+      </c>
+      <c r="D247">
+        <v>2</v>
+      </c>
+      <c r="E247">
+        <v>1</v>
       </c>
       <c r="F247" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="G247" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
     </row>
     <row r="248" spans="1:8">
       <c r="A248" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B248" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C248" t="s">
-        <v>59</v>
+        <v>71</v>
+      </c>
+      <c r="D248">
+        <v>2</v>
       </c>
       <c r="E248" t="s">
         <v>65</v>
       </c>
       <c r="F248" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="G248" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
     </row>
     <row r="249" spans="1:8">
       <c r="A249" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B249" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C249" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="D249">
+        <v>2</v>
       </c>
       <c r="E249">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F249" t="s">
-        <v>105</v>
+        <v>92</v>
+      </c>
+      <c r="H249" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="250" spans="1:8">
       <c r="A250" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B250" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C250" t="s">
-        <v>62</v>
-      </c>
-      <c r="E250">
-        <v>3</v>
+        <v>59</v>
+      </c>
+      <c r="E250" t="s">
+        <v>65</v>
       </c>
       <c r="F250" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="G250" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="251" spans="1:8">
       <c r="A251" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B251" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C251" t="s">
-        <v>63</v>
-      </c>
-      <c r="E251">
-        <v>3</v>
+        <v>61</v>
+      </c>
+      <c r="E251" t="s">
+        <v>65</v>
       </c>
       <c r="F251" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G251" t="s">
-        <v>69</v>
+        <v>135</v>
       </c>
     </row>
     <row r="252" spans="1:8">
       <c r="A252" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B252" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C252" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E252" t="s">
         <v>65</v>
       </c>
       <c r="F252" t="s">
-        <v>119</v>
-      </c>
-      <c r="H252" t="s">
-        <v>55</v>
+        <v>104</v>
+      </c>
+      <c r="G252" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="253" spans="1:8">
       <c r="A253" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B253" t="s">
         <v>44</v>
       </c>
       <c r="C253" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E253" t="s">
         <v>65</v>
       </c>
       <c r="F253" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="G253" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
     </row>
     <row r="254" spans="1:8">
       <c r="A254" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B254" t="s">
         <v>44</v>
       </c>
       <c r="C254" t="s">
-        <v>73</v>
-      </c>
-      <c r="E254" t="s">
-        <v>65</v>
+        <v>61</v>
+      </c>
+      <c r="E254">
+        <v>2</v>
       </c>
       <c r="F254" t="s">
-        <v>80</v>
-      </c>
-      <c r="G254" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
     </row>
     <row r="255" spans="1:8">
       <c r="A255" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B255" t="s">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c r="C255" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E255">
         <v>3</v>
@@ -8976,181 +8957,178 @@
         <v>68</v>
       </c>
     </row>
-    <row r="256" spans="1:8" s="3" customFormat="1">
-      <c r="A256" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B256" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C256" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E256" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F256" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G256" s="3" t="s">
-        <v>75</v>
+    <row r="256" spans="1:8">
+      <c r="A256" t="s">
+        <v>116</v>
+      </c>
+      <c r="B256" t="s">
+        <v>44</v>
+      </c>
+      <c r="C256" t="s">
+        <v>63</v>
+      </c>
+      <c r="E256">
+        <v>3</v>
+      </c>
+      <c r="F256" t="s">
+        <v>69</v>
+      </c>
+      <c r="G256" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="257" spans="1:8">
       <c r="A257" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B257" t="s">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c r="C257" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E257" t="s">
         <v>65</v>
       </c>
       <c r="F257" t="s">
-        <v>60</v>
-      </c>
-      <c r="G257" t="s">
-        <v>60</v>
+        <v>118</v>
+      </c>
+      <c r="H257" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="258" spans="1:8">
       <c r="A258" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B258" t="s">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c r="C258" t="s">
-        <v>63</v>
-      </c>
-      <c r="E258">
-        <v>1</v>
+        <v>72</v>
+      </c>
+      <c r="E258" t="s">
+        <v>65</v>
       </c>
       <c r="F258" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="G258" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
     </row>
     <row r="259" spans="1:8">
       <c r="A259" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B259" t="s">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c r="C259" t="s">
-        <v>71</v>
-      </c>
-      <c r="E259">
-        <v>1</v>
+        <v>73</v>
+      </c>
+      <c r="E259" t="s">
+        <v>65</v>
       </c>
       <c r="F259" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="G259" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" s="3" customFormat="1">
-      <c r="A260" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B260" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C260" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E260" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F260" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G260" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
+      <c r="A260" t="s">
+        <v>119</v>
+      </c>
+      <c r="B260" t="s">
+        <v>121</v>
+      </c>
+      <c r="C260" t="s">
+        <v>59</v>
+      </c>
+      <c r="E260">
+        <v>3</v>
+      </c>
+      <c r="F260" t="s">
+        <v>68</v>
+      </c>
+      <c r="G260" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" s="3" customFormat="1">
+      <c r="A261" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E261" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F261" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H260" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8">
-      <c r="A261" t="s">
-        <v>120</v>
-      </c>
-      <c r="B261" t="s">
-        <v>44</v>
-      </c>
-      <c r="C261" t="s">
-        <v>59</v>
-      </c>
-      <c r="E261">
-        <v>5</v>
-      </c>
-      <c r="F261" t="s">
-        <v>68</v>
-      </c>
-      <c r="G261" t="s">
-        <v>68</v>
+      <c r="G261" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="262" spans="1:8">
       <c r="A262" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B262" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="C262" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E262" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F262" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G262" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="263" spans="1:8">
       <c r="A263" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B263" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="C263" t="s">
-        <v>62</v>
-      </c>
-      <c r="E263" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="E263">
+        <v>1</v>
       </c>
       <c r="F263" t="s">
-        <v>55</v>
-      </c>
-      <c r="H263" t="s">
-        <v>55</v>
+        <v>66</v>
+      </c>
+      <c r="G263" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="264" spans="1:8">
       <c r="A264" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B264" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="C264" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E264">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F264" t="s">
         <v>69</v>
@@ -9159,159 +9137,144 @@
         <v>69</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
-      <c r="A265" t="s">
-        <v>120</v>
-      </c>
-      <c r="B265" t="s">
-        <v>44</v>
-      </c>
-      <c r="C265" t="s">
-        <v>71</v>
-      </c>
-      <c r="E265" t="s">
-        <v>64</v>
-      </c>
-      <c r="F265" t="s">
-        <v>66</v>
-      </c>
-      <c r="G265" t="s">
-        <v>91</v>
+    <row r="265" spans="1:8" s="3" customFormat="1">
+      <c r="A265" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E265" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F265" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G265" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="266" spans="1:8">
       <c r="A266" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B266" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C266" t="s">
         <v>59</v>
       </c>
-      <c r="D266">
-        <v>1</v>
-      </c>
       <c r="E266">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F266" t="s">
-        <v>55</v>
-      </c>
-      <c r="H266" t="s">
-        <v>55</v>
+        <v>68</v>
+      </c>
+      <c r="G266" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="267" spans="1:8">
       <c r="A267" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B267" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C267" t="s">
         <v>61</v>
       </c>
-      <c r="D267">
-        <v>1</v>
-      </c>
-      <c r="E267">
-        <v>4</v>
+      <c r="E267" t="s">
+        <v>64</v>
       </c>
       <c r="F267" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G267" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="268" spans="1:8">
       <c r="A268" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B268" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C268" t="s">
         <v>62</v>
       </c>
-      <c r="D268">
-        <v>1</v>
-      </c>
       <c r="E268" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F268" t="s">
-        <v>69</v>
-      </c>
-      <c r="G268" t="s">
-        <v>69</v>
+        <v>55</v>
+      </c>
+      <c r="H268" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="269" spans="1:8">
       <c r="A269" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B269" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C269" t="s">
         <v>63</v>
       </c>
-      <c r="D269">
-        <v>1</v>
-      </c>
-      <c r="E269" t="s">
-        <v>65</v>
+      <c r="E269">
+        <v>3</v>
       </c>
       <c r="F269" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G269" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="270" spans="1:8">
       <c r="A270" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B270" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C270" t="s">
         <v>71</v>
       </c>
-      <c r="D270">
-        <v>1</v>
-      </c>
       <c r="E270" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F270" t="s">
-        <v>92</v>
-      </c>
-      <c r="H270" t="s">
-        <v>55</v>
+        <v>66</v>
+      </c>
+      <c r="G270" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="271" spans="1:8">
       <c r="A271" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B271" t="s">
         <v>42</v>
       </c>
       <c r="C271" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D271">
         <v>1</v>
       </c>
-      <c r="E271" t="s">
-        <v>65</v>
+      <c r="E271">
+        <v>3</v>
       </c>
       <c r="F271" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="H271" t="s">
         <v>55</v>
@@ -9319,19 +9282,19 @@
     </row>
     <row r="272" spans="1:8">
       <c r="A272" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B272" t="s">
         <v>42</v>
       </c>
       <c r="C272" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D272">
-        <v>2</v>
-      </c>
-      <c r="E272" t="s">
-        <v>64</v>
+        <v>1</v>
+      </c>
+      <c r="E272">
+        <v>4</v>
       </c>
       <c r="F272" t="s">
         <v>68</v>
@@ -9342,59 +9305,59 @@
     </row>
     <row r="273" spans="1:9">
       <c r="A273" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B273" t="s">
         <v>42</v>
       </c>
       <c r="C273" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D273">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E273" t="s">
         <v>64</v>
       </c>
       <c r="F273" t="s">
-        <v>123</v>
-      </c>
-      <c r="H273" t="s">
-        <v>55</v>
+        <v>69</v>
+      </c>
+      <c r="G273" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="274" spans="1:9">
       <c r="A274" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B274" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C274" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D274">
         <v>1</v>
       </c>
-      <c r="E274">
-        <v>3</v>
+      <c r="E274" t="s">
+        <v>65</v>
       </c>
       <c r="F274" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G274" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="275" spans="1:9">
       <c r="A275" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B275" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C275" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D275">
         <v>1</v>
@@ -9403,21 +9366,21 @@
         <v>65</v>
       </c>
       <c r="F275" t="s">
-        <v>69</v>
-      </c>
-      <c r="G275" t="s">
-        <v>69</v>
+        <v>92</v>
+      </c>
+      <c r="H275" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="276" spans="1:9">
       <c r="A276" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B276" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C276" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D276">
         <v>1</v>
@@ -9426,7 +9389,7 @@
         <v>65</v>
       </c>
       <c r="F276" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="H276" t="s">
         <v>55</v>
@@ -9434,102 +9397,108 @@
     </row>
     <row r="277" spans="1:9">
       <c r="A277" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B277" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C277" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D277">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E277" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F277" t="s">
-        <v>124</v>
-      </c>
-      <c r="H277" t="s">
-        <v>55</v>
+        <v>68</v>
+      </c>
+      <c r="G277" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="278" spans="1:9">
       <c r="A278" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B278" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C278" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D278">
         <v>2</v>
       </c>
-      <c r="E278">
-        <v>2</v>
+      <c r="E278" t="s">
+        <v>64</v>
       </c>
       <c r="F278" t="s">
-        <v>68</v>
-      </c>
-      <c r="G278" t="s">
-        <v>68</v>
+        <v>122</v>
+      </c>
+      <c r="H278" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="279" spans="1:9">
       <c r="A279" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B279" t="s">
         <v>43</v>
       </c>
       <c r="C279" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D279">
-        <v>2</v>
-      </c>
-      <c r="E279" t="s">
-        <v>64</v>
+        <v>1</v>
+      </c>
+      <c r="E279">
+        <v>3</v>
       </c>
       <c r="F279" t="s">
-        <v>124</v>
-      </c>
-      <c r="H279" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9" s="3" customFormat="1">
-      <c r="A280" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B280" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G279" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9">
+      <c r="A280" t="s">
+        <v>119</v>
+      </c>
+      <c r="B280" t="s">
         <v>43</v>
       </c>
-      <c r="C280" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G280" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I280" s="3" t="s">
-        <v>140</v>
+      <c r="C280" t="s">
+        <v>61</v>
+      </c>
+      <c r="D280">
+        <v>1</v>
+      </c>
+      <c r="E280" t="s">
+        <v>65</v>
+      </c>
+      <c r="F280" t="s">
+        <v>69</v>
+      </c>
+      <c r="G280" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="281" spans="1:9">
       <c r="A281" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B281" t="s">
         <v>43</v>
       </c>
       <c r="C281" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D281">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E281" t="s">
         <v>65</v>
@@ -9543,108 +9512,99 @@
     </row>
     <row r="282" spans="1:9">
       <c r="A282" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B282" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C282" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D282">
         <v>1</v>
       </c>
-      <c r="E282">
-        <v>2</v>
+      <c r="E282" t="s">
+        <v>65</v>
       </c>
       <c r="F282" t="s">
-        <v>68</v>
-      </c>
-      <c r="G282" t="s">
-        <v>68</v>
+        <v>123</v>
+      </c>
+      <c r="H282" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="283" spans="1:9">
       <c r="A283" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B283" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C283" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D283">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E283">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F283" t="s">
+        <v>68</v>
+      </c>
+      <c r="G283" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9">
+      <c r="A284" t="s">
+        <v>119</v>
+      </c>
+      <c r="B284" t="s">
+        <v>43</v>
+      </c>
+      <c r="C284" t="s">
+        <v>63</v>
+      </c>
+      <c r="D284">
+        <v>2</v>
+      </c>
+      <c r="E284" t="s">
+        <v>64</v>
+      </c>
+      <c r="F284" t="s">
+        <v>123</v>
+      </c>
+      <c r="H284" t="s">
         <v>55</v>
       </c>
-      <c r="H283" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" s="3" customFormat="1">
-      <c r="A284" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B284" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C284" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D284" s="3">
-        <v>1</v>
-      </c>
-      <c r="E284" s="3">
-        <v>1</v>
-      </c>
-      <c r="F284" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G284" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I284" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9">
-      <c r="A285" t="s">
-        <v>125</v>
-      </c>
-      <c r="B285" t="s">
-        <v>42</v>
-      </c>
-      <c r="C285" t="s">
-        <v>59</v>
-      </c>
-      <c r="D285">
-        <v>2</v>
-      </c>
-      <c r="E285">
-        <v>1</v>
-      </c>
-      <c r="F285" t="s">
-        <v>68</v>
-      </c>
-      <c r="G285" t="s">
-        <v>68</v>
+    </row>
+    <row r="285" spans="1:9" s="3" customFormat="1">
+      <c r="A285" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G285" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I285" s="3" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="286" spans="1:9">
       <c r="A286" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B286" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C286" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D286">
         <v>2</v>
@@ -9653,50 +9613,50 @@
         <v>65</v>
       </c>
       <c r="F286" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="H286" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="287" spans="1:9" s="3" customFormat="1">
-      <c r="A287" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B287" s="3" t="s">
+    <row r="287" spans="1:9">
+      <c r="A287" t="s">
+        <v>124</v>
+      </c>
+      <c r="B287" t="s">
         <v>42</v>
       </c>
-      <c r="C287" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D287" s="3">
+      <c r="C287" t="s">
+        <v>59</v>
+      </c>
+      <c r="D287">
+        <v>1</v>
+      </c>
+      <c r="E287">
         <v>2</v>
       </c>
-      <c r="E287" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F287" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H287" s="3" t="s">
-        <v>55</v>
+      <c r="F287" t="s">
+        <v>68</v>
+      </c>
+      <c r="G287" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="288" spans="1:9">
       <c r="A288" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B288" t="s">
         <v>42</v>
       </c>
       <c r="C288" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D288">
-        <v>3</v>
-      </c>
-      <c r="E288" t="s">
-        <v>65</v>
+        <v>1</v>
+      </c>
+      <c r="E288">
+        <v>1</v>
       </c>
       <c r="F288" t="s">
         <v>55</v>
@@ -9705,98 +9665,113 @@
         <v>55</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
-      <c r="A289" t="s">
-        <v>125</v>
-      </c>
-      <c r="B289" t="s">
+    <row r="289" spans="1:9" s="3" customFormat="1">
+      <c r="A289" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B289" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C289" t="s">
-        <v>61</v>
-      </c>
-      <c r="D289">
-        <v>3</v>
-      </c>
-      <c r="E289" t="s">
-        <v>65</v>
-      </c>
-      <c r="F289" t="s">
-        <v>55</v>
-      </c>
-      <c r="H289" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8">
+      <c r="C289" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D289" s="3">
+        <v>1</v>
+      </c>
+      <c r="E289" s="3">
+        <v>1</v>
+      </c>
+      <c r="F289" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G289" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I289" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9">
       <c r="A290" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B290" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C290" t="s">
         <v>59</v>
       </c>
+      <c r="D290">
+        <v>2</v>
+      </c>
       <c r="E290">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F290" t="s">
-        <v>55</v>
-      </c>
-      <c r="H290" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="G290" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9">
       <c r="A291" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B291" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C291" t="s">
         <v>61</v>
       </c>
-      <c r="E291">
-        <v>5</v>
+      <c r="D291">
+        <v>2</v>
+      </c>
+      <c r="E291" t="s">
+        <v>65</v>
       </c>
       <c r="F291" t="s">
-        <v>68</v>
-      </c>
-      <c r="G291" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8">
-      <c r="A292" t="s">
-        <v>125</v>
-      </c>
-      <c r="B292" t="s">
-        <v>44</v>
-      </c>
-      <c r="C292" t="s">
+        <v>55</v>
+      </c>
+      <c r="H291" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" s="3" customFormat="1">
+      <c r="A292" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C292" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E292">
-        <v>1</v>
-      </c>
-      <c r="F292" t="s">
-        <v>107</v>
-      </c>
-      <c r="H292" t="s">
+      <c r="D292" s="3">
+        <v>2</v>
+      </c>
+      <c r="E292" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F292" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="293" spans="1:8">
+      <c r="H292" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9">
       <c r="A293" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B293" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C293" t="s">
-        <v>63</v>
+        <v>59</v>
+      </c>
+      <c r="D293">
+        <v>3</v>
       </c>
       <c r="E293" t="s">
         <v>65</v>
@@ -9804,130 +9779,130 @@
       <c r="F293" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="294" spans="1:8">
+      <c r="H293" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9">
       <c r="A294" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B294" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="C294" t="s">
+        <v>61</v>
+      </c>
+      <c r="D294">
+        <v>3</v>
+      </c>
+      <c r="E294" t="s">
+        <v>65</v>
+      </c>
+      <c r="F294" t="s">
+        <v>55</v>
+      </c>
+      <c r="H294" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9">
+      <c r="A295" t="s">
+        <v>124</v>
+      </c>
+      <c r="B295" t="s">
+        <v>44</v>
+      </c>
+      <c r="C295" t="s">
         <v>59</v>
       </c>
-      <c r="E294">
-        <v>4</v>
-      </c>
-      <c r="F294" t="s">
-        <v>69</v>
-      </c>
-      <c r="G294" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8">
-      <c r="A295" t="s">
-        <v>125</v>
-      </c>
-      <c r="B295" t="s">
-        <v>130</v>
-      </c>
-      <c r="C295" t="s">
-        <v>61</v>
-      </c>
       <c r="E295">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F295" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="H295" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:9">
       <c r="A296" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B296" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="C296" t="s">
+        <v>61</v>
+      </c>
+      <c r="E296">
+        <v>5</v>
+      </c>
+      <c r="F296" t="s">
+        <v>68</v>
+      </c>
+      <c r="G296" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9">
+      <c r="A297" t="s">
+        <v>124</v>
+      </c>
+      <c r="B297" t="s">
+        <v>44</v>
+      </c>
+      <c r="C297" t="s">
         <v>62</v>
       </c>
-      <c r="E296" t="s">
-        <v>65</v>
-      </c>
-      <c r="F296" t="s">
-        <v>107</v>
-      </c>
-      <c r="H296" t="s">
+      <c r="E297">
+        <v>1</v>
+      </c>
+      <c r="F297" t="s">
+        <v>106</v>
+      </c>
+      <c r="H297" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
-      <c r="A297" t="s">
-        <v>125</v>
-      </c>
-      <c r="B297" t="s">
-        <v>130</v>
-      </c>
-      <c r="C297" t="s">
+    <row r="298" spans="1:9">
+      <c r="A298" t="s">
+        <v>124</v>
+      </c>
+      <c r="B298" t="s">
+        <v>44</v>
+      </c>
+      <c r="C298" t="s">
         <v>63</v>
       </c>
-      <c r="E297">
-        <v>1</v>
-      </c>
-      <c r="F297" t="s">
-        <v>68</v>
-      </c>
-      <c r="G297" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8">
-      <c r="A298" t="s">
-        <v>125</v>
-      </c>
-      <c r="B298" t="s">
-        <v>130</v>
-      </c>
-      <c r="C298" t="s">
-        <v>71</v>
-      </c>
-      <c r="E298">
-        <v>1</v>
+      <c r="E298" t="s">
+        <v>65</v>
       </c>
       <c r="F298" t="s">
-        <v>66</v>
-      </c>
-      <c r="H298" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:9">
       <c r="A299" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B299" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="C299" t="s">
-        <v>72</v>
-      </c>
-      <c r="E299">
-        <v>1</v>
+        <v>145</v>
       </c>
       <c r="F299" t="s">
         <v>55</v>
       </c>
-      <c r="H299" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="300" spans="1:8">
+      <c r="G299" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9">
       <c r="A300" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B300" t="s">
         <v>129</v>
@@ -9935,19 +9910,19 @@
       <c r="C300" t="s">
         <v>59</v>
       </c>
-      <c r="E300" t="s">
-        <v>65</v>
+      <c r="E300">
+        <v>4</v>
       </c>
       <c r="F300" t="s">
-        <v>55</v>
-      </c>
-      <c r="H300" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="G300" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9">
       <c r="A301" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B301" t="s">
         <v>129</v>
@@ -9955,19 +9930,19 @@
       <c r="C301" t="s">
         <v>61</v>
       </c>
-      <c r="E301" t="s">
-        <v>65</v>
+      <c r="E301">
+        <v>1</v>
       </c>
       <c r="F301" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="H301" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:9">
       <c r="A302" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B302" t="s">
         <v>129</v>
@@ -9979,18 +9954,15 @@
         <v>65</v>
       </c>
       <c r="F302" t="s">
-        <v>66</v>
-      </c>
-      <c r="G302" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="H302" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:9">
       <c r="A303" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B303" t="s">
         <v>129</v>
@@ -9998,19 +9970,19 @@
       <c r="C303" t="s">
         <v>63</v>
       </c>
-      <c r="E303" t="s">
-        <v>65</v>
+      <c r="E303">
+        <v>1</v>
       </c>
       <c r="F303" t="s">
-        <v>66</v>
-      </c>
-      <c r="H303" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="G303" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9">
       <c r="A304" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B304" t="s">
         <v>129</v>
@@ -10018,22 +9990,19 @@
       <c r="C304" t="s">
         <v>71</v>
       </c>
-      <c r="E304" t="s">
-        <v>65</v>
+      <c r="E304">
+        <v>1</v>
       </c>
       <c r="F304" t="s">
         <v>66</v>
       </c>
-      <c r="G304" t="s">
-        <v>93</v>
-      </c>
       <c r="H304" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="305" spans="1:9">
       <c r="A305" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B305" t="s">
         <v>129</v>
@@ -10041,8 +10010,8 @@
       <c r="C305" t="s">
         <v>72</v>
       </c>
-      <c r="E305" t="s">
-        <v>65</v>
+      <c r="E305">
+        <v>1</v>
       </c>
       <c r="F305" t="s">
         <v>55</v>
@@ -10053,13 +10022,13 @@
     </row>
     <row r="306" spans="1:9">
       <c r="A306" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B306" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C306" t="s">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="E306" t="s">
         <v>65</v>
@@ -10073,22 +10042,19 @@
     </row>
     <row r="307" spans="1:9">
       <c r="A307" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B307" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C307" t="s">
-        <v>133</v>
-      </c>
-      <c r="E307">
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="E307" t="s">
+        <v>65</v>
       </c>
       <c r="F307" t="s">
-        <v>107</v>
-      </c>
-      <c r="G307" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="H307" t="s">
         <v>55</v>
@@ -10096,68 +10062,191 @@
     </row>
     <row r="308" spans="1:9">
       <c r="A308" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B308" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C308" t="s">
-        <v>134</v>
+        <v>62</v>
       </c>
       <c r="E308" t="s">
         <v>65</v>
       </c>
       <c r="F308" t="s">
-        <v>55</v>
+        <v>66</v>
+      </c>
+      <c r="G308" t="s">
+        <v>91</v>
       </c>
       <c r="H308" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="309" spans="1:9" s="3" customFormat="1">
-      <c r="A309" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B309" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C309" s="3" t="s">
+    <row r="309" spans="1:9">
+      <c r="A309" t="s">
+        <v>124</v>
+      </c>
+      <c r="B309" t="s">
+        <v>128</v>
+      </c>
+      <c r="C309" t="s">
+        <v>63</v>
+      </c>
+      <c r="E309" t="s">
+        <v>65</v>
+      </c>
+      <c r="F309" t="s">
+        <v>66</v>
+      </c>
+      <c r="H309" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9">
+      <c r="A310" t="s">
+        <v>124</v>
+      </c>
+      <c r="B310" t="s">
+        <v>128</v>
+      </c>
+      <c r="C310" t="s">
+        <v>71</v>
+      </c>
+      <c r="E310" t="s">
+        <v>65</v>
+      </c>
+      <c r="F310" t="s">
+        <v>66</v>
+      </c>
+      <c r="G310" t="s">
+        <v>93</v>
+      </c>
+      <c r="H310" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9">
+      <c r="A311" t="s">
+        <v>124</v>
+      </c>
+      <c r="B311" t="s">
+        <v>128</v>
+      </c>
+      <c r="C311" t="s">
+        <v>72</v>
+      </c>
+      <c r="E311" t="s">
+        <v>65</v>
+      </c>
+      <c r="F311" t="s">
+        <v>55</v>
+      </c>
+      <c r="H311" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9">
+      <c r="A312" t="s">
+        <v>124</v>
+      </c>
+      <c r="B312" t="s">
+        <v>128</v>
+      </c>
+      <c r="C312" t="s">
+        <v>131</v>
+      </c>
+      <c r="E312" t="s">
+        <v>65</v>
+      </c>
+      <c r="F312" t="s">
+        <v>55</v>
+      </c>
+      <c r="H312" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9">
+      <c r="A313" t="s">
+        <v>124</v>
+      </c>
+      <c r="B313" t="s">
+        <v>128</v>
+      </c>
+      <c r="C313" t="s">
+        <v>132</v>
+      </c>
+      <c r="E313">
+        <v>1</v>
+      </c>
+      <c r="F313" t="s">
+        <v>106</v>
+      </c>
+      <c r="G313" t="s">
+        <v>91</v>
+      </c>
+      <c r="H313" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9">
+      <c r="A314" t="s">
+        <v>124</v>
+      </c>
+      <c r="B314" t="s">
+        <v>128</v>
+      </c>
+      <c r="C314" t="s">
+        <v>133</v>
+      </c>
+      <c r="E314" t="s">
+        <v>65</v>
+      </c>
+      <c r="F314" t="s">
+        <v>55</v>
+      </c>
+      <c r="H314" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" s="3" customFormat="1">
+      <c r="A315" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E315" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F315" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E309" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F309" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="H309" s="3" t="s">
+      <c r="H315" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I309" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9" s="3" customFormat="1">
-      <c r="A310" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B310" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C310" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E310" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G310" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="H310" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I310" s="3" t="s">
-        <v>140</v>
+      <c r="I315" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" s="3" customFormat="1">
+      <c r="A316" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E316" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G316" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -10178,7 +10267,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -10209,20 +10298,20 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Aufnahmebogen/Aufnahmebögen_digitalisiert.xlsx
+++ b/Aufnahmebogen/Aufnahmebögen_digitalisiert.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2155" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2156" uniqueCount="160">
   <si>
     <t>Plot-ID</t>
   </si>
@@ -444,9 +444,6 @@
     <t>plagiothecium undulatum</t>
   </si>
   <si>
-    <t>ortho dicranum flagellare</t>
-  </si>
-  <si>
     <t>hylocomium splendens</t>
   </si>
   <si>
@@ -484,6 +481,21 @@
   </si>
   <si>
     <t>plagiothecium laetum</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> stammblätter herzförmig</t>
+  </si>
+  <si>
+    <t>astblätter lanzettlich</t>
+  </si>
+  <si>
+    <t>eurynthium prälongum/pulchellum</t>
+  </si>
+  <si>
+    <t>ortho dicranum montanum</t>
+  </si>
+  <si>
+    <t>ceratodon purpureus</t>
   </si>
 </sst>
 </file>
@@ -532,7 +544,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -540,6 +552,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -3511,10 +3527,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I316"/>
+  <dimension ref="A1:I315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="G252" sqref="G252"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="C210" sqref="C210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3588,6 +3604,7 @@
       <c r="F3" t="s">
         <v>66</v>
       </c>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
@@ -3605,6 +3622,7 @@
       <c r="F4" t="s">
         <v>55</v>
       </c>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
@@ -3622,6 +3640,7 @@
       <c r="F5" t="s">
         <v>55</v>
       </c>
+      <c r="G5" s="3"/>
       <c r="H5" t="s">
         <v>67</v>
       </c>
@@ -3646,23 +3665,23 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:8" s="5" customFormat="1">
+      <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="6">
         <v>4</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="5" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3895,7 +3914,7 @@
         <v>74</v>
       </c>
       <c r="G18" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -4568,7 +4587,7 @@
         <v>102</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -4607,6 +4626,7 @@
       <c r="F52" t="s">
         <v>66</v>
       </c>
+      <c r="G52" s="3"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
@@ -4645,7 +4665,7 @@
         <v>104</v>
       </c>
       <c r="G54" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -4854,7 +4874,7 @@
         <v>74</v>
       </c>
       <c r="G64" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -5186,6 +5206,7 @@
       <c r="F79" t="s">
         <v>80</v>
       </c>
+      <c r="G79" s="3"/>
       <c r="H79" t="s">
         <v>55</v>
       </c>
@@ -5210,7 +5231,7 @@
         <v>81</v>
       </c>
       <c r="G80" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H80" t="s">
         <v>55</v>
@@ -5236,7 +5257,7 @@
         <v>80</v>
       </c>
       <c r="G81" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H81" t="s">
         <v>55</v>
@@ -5500,7 +5521,7 @@
         <v>74</v>
       </c>
       <c r="G93" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -5638,7 +5659,7 @@
         <v>74</v>
       </c>
       <c r="G99" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -5660,6 +5681,7 @@
       <c r="F100" t="s">
         <v>66</v>
       </c>
+      <c r="G100" s="3"/>
     </row>
     <row r="101" spans="1:9" s="3" customFormat="1">
       <c r="A101" s="3" t="s">
@@ -5669,7 +5691,7 @@
         <v>42</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E101" s="4"/>
       <c r="G101" s="3" t="s">
@@ -5744,6 +5766,9 @@
       <c r="F104" t="s">
         <v>55</v>
       </c>
+      <c r="G104" s="5" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
@@ -5861,8 +5886,8 @@
       <c r="F110" t="s">
         <v>83</v>
       </c>
-      <c r="H110" t="s">
-        <v>55</v>
+      <c r="G110" s="5" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -6007,6 +6032,9 @@
       <c r="F117" t="s">
         <v>74</v>
       </c>
+      <c r="G117" s="5" t="s">
+        <v>158</v>
+      </c>
       <c r="H117" t="s">
         <v>55</v>
       </c>
@@ -6039,7 +6067,7 @@
         <v>44</v>
       </c>
       <c r="C119" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>64</v>
@@ -6087,7 +6115,6 @@
       <c r="F121" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G121"/>
       <c r="H121" s="3" t="s">
         <v>55</v>
       </c>
@@ -6095,29 +6122,29 @@
         <v>139</v>
       </c>
     </row>
-    <row r="122" spans="1:9" s="3" customFormat="1">
-      <c r="A122" s="3" t="s">
+    <row r="122" spans="1:9" s="5" customFormat="1">
+      <c r="A122" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E122" s="4">
+      <c r="E122" s="6">
         <v>2</v>
       </c>
-      <c r="F122" s="3" t="s">
+      <c r="F122" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G122" s="3" t="s">
+      <c r="G122" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="H122" s="3" t="s">
+      <c r="H122" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="I122" s="3" t="s">
+      <c r="I122" s="5" t="s">
         <v>139</v>
       </c>
     </row>
@@ -6177,25 +6204,26 @@
       <c r="F125" t="s">
         <v>101</v>
       </c>
+      <c r="G125" s="3"/>
       <c r="H125" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="126" spans="1:9" s="3" customFormat="1">
-      <c r="A126" s="3" t="s">
+    <row r="126" spans="1:9" s="5" customFormat="1">
+      <c r="A126" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C126" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E126" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G126" s="3" t="s">
-        <v>153</v>
+      <c r="E126" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -6214,6 +6242,7 @@
       <c r="F127" t="s">
         <v>55</v>
       </c>
+      <c r="G127" s="3"/>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" t="s">
@@ -6294,6 +6323,7 @@
       <c r="F131" t="s">
         <v>84</v>
       </c>
+      <c r="G131" s="3"/>
       <c r="H131" t="s">
         <v>55</v>
       </c>
@@ -6314,6 +6344,7 @@
       <c r="F132" t="s">
         <v>92</v>
       </c>
+      <c r="G132" s="3"/>
       <c r="H132" t="s">
         <v>55</v>
       </c>
@@ -6334,6 +6365,7 @@
       <c r="F133" t="s">
         <v>66</v>
       </c>
+      <c r="G133" s="3"/>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" t="s">
@@ -6372,7 +6404,7 @@
         <v>93</v>
       </c>
       <c r="G135" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -6431,25 +6463,26 @@
       <c r="F138" t="s">
         <v>92</v>
       </c>
+      <c r="G138" s="3"/>
       <c r="H138" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="139" spans="1:8" s="3" customFormat="1">
-      <c r="A139" s="3" t="s">
+    <row r="139" spans="1:8" s="5" customFormat="1">
+      <c r="A139" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B139" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C139" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E139" s="4"/>
-      <c r="G139" s="3" t="s">
+      <c r="C139" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="H139" s="3" t="s">
+      <c r="E139" s="6"/>
+      <c r="G139" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="H139" s="5" t="s">
         <v>55</v>
       </c>
     </row>
@@ -6550,7 +6583,7 @@
         <v>69</v>
       </c>
       <c r="G144" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6565,7 +6598,7 @@
       </c>
       <c r="E145" s="1"/>
       <c r="G145" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6625,7 +6658,7 @@
         <v>69</v>
       </c>
       <c r="G148" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6684,6 +6717,7 @@
       <c r="F151" t="s">
         <v>95</v>
       </c>
+      <c r="G151" s="3"/>
       <c r="H151" t="s">
         <v>55</v>
       </c>
@@ -6744,6 +6778,7 @@
       <c r="F154" t="s">
         <v>101</v>
       </c>
+      <c r="G154" s="3"/>
       <c r="H154" t="s">
         <v>55</v>
       </c>
@@ -6765,7 +6800,7 @@
         <v>55</v>
       </c>
       <c r="G155" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6902,6 +6937,7 @@
       <c r="F161" t="s">
         <v>80</v>
       </c>
+      <c r="G161" s="3"/>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" t="s">
@@ -6968,6 +7004,7 @@
       <c r="F164" t="s">
         <v>80</v>
       </c>
+      <c r="G164" s="3"/>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" t="s">
@@ -7057,8 +7094,8 @@
       <c r="F168" t="s">
         <v>74</v>
       </c>
-      <c r="H168" t="s">
-        <v>55</v>
+      <c r="G168" s="5" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -7080,6 +7117,7 @@
       <c r="F169" t="s">
         <v>83</v>
       </c>
+      <c r="G169" s="3"/>
       <c r="H169" t="s">
         <v>55</v>
       </c>
@@ -7103,6 +7141,7 @@
       <c r="F170" t="s">
         <v>55</v>
       </c>
+      <c r="G170" s="3"/>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" t="s">
@@ -7146,6 +7185,9 @@
       <c r="F172" t="s">
         <v>74</v>
       </c>
+      <c r="G172" s="5" t="s">
+        <v>158</v>
+      </c>
       <c r="H172" t="s">
         <v>55</v>
       </c>
@@ -7284,13 +7326,16 @@
         <v>41</v>
       </c>
       <c r="C179" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E179" t="s">
         <v>65</v>
       </c>
       <c r="F179" t="s">
         <v>55</v>
+      </c>
+      <c r="G179" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -7298,19 +7343,19 @@
         <v>105</v>
       </c>
       <c r="B180" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C180" t="s">
-        <v>78</v>
-      </c>
-      <c r="E180" t="s">
-        <v>65</v>
+        <v>59</v>
+      </c>
+      <c r="E180">
+        <v>4</v>
       </c>
       <c r="F180" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="G180" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -7321,16 +7366,16 @@
         <v>44</v>
       </c>
       <c r="C181" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E181">
         <v>4</v>
       </c>
       <c r="F181" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G181" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -7341,16 +7386,16 @@
         <v>44</v>
       </c>
       <c r="C182" t="s">
-        <v>61</v>
-      </c>
-      <c r="E182">
-        <v>4</v>
+        <v>62</v>
+      </c>
+      <c r="E182" t="s">
+        <v>64</v>
       </c>
       <c r="F182" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="G182" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -7361,16 +7406,16 @@
         <v>44</v>
       </c>
       <c r="C183" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E183" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F183" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="G183" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -7381,16 +7426,16 @@
         <v>44</v>
       </c>
       <c r="C184" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E184" t="s">
         <v>65</v>
       </c>
       <c r="F184" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G184" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -7398,19 +7443,22 @@
         <v>105</v>
       </c>
       <c r="B185" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C185" t="s">
-        <v>71</v>
-      </c>
-      <c r="E185" t="s">
-        <v>65</v>
+        <v>59</v>
+      </c>
+      <c r="D185">
+        <v>1</v>
+      </c>
+      <c r="E185">
+        <v>1</v>
       </c>
       <c r="F185" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G185" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -7421,19 +7469,19 @@
         <v>42</v>
       </c>
       <c r="C186" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D186">
         <v>1</v>
       </c>
-      <c r="E186">
-        <v>1</v>
+      <c r="E186" t="s">
+        <v>64</v>
       </c>
       <c r="F186" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G186" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -7441,22 +7489,22 @@
         <v>105</v>
       </c>
       <c r="B187" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C187" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D187">
         <v>1</v>
       </c>
-      <c r="E187" t="s">
-        <v>64</v>
+      <c r="E187">
+        <v>3</v>
       </c>
       <c r="F187" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G187" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -7470,10 +7518,10 @@
         <v>59</v>
       </c>
       <c r="D188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E188">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F188" t="s">
         <v>68</v>
@@ -7493,7 +7541,7 @@
         <v>59</v>
       </c>
       <c r="D189">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E189">
         <v>2</v>
@@ -7516,16 +7564,16 @@
         <v>59</v>
       </c>
       <c r="D190">
-        <v>3</v>
-      </c>
-      <c r="E190">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E190" t="s">
+        <v>64</v>
       </c>
       <c r="F190" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G190" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -7536,7 +7584,7 @@
         <v>43</v>
       </c>
       <c r="C191" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D191">
         <v>1</v>
@@ -7545,10 +7593,10 @@
         <v>64</v>
       </c>
       <c r="F191" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="G191" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -7559,13 +7607,13 @@
         <v>43</v>
       </c>
       <c r="C192" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D192">
-        <v>1</v>
-      </c>
-      <c r="E192" t="s">
-        <v>64</v>
+        <v>2</v>
+      </c>
+      <c r="E192">
+        <v>2</v>
       </c>
       <c r="F192" t="s">
         <v>97</v>
@@ -7587,14 +7635,15 @@
       <c r="D193">
         <v>2</v>
       </c>
-      <c r="E193">
-        <v>2</v>
+      <c r="E193" t="s">
+        <v>65</v>
       </c>
       <c r="F193" t="s">
-        <v>97</v>
-      </c>
-      <c r="G193" t="s">
-        <v>97</v>
+        <v>55</v>
+      </c>
+      <c r="G193" s="3"/>
+      <c r="H193" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7605,10 +7654,10 @@
         <v>43</v>
       </c>
       <c r="C194" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D194">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E194" t="s">
         <v>65</v>
@@ -7616,6 +7665,7 @@
       <c r="F194" t="s">
         <v>55</v>
       </c>
+      <c r="G194" s="3"/>
       <c r="H194" t="s">
         <v>95</v>
       </c>
@@ -7631,17 +7681,15 @@
         <v>63</v>
       </c>
       <c r="D195">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E195" t="s">
         <v>65</v>
       </c>
       <c r="F195" t="s">
-        <v>55</v>
-      </c>
-      <c r="H195" t="s">
-        <v>95</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G195" s="3"/>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" t="s">
@@ -7654,7 +7702,7 @@
         <v>63</v>
       </c>
       <c r="D196">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E196" t="s">
         <v>65</v>
@@ -7662,6 +7710,7 @@
       <c r="F196" t="s">
         <v>80</v>
       </c>
+      <c r="G196" s="3"/>
     </row>
     <row r="197" spans="1:8">
       <c r="A197" t="s">
@@ -7671,39 +7720,39 @@
         <v>43</v>
       </c>
       <c r="C197" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D197">
         <v>3</v>
       </c>
-      <c r="E197" t="s">
-        <v>65</v>
+      <c r="E197">
+        <v>2</v>
       </c>
       <c r="F197" t="s">
-        <v>80</v>
+        <v>97</v>
+      </c>
+      <c r="G197" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="198" spans="1:8">
       <c r="A198" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B198" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C198" t="s">
-        <v>62</v>
-      </c>
-      <c r="D198">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="E198">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F198" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="G198" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7714,16 +7763,16 @@
         <v>44</v>
       </c>
       <c r="C199" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E199">
         <v>4</v>
       </c>
       <c r="F199" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G199" t="s">
-        <v>68</v>
+        <v>154</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7734,16 +7783,13 @@
         <v>44</v>
       </c>
       <c r="C200" t="s">
-        <v>61</v>
-      </c>
-      <c r="E200">
-        <v>4</v>
+        <v>62</v>
+      </c>
+      <c r="E200" t="s">
+        <v>65</v>
       </c>
       <c r="F200" t="s">
-        <v>69</v>
-      </c>
-      <c r="G200" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7751,16 +7797,22 @@
         <v>107</v>
       </c>
       <c r="B201" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C201" t="s">
-        <v>62</v>
-      </c>
-      <c r="E201" t="s">
-        <v>65</v>
+        <v>59</v>
+      </c>
+      <c r="D201">
+        <v>1</v>
+      </c>
+      <c r="E201">
+        <v>1</v>
       </c>
       <c r="F201" t="s">
-        <v>106</v>
+        <v>68</v>
+      </c>
+      <c r="G201" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7771,19 +7823,19 @@
         <v>42</v>
       </c>
       <c r="C202" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D202">
         <v>1</v>
       </c>
-      <c r="E202">
-        <v>1</v>
+      <c r="E202" t="s">
+        <v>64</v>
       </c>
       <c r="F202" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G202" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7794,7 +7846,7 @@
         <v>42</v>
       </c>
       <c r="C203" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D203">
         <v>1</v>
@@ -7803,10 +7855,10 @@
         <v>64</v>
       </c>
       <c r="F203" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="G203" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7817,7 +7869,7 @@
         <v>42</v>
       </c>
       <c r="C204" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D204">
         <v>1</v>
@@ -7826,10 +7878,11 @@
         <v>64</v>
       </c>
       <c r="F204" t="s">
-        <v>97</v>
-      </c>
-      <c r="G204" t="s">
-        <v>97</v>
+        <v>55</v>
+      </c>
+      <c r="G204" s="3"/>
+      <c r="H204" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7840,19 +7893,19 @@
         <v>42</v>
       </c>
       <c r="C205" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D205">
         <v>1</v>
       </c>
       <c r="E205" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F205" t="s">
-        <v>55</v>
-      </c>
-      <c r="H205" t="s">
-        <v>95</v>
+        <v>80</v>
+      </c>
+      <c r="G205" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7863,19 +7916,19 @@
         <v>42</v>
       </c>
       <c r="C206" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E206" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F206" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="G206" t="s">
-        <v>146</v>
+        <v>68</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7886,19 +7939,19 @@
         <v>42</v>
       </c>
       <c r="C207" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D207">
         <v>2</v>
       </c>
-      <c r="E207" t="s">
-        <v>64</v>
+      <c r="E207">
+        <v>2</v>
       </c>
       <c r="F207" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="G207" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7909,19 +7962,20 @@
         <v>42</v>
       </c>
       <c r="C208" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D208">
         <v>2</v>
       </c>
       <c r="E208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F208" t="s">
-        <v>97</v>
-      </c>
-      <c r="G208" t="s">
-        <v>97</v>
+        <v>55</v>
+      </c>
+      <c r="G208" s="3"/>
+      <c r="H208" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7932,39 +7986,37 @@
         <v>42</v>
       </c>
       <c r="C209" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D209">
         <v>2</v>
       </c>
-      <c r="E209">
-        <v>1</v>
+      <c r="E209" t="s">
+        <v>64</v>
       </c>
       <c r="F209" t="s">
-        <v>55</v>
-      </c>
-      <c r="H209" t="s">
-        <v>95</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G209" s="3"/>
     </row>
     <row r="210" spans="1:8">
       <c r="A210" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B210" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C210" t="s">
-        <v>71</v>
-      </c>
-      <c r="D210">
-        <v>2</v>
-      </c>
-      <c r="E210" t="s">
-        <v>64</v>
+        <v>59</v>
+      </c>
+      <c r="E210">
+        <v>5</v>
       </c>
       <c r="F210" t="s">
-        <v>80</v>
+        <v>68</v>
+      </c>
+      <c r="G210" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7975,16 +8027,16 @@
         <v>44</v>
       </c>
       <c r="C211" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E211">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F211" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G211" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7995,19 +8047,16 @@
         <v>44</v>
       </c>
       <c r="C212" t="s">
-        <v>61</v>
-      </c>
-      <c r="E212">
-        <v>2</v>
+        <v>62</v>
+      </c>
+      <c r="E212" t="s">
+        <v>64</v>
       </c>
       <c r="F212" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G212" t="s">
-        <v>69</v>
-      </c>
-      <c r="H212" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -8018,16 +8067,16 @@
         <v>44</v>
       </c>
       <c r="C213" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E213" t="s">
         <v>64</v>
       </c>
       <c r="F213" t="s">
-        <v>66</v>
-      </c>
-      <c r="G213" t="s">
-        <v>91</v>
+        <v>115</v>
+      </c>
+      <c r="G213" s="5" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -8038,16 +8087,16 @@
         <v>44</v>
       </c>
       <c r="C214" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E214" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F214" t="s">
-        <v>115</v>
-      </c>
-      <c r="H214" t="s">
-        <v>55</v>
+        <v>75</v>
+      </c>
+      <c r="G214" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -8055,19 +8104,22 @@
         <v>112</v>
       </c>
       <c r="B215" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C215" t="s">
-        <v>71</v>
-      </c>
-      <c r="E215" t="s">
-        <v>65</v>
+        <v>59</v>
+      </c>
+      <c r="D215">
+        <v>1</v>
+      </c>
+      <c r="E215">
+        <v>4</v>
       </c>
       <c r="F215" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G215" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -8078,19 +8130,19 @@
         <v>42</v>
       </c>
       <c r="C216" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D216">
         <v>1</v>
       </c>
-      <c r="E216">
-        <v>4</v>
+      <c r="E216" t="s">
+        <v>65</v>
       </c>
       <c r="F216" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G216" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -8101,19 +8153,19 @@
         <v>42</v>
       </c>
       <c r="C217" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D217">
         <v>1</v>
       </c>
       <c r="E217" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F217" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="G217" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -8124,19 +8176,19 @@
         <v>42</v>
       </c>
       <c r="C218" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D218">
-        <v>1</v>
-      </c>
-      <c r="E218" t="s">
-        <v>64</v>
+        <v>2</v>
+      </c>
+      <c r="E218">
+        <v>1</v>
       </c>
       <c r="F218" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="G218" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -8147,7 +8199,7 @@
         <v>42</v>
       </c>
       <c r="C219" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D219">
         <v>2</v>
@@ -8156,10 +8208,10 @@
         <v>1</v>
       </c>
       <c r="F219" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="G219" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -8170,20 +8222,18 @@
         <v>42</v>
       </c>
       <c r="C220" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D220">
         <v>2</v>
       </c>
-      <c r="E220">
-        <v>1</v>
+      <c r="E220" t="s">
+        <v>65</v>
       </c>
       <c r="F220" t="s">
-        <v>97</v>
-      </c>
-      <c r="G220" t="s">
-        <v>97</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G220" s="3"/>
     </row>
     <row r="221" spans="1:8">
       <c r="A221" t="s">
@@ -8193,7 +8243,7 @@
         <v>42</v>
       </c>
       <c r="C221" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D221">
         <v>2</v>
@@ -8202,7 +8252,13 @@
         <v>65</v>
       </c>
       <c r="F221" t="s">
-        <v>80</v>
+        <v>92</v>
+      </c>
+      <c r="G221" t="s">
+        <v>145</v>
+      </c>
+      <c r="H221" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8213,22 +8269,19 @@
         <v>42</v>
       </c>
       <c r="C222" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D222">
-        <v>2</v>
-      </c>
-      <c r="E222" t="s">
-        <v>65</v>
+        <v>3</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
       </c>
       <c r="F222" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="G222" t="s">
-        <v>146</v>
-      </c>
-      <c r="H222" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8239,19 +8292,19 @@
         <v>42</v>
       </c>
       <c r="C223" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D223">
         <v>3</v>
       </c>
       <c r="E223">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F223" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="G223" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8262,39 +8315,43 @@
         <v>42</v>
       </c>
       <c r="C224" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D224">
         <v>3</v>
       </c>
-      <c r="E224">
-        <v>2</v>
+      <c r="E224" t="s">
+        <v>65</v>
       </c>
       <c r="F224" t="s">
-        <v>97</v>
-      </c>
-      <c r="G224" t="s">
-        <v>97</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G224" s="3"/>
     </row>
     <row r="225" spans="1:8">
       <c r="A225" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B225" t="s">
         <v>42</v>
       </c>
       <c r="C225" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D225">
-        <v>3</v>
-      </c>
-      <c r="E225" t="s">
-        <v>65</v>
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>2</v>
       </c>
       <c r="F225" t="s">
-        <v>80</v>
+        <v>104</v>
+      </c>
+      <c r="G225" t="s">
+        <v>104</v>
+      </c>
+      <c r="H225" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8305,22 +8362,19 @@
         <v>42</v>
       </c>
       <c r="C226" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D226">
         <v>1</v>
       </c>
       <c r="E226">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F226" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="G226" t="s">
-        <v>104</v>
-      </c>
-      <c r="H226" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8331,19 +8385,19 @@
         <v>42</v>
       </c>
       <c r="C227" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D227">
         <v>1</v>
       </c>
       <c r="E227">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F227" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G227" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8354,19 +8408,17 @@
         <v>42</v>
       </c>
       <c r="C228" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D228">
         <v>1</v>
       </c>
-      <c r="E228">
-        <v>1</v>
-      </c>
-      <c r="F228" t="s">
-        <v>69</v>
-      </c>
-      <c r="G228" t="s">
-        <v>69</v>
+      <c r="E228" t="s">
+        <v>65</v>
+      </c>
+      <c r="G228" s="3"/>
+      <c r="H228" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8377,7 +8429,7 @@
         <v>42</v>
       </c>
       <c r="C229" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D229">
         <v>1</v>
@@ -8385,9 +8437,10 @@
       <c r="E229" t="s">
         <v>65</v>
       </c>
-      <c r="H229" t="s">
-        <v>55</v>
-      </c>
+      <c r="F229" t="s">
+        <v>80</v>
+      </c>
+      <c r="G229" s="3"/>
     </row>
     <row r="230" spans="1:8">
       <c r="A230" t="s">
@@ -8397,16 +8450,10 @@
         <v>42</v>
       </c>
       <c r="C230" t="s">
-        <v>71</v>
-      </c>
-      <c r="D230">
-        <v>1</v>
-      </c>
-      <c r="E230" t="s">
-        <v>65</v>
-      </c>
-      <c r="F230" t="s">
-        <v>80</v>
+        <v>72</v>
+      </c>
+      <c r="G230" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8417,7 +8464,16 @@
         <v>42</v>
       </c>
       <c r="C231" t="s">
-        <v>72</v>
+        <v>59</v>
+      </c>
+      <c r="D231">
+        <v>2</v>
+      </c>
+      <c r="E231" t="s">
+        <v>65</v>
+      </c>
+      <c r="F231" t="s">
+        <v>68</v>
       </c>
       <c r="G231" t="s">
         <v>68</v>
@@ -8428,16 +8484,16 @@
         <v>116</v>
       </c>
       <c r="B232" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C232" t="s">
         <v>59</v>
       </c>
       <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
         <v>2</v>
-      </c>
-      <c r="E232" t="s">
-        <v>65</v>
       </c>
       <c r="F232" t="s">
         <v>68</v>
@@ -8454,7 +8510,7 @@
         <v>48</v>
       </c>
       <c r="C233" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D233">
         <v>1</v>
@@ -8463,10 +8519,10 @@
         <v>2</v>
       </c>
       <c r="F233" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="G233" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8477,19 +8533,19 @@
         <v>48</v>
       </c>
       <c r="C234" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D234">
         <v>1</v>
       </c>
-      <c r="E234">
-        <v>2</v>
+      <c r="E234" t="s">
+        <v>65</v>
       </c>
       <c r="F234" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="G234" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8500,19 +8556,19 @@
         <v>48</v>
       </c>
       <c r="C235" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D235">
         <v>1</v>
       </c>
-      <c r="E235" t="s">
-        <v>65</v>
+      <c r="E235">
+        <v>1</v>
       </c>
       <c r="F235" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="G235" t="s">
-        <v>69</v>
+        <v>143</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8523,19 +8579,20 @@
         <v>48</v>
       </c>
       <c r="C236" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D236">
         <v>1</v>
       </c>
-      <c r="E236">
-        <v>1</v>
+      <c r="E236" t="s">
+        <v>64</v>
       </c>
       <c r="F236" t="s">
-        <v>80</v>
-      </c>
-      <c r="G236" t="s">
-        <v>144</v>
+        <v>92</v>
+      </c>
+      <c r="G236" s="3"/>
+      <c r="H236" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8546,19 +8603,19 @@
         <v>48</v>
       </c>
       <c r="C237" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E237" t="s">
         <v>64</v>
       </c>
       <c r="F237" t="s">
-        <v>92</v>
-      </c>
-      <c r="H237" t="s">
-        <v>55</v>
+        <v>68</v>
+      </c>
+      <c r="G237" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8569,19 +8626,19 @@
         <v>48</v>
       </c>
       <c r="C238" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D238">
         <v>2</v>
       </c>
-      <c r="E238" t="s">
-        <v>64</v>
+      <c r="E238">
+        <v>2</v>
       </c>
       <c r="F238" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="G238" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8592,19 +8649,20 @@
         <v>48</v>
       </c>
       <c r="C239" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D239">
         <v>2</v>
       </c>
-      <c r="E239">
-        <v>2</v>
+      <c r="E239" t="s">
+        <v>65</v>
       </c>
       <c r="F239" t="s">
-        <v>97</v>
-      </c>
-      <c r="G239" t="s">
-        <v>97</v>
+        <v>92</v>
+      </c>
+      <c r="G239" s="3"/>
+      <c r="H239" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8615,19 +8673,19 @@
         <v>48</v>
       </c>
       <c r="C240" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D240">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E240" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F240" t="s">
-        <v>92</v>
-      </c>
-      <c r="H240" t="s">
-        <v>55</v>
+        <v>68</v>
+      </c>
+      <c r="G240" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8638,19 +8696,19 @@
         <v>48</v>
       </c>
       <c r="C241" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D241">
         <v>3</v>
       </c>
-      <c r="E241" t="s">
-        <v>64</v>
+      <c r="E241">
+        <v>1</v>
       </c>
       <c r="F241" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="G241" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8658,22 +8716,22 @@
         <v>116</v>
       </c>
       <c r="B242" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C242" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D242">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E242">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F242" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="G242" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8684,7 +8742,7 @@
         <v>43</v>
       </c>
       <c r="C243" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D243">
         <v>1</v>
@@ -8693,10 +8751,10 @@
         <v>2</v>
       </c>
       <c r="F243" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G243" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8707,19 +8765,19 @@
         <v>43</v>
       </c>
       <c r="C244" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D244">
         <v>1</v>
       </c>
-      <c r="E244">
-        <v>2</v>
+      <c r="E244" t="s">
+        <v>64</v>
       </c>
       <c r="F244" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="G244" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8730,19 +8788,22 @@
         <v>43</v>
       </c>
       <c r="C245" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D245">
         <v>1</v>
       </c>
-      <c r="E245" t="s">
-        <v>64</v>
+      <c r="E245">
+        <v>4</v>
       </c>
       <c r="F245" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="G245" t="s">
-        <v>104</v>
+        <v>143</v>
+      </c>
+      <c r="H245" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8753,22 +8814,19 @@
         <v>43</v>
       </c>
       <c r="C246" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D246">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E246">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F246" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="G246" t="s">
-        <v>144</v>
-      </c>
-      <c r="H246" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8779,19 +8837,19 @@
         <v>43</v>
       </c>
       <c r="C247" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D247">
         <v>2</v>
       </c>
-      <c r="E247">
-        <v>1</v>
+      <c r="E247" t="s">
+        <v>65</v>
       </c>
       <c r="F247" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="G247" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8802,19 +8860,20 @@
         <v>43</v>
       </c>
       <c r="C248" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D248">
         <v>2</v>
       </c>
-      <c r="E248" t="s">
-        <v>65</v>
+      <c r="E248">
+        <v>3</v>
       </c>
       <c r="F248" t="s">
-        <v>97</v>
-      </c>
-      <c r="G248" t="s">
-        <v>97</v>
+        <v>92</v>
+      </c>
+      <c r="G248" s="3"/>
+      <c r="H248" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8822,22 +8881,19 @@
         <v>116</v>
       </c>
       <c r="B249" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C249" t="s">
-        <v>63</v>
-      </c>
-      <c r="D249">
-        <v>2</v>
-      </c>
-      <c r="E249">
-        <v>3</v>
+        <v>59</v>
+      </c>
+      <c r="E249" t="s">
+        <v>65</v>
       </c>
       <c r="F249" t="s">
-        <v>92</v>
-      </c>
-      <c r="H249" t="s">
-        <v>55</v>
+        <v>60</v>
+      </c>
+      <c r="G249" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8848,16 +8904,16 @@
         <v>41</v>
       </c>
       <c r="C250" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E250" t="s">
         <v>65</v>
       </c>
       <c r="F250" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G250" t="s">
-        <v>60</v>
+        <v>135</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8868,16 +8924,16 @@
         <v>41</v>
       </c>
       <c r="C251" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E251" t="s">
         <v>65</v>
       </c>
       <c r="F251" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="G251" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8885,19 +8941,19 @@
         <v>116</v>
       </c>
       <c r="B252" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C252" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E252" t="s">
         <v>65</v>
       </c>
       <c r="F252" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="G252" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8908,16 +8964,16 @@
         <v>44</v>
       </c>
       <c r="C253" t="s">
-        <v>59</v>
-      </c>
-      <c r="E253" t="s">
-        <v>65</v>
+        <v>61</v>
+      </c>
+      <c r="E253">
+        <v>2</v>
       </c>
       <c r="F253" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="G253" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8928,13 +8984,16 @@
         <v>44</v>
       </c>
       <c r="C254" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E254">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F254" t="s">
-        <v>104</v>
+        <v>68</v>
+      </c>
+      <c r="G254" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8945,16 +9004,16 @@
         <v>44</v>
       </c>
       <c r="C255" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E255">
         <v>3</v>
       </c>
       <c r="F255" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G255" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8965,16 +9024,16 @@
         <v>44</v>
       </c>
       <c r="C256" t="s">
-        <v>63</v>
-      </c>
-      <c r="E256">
-        <v>3</v>
+        <v>71</v>
+      </c>
+      <c r="E256" t="s">
+        <v>65</v>
       </c>
       <c r="F256" t="s">
-        <v>69</v>
-      </c>
-      <c r="G256" t="s">
-        <v>69</v>
+        <v>118</v>
+      </c>
+      <c r="G256" s="5" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8985,16 +9044,16 @@
         <v>44</v>
       </c>
       <c r="C257" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E257" t="s">
         <v>65</v>
       </c>
       <c r="F257" t="s">
-        <v>118</v>
-      </c>
-      <c r="H257" t="s">
-        <v>55</v>
+        <v>97</v>
+      </c>
+      <c r="G257" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -9005,76 +9064,76 @@
         <v>44</v>
       </c>
       <c r="C258" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E258" t="s">
         <v>65</v>
       </c>
       <c r="F258" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="G258" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
     </row>
     <row r="259" spans="1:8">
       <c r="A259" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B259" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="C259" t="s">
-        <v>73</v>
-      </c>
-      <c r="E259" t="s">
-        <v>65</v>
+        <v>59</v>
+      </c>
+      <c r="E259">
+        <v>3</v>
       </c>
       <c r="F259" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="G259" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8">
-      <c r="A260" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" s="5" customFormat="1">
+      <c r="A260" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B260" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C260" t="s">
-        <v>59</v>
-      </c>
-      <c r="E260">
-        <v>3</v>
-      </c>
-      <c r="F260" t="s">
-        <v>68</v>
-      </c>
-      <c r="G260" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" s="3" customFormat="1">
-      <c r="A261" s="3" t="s">
+      <c r="C260" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E260" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F260" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G260" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
+      <c r="A261" t="s">
         <v>119</v>
       </c>
-      <c r="B261" s="3" t="s">
+      <c r="B261" t="s">
         <v>121</v>
       </c>
-      <c r="C261" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E261" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F261" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G261" s="3" t="s">
-        <v>75</v>
+      <c r="C261" t="s">
+        <v>62</v>
+      </c>
+      <c r="E261" t="s">
+        <v>65</v>
+      </c>
+      <c r="F261" t="s">
+        <v>60</v>
+      </c>
+      <c r="G261" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9085,16 +9144,16 @@
         <v>121</v>
       </c>
       <c r="C262" t="s">
-        <v>62</v>
-      </c>
-      <c r="E262" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="E262">
+        <v>1</v>
       </c>
       <c r="F262" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G262" t="s">
-        <v>60</v>
+        <v>135</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9105,56 +9164,56 @@
         <v>121</v>
       </c>
       <c r="C263" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E263">
         <v>1</v>
       </c>
       <c r="F263" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G263" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8">
-      <c r="A264" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" s="5" customFormat="1">
+      <c r="A264" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B264" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C264" t="s">
-        <v>71</v>
-      </c>
-      <c r="E264">
-        <v>1</v>
-      </c>
-      <c r="F264" t="s">
-        <v>69</v>
-      </c>
-      <c r="G264" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8" s="3" customFormat="1">
-      <c r="A265" s="3" t="s">
+      <c r="C264" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E264" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F264" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G264" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
+      <c r="A265" t="s">
         <v>119</v>
       </c>
-      <c r="B265" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C265" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E265" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F265" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G265" s="3" t="s">
-        <v>75</v>
+      <c r="B265" t="s">
+        <v>44</v>
+      </c>
+      <c r="C265" t="s">
+        <v>59</v>
+      </c>
+      <c r="E265">
+        <v>5</v>
+      </c>
+      <c r="F265" t="s">
+        <v>68</v>
+      </c>
+      <c r="G265" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9165,16 +9224,16 @@
         <v>44</v>
       </c>
       <c r="C266" t="s">
-        <v>59</v>
-      </c>
-      <c r="E266">
-        <v>5</v>
+        <v>61</v>
+      </c>
+      <c r="E266" t="s">
+        <v>64</v>
       </c>
       <c r="F266" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G266" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9185,16 +9244,16 @@
         <v>44</v>
       </c>
       <c r="C267" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E267" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F267" t="s">
-        <v>75</v>
-      </c>
-      <c r="G267" t="s">
-        <v>75</v>
+        <v>55</v>
+      </c>
+      <c r="G267" s="5" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9205,16 +9264,16 @@
         <v>44</v>
       </c>
       <c r="C268" t="s">
-        <v>62</v>
-      </c>
-      <c r="E268" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="E268">
+        <v>3</v>
       </c>
       <c r="F268" t="s">
-        <v>55</v>
-      </c>
-      <c r="H268" t="s">
-        <v>55</v>
+        <v>69</v>
+      </c>
+      <c r="G268" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9225,16 +9284,16 @@
         <v>44</v>
       </c>
       <c r="C269" t="s">
-        <v>63</v>
-      </c>
-      <c r="E269">
-        <v>3</v>
+        <v>71</v>
+      </c>
+      <c r="E269" t="s">
+        <v>64</v>
       </c>
       <c r="F269" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G269" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9242,19 +9301,23 @@
         <v>119</v>
       </c>
       <c r="B270" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C270" t="s">
-        <v>71</v>
-      </c>
-      <c r="E270" t="s">
-        <v>64</v>
+        <v>59</v>
+      </c>
+      <c r="D270">
+        <v>1</v>
+      </c>
+      <c r="E270">
+        <v>3</v>
       </c>
       <c r="F270" t="s">
-        <v>66</v>
-      </c>
-      <c r="G270" t="s">
-        <v>91</v>
+        <v>55</v>
+      </c>
+      <c r="G270" s="3"/>
+      <c r="H270" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9265,19 +9328,19 @@
         <v>42</v>
       </c>
       <c r="C271" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D271">
         <v>1</v>
       </c>
       <c r="E271">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F271" t="s">
-        <v>55</v>
-      </c>
-      <c r="H271" t="s">
-        <v>55</v>
+        <v>68</v>
+      </c>
+      <c r="G271" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9288,19 +9351,19 @@
         <v>42</v>
       </c>
       <c r="C272" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D272">
         <v>1</v>
       </c>
-      <c r="E272">
-        <v>4</v>
+      <c r="E272" t="s">
+        <v>64</v>
       </c>
       <c r="F272" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G272" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="273" spans="1:9">
@@ -9311,19 +9374,19 @@
         <v>42</v>
       </c>
       <c r="C273" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D273">
         <v>1</v>
       </c>
       <c r="E273" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F273" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G273" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="274" spans="1:9">
@@ -9334,7 +9397,7 @@
         <v>42</v>
       </c>
       <c r="C274" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D274">
         <v>1</v>
@@ -9343,10 +9406,11 @@
         <v>65</v>
       </c>
       <c r="F274" t="s">
-        <v>75</v>
-      </c>
-      <c r="G274" t="s">
-        <v>75</v>
+        <v>92</v>
+      </c>
+      <c r="G274" s="3"/>
+      <c r="H274" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="275" spans="1:9">
@@ -9357,7 +9421,7 @@
         <v>42</v>
       </c>
       <c r="C275" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D275">
         <v>1</v>
@@ -9366,8 +9430,9 @@
         <v>65</v>
       </c>
       <c r="F275" t="s">
-        <v>92</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G275" s="3"/>
       <c r="H275" t="s">
         <v>55</v>
       </c>
@@ -9380,19 +9445,19 @@
         <v>42</v>
       </c>
       <c r="C276" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D276">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E276" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F276" t="s">
-        <v>122</v>
-      </c>
-      <c r="H276" t="s">
-        <v>55</v>
+        <v>68</v>
+      </c>
+      <c r="G276" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="277" spans="1:9">
@@ -9403,7 +9468,7 @@
         <v>42</v>
       </c>
       <c r="C277" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D277">
         <v>2</v>
@@ -9412,10 +9477,11 @@
         <v>64</v>
       </c>
       <c r="F277" t="s">
-        <v>68</v>
-      </c>
-      <c r="G277" t="s">
-        <v>68</v>
+        <v>122</v>
+      </c>
+      <c r="G277" s="3"/>
+      <c r="H277" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="278" spans="1:9">
@@ -9423,22 +9489,22 @@
         <v>119</v>
       </c>
       <c r="B278" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C278" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D278">
-        <v>2</v>
-      </c>
-      <c r="E278" t="s">
-        <v>64</v>
+        <v>1</v>
+      </c>
+      <c r="E278">
+        <v>3</v>
       </c>
       <c r="F278" t="s">
-        <v>122</v>
-      </c>
-      <c r="H278" t="s">
-        <v>55</v>
+        <v>68</v>
+      </c>
+      <c r="G278" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="279" spans="1:9">
@@ -9449,19 +9515,19 @@
         <v>43</v>
       </c>
       <c r="C279" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D279">
         <v>1</v>
       </c>
-      <c r="E279">
-        <v>3</v>
+      <c r="E279" t="s">
+        <v>65</v>
       </c>
       <c r="F279" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G279" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="280" spans="1:9">
@@ -9472,7 +9538,7 @@
         <v>43</v>
       </c>
       <c r="C280" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D280">
         <v>1</v>
@@ -9481,10 +9547,11 @@
         <v>65</v>
       </c>
       <c r="F280" t="s">
-        <v>69</v>
-      </c>
-      <c r="G280" t="s">
-        <v>69</v>
+        <v>92</v>
+      </c>
+      <c r="G280" s="3"/>
+      <c r="H280" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="281" spans="1:9">
@@ -9495,7 +9562,7 @@
         <v>43</v>
       </c>
       <c r="C281" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D281">
         <v>1</v>
@@ -9504,8 +9571,9 @@
         <v>65</v>
       </c>
       <c r="F281" t="s">
-        <v>92</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G281" s="3"/>
       <c r="H281" t="s">
         <v>55</v>
       </c>
@@ -9518,19 +9586,19 @@
         <v>43</v>
       </c>
       <c r="C282" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D282">
-        <v>1</v>
-      </c>
-      <c r="E282" t="s">
-        <v>65</v>
+        <v>2</v>
+      </c>
+      <c r="E282">
+        <v>2</v>
       </c>
       <c r="F282" t="s">
-        <v>123</v>
-      </c>
-      <c r="H282" t="s">
-        <v>55</v>
+        <v>68</v>
+      </c>
+      <c r="G282" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="283" spans="1:9">
@@ -9541,82 +9609,84 @@
         <v>43</v>
       </c>
       <c r="C283" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D283">
         <v>2</v>
       </c>
-      <c r="E283">
+      <c r="E283" t="s">
+        <v>64</v>
+      </c>
+      <c r="F283" t="s">
+        <v>123</v>
+      </c>
+      <c r="G283" s="3"/>
+      <c r="H283" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" s="3" customFormat="1">
+      <c r="A284" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G284" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I284" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9">
+      <c r="A285" t="s">
+        <v>119</v>
+      </c>
+      <c r="B285" t="s">
+        <v>43</v>
+      </c>
+      <c r="C285" t="s">
+        <v>71</v>
+      </c>
+      <c r="D285">
         <v>2</v>
       </c>
-      <c r="F283" t="s">
-        <v>68</v>
-      </c>
-      <c r="G283" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9">
-      <c r="A284" t="s">
-        <v>119</v>
-      </c>
-      <c r="B284" t="s">
-        <v>43</v>
-      </c>
-      <c r="C284" t="s">
-        <v>63</v>
-      </c>
-      <c r="D284">
-        <v>2</v>
-      </c>
-      <c r="E284" t="s">
-        <v>64</v>
-      </c>
-      <c r="F284" t="s">
-        <v>123</v>
-      </c>
-      <c r="H284" t="s">
+      <c r="E285" t="s">
+        <v>65</v>
+      </c>
+      <c r="F285" t="s">
+        <v>92</v>
+      </c>
+      <c r="G285" s="3"/>
+      <c r="H285" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" s="3" customFormat="1">
-      <c r="A285" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B285" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C285" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G285" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="I285" s="3" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="286" spans="1:9">
       <c r="A286" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B286" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C286" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D286">
+        <v>1</v>
+      </c>
+      <c r="E286">
         <v>2</v>
       </c>
-      <c r="E286" t="s">
-        <v>65</v>
-      </c>
       <c r="F286" t="s">
-        <v>92</v>
-      </c>
-      <c r="H286" t="s">
-        <v>55</v>
+        <v>68</v>
+      </c>
+      <c r="G286" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="287" spans="1:9">
@@ -9627,71 +9697,72 @@
         <v>42</v>
       </c>
       <c r="C287" t="s">
+        <v>61</v>
+      </c>
+      <c r="D287">
+        <v>1</v>
+      </c>
+      <c r="E287">
+        <v>1</v>
+      </c>
+      <c r="F287" t="s">
+        <v>55</v>
+      </c>
+      <c r="G287" s="3"/>
+      <c r="H287" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" s="3" customFormat="1">
+      <c r="A288" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D288" s="3">
+        <v>1</v>
+      </c>
+      <c r="E288" s="3">
+        <v>1</v>
+      </c>
+      <c r="F288" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G288" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I288" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
+      <c r="A289" t="s">
+        <v>124</v>
+      </c>
+      <c r="B289" t="s">
+        <v>42</v>
+      </c>
+      <c r="C289" t="s">
         <v>59</v>
       </c>
-      <c r="D287">
-        <v>1</v>
-      </c>
-      <c r="E287">
+      <c r="D289">
         <v>2</v>
       </c>
-      <c r="F287" t="s">
-        <v>68</v>
-      </c>
-      <c r="G287" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9">
-      <c r="A288" t="s">
-        <v>124</v>
-      </c>
-      <c r="B288" t="s">
-        <v>42</v>
-      </c>
-      <c r="C288" t="s">
-        <v>61</v>
-      </c>
-      <c r="D288">
-        <v>1</v>
-      </c>
-      <c r="E288">
-        <v>1</v>
-      </c>
-      <c r="F288" t="s">
-        <v>55</v>
-      </c>
-      <c r="H288" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9" s="3" customFormat="1">
-      <c r="A289" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B289" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C289" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D289" s="3">
-        <v>1</v>
-      </c>
-      <c r="E289" s="3">
-        <v>1</v>
-      </c>
-      <c r="F289" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G289" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I289" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9">
+      <c r="E289">
+        <v>1</v>
+      </c>
+      <c r="F289" t="s">
+        <v>68</v>
+      </c>
+      <c r="G289" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
       <c r="A290" t="s">
         <v>124</v>
       </c>
@@ -9699,68 +9770,70 @@
         <v>42</v>
       </c>
       <c r="C290" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D290">
         <v>2</v>
       </c>
-      <c r="E290">
-        <v>1</v>
+      <c r="E290" t="s">
+        <v>65</v>
       </c>
       <c r="F290" t="s">
-        <v>68</v>
-      </c>
-      <c r="G290" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9">
-      <c r="A291" t="s">
+        <v>55</v>
+      </c>
+      <c r="G290" s="3"/>
+      <c r="H290" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" s="3" customFormat="1">
+      <c r="A291" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B291" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C291" t="s">
-        <v>61</v>
-      </c>
-      <c r="D291">
+      <c r="C291" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D291" s="3">
         <v>2</v>
       </c>
-      <c r="E291" t="s">
-        <v>65</v>
-      </c>
-      <c r="F291" t="s">
+      <c r="E291" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F291" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H291" t="s">
+      <c r="H291" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="292" spans="1:9" s="3" customFormat="1">
-      <c r="A292" s="3" t="s">
+    <row r="292" spans="1:8">
+      <c r="A292" t="s">
         <v>124</v>
       </c>
-      <c r="B292" s="3" t="s">
+      <c r="B292" t="s">
         <v>42</v>
       </c>
-      <c r="C292" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D292" s="3">
-        <v>2</v>
-      </c>
-      <c r="E292" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F292" s="3" t="s">
+      <c r="C292" t="s">
+        <v>59</v>
+      </c>
+      <c r="D292">
+        <v>3</v>
+      </c>
+      <c r="E292" t="s">
+        <v>65</v>
+      </c>
+      <c r="F292" t="s">
         <v>55</v>
       </c>
-      <c r="H292" s="3" t="s">
+      <c r="G292" s="3"/>
+      <c r="H292" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="293" spans="1:9">
+    <row r="293" spans="1:8">
       <c r="A293" t="s">
         <v>124</v>
       </c>
@@ -9768,7 +9841,7 @@
         <v>42</v>
       </c>
       <c r="C293" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D293">
         <v>3</v>
@@ -9779,34 +9852,33 @@
       <c r="F293" t="s">
         <v>55</v>
       </c>
+      <c r="G293" s="3"/>
       <c r="H293" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="294" spans="1:9">
+    <row r="294" spans="1:8">
       <c r="A294" t="s">
         <v>124</v>
       </c>
       <c r="B294" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C294" t="s">
-        <v>61</v>
-      </c>
-      <c r="D294">
-        <v>3</v>
-      </c>
-      <c r="E294" t="s">
-        <v>65</v>
+        <v>59</v>
+      </c>
+      <c r="E294">
+        <v>2</v>
       </c>
       <c r="F294" t="s">
         <v>55</v>
       </c>
+      <c r="G294" s="3"/>
       <c r="H294" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="295" spans="1:9">
+    <row r="295" spans="1:8">
       <c r="A295" t="s">
         <v>124</v>
       </c>
@@ -9814,19 +9886,19 @@
         <v>44</v>
       </c>
       <c r="C295" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E295">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F295" t="s">
-        <v>55</v>
-      </c>
-      <c r="H295" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9">
+        <v>68</v>
+      </c>
+      <c r="G295" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8">
       <c r="A296" t="s">
         <v>124</v>
       </c>
@@ -9834,19 +9906,19 @@
         <v>44</v>
       </c>
       <c r="C296" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E296">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F296" t="s">
-        <v>68</v>
-      </c>
-      <c r="G296" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="297" spans="1:9">
+        <v>106</v>
+      </c>
+      <c r="H296" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8">
       <c r="A297" t="s">
         <v>124</v>
       </c>
@@ -9854,19 +9926,17 @@
         <v>44</v>
       </c>
       <c r="C297" t="s">
-        <v>62</v>
-      </c>
-      <c r="E297">
-        <v>1</v>
+        <v>63</v>
+      </c>
+      <c r="E297" t="s">
+        <v>65</v>
       </c>
       <c r="F297" t="s">
-        <v>106</v>
-      </c>
-      <c r="H297" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="298" spans="1:9">
+      <c r="G297" s="3"/>
+    </row>
+    <row r="298" spans="1:8">
       <c r="A298" t="s">
         <v>124</v>
       </c>
@@ -9874,33 +9944,36 @@
         <v>44</v>
       </c>
       <c r="C298" t="s">
-        <v>63</v>
-      </c>
-      <c r="E298" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="F298" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="299" spans="1:9">
+      <c r="G298" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8">
       <c r="A299" t="s">
         <v>124</v>
       </c>
       <c r="B299" t="s">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="C299" t="s">
-        <v>145</v>
+        <v>59</v>
+      </c>
+      <c r="E299">
+        <v>4</v>
       </c>
       <c r="F299" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="G299" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8">
       <c r="A300" t="s">
         <v>124</v>
       </c>
@@ -9908,19 +9981,19 @@
         <v>129</v>
       </c>
       <c r="C300" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E300">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F300" t="s">
-        <v>69</v>
-      </c>
-      <c r="G300" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9">
+        <v>106</v>
+      </c>
+      <c r="H300" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8">
       <c r="A301" t="s">
         <v>124</v>
       </c>
@@ -9928,10 +10001,10 @@
         <v>129</v>
       </c>
       <c r="C301" t="s">
-        <v>61</v>
-      </c>
-      <c r="E301">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="E301" t="s">
+        <v>65</v>
       </c>
       <c r="F301" t="s">
         <v>106</v>
@@ -9940,7 +10013,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="302" spans="1:9">
+    <row r="302" spans="1:8">
       <c r="A302" t="s">
         <v>124</v>
       </c>
@@ -9948,19 +10021,19 @@
         <v>129</v>
       </c>
       <c r="C302" t="s">
-        <v>62</v>
-      </c>
-      <c r="E302" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="E302">
+        <v>1</v>
       </c>
       <c r="F302" t="s">
-        <v>106</v>
-      </c>
-      <c r="H302" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9">
+        <v>68</v>
+      </c>
+      <c r="G302" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8">
       <c r="A303" t="s">
         <v>124</v>
       </c>
@@ -9968,19 +10041,20 @@
         <v>129</v>
       </c>
       <c r="C303" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E303">
         <v>1</v>
       </c>
       <c r="F303" t="s">
-        <v>68</v>
-      </c>
-      <c r="G303" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="G303" s="3"/>
+      <c r="H303" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8">
       <c r="A304" t="s">
         <v>124</v>
       </c>
@@ -9988,14 +10062,15 @@
         <v>129</v>
       </c>
       <c r="C304" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E304">
         <v>1</v>
       </c>
       <c r="F304" t="s">
-        <v>66</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G304" s="3"/>
       <c r="H304" t="s">
         <v>55</v>
       </c>
@@ -10005,17 +10080,18 @@
         <v>124</v>
       </c>
       <c r="B305" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C305" t="s">
-        <v>72</v>
-      </c>
-      <c r="E305">
-        <v>1</v>
+        <v>59</v>
+      </c>
+      <c r="E305" t="s">
+        <v>65</v>
       </c>
       <c r="F305" t="s">
         <v>55</v>
       </c>
+      <c r="G305" s="3"/>
       <c r="H305" t="s">
         <v>55</v>
       </c>
@@ -10028,7 +10104,7 @@
         <v>128</v>
       </c>
       <c r="C306" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E306" t="s">
         <v>65</v>
@@ -10036,6 +10112,7 @@
       <c r="F306" t="s">
         <v>55</v>
       </c>
+      <c r="G306" s="3"/>
       <c r="H306" t="s">
         <v>55</v>
       </c>
@@ -10048,13 +10125,16 @@
         <v>128</v>
       </c>
       <c r="C307" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E307" t="s">
         <v>65</v>
       </c>
       <c r="F307" t="s">
-        <v>55</v>
+        <v>66</v>
+      </c>
+      <c r="G307" t="s">
+        <v>91</v>
       </c>
       <c r="H307" t="s">
         <v>55</v>
@@ -10068,7 +10148,7 @@
         <v>128</v>
       </c>
       <c r="C308" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E308" t="s">
         <v>65</v>
@@ -10076,9 +10156,7 @@
       <c r="F308" t="s">
         <v>66</v>
       </c>
-      <c r="G308" t="s">
-        <v>91</v>
-      </c>
+      <c r="G308" s="3"/>
       <c r="H308" t="s">
         <v>55</v>
       </c>
@@ -10091,13 +10169,16 @@
         <v>128</v>
       </c>
       <c r="C309" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E309" t="s">
         <v>65</v>
       </c>
       <c r="F309" t="s">
         <v>66</v>
+      </c>
+      <c r="G309" t="s">
+        <v>93</v>
       </c>
       <c r="H309" t="s">
         <v>55</v>
@@ -10111,17 +10192,15 @@
         <v>128</v>
       </c>
       <c r="C310" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E310" t="s">
         <v>65</v>
       </c>
       <c r="F310" t="s">
-        <v>66</v>
-      </c>
-      <c r="G310" t="s">
-        <v>93</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G310" s="3"/>
       <c r="H310" t="s">
         <v>55</v>
       </c>
@@ -10134,7 +10213,7 @@
         <v>128</v>
       </c>
       <c r="C311" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="E311" t="s">
         <v>65</v>
@@ -10142,6 +10221,7 @@
       <c r="F311" t="s">
         <v>55</v>
       </c>
+      <c r="G311" s="3"/>
       <c r="H311" t="s">
         <v>55</v>
       </c>
@@ -10154,13 +10234,16 @@
         <v>128</v>
       </c>
       <c r="C312" t="s">
-        <v>131</v>
-      </c>
-      <c r="E312" t="s">
-        <v>65</v>
+        <v>132</v>
+      </c>
+      <c r="E312">
+        <v>1</v>
       </c>
       <c r="F312" t="s">
-        <v>55</v>
+        <v>106</v>
+      </c>
+      <c r="G312" t="s">
+        <v>91</v>
       </c>
       <c r="H312" t="s">
         <v>55</v>
@@ -10174,78 +10257,56 @@
         <v>128</v>
       </c>
       <c r="C313" t="s">
-        <v>132</v>
-      </c>
-      <c r="E313">
-        <v>1</v>
+        <v>133</v>
+      </c>
+      <c r="E313" t="s">
+        <v>65</v>
       </c>
       <c r="F313" t="s">
-        <v>106</v>
-      </c>
-      <c r="G313" t="s">
-        <v>91</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G313" s="3"/>
       <c r="H313" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="314" spans="1:9">
-      <c r="A314" t="s">
+    <row r="314" spans="1:9" s="3" customFormat="1">
+      <c r="A314" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B314" t="s">
+      <c r="B314" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C314" t="s">
-        <v>133</v>
-      </c>
-      <c r="E314" t="s">
-        <v>65</v>
-      </c>
-      <c r="F314" t="s">
+      <c r="C314" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E314" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F314" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H314" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H314" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9" s="3" customFormat="1">
-      <c r="A315" s="3" t="s">
+      <c r="I314" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" s="5" customFormat="1">
+      <c r="A315" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B315" s="3" t="s">
+      <c r="B315" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C315" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E315" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F315" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H315" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I315" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9" s="3" customFormat="1">
-      <c r="A316" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B316" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C316" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E316" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G316" s="3" t="s">
+      <c r="C315" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E315" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G315" s="5" t="s">
         <v>91</v>
       </c>
     </row>
@@ -10257,10 +10318,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -10314,6 +10375,21 @@
         <v>99</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>156</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Aufnahmebogen/Aufnahmebögen_digitalisiert.xlsx
+++ b/Aufnahmebogen/Aufnahmebögen_digitalisiert.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" tabRatio="967" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" tabRatio="890" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Mainplot" sheetId="13" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6687" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6647" uniqueCount="186">
   <si>
     <t>Plot-ID</t>
   </si>
@@ -1005,20 +1005,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1035,31 +1034,10 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>122</v>
       </c>
@@ -1075,32 +1053,11 @@
       <c r="E2" s="1">
         <v>273</v>
       </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="F2" t="s">
         <v>124</v>
       </c>
-      <c r="K2" t="s">
-        <v>125</v>
-      </c>
-      <c r="L2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>117</v>
       </c>
@@ -1116,29 +1073,11 @@
       <c r="E3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F3">
-        <v>70</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="F3" t="s">
         <v>26</v>
       </c>
-      <c r="K3" t="s">
-        <v>118</v>
-      </c>
-      <c r="L3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>114</v>
       </c>
@@ -1154,29 +1093,11 @@
       <c r="E4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F4">
-        <v>80</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="F4" t="s">
         <v>26</v>
       </c>
-      <c r="K4" t="s">
-        <v>115</v>
-      </c>
-      <c r="L4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>110</v>
       </c>
@@ -1192,29 +1113,11 @@
       <c r="E5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F5">
-        <v>60</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="F5" t="s">
         <v>111</v>
       </c>
-      <c r="K5" t="s">
-        <v>112</v>
-      </c>
-      <c r="L5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>105</v>
       </c>
@@ -1230,29 +1133,11 @@
       <c r="E6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F6">
-        <v>90</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="K6" t="s">
-        <v>109</v>
-      </c>
-      <c r="L6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>103</v>
       </c>
@@ -1268,29 +1153,11 @@
       <c r="E7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F7">
-        <v>60</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="F7" t="s">
         <v>107</v>
       </c>
-      <c r="K7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -1306,26 +1173,11 @@
       <c r="E8" s="1">
         <v>351</v>
       </c>
-      <c r="F8">
-        <v>40</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>30</v>
-      </c>
-      <c r="I8">
-        <v>70</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="F8" t="s">
         <v>37</v>
       </c>
-      <c r="L8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -1341,26 +1193,11 @@
       <c r="E9" s="1">
         <v>301</v>
       </c>
-      <c r="F9">
-        <v>60</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>90</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="F9" t="s">
         <v>16</v>
       </c>
-      <c r="L9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1376,29 +1213,11 @@
       <c r="E10" s="1">
         <v>331</v>
       </c>
-      <c r="F10">
-        <v>30</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>80</v>
-      </c>
-      <c r="I10">
-        <v>20</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="F10" t="s">
         <v>16</v>
       </c>
-      <c r="K10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -1414,26 +1233,11 @@
       <c r="E11" s="1">
         <v>334</v>
       </c>
-      <c r="F11">
-        <v>30</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>40</v>
-      </c>
-      <c r="I11">
-        <v>30</v>
-      </c>
-      <c r="J11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1449,29 +1253,11 @@
       <c r="E12" s="1">
         <v>389</v>
       </c>
-      <c r="F12">
-        <v>5</v>
-      </c>
-      <c r="G12">
-        <v>5</v>
-      </c>
-      <c r="H12">
-        <v>90</v>
-      </c>
-      <c r="I12">
-        <v>10</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="F12" t="s">
         <v>30</v>
       </c>
-      <c r="L12" t="s">
-        <v>41</v>
-      </c>
-      <c r="M12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1487,26 +1273,11 @@
       <c r="E13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F13">
-        <v>80</v>
-      </c>
-      <c r="G13">
-        <v>10</v>
-      </c>
-      <c r="H13">
-        <v>30</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="F13" t="s">
         <v>26</v>
       </c>
-      <c r="L13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1522,26 +1293,11 @@
       <c r="E14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F14">
-        <v>85</v>
-      </c>
-      <c r="G14">
-        <v>5</v>
-      </c>
-      <c r="H14">
-        <v>5</v>
-      </c>
-      <c r="I14">
-        <v>5</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="F14" t="s">
         <v>26</v>
       </c>
-      <c r="L14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1557,26 +1313,11 @@
       <c r="E15" s="1">
         <v>270</v>
       </c>
-      <c r="F15">
-        <v>50</v>
-      </c>
-      <c r="G15">
-        <v>10</v>
-      </c>
-      <c r="H15">
-        <v>5</v>
-      </c>
-      <c r="I15">
-        <v>5</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="F15" t="s">
         <v>26</v>
       </c>
-      <c r="L15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1592,29 +1333,11 @@
       <c r="E16" s="1">
         <v>313</v>
       </c>
-      <c r="F16">
-        <v>5</v>
-      </c>
-      <c r="G16">
-        <v>10</v>
-      </c>
-      <c r="H16">
-        <v>90</v>
-      </c>
-      <c r="I16">
-        <v>10</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="F16" t="s">
         <v>23</v>
       </c>
-      <c r="K16" t="s">
-        <v>24</v>
-      </c>
-      <c r="L16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1630,29 +1353,11 @@
       <c r="E17" s="1">
         <v>255</v>
       </c>
-      <c r="F17">
-        <v>30</v>
-      </c>
-      <c r="G17">
-        <v>10</v>
-      </c>
-      <c r="H17">
-        <v>70</v>
-      </c>
-      <c r="I17">
-        <v>10</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="F17" t="s">
         <v>16</v>
       </c>
-      <c r="K17" t="s">
-        <v>17</v>
-      </c>
-      <c r="L17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1668,29 +1373,11 @@
       <c r="E18" s="1">
         <v>245</v>
       </c>
-      <c r="F18">
-        <v>30</v>
-      </c>
-      <c r="G18">
-        <v>10</v>
-      </c>
-      <c r="H18">
-        <v>10</v>
-      </c>
-      <c r="I18">
-        <v>20</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="F18" t="s">
         <v>16</v>
       </c>
-      <c r="K18" t="s">
-        <v>17</v>
-      </c>
-      <c r="L18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1706,29 +1393,11 @@
       <c r="E19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F19">
-        <v>20</v>
-      </c>
-      <c r="G19">
-        <v>20</v>
-      </c>
-      <c r="H19">
-        <v>80</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="F19" t="s">
         <v>16</v>
       </c>
-      <c r="K19" t="s">
-        <v>19</v>
-      </c>
-      <c r="L19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -1744,26 +1413,8 @@
       <c r="E20" s="1">
         <v>256</v>
       </c>
-      <c r="F20">
-        <v>10</v>
-      </c>
-      <c r="G20">
-        <v>40</v>
-      </c>
-      <c r="H20">
-        <v>80</v>
-      </c>
-      <c r="I20">
-        <v>5</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="F20" t="s">
         <v>16</v>
-      </c>
-      <c r="K20" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1831,7 +1482,7 @@
         <v>58</v>
       </c>
       <c r="D2" s="10" t="str">
-        <f>A2&amp;B2&amp;C2</f>
+        <f t="shared" ref="D2:D40" si="0">A2&amp;B2&amp;C2</f>
         <v>P03EP02M01</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -1864,7 +1515,7 @@
         <v>58</v>
       </c>
       <c r="D3" s="10" t="str">
-        <f>A3&amp;B3&amp;C3</f>
+        <f t="shared" si="0"/>
         <v>P04EP01M01</v>
       </c>
       <c r="E3" s="10" t="s">
@@ -1894,7 +1545,7 @@
         <v>61</v>
       </c>
       <c r="D4" s="10" t="str">
-        <f>A4&amp;B4&amp;C4</f>
+        <f t="shared" si="0"/>
         <v>P04EP01M03</v>
       </c>
       <c r="E4" s="10" t="s">
@@ -1924,7 +1575,7 @@
         <v>62</v>
       </c>
       <c r="D5" s="10" t="str">
-        <f>A5&amp;B5&amp;C5</f>
+        <f t="shared" si="0"/>
         <v>P05EP01M04</v>
       </c>
       <c r="E5" s="10" t="s">
@@ -1955,7 +1606,7 @@
         <v>60</v>
       </c>
       <c r="D6" s="10" t="str">
-        <f>A6&amp;B6&amp;C6</f>
+        <f t="shared" si="0"/>
         <v>P17EP01M02</v>
       </c>
       <c r="E6" s="10" t="s">
@@ -1985,7 +1636,7 @@
         <v>58</v>
       </c>
       <c r="D7" s="10" t="str">
-        <f>A7&amp;B7&amp;C7</f>
+        <f t="shared" si="0"/>
         <v>P22EP02M01</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -2015,7 +1666,7 @@
         <v>60</v>
       </c>
       <c r="D8" s="10" t="str">
-        <f>A8&amp;B8&amp;C8</f>
+        <f t="shared" si="0"/>
         <v>P23EP01M02</v>
       </c>
       <c r="E8" s="10" t="s">
@@ -2045,7 +1696,7 @@
         <v>58</v>
       </c>
       <c r="D9" s="10" t="str">
-        <f>A9&amp;B9&amp;C9</f>
+        <f t="shared" si="0"/>
         <v>P23EP02M01</v>
       </c>
       <c r="E9" s="10" t="s">
@@ -2075,7 +1726,7 @@
         <v>71</v>
       </c>
       <c r="D10" s="10" t="str">
-        <f>A10&amp;B10&amp;C10</f>
+        <f t="shared" si="0"/>
         <v>P24EP02M07</v>
       </c>
       <c r="E10" s="10" t="s">
@@ -2105,7 +1756,7 @@
         <v>61</v>
       </c>
       <c r="D11" s="10" t="str">
-        <f>A11&amp;B11&amp;C11</f>
+        <f t="shared" si="0"/>
         <v>P25EP02M03</v>
       </c>
       <c r="E11" s="10" t="s">
@@ -2135,7 +1786,7 @@
         <v>61</v>
       </c>
       <c r="D12" s="10" t="str">
-        <f>A12&amp;B12&amp;C12</f>
+        <f t="shared" si="0"/>
         <v>P25EP03M03</v>
       </c>
       <c r="E12" s="10" t="s">
@@ -2165,7 +1816,7 @@
         <v>58</v>
       </c>
       <c r="D13" s="10" t="str">
-        <f>A13&amp;B13&amp;C13</f>
+        <f t="shared" si="0"/>
         <v>P02EP02M01</v>
       </c>
       <c r="E13" s="10" t="s">
@@ -2195,7 +1846,7 @@
         <v>60</v>
       </c>
       <c r="D14" s="10" t="str">
-        <f>A14&amp;B14&amp;C14</f>
+        <f t="shared" si="0"/>
         <v>P03EP03M02</v>
       </c>
       <c r="E14" s="10" t="s">
@@ -2227,7 +1878,7 @@
         <v>60</v>
       </c>
       <c r="D15" s="10" t="str">
-        <f>A15&amp;B15&amp;C15</f>
+        <f t="shared" si="0"/>
         <v>P05EP01M02</v>
       </c>
       <c r="E15" s="10" t="s">
@@ -2257,7 +1908,7 @@
         <v>58</v>
       </c>
       <c r="D16" s="10" t="str">
-        <f>A16&amp;B16&amp;C16</f>
+        <f t="shared" si="0"/>
         <v>P06EP02M01</v>
       </c>
       <c r="E16" s="10" t="s">
@@ -2287,7 +1938,7 @@
         <v>61</v>
       </c>
       <c r="D17" s="10" t="str">
-        <f>A17&amp;B17&amp;C17</f>
+        <f t="shared" si="0"/>
         <v>P06EP02M03</v>
       </c>
       <c r="E17" s="10" t="s">
@@ -2317,7 +1968,7 @@
         <v>58</v>
       </c>
       <c r="D18" s="10" t="str">
-        <f>A18&amp;B18&amp;C18</f>
+        <f t="shared" si="0"/>
         <v>P17EP01M01</v>
       </c>
       <c r="E18" s="10" t="s">
@@ -2347,7 +1998,7 @@
         <v>62</v>
       </c>
       <c r="D19" s="10" t="str">
-        <f>A19&amp;B19&amp;C19</f>
+        <f t="shared" si="0"/>
         <v>P03EP02M04</v>
       </c>
       <c r="E19" s="10" t="s">
@@ -2383,7 +2034,7 @@
         <v>58</v>
       </c>
       <c r="D20" s="10" t="str">
-        <f>A20&amp;B20&amp;C20</f>
+        <f t="shared" si="0"/>
         <v>P02EP01M01</v>
       </c>
       <c r="E20" s="10" t="s">
@@ -2413,7 +2064,7 @@
         <v>60</v>
       </c>
       <c r="D21" s="10" t="str">
-        <f>A21&amp;B21&amp;C21</f>
+        <f t="shared" si="0"/>
         <v>P02EP01M02</v>
       </c>
       <c r="E21" s="10" t="s">
@@ -2444,7 +2095,7 @@
         <v>62</v>
       </c>
       <c r="D22" s="10" t="str">
-        <f>A22&amp;B22&amp;C22</f>
+        <f t="shared" si="0"/>
         <v>P02EP02M04</v>
       </c>
       <c r="E22" s="10" t="s">
@@ -2474,7 +2125,7 @@
         <v>58</v>
       </c>
       <c r="D23" s="10" t="str">
-        <f>A23&amp;B23&amp;C23</f>
+        <f t="shared" si="0"/>
         <v>P03EP03M01</v>
       </c>
       <c r="E23" s="10" t="s">
@@ -2504,7 +2155,7 @@
         <v>58</v>
       </c>
       <c r="D24" s="10" t="str">
-        <f>A24&amp;B24&amp;C24</f>
+        <f t="shared" si="0"/>
         <v>P05EP01M01</v>
       </c>
       <c r="E24" s="10" t="s">
@@ -2534,7 +2185,7 @@
         <v>69</v>
       </c>
       <c r="D25" s="10" t="str">
-        <f>A25&amp;B25&amp;C25</f>
+        <f t="shared" si="0"/>
         <v>P05EP01M05</v>
       </c>
       <c r="E25" s="10" t="s">
@@ -2564,7 +2215,7 @@
         <v>58</v>
       </c>
       <c r="D26" s="10" t="str">
-        <f>A26&amp;B26&amp;C26</f>
+        <f t="shared" si="0"/>
         <v>P17EP04M01</v>
       </c>
       <c r="E26" s="10" t="s">
@@ -2595,7 +2246,7 @@
         <v>60</v>
       </c>
       <c r="D27" s="10" t="str">
-        <f>A27&amp;B27&amp;C27</f>
+        <f t="shared" si="0"/>
         <v>P22EP02M02</v>
       </c>
       <c r="E27" s="10" t="s">
@@ -2625,7 +2276,7 @@
         <v>58</v>
       </c>
       <c r="D28" s="10" t="str">
-        <f>A28&amp;B28&amp;C28</f>
+        <f t="shared" si="0"/>
         <v>P23EP01M01</v>
       </c>
       <c r="E28" s="10" t="s">
@@ -2655,7 +2306,7 @@
         <v>69</v>
       </c>
       <c r="D29" s="10" t="str">
-        <f>A29&amp;B29&amp;C29</f>
+        <f t="shared" si="0"/>
         <v>P02EP02M05</v>
       </c>
       <c r="E29" s="10" t="s">
@@ -2688,7 +2339,7 @@
         <v>58</v>
       </c>
       <c r="D30" s="10" t="str">
-        <f>A30&amp;B30&amp;C30</f>
+        <f t="shared" si="0"/>
         <v>P03EP01M01</v>
       </c>
       <c r="E30" s="10" t="s">
@@ -2718,7 +2369,7 @@
         <v>69</v>
       </c>
       <c r="D31" s="10" t="str">
-        <f>A31&amp;B31&amp;C31</f>
+        <f t="shared" si="0"/>
         <v>P03EP02M05</v>
       </c>
       <c r="E31" s="10" t="s">
@@ -2748,7 +2399,7 @@
         <v>69</v>
       </c>
       <c r="D32" s="10" t="str">
-        <f>A32&amp;B32&amp;C32</f>
+        <f t="shared" si="0"/>
         <v>P03EP03M05</v>
       </c>
       <c r="E32" s="10" t="s">
@@ -2781,7 +2432,7 @@
         <v>62</v>
       </c>
       <c r="D33" s="10" t="str">
-        <f>A33&amp;B33&amp;C33</f>
+        <f t="shared" si="0"/>
         <v>P04EP01M04</v>
       </c>
       <c r="E33" s="10" t="s">
@@ -2814,7 +2465,7 @@
         <v>69</v>
       </c>
       <c r="D34" s="10" t="str">
-        <f>A34&amp;B34&amp;C34</f>
+        <f t="shared" si="0"/>
         <v>P04EP01M05</v>
       </c>
       <c r="E34" s="10" t="s">
@@ -2847,7 +2498,7 @@
         <v>61</v>
       </c>
       <c r="D35" s="10" t="str">
-        <f>A35&amp;B35&amp;C35</f>
+        <f t="shared" si="0"/>
         <v>P06EP02M03</v>
       </c>
       <c r="E35" s="10" t="s">
@@ -2878,7 +2529,7 @@
         <v>62</v>
       </c>
       <c r="D36" s="10" t="str">
-        <f>A36&amp;B36&amp;C36</f>
+        <f t="shared" si="0"/>
         <v>P06EP02M04</v>
       </c>
       <c r="E36" s="10" t="s">
@@ -2909,7 +2560,7 @@
         <v>61</v>
       </c>
       <c r="D37" s="10" t="str">
-        <f>A37&amp;B37&amp;C37</f>
+        <f t="shared" si="0"/>
         <v>P17EP01M03</v>
       </c>
       <c r="E37" s="10" t="s">
@@ -2942,7 +2593,7 @@
         <v>61</v>
       </c>
       <c r="D38" s="10" t="str">
-        <f>A38&amp;B38&amp;C38</f>
+        <f t="shared" si="0"/>
         <v>P23EP01M03</v>
       </c>
       <c r="E38" s="10" t="s">
@@ -2972,7 +2623,7 @@
         <v>62</v>
       </c>
       <c r="D39" s="10" t="str">
-        <f>A39&amp;B39&amp;C39</f>
+        <f t="shared" si="0"/>
         <v>P23EP01M04</v>
       </c>
       <c r="E39" s="10" t="s">
@@ -3002,7 +2653,7 @@
         <v>62</v>
       </c>
       <c r="D40" s="10" t="str">
-        <f>A40&amp;B40&amp;C40</f>
+        <f t="shared" si="0"/>
         <v>P25EP03M04</v>
       </c>
       <c r="E40" s="10" t="s">
@@ -3033,7 +2684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
@@ -3089,7 +2740,7 @@
         <v>60</v>
       </c>
       <c r="D2" s="10" t="str">
-        <f>A2&amp;B2&amp;C2</f>
+        <f t="shared" ref="D2:D13" si="0">A2&amp;B2&amp;C2</f>
         <v>P03EP03M02</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -3119,7 +2770,7 @@
         <v>58</v>
       </c>
       <c r="D3" s="10" t="str">
-        <f>A3&amp;B3&amp;C3</f>
+        <f t="shared" si="0"/>
         <v>P04EP01M01</v>
       </c>
       <c r="E3" s="10" t="s">
@@ -3149,7 +2800,7 @@
         <v>61</v>
       </c>
       <c r="D4" s="10" t="str">
-        <f>A4&amp;B4&amp;C4</f>
+        <f t="shared" si="0"/>
         <v>P04EP01M03</v>
       </c>
       <c r="E4" s="10" t="s">
@@ -3179,7 +2830,7 @@
         <v>58</v>
       </c>
       <c r="D5" s="10" t="str">
-        <f>A5&amp;B5&amp;C5</f>
+        <f t="shared" si="0"/>
         <v>P06EP02M01</v>
       </c>
       <c r="E5" s="10" t="s">
@@ -3209,7 +2860,7 @@
         <v>61</v>
       </c>
       <c r="D6" s="10" t="str">
-        <f>A6&amp;B6&amp;C6</f>
+        <f t="shared" si="0"/>
         <v>P06EP02M03</v>
       </c>
       <c r="E6" s="10" t="s">
@@ -3239,7 +2890,7 @@
         <v>58</v>
       </c>
       <c r="D7" s="10" t="str">
-        <f>A7&amp;B7&amp;C7</f>
+        <f t="shared" si="0"/>
         <v>P03EP03M01</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -3269,7 +2920,7 @@
         <v>58</v>
       </c>
       <c r="D8" s="10" t="str">
-        <f>A8&amp;B8&amp;C8</f>
+        <f t="shared" si="0"/>
         <v>P17EP01M01</v>
       </c>
       <c r="E8" s="10" t="s">
@@ -3299,7 +2950,7 @@
         <v>60</v>
       </c>
       <c r="D9" s="10" t="str">
-        <f>A9&amp;B9&amp;C9</f>
+        <f t="shared" si="0"/>
         <v>P17EP01M02</v>
       </c>
       <c r="E9" s="10" t="s">
@@ -3329,7 +2980,7 @@
         <v>62</v>
       </c>
       <c r="D10" s="10" t="str">
-        <f>A10&amp;B10&amp;C10</f>
+        <f t="shared" si="0"/>
         <v>P04EP01M04</v>
       </c>
       <c r="E10" s="10" t="s">
@@ -3362,7 +3013,7 @@
         <v>62</v>
       </c>
       <c r="D11" s="10" t="str">
-        <f>A11&amp;B11&amp;C11</f>
+        <f t="shared" si="0"/>
         <v>P06EP02M04</v>
       </c>
       <c r="E11" s="10" t="s">
@@ -3393,7 +3044,7 @@
         <v>62</v>
       </c>
       <c r="D12" s="10" t="str">
-        <f>A12&amp;B12&amp;C12</f>
+        <f t="shared" si="0"/>
         <v>P06EP02M04</v>
       </c>
       <c r="E12" s="10" t="s">
@@ -3424,7 +3075,7 @@
         <v>61</v>
       </c>
       <c r="D13" s="10" t="str">
-        <f>A13&amp;B13&amp;C13</f>
+        <f t="shared" si="0"/>
         <v>P17EP01M03</v>
       </c>
       <c r="E13" s="10" t="s">
@@ -3459,8 +3110,8 @@
   <dimension ref="A1:M69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D73" sqref="D73"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6139,7 +5790,7 @@
   <dimension ref="A1:JJ319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -14231,7 +13882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:JM292"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H123" sqref="H123:H182"/>
     </sheetView>
@@ -14298,7 +13949,7 @@
         <v>62</v>
       </c>
       <c r="D2" s="14" t="str">
-        <f>A2&amp;B2&amp;C2</f>
+        <f t="shared" ref="D2:D65" si="0">A2&amp;B2&amp;C2</f>
         <v>P02RK01M04</v>
       </c>
       <c r="E2" s="14" t="s">
@@ -14333,7 +13984,7 @@
         <v>69</v>
       </c>
       <c r="D3" s="14" t="str">
-        <f>A3&amp;B3&amp;C3</f>
+        <f t="shared" si="0"/>
         <v>P02RK01M05</v>
       </c>
       <c r="E3" s="14" t="s">
@@ -14368,7 +14019,7 @@
         <v>61</v>
       </c>
       <c r="D4" s="14" t="str">
-        <f>A4&amp;B4&amp;C4</f>
+        <f t="shared" si="0"/>
         <v>P03EP01M03</v>
       </c>
       <c r="E4" s="14" t="s">
@@ -14403,7 +14054,7 @@
         <v>62</v>
       </c>
       <c r="D5" s="14" t="str">
-        <f>A5&amp;B5&amp;C5</f>
+        <f t="shared" si="0"/>
         <v>P03EP03M04</v>
       </c>
       <c r="E5" s="14" t="s">
@@ -14438,7 +14089,7 @@
         <v>58</v>
       </c>
       <c r="D6" s="14" t="str">
-        <f>A6&amp;B6&amp;C6</f>
+        <f t="shared" si="0"/>
         <v>P03EP02M01</v>
       </c>
       <c r="E6" s="14" t="s">
@@ -14473,7 +14124,7 @@
         <v>60</v>
       </c>
       <c r="D7" s="14" t="str">
-        <f>A7&amp;B7&amp;C7</f>
+        <f t="shared" si="0"/>
         <v>P03EP03M02</v>
       </c>
       <c r="E7" s="14" t="s">
@@ -14508,7 +14159,7 @@
         <v>58</v>
       </c>
       <c r="D8" s="14" t="str">
-        <f>A8&amp;B8&amp;C8</f>
+        <f t="shared" si="0"/>
         <v>P04EP01M01</v>
       </c>
       <c r="E8" s="14" t="s">
@@ -14543,7 +14194,7 @@
         <v>61</v>
       </c>
       <c r="D9" s="14" t="str">
-        <f>A9&amp;B9&amp;C9</f>
+        <f t="shared" si="0"/>
         <v>P04EP01M03</v>
       </c>
       <c r="E9" s="14" t="s">
@@ -14578,7 +14229,7 @@
         <v>58</v>
       </c>
       <c r="D10" s="14" t="str">
-        <f>A10&amp;B10&amp;C10</f>
+        <f t="shared" si="0"/>
         <v>P04EP01M01</v>
       </c>
       <c r="E10" s="14" t="s">
@@ -14613,7 +14264,7 @@
         <v>58</v>
       </c>
       <c r="D11" s="14" t="str">
-        <f>A11&amp;B11&amp;C11</f>
+        <f t="shared" si="0"/>
         <v>P05EP01M01</v>
       </c>
       <c r="E11" s="14" t="s">
@@ -14648,7 +14299,7 @@
         <v>62</v>
       </c>
       <c r="D12" s="14" t="str">
-        <f>A12&amp;B12&amp;C12</f>
+        <f t="shared" si="0"/>
         <v>P05EP01M04</v>
       </c>
       <c r="E12" s="14" t="s">
@@ -14683,7 +14334,7 @@
         <v>58</v>
       </c>
       <c r="D13" s="14" t="str">
-        <f>A13&amp;B13&amp;C13</f>
+        <f t="shared" si="0"/>
         <v>P06EP01M01</v>
       </c>
       <c r="E13" s="14" t="s">
@@ -14718,7 +14369,7 @@
         <v>58</v>
       </c>
       <c r="D14" s="14" t="str">
-        <f>A14&amp;B14&amp;C14</f>
+        <f t="shared" si="0"/>
         <v>P06SL01M01</v>
       </c>
       <c r="E14" s="14" t="s">
@@ -14753,7 +14404,7 @@
         <v>58</v>
       </c>
       <c r="D15" s="14" t="str">
-        <f>A15&amp;B15&amp;C15</f>
+        <f t="shared" si="0"/>
         <v>P17EP02M01</v>
       </c>
       <c r="E15" s="14" t="s">
@@ -14788,7 +14439,7 @@
         <v>58</v>
       </c>
       <c r="D16" s="14" t="str">
-        <f>A16&amp;B16&amp;C16</f>
+        <f t="shared" si="0"/>
         <v>P17EP03M01</v>
       </c>
       <c r="E16" s="14" t="s">
@@ -14823,7 +14474,7 @@
         <v>60</v>
       </c>
       <c r="D17" s="14" t="str">
-        <f>A17&amp;B17&amp;C17</f>
+        <f t="shared" si="0"/>
         <v>P17EP01M02</v>
       </c>
       <c r="E17" s="14" t="s">
@@ -14858,7 +14509,7 @@
         <v>60</v>
       </c>
       <c r="D18" s="14" t="str">
-        <f>A18&amp;B18&amp;C18</f>
+        <f t="shared" si="0"/>
         <v>P17DW01M02</v>
       </c>
       <c r="E18" s="14" t="s">
@@ -14893,7 +14544,7 @@
         <v>58</v>
       </c>
       <c r="D19" s="14" t="str">
-        <f>A19&amp;B19&amp;C19</f>
+        <f t="shared" si="0"/>
         <v>P19EP01M01</v>
       </c>
       <c r="E19" s="14" t="s">
@@ -14928,7 +14579,7 @@
         <v>58</v>
       </c>
       <c r="D20" s="14" t="str">
-        <f>A20&amp;B20&amp;C20</f>
+        <f t="shared" si="0"/>
         <v>P19SL01M01</v>
       </c>
       <c r="E20" s="14" t="s">
@@ -14963,7 +14614,7 @@
         <v>62</v>
       </c>
       <c r="D21" s="14" t="str">
-        <f>A21&amp;B21&amp;C21</f>
+        <f t="shared" si="0"/>
         <v>P19SL01M04</v>
       </c>
       <c r="E21" s="14" t="s">
@@ -14998,7 +14649,7 @@
         <v>70</v>
       </c>
       <c r="D22" s="14" t="str">
-        <f>A22&amp;B22&amp;C22</f>
+        <f t="shared" si="0"/>
         <v>P19SL01M06</v>
       </c>
       <c r="E22" s="14" t="s">
@@ -15033,7 +14684,7 @@
         <v>58</v>
       </c>
       <c r="D23" s="14" t="str">
-        <f>A23&amp;B23&amp;C23</f>
+        <f t="shared" si="0"/>
         <v>P20EP01M01</v>
       </c>
       <c r="E23" s="14" t="s">
@@ -15068,7 +14719,7 @@
         <v>58</v>
       </c>
       <c r="D24" s="14" t="str">
-        <f>A24&amp;B24&amp;C24</f>
+        <f t="shared" si="0"/>
         <v>P21EP01M01</v>
       </c>
       <c r="E24" s="14" t="s">
@@ -15103,7 +14754,7 @@
         <v>58</v>
       </c>
       <c r="D25" s="14" t="str">
-        <f>A25&amp;B25&amp;C25</f>
+        <f t="shared" si="0"/>
         <v>P22EP02M01</v>
       </c>
       <c r="E25" s="14" t="s">
@@ -15138,7 +14789,7 @@
         <v>61</v>
       </c>
       <c r="D26" s="14" t="str">
-        <f>A26&amp;B26&amp;C26</f>
+        <f t="shared" si="0"/>
         <v>P23EP02M03</v>
       </c>
       <c r="E26" s="14" t="s">
@@ -15173,7 +14824,7 @@
         <v>60</v>
       </c>
       <c r="D27" s="14" t="str">
-        <f>A27&amp;B27&amp;C27</f>
+        <f t="shared" si="0"/>
         <v>P23EP01M02</v>
       </c>
       <c r="E27" s="14" t="s">
@@ -15208,7 +14859,7 @@
         <v>58</v>
       </c>
       <c r="D28" s="14" t="str">
-        <f>A28&amp;B28&amp;C28</f>
+        <f t="shared" si="0"/>
         <v>P23EP02M01</v>
       </c>
       <c r="E28" s="14" t="s">
@@ -15243,7 +14894,7 @@
         <v>71</v>
       </c>
       <c r="D29" s="14" t="str">
-        <f>A29&amp;B29&amp;C29</f>
+        <f t="shared" si="0"/>
         <v>P24EP02M07</v>
       </c>
       <c r="E29" s="14" t="s">
@@ -15278,7 +14929,7 @@
         <v>58</v>
       </c>
       <c r="D30" s="14" t="str">
-        <f>A30&amp;B30&amp;C30</f>
+        <f t="shared" si="0"/>
         <v>P24SL01M01</v>
       </c>
       <c r="E30" s="14" t="s">
@@ -15313,7 +14964,7 @@
         <v>60</v>
       </c>
       <c r="D31" s="14" t="str">
-        <f>A31&amp;B31&amp;C31</f>
+        <f t="shared" si="0"/>
         <v>P25EP03M02</v>
       </c>
       <c r="E31" s="14" t="s">
@@ -15348,7 +14999,7 @@
         <v>61</v>
       </c>
       <c r="D32" s="14" t="str">
-        <f>A32&amp;B32&amp;C32</f>
+        <f t="shared" si="0"/>
         <v>P25EP03M03</v>
       </c>
       <c r="E32" s="14" t="s">
@@ -15383,7 +15034,7 @@
         <v>61</v>
       </c>
       <c r="D33" s="14" t="str">
-        <f>A33&amp;B33&amp;C33</f>
+        <f t="shared" si="0"/>
         <v>P25EP02M03</v>
       </c>
       <c r="E33" s="14" t="s">
@@ -15418,7 +15069,7 @@
         <v>60</v>
       </c>
       <c r="D34" s="14" t="str">
-        <f>A34&amp;B34&amp;C34</f>
+        <f t="shared" si="0"/>
         <v>P25DW01M02</v>
       </c>
       <c r="E34" s="14" t="s">
@@ -15453,7 +15104,7 @@
         <v>61</v>
       </c>
       <c r="D35" s="14" t="str">
-        <f>A35&amp;B35&amp;C35</f>
+        <f t="shared" si="0"/>
         <v>P25DW01M03</v>
       </c>
       <c r="E35" s="14" t="s">
@@ -15488,7 +15139,7 @@
         <v>58</v>
       </c>
       <c r="D36" s="14" t="str">
-        <f>A36&amp;B36&amp;C36</f>
+        <f t="shared" si="0"/>
         <v>P25SL01M01</v>
       </c>
       <c r="E36" s="14" t="s">
@@ -15523,7 +15174,7 @@
         <v>61</v>
       </c>
       <c r="D37" s="14" t="str">
-        <f>A37&amp;B37&amp;C37</f>
+        <f t="shared" si="0"/>
         <v>P25SL01M03</v>
       </c>
       <c r="E37" s="14" t="s">
@@ -15558,7 +15209,7 @@
         <v>76</v>
       </c>
       <c r="D38" s="14" t="str">
-        <f>A38&amp;B38&amp;C38</f>
+        <f t="shared" si="0"/>
         <v>P25SL01M08</v>
       </c>
       <c r="E38" s="14" t="s">
@@ -15593,7 +15244,7 @@
         <v>60</v>
       </c>
       <c r="D39" s="14" t="str">
-        <f>A39&amp;B39&amp;C39</f>
+        <f t="shared" si="0"/>
         <v>P26EP01M02</v>
       </c>
       <c r="E39" s="14" t="s">
@@ -15628,7 +15279,7 @@
         <v>58</v>
       </c>
       <c r="D40" s="14" t="str">
-        <f>A40&amp;B40&amp;C40</f>
+        <f t="shared" si="0"/>
         <v>P26SL01M01</v>
       </c>
       <c r="E40" s="14" t="s">
@@ -15663,7 +15314,7 @@
         <v>60</v>
       </c>
       <c r="D41" s="14" t="str">
-        <f>A41&amp;B41&amp;C41</f>
+        <f t="shared" si="0"/>
         <v>P26SL01M02</v>
       </c>
       <c r="E41" s="14" t="s">
@@ -15698,7 +15349,7 @@
         <v>61</v>
       </c>
       <c r="D42" s="14" t="str">
-        <f>A42&amp;B42&amp;C42</f>
+        <f t="shared" si="0"/>
         <v>P26SL01M03</v>
       </c>
       <c r="E42" s="14" t="s">
@@ -15733,7 +15384,7 @@
         <v>58</v>
       </c>
       <c r="D43" s="14" t="str">
-        <f>A43&amp;B43&amp;C43</f>
+        <f t="shared" si="0"/>
         <v>P26EP02M01</v>
       </c>
       <c r="E43" s="14" t="s">
@@ -15768,7 +15419,7 @@
         <v>68</v>
       </c>
       <c r="D44" s="14" t="str">
-        <f>A44&amp;B44&amp;C44</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">P27SL01M01 </v>
       </c>
       <c r="E44" s="14" t="s">
@@ -15803,7 +15454,7 @@
         <v>62</v>
       </c>
       <c r="D45" s="14" t="str">
-        <f>A45&amp;B45&amp;C45</f>
+        <f t="shared" si="0"/>
         <v>P27SL01M04</v>
       </c>
       <c r="E45" s="14" t="s">
@@ -15838,7 +15489,7 @@
         <v>70</v>
       </c>
       <c r="D46" s="14" t="str">
-        <f>A46&amp;B46&amp;C46</f>
+        <f t="shared" si="0"/>
         <v>P27SL01M06</v>
       </c>
       <c r="E46" s="14" t="s">
@@ -15873,7 +15524,7 @@
         <v>58</v>
       </c>
       <c r="D47" s="14" t="str">
-        <f>A47&amp;B47&amp;C47</f>
+        <f t="shared" si="0"/>
         <v>P28EP01M01</v>
       </c>
       <c r="E47" s="14" t="s">
@@ -15908,7 +15559,7 @@
         <v>61</v>
       </c>
       <c r="D48" s="14" t="str">
-        <f>A48&amp;B48&amp;C48</f>
+        <f t="shared" si="0"/>
         <v>P29DW01M03</v>
       </c>
       <c r="E48" s="14" t="s">
@@ -15943,7 +15594,7 @@
         <v>58</v>
       </c>
       <c r="D49" s="14" t="str">
-        <f>A49&amp;B49&amp;C49</f>
+        <f t="shared" si="0"/>
         <v>P29SL01M01</v>
       </c>
       <c r="E49" s="14" t="s">
@@ -15978,7 +15629,7 @@
         <v>58</v>
       </c>
       <c r="D50" s="14" t="str">
-        <f>A50&amp;B50&amp;C50</f>
+        <f t="shared" si="0"/>
         <v>P02EP02M01</v>
       </c>
       <c r="E50" s="14" t="s">
@@ -16013,7 +15664,7 @@
         <v>58</v>
       </c>
       <c r="D51" s="14" t="str">
-        <f>A51&amp;B51&amp;C51</f>
+        <f t="shared" si="0"/>
         <v>P03EP02M01</v>
       </c>
       <c r="E51" s="14" t="s">
@@ -16048,7 +15699,7 @@
         <v>60</v>
       </c>
       <c r="D52" s="14" t="str">
-        <f>A52&amp;B52&amp;C52</f>
+        <f t="shared" si="0"/>
         <v>P03EP02M02</v>
       </c>
       <c r="E52" s="14" t="s">
@@ -16083,7 +15734,7 @@
         <v>58</v>
       </c>
       <c r="D53" s="14" t="str">
-        <f>A53&amp;B53&amp;C53</f>
+        <f t="shared" si="0"/>
         <v>P03EP01M01</v>
       </c>
       <c r="E53" s="14" t="s">
@@ -16118,7 +15769,7 @@
         <v>58</v>
       </c>
       <c r="D54" s="14" t="str">
-        <f>A54&amp;B54&amp;C54</f>
+        <f t="shared" si="0"/>
         <v>P03EP03M01</v>
       </c>
       <c r="E54" s="14" t="s">
@@ -16153,7 +15804,7 @@
         <v>60</v>
       </c>
       <c r="D55" s="14" t="str">
-        <f>A55&amp;B55&amp;C55</f>
+        <f t="shared" si="0"/>
         <v>P03EP03M02</v>
       </c>
       <c r="E55" s="14" t="s">
@@ -16188,7 +15839,7 @@
         <v>60</v>
       </c>
       <c r="D56" s="14" t="str">
-        <f>A56&amp;B56&amp;C56</f>
+        <f t="shared" si="0"/>
         <v>P03EP03M02</v>
       </c>
       <c r="E56" s="14" t="s">
@@ -16223,7 +15874,7 @@
         <v>60</v>
       </c>
       <c r="D57" s="14" t="str">
-        <f>A57&amp;B57&amp;C57</f>
+        <f t="shared" si="0"/>
         <v>P03DW01M02</v>
       </c>
       <c r="E57" s="14" t="s">
@@ -16258,7 +15909,7 @@
         <v>61</v>
       </c>
       <c r="D58" s="14" t="str">
-        <f>A58&amp;B58&amp;C58</f>
+        <f t="shared" si="0"/>
         <v>P04EP01M03</v>
       </c>
       <c r="E58" s="14" t="s">
@@ -16293,7 +15944,7 @@
         <v>60</v>
       </c>
       <c r="D59" s="14" t="str">
-        <f>A59&amp;B59&amp;C59</f>
+        <f t="shared" si="0"/>
         <v>P04DW01M02</v>
       </c>
       <c r="E59" s="14" t="s">
@@ -16328,7 +15979,7 @@
         <v>60</v>
       </c>
       <c r="D60" s="14" t="str">
-        <f>A60&amp;B60&amp;C60</f>
+        <f t="shared" si="0"/>
         <v>P05EP01M02</v>
       </c>
       <c r="E60" s="14" t="s">
@@ -16363,7 +16014,7 @@
         <v>58</v>
       </c>
       <c r="D61" s="14" t="str">
-        <f>A61&amp;B61&amp;C61</f>
+        <f t="shared" si="0"/>
         <v>P06EP02M01</v>
       </c>
       <c r="E61" s="14" t="s">
@@ -16398,7 +16049,7 @@
         <v>61</v>
       </c>
       <c r="D62" s="14" t="str">
-        <f>A62&amp;B62&amp;C62</f>
+        <f t="shared" si="0"/>
         <v>P06EP02M03</v>
       </c>
       <c r="E62" s="14" t="s">
@@ -16433,7 +16084,7 @@
         <v>58</v>
       </c>
       <c r="D63" s="14" t="str">
-        <f>A63&amp;B63&amp;C63</f>
+        <f t="shared" si="0"/>
         <v>P06EP02M01</v>
       </c>
       <c r="E63" s="14" t="s">
@@ -16468,7 +16119,7 @@
         <v>61</v>
       </c>
       <c r="D64" s="14" t="str">
-        <f>A64&amp;B64&amp;C64</f>
+        <f t="shared" si="0"/>
         <v>P06EP02M03</v>
       </c>
       <c r="E64" s="14" t="s">
@@ -16503,7 +16154,7 @@
         <v>58</v>
       </c>
       <c r="D65" s="14" t="str">
-        <f>A65&amp;B65&amp;C65</f>
+        <f t="shared" si="0"/>
         <v>P17EP04M01</v>
       </c>
       <c r="E65" s="14" t="s">
@@ -16538,7 +16189,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="14" t="str">
-        <f>A66&amp;B66&amp;C66</f>
+        <f t="shared" ref="D66:D129" si="1">A66&amp;B66&amp;C66</f>
         <v>P17EP01M01</v>
       </c>
       <c r="E66" s="14" t="s">
@@ -16573,7 +16224,7 @@
         <v>60</v>
       </c>
       <c r="D67" s="14" t="str">
-        <f>A67&amp;B67&amp;C67</f>
+        <f t="shared" si="1"/>
         <v>P19SL01M02</v>
       </c>
       <c r="E67" s="14" t="s">
@@ -16608,7 +16259,7 @@
         <v>61</v>
       </c>
       <c r="D68" s="14" t="str">
-        <f>A68&amp;B68&amp;C68</f>
+        <f t="shared" si="1"/>
         <v>P19SL01M03</v>
       </c>
       <c r="E68" s="14" t="s">
@@ -16643,7 +16294,7 @@
         <v>58</v>
       </c>
       <c r="D69" s="14" t="str">
-        <f>A69&amp;B69&amp;C69</f>
+        <f t="shared" si="1"/>
         <v>P20SL01M01</v>
       </c>
       <c r="E69" s="14" t="s">
@@ -16678,7 +16329,7 @@
         <v>60</v>
       </c>
       <c r="D70" s="14" t="str">
-        <f>A70&amp;B70&amp;C70</f>
+        <f t="shared" si="1"/>
         <v>P20SL01M02</v>
       </c>
       <c r="E70" s="14" t="s">
@@ -16713,7 +16364,7 @@
         <v>58</v>
       </c>
       <c r="D71" s="14" t="str">
-        <f>A71&amp;B71&amp;C71</f>
+        <f t="shared" si="1"/>
         <v>P21SL01M01</v>
       </c>
       <c r="E71" s="14" t="s">
@@ -16748,7 +16399,7 @@
         <v>80</v>
       </c>
       <c r="D72" s="14" t="str">
-        <f>A72&amp;B72&amp;C72</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">P21SL01M02 </v>
       </c>
       <c r="E72" s="14" t="s">
@@ -16783,7 +16434,7 @@
         <v>58</v>
       </c>
       <c r="D73" s="14" t="str">
-        <f>A73&amp;B73&amp;C73</f>
+        <f t="shared" si="1"/>
         <v>P22EP02M01</v>
       </c>
       <c r="E73" s="14" t="s">
@@ -16818,7 +16469,7 @@
         <v>60</v>
       </c>
       <c r="D74" s="14" t="str">
-        <f>A74&amp;B74&amp;C74</f>
+        <f t="shared" si="1"/>
         <v>P22DW01M02</v>
       </c>
       <c r="E74" s="14" t="s">
@@ -16853,7 +16504,7 @@
         <v>58</v>
       </c>
       <c r="D75" s="14" t="str">
-        <f>A75&amp;B75&amp;C75</f>
+        <f t="shared" si="1"/>
         <v>P23EP01M01</v>
       </c>
       <c r="E75" s="14" t="s">
@@ -16888,7 +16539,7 @@
         <v>58</v>
       </c>
       <c r="D76" s="14" t="str">
-        <f>A76&amp;B76&amp;C76</f>
+        <f t="shared" si="1"/>
         <v>P23DW01M01</v>
       </c>
       <c r="E76" s="14" t="s">
@@ -16923,7 +16574,7 @@
         <v>58</v>
       </c>
       <c r="D77" s="14" t="str">
-        <f>A77&amp;B77&amp;C77</f>
+        <f t="shared" si="1"/>
         <v>P25EP01M01</v>
       </c>
       <c r="E77" s="14" t="s">
@@ -16958,7 +16609,7 @@
         <v>58</v>
       </c>
       <c r="D78" s="14" t="str">
-        <f>A78&amp;B78&amp;C78</f>
+        <f t="shared" si="1"/>
         <v>P25EP02M01</v>
       </c>
       <c r="E78" s="14" t="s">
@@ -16993,7 +16644,7 @@
         <v>58</v>
       </c>
       <c r="D79" s="14" t="str">
-        <f>A79&amp;B79&amp;C79</f>
+        <f t="shared" si="1"/>
         <v>P26EP01M01</v>
       </c>
       <c r="E79" s="14" t="s">
@@ -17028,7 +16679,7 @@
         <v>60</v>
       </c>
       <c r="D80" s="14" t="str">
-        <f>A80&amp;B80&amp;C80</f>
+        <f t="shared" si="1"/>
         <v>P26DW01M02</v>
       </c>
       <c r="E80" s="14" t="s">
@@ -17063,7 +16714,7 @@
         <v>60</v>
       </c>
       <c r="D81" s="14" t="str">
-        <f>A81&amp;B81&amp;C81</f>
+        <f t="shared" si="1"/>
         <v>P27SL01M02</v>
       </c>
       <c r="E81" s="14" t="s">
@@ -17098,7 +16749,7 @@
         <v>58</v>
       </c>
       <c r="D82" s="14" t="str">
-        <f>A82&amp;B82&amp;C82</f>
+        <f t="shared" si="1"/>
         <v>P29DW01M01</v>
       </c>
       <c r="E82" s="14" t="s">
@@ -17133,7 +16784,7 @@
         <v>58</v>
       </c>
       <c r="D83" s="14" t="str">
-        <f>A83&amp;B83&amp;C83</f>
+        <f t="shared" si="1"/>
         <v>P02EP02M01</v>
       </c>
       <c r="E83" s="14" t="s">
@@ -17168,7 +16819,7 @@
         <v>58</v>
       </c>
       <c r="D84" s="14" t="str">
-        <f>A84&amp;B84&amp;C84</f>
+        <f t="shared" si="1"/>
         <v>P02EP01M01</v>
       </c>
       <c r="E84" s="14" t="s">
@@ -17203,7 +16854,7 @@
         <v>62</v>
       </c>
       <c r="D85" s="14" t="str">
-        <f>A85&amp;B85&amp;C85</f>
+        <f t="shared" si="1"/>
         <v>P02DW01M04</v>
       </c>
       <c r="E85" s="14" t="s">
@@ -17238,7 +16889,7 @@
         <v>58</v>
       </c>
       <c r="D86" s="14" t="str">
-        <f>A86&amp;B86&amp;C86</f>
+        <f t="shared" si="1"/>
         <v>P02RK01M01</v>
       </c>
       <c r="E86" s="14" t="s">
@@ -17273,7 +16924,7 @@
         <v>60</v>
       </c>
       <c r="D87" s="14" t="str">
-        <f>A87&amp;B87&amp;C87</f>
+        <f t="shared" si="1"/>
         <v>P03EP01M02</v>
       </c>
       <c r="E87" s="14" t="s">
@@ -17308,7 +16959,7 @@
         <v>62</v>
       </c>
       <c r="D88" s="14" t="str">
-        <f>A88&amp;B88&amp;C88</f>
+        <f t="shared" si="1"/>
         <v>P03EP02M04</v>
       </c>
       <c r="E88" s="14" t="s">
@@ -17347,7 +16998,7 @@
         <v>61</v>
       </c>
       <c r="D89" s="14" t="str">
-        <f>A89&amp;B89&amp;C89</f>
+        <f t="shared" si="1"/>
         <v>P03DW01M03</v>
       </c>
       <c r="E89" s="14" t="s">
@@ -17382,7 +17033,7 @@
         <v>62</v>
       </c>
       <c r="D90" s="14" t="str">
-        <f>A90&amp;B90&amp;C90</f>
+        <f t="shared" si="1"/>
         <v>P03DW01M04</v>
       </c>
       <c r="E90" s="14" t="s">
@@ -17417,7 +17068,7 @@
         <v>58</v>
       </c>
       <c r="D91" s="14" t="str">
-        <f>A91&amp;B91&amp;C91</f>
+        <f t="shared" si="1"/>
         <v>P06EP02M01</v>
       </c>
       <c r="E91" s="14" t="s">
@@ -17452,7 +17103,7 @@
         <v>58</v>
       </c>
       <c r="D92" s="14" t="str">
-        <f>A92&amp;B92&amp;C92</f>
+        <f t="shared" si="1"/>
         <v>P22EP01M01</v>
       </c>
       <c r="E92" s="14" t="s">
@@ -17487,7 +17138,7 @@
         <v>58</v>
       </c>
       <c r="D93" s="14" t="str">
-        <f>A93&amp;B93&amp;C93</f>
+        <f t="shared" si="1"/>
         <v>P23EP02M01</v>
       </c>
       <c r="E93" s="14" t="s">
@@ -17522,7 +17173,7 @@
         <v>60</v>
       </c>
       <c r="D94" s="14" t="str">
-        <f>A94&amp;B94&amp;C94</f>
+        <f t="shared" si="1"/>
         <v>P23DW01M02</v>
       </c>
       <c r="E94" s="14" t="s">
@@ -17557,7 +17208,7 @@
         <v>60</v>
       </c>
       <c r="D95" s="14" t="str">
-        <f>A95&amp;B95&amp;C95</f>
+        <f t="shared" si="1"/>
         <v>P24DW01M02</v>
       </c>
       <c r="E95" s="14" t="s">
@@ -17592,7 +17243,7 @@
         <v>61</v>
       </c>
       <c r="D96" s="14" t="str">
-        <f>A96&amp;B96&amp;C96</f>
+        <f t="shared" si="1"/>
         <v>P24DW01M03</v>
       </c>
       <c r="E96" s="14" t="s">
@@ -17627,7 +17278,7 @@
         <v>58</v>
       </c>
       <c r="D97" s="14" t="str">
-        <f>A97&amp;B97&amp;C97</f>
+        <f t="shared" si="1"/>
         <v>P25EP03M01</v>
       </c>
       <c r="E97" s="14" t="s">
@@ -17662,7 +17313,7 @@
         <v>60</v>
       </c>
       <c r="D98" s="14" t="str">
-        <f>A98&amp;B98&amp;C98</f>
+        <f t="shared" si="1"/>
         <v>P25SL01M02</v>
       </c>
       <c r="E98" s="14" t="s">
@@ -17697,7 +17348,7 @@
         <v>58</v>
       </c>
       <c r="D99" s="14" t="str">
-        <f>A99&amp;B99&amp;C99</f>
+        <f t="shared" si="1"/>
         <v>P26DW01M01</v>
       </c>
       <c r="E99" s="14" t="s">
@@ -17732,7 +17383,7 @@
         <v>61</v>
       </c>
       <c r="D100" s="14" t="str">
-        <f>A100&amp;B100&amp;C100</f>
+        <f t="shared" si="1"/>
         <v>P27SL01M03</v>
       </c>
       <c r="E100" s="14" t="s">
@@ -18028,7 +17679,7 @@
         <v>60</v>
       </c>
       <c r="D101" s="14" t="str">
-        <f>A101&amp;B101&amp;C101</f>
+        <f t="shared" si="1"/>
         <v>P02EP01M02</v>
       </c>
       <c r="E101" s="14" t="s">
@@ -18324,7 +17975,7 @@
         <v>71</v>
       </c>
       <c r="D102" s="14" t="str">
-        <f>A102&amp;B102&amp;C102</f>
+        <f t="shared" si="1"/>
         <v>P03EP01M07</v>
       </c>
       <c r="E102" s="14" t="s">
@@ -18620,7 +18271,7 @@
         <v>58</v>
       </c>
       <c r="D103" s="14" t="str">
-        <f>A103&amp;B103&amp;C103</f>
+        <f t="shared" si="1"/>
         <v>P04EP01M01</v>
       </c>
       <c r="E103" s="14" t="s">
@@ -18916,7 +18567,7 @@
         <v>58</v>
       </c>
       <c r="D104" s="14" t="str">
-        <f>A104&amp;B104&amp;C104</f>
+        <f t="shared" si="1"/>
         <v>P05DW01M01</v>
       </c>
       <c r="E104" s="14" t="s">
@@ -18951,7 +18602,7 @@
         <v>60</v>
       </c>
       <c r="D105" s="14" t="str">
-        <f>A105&amp;B105&amp;C105</f>
+        <f t="shared" si="1"/>
         <v>P05DW01M02</v>
       </c>
       <c r="E105" s="14" t="s">
@@ -18986,7 +18637,7 @@
         <v>58</v>
       </c>
       <c r="D106" s="14" t="str">
-        <f>A106&amp;B106&amp;C106</f>
+        <f t="shared" si="1"/>
         <v>P06DW01M01</v>
       </c>
       <c r="E106" s="14" t="s">
@@ -19021,7 +18672,7 @@
         <v>60</v>
       </c>
       <c r="D107" s="14" t="str">
-        <f>A107&amp;B107&amp;C107</f>
+        <f t="shared" si="1"/>
         <v>P06DW01M02</v>
       </c>
       <c r="E107" s="14" t="s">
@@ -19056,7 +18707,7 @@
         <v>58</v>
       </c>
       <c r="D108" s="14" t="str">
-        <f>A108&amp;B108&amp;C108</f>
+        <f t="shared" si="1"/>
         <v>P17EP01M01</v>
       </c>
       <c r="E108" s="14" t="s">
@@ -19091,7 +18742,7 @@
         <v>58</v>
       </c>
       <c r="D109" s="14" t="str">
-        <f>A109&amp;B109&amp;C109</f>
+        <f t="shared" si="1"/>
         <v>P17DW01M01</v>
       </c>
       <c r="E109" s="14" t="s">
@@ -19126,7 +18777,7 @@
         <v>62</v>
       </c>
       <c r="D110" s="14" t="str">
-        <f>A110&amp;B110&amp;C110</f>
+        <f t="shared" si="1"/>
         <v>P21DW01M04</v>
       </c>
       <c r="E110" s="14" t="s">
@@ -19161,7 +18812,7 @@
         <v>58</v>
       </c>
       <c r="D111" s="14" t="str">
-        <f>A111&amp;B111&amp;C111</f>
+        <f t="shared" si="1"/>
         <v>P22DW01M01</v>
       </c>
       <c r="E111" s="14" t="s">
@@ -19196,7 +18847,7 @@
         <v>58</v>
       </c>
       <c r="D112" s="14" t="str">
-        <f>A112&amp;B112&amp;C112</f>
+        <f t="shared" si="1"/>
         <v>P24EP01M01</v>
       </c>
       <c r="E112" s="14" t="s">
@@ -19231,7 +18882,7 @@
         <v>70</v>
       </c>
       <c r="D113" s="14" t="str">
-        <f>A113&amp;B113&amp;C113</f>
+        <f t="shared" si="1"/>
         <v>P24EP02M06</v>
       </c>
       <c r="E113" s="14" t="s">
@@ -19266,7 +18917,7 @@
         <v>58</v>
       </c>
       <c r="D114" s="14" t="str">
-        <f>A114&amp;B114&amp;C114</f>
+        <f t="shared" si="1"/>
         <v>P25DW01M01</v>
       </c>
       <c r="E114" s="14" t="s">
@@ -19301,7 +18952,7 @@
         <v>58</v>
       </c>
       <c r="D115" s="14" t="str">
-        <f>A115&amp;B115&amp;C115</f>
+        <f t="shared" si="1"/>
         <v>P27DW01M01</v>
       </c>
       <c r="E115" s="14" t="s">
@@ -19336,7 +18987,7 @@
         <v>60</v>
       </c>
       <c r="D116" s="14" t="str">
-        <f>A116&amp;B116&amp;C116</f>
+        <f t="shared" si="1"/>
         <v>P29DW01M02</v>
       </c>
       <c r="E116" s="14" t="s">
@@ -19371,7 +19022,7 @@
         <v>58</v>
       </c>
       <c r="D117" s="14" t="str">
-        <f>A117&amp;B117&amp;C117</f>
+        <f t="shared" si="1"/>
         <v>P02DW01M01</v>
       </c>
       <c r="E117" s="14" t="s">
@@ -19406,7 +19057,7 @@
         <v>58</v>
       </c>
       <c r="D118" s="14" t="str">
-        <f>A118&amp;B118&amp;C118</f>
+        <f t="shared" si="1"/>
         <v>P04DW01M01</v>
       </c>
       <c r="E118" s="14" t="s">
@@ -19441,7 +19092,7 @@
         <v>58</v>
       </c>
       <c r="D119" s="14" t="str">
-        <f>A119&amp;B119&amp;C119</f>
+        <f t="shared" si="1"/>
         <v>P18DW01M01</v>
       </c>
       <c r="E119" s="14" t="s">
@@ -19476,7 +19127,7 @@
         <v>58</v>
       </c>
       <c r="D120" s="14" t="str">
-        <f>A120&amp;B120&amp;C120</f>
+        <f t="shared" si="1"/>
         <v>P19DW01M01</v>
       </c>
       <c r="E120" s="14" t="s">
@@ -19511,7 +19162,7 @@
         <v>58</v>
       </c>
       <c r="D121" s="14" t="str">
-        <f>A121&amp;B121&amp;C121</f>
+        <f t="shared" si="1"/>
         <v>P20DW01M01</v>
       </c>
       <c r="E121" s="14" t="s">
@@ -19546,7 +19197,7 @@
         <v>60</v>
       </c>
       <c r="D122" s="14" t="str">
-        <f>A122&amp;B122&amp;C122</f>
+        <f t="shared" si="1"/>
         <v>P28DW01M02</v>
       </c>
       <c r="E122" s="14" t="s">
@@ -19581,7 +19232,7 @@
         <v>61</v>
       </c>
       <c r="D123" s="14" t="str">
-        <f>A123&amp;B123&amp;C123</f>
+        <f t="shared" si="1"/>
         <v>P02EP01M03</v>
       </c>
       <c r="E123" s="14" t="s">
@@ -19616,7 +19267,7 @@
         <v>62</v>
       </c>
       <c r="D124" s="14" t="str">
-        <f>A124&amp;B124&amp;C124</f>
+        <f t="shared" si="1"/>
         <v>P02EP02M04</v>
       </c>
       <c r="E124" s="14" t="s">
@@ -19651,7 +19302,7 @@
         <v>58</v>
       </c>
       <c r="D125" s="14" t="str">
-        <f>A125&amp;B125&amp;C125</f>
+        <f t="shared" si="1"/>
         <v>P02EP01M01</v>
       </c>
       <c r="E125" s="14" t="s">
@@ -19686,7 +19337,7 @@
         <v>60</v>
       </c>
       <c r="D126" s="14" t="str">
-        <f>A126&amp;B126&amp;C126</f>
+        <f t="shared" si="1"/>
         <v>P02EP01M02</v>
       </c>
       <c r="E126" s="14" t="s">
@@ -19721,7 +19372,7 @@
         <v>60</v>
       </c>
       <c r="D127" s="14" t="str">
-        <f>A127&amp;B127&amp;C127</f>
+        <f t="shared" si="1"/>
         <v>P02DW01M02</v>
       </c>
       <c r="E127" s="14" t="s">
@@ -19756,7 +19407,7 @@
         <v>69</v>
       </c>
       <c r="D128" s="14" t="str">
-        <f>A128&amp;B128&amp;C128</f>
+        <f t="shared" si="1"/>
         <v>P02DW01M05</v>
       </c>
       <c r="E128" s="14" t="s">
@@ -19791,7 +19442,7 @@
         <v>61</v>
       </c>
       <c r="D129" s="14" t="str">
-        <f>A129&amp;B129&amp;C129</f>
+        <f t="shared" si="1"/>
         <v>P03EP02M03</v>
       </c>
       <c r="E129" s="14" t="s">
@@ -19826,7 +19477,7 @@
         <v>69</v>
       </c>
       <c r="D130" s="14" t="str">
-        <f>A130&amp;B130&amp;C130</f>
+        <f t="shared" ref="D130:D193" si="2">A130&amp;B130&amp;C130</f>
         <v>P03EP03M05</v>
       </c>
       <c r="E130" s="14" t="s">
@@ -19865,7 +19516,7 @@
         <v>58</v>
       </c>
       <c r="D131" s="14" t="str">
-        <f>A131&amp;B131&amp;C131</f>
+        <f t="shared" si="2"/>
         <v>P03EP03M01</v>
       </c>
       <c r="E131" s="14" t="s">
@@ -19900,7 +19551,7 @@
         <v>58</v>
       </c>
       <c r="D132" s="14" t="str">
-        <f>A132&amp;B132&amp;C132</f>
+        <f t="shared" si="2"/>
         <v>P03EP03M01</v>
       </c>
       <c r="E132" s="14" t="s">
@@ -19935,7 +19586,7 @@
         <v>61</v>
       </c>
       <c r="D133" s="14" t="str">
-        <f>A133&amp;B133&amp;C133</f>
+        <f t="shared" si="2"/>
         <v>P04EP01M03</v>
       </c>
       <c r="E133" s="14" t="s">
@@ -19970,7 +19621,7 @@
         <v>61</v>
       </c>
       <c r="D134" s="14" t="str">
-        <f>A134&amp;B134&amp;C134</f>
+        <f t="shared" si="2"/>
         <v>P04DW01M03</v>
       </c>
       <c r="E134" s="14" t="s">
@@ -20005,7 +19656,7 @@
         <v>62</v>
       </c>
       <c r="D135" s="14" t="str">
-        <f>A135&amp;B135&amp;C135</f>
+        <f t="shared" si="2"/>
         <v>P04DW01M04</v>
       </c>
       <c r="E135" s="14" t="s">
@@ -20040,7 +19691,7 @@
         <v>60</v>
       </c>
       <c r="D136" s="14" t="str">
-        <f>A136&amp;B136&amp;C136</f>
+        <f t="shared" si="2"/>
         <v>P05EP01M02</v>
       </c>
       <c r="E136" s="14" t="s">
@@ -20075,7 +19726,7 @@
         <v>61</v>
       </c>
       <c r="D137" s="14" t="str">
-        <f>A137&amp;B137&amp;C137</f>
+        <f t="shared" si="2"/>
         <v>P05EP01M03</v>
       </c>
       <c r="E137" s="14" t="s">
@@ -20110,7 +19761,7 @@
         <v>62</v>
       </c>
       <c r="D138" s="14" t="str">
-        <f>A138&amp;B138&amp;C138</f>
+        <f t="shared" si="2"/>
         <v>P05EP01M04</v>
       </c>
       <c r="E138" s="14" t="s">
@@ -20145,7 +19796,7 @@
         <v>58</v>
       </c>
       <c r="D139" s="14" t="str">
-        <f>A139&amp;B139&amp;C139</f>
+        <f t="shared" si="2"/>
         <v>P05EP01M01</v>
       </c>
       <c r="E139" s="14" t="s">
@@ -20180,7 +19831,7 @@
         <v>69</v>
       </c>
       <c r="D140" s="14" t="str">
-        <f>A140&amp;B140&amp;C140</f>
+        <f t="shared" si="2"/>
         <v>P05EP01M05</v>
       </c>
       <c r="E140" s="14" t="s">
@@ -20215,7 +19866,7 @@
         <v>58</v>
       </c>
       <c r="D141" s="14" t="str">
-        <f>A141&amp;B141&amp;C141</f>
+        <f t="shared" si="2"/>
         <v>P06EP02M01</v>
       </c>
       <c r="E141" s="14" t="s">
@@ -20250,7 +19901,7 @@
         <v>60</v>
       </c>
       <c r="D142" s="14" t="str">
-        <f>A142&amp;B142&amp;C142</f>
+        <f t="shared" si="2"/>
         <v>P06EP02M02</v>
       </c>
       <c r="E142" s="14" t="s">
@@ -20285,7 +19936,7 @@
         <v>60</v>
       </c>
       <c r="D143" s="14" t="str">
-        <f>A143&amp;B143&amp;C143</f>
+        <f t="shared" si="2"/>
         <v>P06EP01M02</v>
       </c>
       <c r="E143" s="14" t="s">
@@ -20320,7 +19971,7 @@
         <v>61</v>
       </c>
       <c r="D144" s="14" t="str">
-        <f>A144&amp;B144&amp;C144</f>
+        <f t="shared" si="2"/>
         <v>P06DW01M03</v>
       </c>
       <c r="E144" s="14" t="s">
@@ -20355,7 +20006,7 @@
         <v>60</v>
       </c>
       <c r="D145" s="14" t="str">
-        <f>A145&amp;B145&amp;C145</f>
+        <f t="shared" si="2"/>
         <v>P06SL01M02</v>
       </c>
       <c r="E145" s="14" t="s">
@@ -20390,7 +20041,7 @@
         <v>61</v>
       </c>
       <c r="D146" s="14" t="str">
-        <f>A146&amp;B146&amp;C146</f>
+        <f t="shared" si="2"/>
         <v>P06SL01M03</v>
       </c>
       <c r="E146" s="14" t="s">
@@ -20425,7 +20076,7 @@
         <v>62</v>
       </c>
       <c r="D147" s="14" t="str">
-        <f>A147&amp;B147&amp;C147</f>
+        <f t="shared" si="2"/>
         <v>P06SL01M04</v>
       </c>
       <c r="E147" s="14" t="s">
@@ -20460,7 +20111,7 @@
         <v>70</v>
       </c>
       <c r="D148" s="14" t="str">
-        <f>A148&amp;B148&amp;C148</f>
+        <f t="shared" si="2"/>
         <v>P06SL01M06</v>
       </c>
       <c r="E148" s="14" t="s">
@@ -20495,7 +20146,7 @@
         <v>159</v>
       </c>
       <c r="D149" s="14" t="str">
-        <f>A149&amp;B149&amp;C149</f>
+        <f t="shared" si="2"/>
         <v>P06SL01M09</v>
       </c>
       <c r="E149" s="14" t="s">
@@ -20530,7 +20181,7 @@
         <v>58</v>
       </c>
       <c r="D150" s="14" t="str">
-        <f>A150&amp;B150&amp;C150</f>
+        <f t="shared" si="2"/>
         <v>P17EP04M01</v>
       </c>
       <c r="E150" s="14" t="s">
@@ -20565,7 +20216,7 @@
         <v>58</v>
       </c>
       <c r="D151" s="14" t="str">
-        <f>A151&amp;B151&amp;C151</f>
+        <f t="shared" si="2"/>
         <v>P17EP01M01</v>
       </c>
       <c r="E151" s="14" t="s">
@@ -20600,7 +20251,7 @@
         <v>60</v>
       </c>
       <c r="D152" s="14" t="str">
-        <f>A152&amp;B152&amp;C152</f>
+        <f t="shared" si="2"/>
         <v>P17EP01M02</v>
       </c>
       <c r="E152" s="14" t="s">
@@ -20635,7 +20286,7 @@
         <v>61</v>
       </c>
       <c r="D153" s="14" t="str">
-        <f>A153&amp;B153&amp;C153</f>
+        <f t="shared" si="2"/>
         <v>P17DW01M03</v>
       </c>
       <c r="E153" s="14" t="s">
@@ -20670,7 +20321,7 @@
         <v>147</v>
       </c>
       <c r="D154" s="14" t="str">
-        <f>A154&amp;B154&amp;C154</f>
+        <f t="shared" si="2"/>
         <v>P20DW01M?</v>
       </c>
       <c r="E154" s="14" t="s">
@@ -20705,7 +20356,7 @@
         <v>60</v>
       </c>
       <c r="D155" s="14" t="str">
-        <f>A155&amp;B155&amp;C155</f>
+        <f t="shared" si="2"/>
         <v>P20DW01M02</v>
       </c>
       <c r="E155" s="14" t="s">
@@ -20740,7 +20391,7 @@
         <v>61</v>
       </c>
       <c r="D156" s="14" t="str">
-        <f>A156&amp;B156&amp;C156</f>
+        <f t="shared" si="2"/>
         <v>P20DW01M03</v>
       </c>
       <c r="E156" s="14" t="s">
@@ -20775,7 +20426,7 @@
         <v>62</v>
       </c>
       <c r="D157" s="14" t="str">
-        <f>A157&amp;B157&amp;C157</f>
+        <f t="shared" si="2"/>
         <v>P20DW01M04</v>
       </c>
       <c r="E157" s="14" t="s">
@@ -20810,7 +20461,7 @@
         <v>61</v>
       </c>
       <c r="D158" s="14" t="str">
-        <f>A158&amp;B158&amp;C158</f>
+        <f t="shared" si="2"/>
         <v>P20SL01M03</v>
       </c>
       <c r="E158" s="14" t="s">
@@ -20845,7 +20496,7 @@
         <v>60</v>
       </c>
       <c r="D159" s="14" t="str">
-        <f>A159&amp;B159&amp;C159</f>
+        <f t="shared" si="2"/>
         <v>P21EP01M02</v>
       </c>
       <c r="E159" s="14" t="s">
@@ -20880,7 +20531,7 @@
         <v>70</v>
       </c>
       <c r="D160" s="14" t="str">
-        <f>A160&amp;B160&amp;C160</f>
+        <f t="shared" si="2"/>
         <v>P21DW01M06</v>
       </c>
       <c r="E160" s="14" t="s">
@@ -20915,7 +20566,7 @@
         <v>61</v>
       </c>
       <c r="D161" s="14" t="str">
-        <f>A161&amp;B161&amp;C161</f>
+        <f t="shared" si="2"/>
         <v>P21SL01M03</v>
       </c>
       <c r="E161" s="14" t="s">
@@ -20950,7 +20601,7 @@
         <v>61</v>
       </c>
       <c r="D162" s="14" t="str">
-        <f>A162&amp;B162&amp;C162</f>
+        <f t="shared" si="2"/>
         <v>P22EP01M03</v>
       </c>
       <c r="E162" s="14" t="s">
@@ -20985,7 +20636,7 @@
         <v>60</v>
       </c>
       <c r="D163" s="14" t="str">
-        <f>A163&amp;B163&amp;C163</f>
+        <f t="shared" si="2"/>
         <v>P22EP02M02</v>
       </c>
       <c r="E163" s="14" t="s">
@@ -21020,7 +20671,7 @@
         <v>58</v>
       </c>
       <c r="D164" s="14" t="str">
-        <f>A164&amp;B164&amp;C164</f>
+        <f t="shared" si="2"/>
         <v>P22SL01M01</v>
       </c>
       <c r="E164" s="14" t="s">
@@ -21055,7 +20706,7 @@
         <v>60</v>
       </c>
       <c r="D165" s="14" t="str">
-        <f>A165&amp;B165&amp;C165</f>
+        <f t="shared" si="2"/>
         <v>P22SL01M02</v>
       </c>
       <c r="E165" s="14" t="s">
@@ -21090,7 +20741,7 @@
         <v>61</v>
       </c>
       <c r="D166" s="14" t="str">
-        <f>A166&amp;B166&amp;C166</f>
+        <f t="shared" si="2"/>
         <v>P22SL01M03</v>
       </c>
       <c r="E166" s="14" t="s">
@@ -21125,7 +20776,7 @@
         <v>60</v>
       </c>
       <c r="D167" s="14" t="str">
-        <f>A167&amp;B167&amp;C167</f>
+        <f t="shared" si="2"/>
         <v>P23EP01M02</v>
       </c>
       <c r="E167" s="14" t="s">
@@ -21160,7 +20811,7 @@
         <v>60</v>
       </c>
       <c r="D168" s="14" t="str">
-        <f>A168&amp;B168&amp;C168</f>
+        <f t="shared" si="2"/>
         <v>P23EP02M02</v>
       </c>
       <c r="E168" s="14" t="s">
@@ -21195,7 +20846,7 @@
         <v>58</v>
       </c>
       <c r="D169" s="14" t="str">
-        <f>A169&amp;B169&amp;C169</f>
+        <f t="shared" si="2"/>
         <v>P23EP01M01</v>
       </c>
       <c r="E169" s="14" t="s">
@@ -21230,7 +20881,7 @@
         <v>58</v>
       </c>
       <c r="D170" s="14" t="str">
-        <f>A170&amp;B170&amp;C170</f>
+        <f t="shared" si="2"/>
         <v>P23SL01M01</v>
       </c>
       <c r="E170" s="14" t="s">
@@ -21265,7 +20916,7 @@
         <v>60</v>
       </c>
       <c r="D171" s="14" t="str">
-        <f>A171&amp;B171&amp;C171</f>
+        <f t="shared" si="2"/>
         <v>P23SL01M02</v>
       </c>
       <c r="E171" s="14" t="s">
@@ -21300,7 +20951,7 @@
         <v>69</v>
       </c>
       <c r="D172" s="14" t="str">
-        <f>A172&amp;B172&amp;C172</f>
+        <f t="shared" si="2"/>
         <v>P24EP02M05</v>
       </c>
       <c r="E172" s="14" t="s">
@@ -21335,7 +20986,7 @@
         <v>62</v>
       </c>
       <c r="D173" s="14" t="str">
-        <f>A173&amp;B173&amp;C173</f>
+        <f t="shared" si="2"/>
         <v>P25DW01M04</v>
       </c>
       <c r="E173" s="14" t="s">
@@ -21370,7 +21021,7 @@
         <v>69</v>
       </c>
       <c r="D174" s="14" t="str">
-        <f>A174&amp;B174&amp;C174</f>
+        <f t="shared" si="2"/>
         <v>P25DW01M05</v>
       </c>
       <c r="E174" s="14" t="s">
@@ -21405,7 +21056,7 @@
         <v>69</v>
       </c>
       <c r="D175" s="14" t="str">
-        <f>A175&amp;B175&amp;C175</f>
+        <f t="shared" si="2"/>
         <v>P25SL01M05</v>
       </c>
       <c r="E175" s="14" t="s">
@@ -21440,7 +21091,7 @@
         <v>62</v>
       </c>
       <c r="D176" s="14" t="str">
-        <f>A176&amp;B176&amp;C176</f>
+        <f t="shared" si="2"/>
         <v>P26SL01M04</v>
       </c>
       <c r="E176" s="14" t="s">
@@ -21475,7 +21126,7 @@
         <v>58</v>
       </c>
       <c r="D177" s="14" t="str">
-        <f>A177&amp;B177&amp;C177</f>
+        <f t="shared" si="2"/>
         <v>P27EP01M01</v>
       </c>
       <c r="E177" s="14" t="s">
@@ -21510,7 +21161,7 @@
         <v>69</v>
       </c>
       <c r="D178" s="14" t="str">
-        <f>A178&amp;B178&amp;C178</f>
+        <f t="shared" si="2"/>
         <v>P27SL01M05</v>
       </c>
       <c r="E178" s="14" t="s">
@@ -21545,7 +21196,7 @@
         <v>60</v>
       </c>
       <c r="D179" s="14" t="str">
-        <f>A179&amp;B179&amp;C179</f>
+        <f t="shared" si="2"/>
         <v>P28EP01M02</v>
       </c>
       <c r="E179" s="14" t="s">
@@ -21580,7 +21231,7 @@
         <v>58</v>
       </c>
       <c r="D180" s="14" t="str">
-        <f>A180&amp;B180&amp;C180</f>
+        <f t="shared" si="2"/>
         <v>P28DW01M01</v>
       </c>
       <c r="E180" s="14" t="s">
@@ -21615,7 +21266,7 @@
         <v>58</v>
       </c>
       <c r="D181" s="14" t="str">
-        <f>A181&amp;B181&amp;C181</f>
+        <f t="shared" si="2"/>
         <v>P29EP01M01</v>
       </c>
       <c r="E181" s="14" t="s">
@@ -21648,7 +21299,7 @@
         <v>58</v>
       </c>
       <c r="D182" s="14" t="str">
-        <f>A182&amp;B182&amp;C182</f>
+        <f t="shared" si="2"/>
         <v>P29EP02M01</v>
       </c>
       <c r="E182" s="14" t="s">
@@ -21683,7 +21334,7 @@
         <v>70</v>
       </c>
       <c r="D183" s="14" t="str">
-        <f>A183&amp;B183&amp;C183</f>
+        <f t="shared" si="2"/>
         <v>P04EP01M06</v>
       </c>
       <c r="E183" s="14" t="s">
@@ -21718,7 +21369,7 @@
         <v>71</v>
       </c>
       <c r="D184" s="14" t="str">
-        <f>A184&amp;B184&amp;C184</f>
+        <f t="shared" si="2"/>
         <v>P04EP01M07</v>
       </c>
       <c r="E184" s="14" t="s">
@@ -21753,7 +21404,7 @@
         <v>58</v>
       </c>
       <c r="D185" s="14" t="str">
-        <f>A185&amp;B185&amp;C185</f>
+        <f t="shared" si="2"/>
         <v>P06RB01M01</v>
       </c>
       <c r="E185" s="14" t="s">
@@ -21788,7 +21439,7 @@
         <v>62</v>
       </c>
       <c r="D186" s="14" t="str">
-        <f>A186&amp;B186&amp;C186</f>
+        <f t="shared" si="2"/>
         <v>P17SL01M04</v>
       </c>
       <c r="E186" s="14" t="s">
@@ -21823,7 +21474,7 @@
         <v>69</v>
       </c>
       <c r="D187" s="14" t="str">
-        <f>A187&amp;B187&amp;C187</f>
+        <f t="shared" si="2"/>
         <v>P17SL01M05</v>
       </c>
       <c r="E187" s="14" t="s">
@@ -21858,7 +21509,7 @@
         <v>62</v>
       </c>
       <c r="D188" s="14" t="str">
-        <f>A188&amp;B188&amp;C188</f>
+        <f t="shared" si="2"/>
         <v>P18DW01M04</v>
       </c>
       <c r="E188" s="14" t="s">
@@ -21893,7 +21544,7 @@
         <v>149</v>
       </c>
       <c r="D189" s="23" t="str">
-        <f>A189&amp;B189&amp;C189</f>
+        <f t="shared" si="2"/>
         <v>P19SL01M0x</v>
       </c>
       <c r="E189" s="23" t="s">
@@ -21928,7 +21579,7 @@
         <v>69</v>
       </c>
       <c r="D190" s="23" t="str">
-        <f>A190&amp;B190&amp;C190</f>
+        <f t="shared" si="2"/>
         <v>P20DW01M05</v>
       </c>
       <c r="E190" s="23" t="s">
@@ -21963,7 +21614,7 @@
         <v>62</v>
       </c>
       <c r="D191" s="23" t="str">
-        <f>A191&amp;B191&amp;C191</f>
+        <f t="shared" si="2"/>
         <v>P29DW01M04</v>
       </c>
       <c r="E191" s="23" t="s">
@@ -21998,7 +21649,7 @@
         <v>60</v>
       </c>
       <c r="D192" s="14" t="str">
-        <f>A192&amp;B192&amp;C192</f>
+        <f t="shared" si="2"/>
         <v>P02EP02M02</v>
       </c>
       <c r="E192" s="14" t="s">
@@ -22033,7 +21684,7 @@
         <v>61</v>
       </c>
       <c r="D193" s="14" t="str">
-        <f>A193&amp;B193&amp;C193</f>
+        <f t="shared" si="2"/>
         <v>P02EP02M03</v>
       </c>
       <c r="E193" s="14" t="s">
@@ -22070,7 +21721,7 @@
         <v>62</v>
       </c>
       <c r="D194" s="14" t="str">
-        <f>A194&amp;B194&amp;C194</f>
+        <f t="shared" ref="D194:D257" si="3">A194&amp;B194&amp;C194</f>
         <v>P02EP02M04</v>
       </c>
       <c r="E194" s="14" t="s">
@@ -22105,7 +21756,7 @@
         <v>62</v>
       </c>
       <c r="D195" s="14" t="str">
-        <f>A195&amp;B195&amp;C195</f>
+        <f t="shared" si="3"/>
         <v>P02EP01M04</v>
       </c>
       <c r="E195" s="14" t="s">
@@ -22140,7 +21791,7 @@
         <v>69</v>
       </c>
       <c r="D196" s="14" t="str">
-        <f>A196&amp;B196&amp;C196</f>
+        <f t="shared" si="3"/>
         <v>P02EP01M05</v>
       </c>
       <c r="E196" s="14" t="s">
@@ -22175,7 +21826,7 @@
         <v>70</v>
       </c>
       <c r="D197" s="14" t="str">
-        <f>A197&amp;B197&amp;C197</f>
+        <f t="shared" si="3"/>
         <v>P02EP01M06</v>
       </c>
       <c r="E197" s="14" t="s">
@@ -22210,7 +21861,7 @@
         <v>69</v>
       </c>
       <c r="D198" s="14" t="str">
-        <f>A198&amp;B198&amp;C198</f>
+        <f t="shared" si="3"/>
         <v>P02EP02M05</v>
       </c>
       <c r="E198" s="14" t="s">
@@ -22247,7 +21898,7 @@
         <v>61</v>
       </c>
       <c r="D199" s="14" t="str">
-        <f>A199&amp;B199&amp;C199</f>
+        <f t="shared" si="3"/>
         <v>P02DW01M03</v>
       </c>
       <c r="E199" s="14" t="s">
@@ -22282,7 +21933,7 @@
         <v>60</v>
       </c>
       <c r="D200" s="14" t="str">
-        <f>A200&amp;B200&amp;C200</f>
+        <f t="shared" si="3"/>
         <v>P02RK01M02</v>
       </c>
       <c r="E200" s="14" t="s">
@@ -22317,7 +21968,7 @@
         <v>61</v>
       </c>
       <c r="D201" s="14" t="str">
-        <f>A201&amp;B201&amp;C201</f>
+        <f t="shared" si="3"/>
         <v>P02RK01M03</v>
       </c>
       <c r="E201" s="14" t="s">
@@ -22352,7 +22003,7 @@
         <v>70</v>
       </c>
       <c r="D202" s="14" t="str">
-        <f>A202&amp;B202&amp;C202</f>
+        <f t="shared" si="3"/>
         <v>P02RK01M06</v>
       </c>
       <c r="E202" s="14" t="s">
@@ -22387,7 +22038,7 @@
         <v>62</v>
       </c>
       <c r="D203" s="14" t="str">
-        <f>A203&amp;B203&amp;C203</f>
+        <f t="shared" si="3"/>
         <v>P03EP01M04</v>
       </c>
       <c r="E203" s="14" t="s">
@@ -22422,7 +22073,7 @@
         <v>69</v>
       </c>
       <c r="D204" s="14" t="str">
-        <f>A204&amp;B204&amp;C204</f>
+        <f t="shared" si="3"/>
         <v>P03EP01M05</v>
       </c>
       <c r="E204" s="14" t="s">
@@ -22459,7 +22110,7 @@
         <v>61</v>
       </c>
       <c r="D205" s="14" t="str">
-        <f>A205&amp;B205&amp;C205</f>
+        <f t="shared" si="3"/>
         <v>P03EP03M03</v>
       </c>
       <c r="E205" s="14" t="s">
@@ -22494,7 +22145,7 @@
         <v>69</v>
       </c>
       <c r="D206" s="14" t="str">
-        <f>A206&amp;B206&amp;C206</f>
+        <f t="shared" si="3"/>
         <v>P03EP02M05</v>
       </c>
       <c r="E206" s="14" t="s">
@@ -22529,7 +22180,7 @@
         <v>58</v>
       </c>
       <c r="D207" s="14" t="str">
-        <f>A207&amp;B207&amp;C207</f>
+        <f t="shared" si="3"/>
         <v>P03EP01M01</v>
       </c>
       <c r="E207" s="14" t="s">
@@ -22564,7 +22215,7 @@
         <v>69</v>
       </c>
       <c r="D208" s="14" t="str">
-        <f>A208&amp;B208&amp;C208</f>
+        <f t="shared" si="3"/>
         <v>P03EP03M05</v>
       </c>
       <c r="E208" s="14" t="s">
@@ -22603,7 +22254,7 @@
         <v>58</v>
       </c>
       <c r="D209" s="14" t="str">
-        <f>A209&amp;B209&amp;C209</f>
+        <f t="shared" si="3"/>
         <v>P03DW01M01</v>
       </c>
       <c r="E209" s="14" t="s">
@@ -22638,7 +22289,7 @@
         <v>69</v>
       </c>
       <c r="D210" s="14" t="str">
-        <f>A210&amp;B210&amp;C210</f>
+        <f t="shared" si="3"/>
         <v>P03DW01M05</v>
       </c>
       <c r="E210" s="14" t="s">
@@ -22673,7 +22324,7 @@
         <v>70</v>
       </c>
       <c r="D211" s="14" t="str">
-        <f>A211&amp;B211&amp;C211</f>
+        <f t="shared" si="3"/>
         <v>P03DW01M06</v>
       </c>
       <c r="E211" s="14" t="s">
@@ -22708,7 +22359,7 @@
         <v>71</v>
       </c>
       <c r="D212" s="14" t="str">
-        <f>A212&amp;B212&amp;C212</f>
+        <f t="shared" si="3"/>
         <v>P03DW01M07</v>
       </c>
       <c r="E212" s="14" t="s">
@@ -22743,7 +22394,7 @@
         <v>58</v>
       </c>
       <c r="D213" s="14" t="str">
-        <f>A213&amp;B213&amp;C213</f>
+        <f t="shared" si="3"/>
         <v>P03SL01M01</v>
       </c>
       <c r="E213" s="14" t="s">
@@ -22778,7 +22429,7 @@
         <v>60</v>
       </c>
       <c r="D214" s="14" t="str">
-        <f>A214&amp;B214&amp;C214</f>
+        <f t="shared" si="3"/>
         <v>P03SL01M02</v>
       </c>
       <c r="E214" s="14" t="s">
@@ -22813,7 +22464,7 @@
         <v>61</v>
       </c>
       <c r="D215" s="14" t="str">
-        <f>A215&amp;B215&amp;C215</f>
+        <f t="shared" si="3"/>
         <v>P03SL01M03</v>
       </c>
       <c r="E215" s="14" t="s">
@@ -22848,7 +22499,7 @@
         <v>60</v>
       </c>
       <c r="D216" s="14" t="str">
-        <f>A216&amp;B216&amp;C216</f>
+        <f t="shared" si="3"/>
         <v>P04EP01M02</v>
       </c>
       <c r="E216" s="14" t="s">
@@ -22883,7 +22534,7 @@
         <v>62</v>
       </c>
       <c r="D217" s="14" t="str">
-        <f>A217&amp;B217&amp;C217</f>
+        <f t="shared" si="3"/>
         <v>P04EP01M04</v>
       </c>
       <c r="E217" s="14" t="s">
@@ -22922,7 +22573,7 @@
         <v>69</v>
       </c>
       <c r="D218" s="14" t="str">
-        <f>A218&amp;B218&amp;C218</f>
+        <f t="shared" si="3"/>
         <v>P04EP01M05</v>
       </c>
       <c r="E218" s="14" t="s">
@@ -22959,7 +22610,7 @@
         <v>62</v>
       </c>
       <c r="D219" s="14" t="str">
-        <f>A219&amp;B219&amp;C219</f>
+        <f t="shared" si="3"/>
         <v>P04EP01M04</v>
       </c>
       <c r="E219" s="14" t="s">
@@ -22996,7 +22647,7 @@
         <v>69</v>
       </c>
       <c r="D220" s="14" t="str">
-        <f>A220&amp;B220&amp;C220</f>
+        <f t="shared" si="3"/>
         <v>P04DW01M05</v>
       </c>
       <c r="E220" s="14" t="s">
@@ -23031,7 +22682,7 @@
         <v>69</v>
       </c>
       <c r="D221" s="14" t="str">
-        <f>A221&amp;B221&amp;C221</f>
+        <f t="shared" si="3"/>
         <v>P05EP01M05</v>
       </c>
       <c r="E221" s="14" t="s">
@@ -23066,7 +22717,7 @@
         <v>61</v>
       </c>
       <c r="D222" s="14" t="str">
-        <f>A222&amp;B222&amp;C222</f>
+        <f t="shared" si="3"/>
         <v>P05DW01M03</v>
       </c>
       <c r="E222" s="14" t="s">
@@ -23101,7 +22752,7 @@
         <v>61</v>
       </c>
       <c r="D223" s="14" t="str">
-        <f>A223&amp;B223&amp;C223</f>
+        <f t="shared" si="3"/>
         <v>P06EP02M03</v>
       </c>
       <c r="E223" s="14" t="s">
@@ -23136,7 +22787,7 @@
         <v>62</v>
       </c>
       <c r="D224" s="14" t="str">
-        <f>A224&amp;B224&amp;C224</f>
+        <f t="shared" si="3"/>
         <v>P06EP02M04</v>
       </c>
       <c r="E224" s="14" t="s">
@@ -23171,7 +22822,7 @@
         <v>62</v>
       </c>
       <c r="D225" s="14" t="str">
-        <f>A225&amp;B225&amp;C225</f>
+        <f t="shared" si="3"/>
         <v>P06EP02M04</v>
       </c>
       <c r="E225" s="14" t="s">
@@ -23206,7 +22857,7 @@
         <v>62</v>
       </c>
       <c r="D226" s="14" t="str">
-        <f>A226&amp;B226&amp;C226</f>
+        <f t="shared" si="3"/>
         <v>P06EP02M04</v>
       </c>
       <c r="E226" s="14" t="s">
@@ -23241,7 +22892,7 @@
         <v>62</v>
       </c>
       <c r="D227" s="14" t="str">
-        <f>A227&amp;B227&amp;C227</f>
+        <f t="shared" si="3"/>
         <v>P06DW01M04</v>
       </c>
       <c r="E227" s="14" t="s">
@@ -23276,7 +22927,7 @@
         <v>69</v>
       </c>
       <c r="D228" s="14" t="str">
-        <f>A228&amp;B228&amp;C228</f>
+        <f t="shared" si="3"/>
         <v>P06DW01M05</v>
       </c>
       <c r="E228" s="14" t="s">
@@ -23311,7 +22962,7 @@
         <v>69</v>
       </c>
       <c r="D229" s="14" t="str">
-        <f>A229&amp;B229&amp;C229</f>
+        <f t="shared" si="3"/>
         <v>P06SL01M05</v>
       </c>
       <c r="E229" s="14" t="s">
@@ -23346,7 +22997,7 @@
         <v>76</v>
       </c>
       <c r="D230" s="14" t="str">
-        <f>A230&amp;B230&amp;C230</f>
+        <f t="shared" si="3"/>
         <v>P06SL01M08</v>
       </c>
       <c r="E230" s="14" t="s">
@@ -23381,7 +23032,7 @@
         <v>60</v>
       </c>
       <c r="D231" s="14" t="str">
-        <f>A231&amp;B231&amp;C231</f>
+        <f t="shared" si="3"/>
         <v>P17EP01M02</v>
       </c>
       <c r="E231" s="14" t="s">
@@ -23416,7 +23067,7 @@
         <v>61</v>
       </c>
       <c r="D232" s="14" t="str">
-        <f>A232&amp;B232&amp;C232</f>
+        <f t="shared" si="3"/>
         <v>P17EP01M03</v>
       </c>
       <c r="E232" s="14" t="s">
@@ -23451,7 +23102,7 @@
         <v>60</v>
       </c>
       <c r="D233" s="14" t="str">
-        <f>A233&amp;B233&amp;C233</f>
+        <f t="shared" si="3"/>
         <v>P17EP02M02</v>
       </c>
       <c r="E233" s="14" t="s">
@@ -23486,7 +23137,7 @@
         <v>61</v>
       </c>
       <c r="D234" s="14" t="str">
-        <f>A234&amp;B234&amp;C234</f>
+        <f t="shared" si="3"/>
         <v>P17EP02M03</v>
       </c>
       <c r="E234" s="14" t="s">
@@ -23521,7 +23172,7 @@
         <v>62</v>
       </c>
       <c r="D235" s="14" t="str">
-        <f>A235&amp;B235&amp;C235</f>
+        <f t="shared" si="3"/>
         <v>P17EP02M04</v>
       </c>
       <c r="E235" s="14" t="s">
@@ -23556,7 +23207,7 @@
         <v>60</v>
       </c>
       <c r="D236" s="14" t="str">
-        <f>A236&amp;B236&amp;C236</f>
+        <f t="shared" si="3"/>
         <v>P17EP03M02</v>
       </c>
       <c r="E236" s="14" t="s">
@@ -23591,7 +23242,7 @@
         <v>61</v>
       </c>
       <c r="D237" s="14" t="str">
-        <f>A237&amp;B237&amp;C237</f>
+        <f t="shared" si="3"/>
         <v>P17EP01M03</v>
       </c>
       <c r="E237" s="14" t="s">
@@ -23630,7 +23281,7 @@
         <v>61</v>
       </c>
       <c r="D238" s="14" t="str">
-        <f>A238&amp;B238&amp;C238</f>
+        <f t="shared" si="3"/>
         <v>P17EP01M03</v>
       </c>
       <c r="E238" s="14" t="s">
@@ -23669,7 +23320,7 @@
         <v>62</v>
       </c>
       <c r="D239" s="14" t="str">
-        <f>A239&amp;B239&amp;C239</f>
+        <f t="shared" si="3"/>
         <v>P17DW01M04</v>
       </c>
       <c r="E239" s="14" t="s">
@@ -23704,7 +23355,7 @@
         <v>58</v>
       </c>
       <c r="D240" s="14" t="str">
-        <f>A240&amp;B240&amp;C240</f>
+        <f t="shared" si="3"/>
         <v>P17SL01M01</v>
       </c>
       <c r="E240" s="14" t="s">
@@ -23739,7 +23390,7 @@
         <v>60</v>
       </c>
       <c r="D241" s="14" t="str">
-        <f>A241&amp;B241&amp;C241</f>
+        <f t="shared" si="3"/>
         <v>P17SL01M02</v>
       </c>
       <c r="E241" s="14" t="s">
@@ -23774,7 +23425,7 @@
         <v>61</v>
       </c>
       <c r="D242" s="14" t="str">
-        <f>A242&amp;B242&amp;C242</f>
+        <f t="shared" si="3"/>
         <v>P17SL01M03</v>
       </c>
       <c r="E242" s="14" t="s">
@@ -23809,7 +23460,7 @@
         <v>60</v>
       </c>
       <c r="D243" s="14" t="str">
-        <f>A243&amp;B243&amp;C243</f>
+        <f t="shared" si="3"/>
         <v>P18DW01M02</v>
       </c>
       <c r="E243" s="14" t="s">
@@ -23844,7 +23495,7 @@
         <v>61</v>
       </c>
       <c r="D244" s="14" t="str">
-        <f>A244&amp;B244&amp;C244</f>
+        <f t="shared" si="3"/>
         <v>P18DW01M03</v>
       </c>
       <c r="E244" s="14" t="s">
@@ -23879,7 +23530,7 @@
         <v>58</v>
       </c>
       <c r="D245" s="14" t="str">
-        <f>A245&amp;B245&amp;C245</f>
+        <f t="shared" si="3"/>
         <v>P18EP01M01</v>
       </c>
       <c r="E245" s="14" t="s">
@@ -23912,7 +23563,7 @@
         <v>60</v>
       </c>
       <c r="D246" s="14" t="str">
-        <f>A246&amp;B246&amp;C246</f>
+        <f t="shared" si="3"/>
         <v>P18EP01M02</v>
       </c>
       <c r="E246" s="14" t="s">
@@ -23945,7 +23596,7 @@
         <v>60</v>
       </c>
       <c r="D247" s="14" t="str">
-        <f>A247&amp;B247&amp;C247</f>
+        <f t="shared" si="3"/>
         <v>P19DW01M02</v>
       </c>
       <c r="E247" s="14" t="s">
@@ -23980,7 +23631,7 @@
         <v>61</v>
       </c>
       <c r="D248" s="14" t="str">
-        <f>A248&amp;B248&amp;C248</f>
+        <f t="shared" si="3"/>
         <v>P19DW01M03</v>
       </c>
       <c r="E248" s="14" t="s">
@@ -24015,7 +23666,7 @@
         <v>62</v>
       </c>
       <c r="D249" s="14" t="str">
-        <f>A249&amp;B249&amp;C249</f>
+        <f t="shared" si="3"/>
         <v>P19DW01M04</v>
       </c>
       <c r="E249" s="14" t="s">
@@ -24050,7 +23701,7 @@
         <v>69</v>
       </c>
       <c r="D250" s="14" t="str">
-        <f>A250&amp;B250&amp;C250</f>
+        <f t="shared" si="3"/>
         <v>P19DW01M05</v>
       </c>
       <c r="E250" s="14" t="s">
@@ -24085,7 +23736,7 @@
         <v>69</v>
       </c>
       <c r="D251" s="14" t="str">
-        <f>A251&amp;B251&amp;C251</f>
+        <f t="shared" si="3"/>
         <v>P19SL01M05</v>
       </c>
       <c r="E251" s="14" t="s">
@@ -24120,7 +23771,7 @@
         <v>71</v>
       </c>
       <c r="D252" s="14" t="str">
-        <f>A252&amp;B252&amp;C252</f>
+        <f t="shared" si="3"/>
         <v>P19SL01M07</v>
       </c>
       <c r="E252" s="14" t="s">
@@ -24155,7 +23806,7 @@
         <v>76</v>
       </c>
       <c r="D253" s="14" t="str">
-        <f>A253&amp;B253&amp;C253</f>
+        <f t="shared" si="3"/>
         <v>P19SL01M08</v>
       </c>
       <c r="E253" s="14" t="s">
@@ -24190,7 +23841,7 @@
         <v>62</v>
       </c>
       <c r="D254" s="14" t="str">
-        <f>A254&amp;B254&amp;C254</f>
+        <f t="shared" si="3"/>
         <v>P20SL01M04</v>
       </c>
       <c r="E254" s="14" t="s">
@@ -24225,7 +23876,7 @@
         <v>69</v>
       </c>
       <c r="D255" s="14" t="str">
-        <f>A255&amp;B255&amp;C255</f>
+        <f t="shared" si="3"/>
         <v>P20SL01M05</v>
       </c>
       <c r="E255" s="14" t="s">
@@ -24260,7 +23911,7 @@
         <v>70</v>
       </c>
       <c r="D256" s="14" t="str">
-        <f>A256&amp;B256&amp;C256</f>
+        <f t="shared" si="3"/>
         <v>P20SL01M06</v>
       </c>
       <c r="E256" s="14" t="s">
@@ -24295,7 +23946,7 @@
         <v>70</v>
       </c>
       <c r="D257" s="14" t="str">
-        <f>A257&amp;B257&amp;C257</f>
+        <f t="shared" si="3"/>
         <v>P20SL01M06</v>
       </c>
       <c r="E257" s="14" t="s">
@@ -24330,7 +23981,7 @@
         <v>58</v>
       </c>
       <c r="D258" s="14" t="str">
-        <f>A258&amp;B258&amp;C258</f>
+        <f t="shared" ref="D258:D321" si="4">A258&amp;B258&amp;C258</f>
         <v>P21DW01M01</v>
       </c>
       <c r="E258" s="14" t="s">
@@ -24365,7 +24016,7 @@
         <v>60</v>
       </c>
       <c r="D259" s="14" t="str">
-        <f>A259&amp;B259&amp;C259</f>
+        <f t="shared" si="4"/>
         <v>P21DW01M02</v>
       </c>
       <c r="E259" s="14" t="s">
@@ -24400,7 +24051,7 @@
         <v>61</v>
       </c>
       <c r="D260" s="14" t="str">
-        <f>A260&amp;B260&amp;C260</f>
+        <f t="shared" si="4"/>
         <v>P21DW01M03</v>
       </c>
       <c r="E260" s="14" t="s">
@@ -24435,7 +24086,7 @@
         <v>69</v>
       </c>
       <c r="D261" s="14" t="str">
-        <f>A261&amp;B261&amp;C261</f>
+        <f t="shared" si="4"/>
         <v>P21DW01M05</v>
       </c>
       <c r="E261" s="14" t="s">
@@ -24470,7 +24121,7 @@
         <v>60</v>
       </c>
       <c r="D262" s="14" t="str">
-        <f>A262&amp;B262&amp;C262</f>
+        <f t="shared" si="4"/>
         <v>P22EP02M02</v>
       </c>
       <c r="E262" s="14" t="s">
@@ -24505,7 +24156,7 @@
         <v>61</v>
       </c>
       <c r="D263" s="14" t="str">
-        <f>A263&amp;B263&amp;C263</f>
+        <f t="shared" si="4"/>
         <v>P22EP02M03</v>
       </c>
       <c r="E263" s="14" t="s">
@@ -24540,7 +24191,7 @@
         <v>141</v>
       </c>
       <c r="D264" s="14" t="str">
-        <f>A264&amp;B264&amp;C264</f>
+        <f t="shared" si="4"/>
         <v>P22EP01M0?</v>
       </c>
       <c r="E264" s="14" t="s">
@@ -24575,7 +24226,7 @@
         <v>60</v>
       </c>
       <c r="D265" s="14" t="str">
-        <f>A265&amp;B265&amp;C265</f>
+        <f t="shared" si="4"/>
         <v>P22EP01M02</v>
       </c>
       <c r="E265" s="14" t="s">
@@ -24610,7 +24261,7 @@
         <v>69</v>
       </c>
       <c r="D266" s="14" t="str">
-        <f>A266&amp;B266&amp;C266</f>
+        <f t="shared" si="4"/>
         <v>P22EP01M05</v>
       </c>
       <c r="E266" s="14" t="s">
@@ -24645,7 +24296,7 @@
         <v>62</v>
       </c>
       <c r="D267" s="14" t="str">
-        <f>A267&amp;B267&amp;C267</f>
+        <f t="shared" si="4"/>
         <v>P22SL01M04</v>
       </c>
       <c r="E267" s="14" t="s">
@@ -24680,7 +24331,7 @@
         <v>61</v>
       </c>
       <c r="D268" s="14" t="str">
-        <f>A268&amp;B268&amp;C268</f>
+        <f t="shared" si="4"/>
         <v>P23EP01M03</v>
       </c>
       <c r="E268" s="14" t="s">
@@ -24715,7 +24366,7 @@
         <v>61</v>
       </c>
       <c r="D269" s="14" t="str">
-        <f>A269&amp;B269&amp;C269</f>
+        <f t="shared" si="4"/>
         <v>P23EP01M03</v>
       </c>
       <c r="E269" s="14" t="s">
@@ -24750,7 +24401,7 @@
         <v>62</v>
       </c>
       <c r="D270" s="14" t="str">
-        <f>A270&amp;B270&amp;C270</f>
+        <f t="shared" si="4"/>
         <v>P23EP01M04</v>
       </c>
       <c r="E270" s="14" t="s">
@@ -24785,7 +24436,7 @@
         <v>61</v>
       </c>
       <c r="D271" s="14" t="str">
-        <f>A271&amp;B271&amp;C271</f>
+        <f t="shared" si="4"/>
         <v>P23SL01M03</v>
       </c>
       <c r="E271" s="14" t="s">
@@ -24820,7 +24471,7 @@
         <v>60</v>
       </c>
       <c r="D272" s="14" t="str">
-        <f>A272&amp;B272&amp;C272</f>
+        <f t="shared" si="4"/>
         <v>P24EP01M02</v>
       </c>
       <c r="E272" s="14" t="s">
@@ -24855,7 +24506,7 @@
         <v>61</v>
       </c>
       <c r="D273" s="14" t="str">
-        <f>A273&amp;B273&amp;C273</f>
+        <f t="shared" si="4"/>
         <v>P24EP01M03</v>
       </c>
       <c r="E273" s="14" t="s">
@@ -24890,7 +24541,7 @@
         <v>62</v>
       </c>
       <c r="D274" s="14" t="str">
-        <f>A274&amp;B274&amp;C274</f>
+        <f t="shared" si="4"/>
         <v>P24EP01M04</v>
       </c>
       <c r="E274" s="14" t="s">
@@ -24925,7 +24576,7 @@
         <v>58</v>
       </c>
       <c r="D275" s="14" t="str">
-        <f>A275&amp;B275&amp;C275</f>
+        <f t="shared" si="4"/>
         <v>P24DW01M01</v>
       </c>
       <c r="E275" s="14" t="s">
@@ -24960,7 +24611,7 @@
         <v>60</v>
       </c>
       <c r="D276" s="14" t="str">
-        <f>A276&amp;B276&amp;C276</f>
+        <f t="shared" si="4"/>
         <v>P24SL01M02</v>
       </c>
       <c r="E276" s="14" t="s">
@@ -24995,7 +24646,7 @@
         <v>61</v>
       </c>
       <c r="D277" s="14" t="str">
-        <f>A277&amp;B277&amp;C277</f>
+        <f t="shared" si="4"/>
         <v>P24SL01M03</v>
       </c>
       <c r="E277" s="14" t="s">
@@ -25030,7 +24681,7 @@
         <v>60</v>
       </c>
       <c r="D278" s="14" t="str">
-        <f>A278&amp;B278&amp;C278</f>
+        <f t="shared" si="4"/>
         <v>P25EP02M02</v>
       </c>
       <c r="E278" s="14" t="s">
@@ -25065,7 +24716,7 @@
         <v>62</v>
       </c>
       <c r="D279" s="14" t="str">
-        <f>A279&amp;B279&amp;C279</f>
+        <f t="shared" si="4"/>
         <v>P25EP03M04</v>
       </c>
       <c r="E279" s="14" t="s">
@@ -25100,7 +24751,7 @@
         <v>70</v>
       </c>
       <c r="D280" s="14" t="str">
-        <f>A280&amp;B280&amp;C280</f>
+        <f t="shared" si="4"/>
         <v>P25SL01M06</v>
       </c>
       <c r="E280" s="14" t="s">
@@ -25135,7 +24786,7 @@
         <v>71</v>
       </c>
       <c r="D281" s="14" t="str">
-        <f>A281&amp;B281&amp;C281</f>
+        <f t="shared" si="4"/>
         <v>P25SL01M07</v>
       </c>
       <c r="E281" s="14" t="s">
@@ -25170,7 +24821,7 @@
         <v>60</v>
       </c>
       <c r="D282" s="14" t="str">
-        <f>A282&amp;B282&amp;C282</f>
+        <f t="shared" si="4"/>
         <v>P27EP01M02</v>
       </c>
       <c r="E282" s="14" t="s">
@@ -25205,7 +24856,7 @@
         <v>60</v>
       </c>
       <c r="D283" s="14" t="str">
-        <f>A283&amp;B283&amp;C283</f>
+        <f t="shared" si="4"/>
         <v>P27DW01M02</v>
       </c>
       <c r="E283" s="14" t="s">
@@ -25240,7 +24891,7 @@
         <v>71</v>
       </c>
       <c r="D284" s="14" t="str">
-        <f>A284&amp;B284&amp;C284</f>
+        <f t="shared" si="4"/>
         <v>P27SL01M07</v>
       </c>
       <c r="E284" s="14" t="s">
@@ -25275,7 +24926,7 @@
         <v>58</v>
       </c>
       <c r="D285" s="14" t="str">
-        <f>A285&amp;B285&amp;C285</f>
+        <f t="shared" si="4"/>
         <v>P28SL01M01</v>
       </c>
       <c r="E285" s="14" t="s">
@@ -25310,7 +24961,7 @@
         <v>60</v>
       </c>
       <c r="D286" s="14" t="str">
-        <f>A286&amp;B286&amp;C286</f>
+        <f t="shared" si="4"/>
         <v>P28SL01M02</v>
       </c>
       <c r="E286" s="14" t="s">
@@ -25345,7 +24996,7 @@
         <v>61</v>
       </c>
       <c r="D287" s="14" t="str">
-        <f>A287&amp;B287&amp;C287</f>
+        <f t="shared" si="4"/>
         <v>P28SL01M03</v>
       </c>
       <c r="E287" s="14" t="s">
@@ -25380,7 +25031,7 @@
         <v>71</v>
       </c>
       <c r="D288" s="14" t="str">
-        <f>A288&amp;B288&amp;C288</f>
+        <f t="shared" si="4"/>
         <v>P02RK01M07</v>
       </c>
       <c r="E288" s="14" t="s">
@@ -25411,7 +25062,7 @@
         <v>70</v>
       </c>
       <c r="D289" s="14" t="str">
-        <f>A289&amp;B289&amp;C289</f>
+        <f t="shared" si="4"/>
         <v>P02EP02M06</v>
       </c>
       <c r="E289" s="14" t="s">
@@ -25440,7 +25091,7 @@
         <v>135</v>
       </c>
       <c r="D290" s="14" t="str">
-        <f>A290&amp;B290&amp;C290</f>
+        <f t="shared" si="4"/>
         <v>P02EP02M0X</v>
       </c>
       <c r="E290" s="14" t="s">
@@ -25469,7 +25120,7 @@
         <v>70</v>
       </c>
       <c r="D291" s="15" t="str">
-        <f>A291&amp;B291&amp;C291</f>
+        <f t="shared" si="4"/>
         <v>P03EP02M06</v>
       </c>
       <c r="E291" s="15" t="s">
@@ -25498,7 +25149,7 @@
         <v>70</v>
       </c>
       <c r="D292" s="15" t="str">
-        <f>A292&amp;B292&amp;C292</f>
+        <f t="shared" si="4"/>
         <v>P03EP01M06</v>
       </c>
       <c r="E292" s="15" t="s">
@@ -25738,7 +25389,7 @@
         <v>60</v>
       </c>
       <c r="D2" s="10" t="str">
-        <f>A2&amp;B2&amp;C2</f>
+        <f t="shared" ref="D2:D33" si="0">A2&amp;B2&amp;C2</f>
         <v>P17DW01M02</v>
       </c>
       <c r="E2" s="1">
@@ -25762,7 +25413,7 @@
         <v>60</v>
       </c>
       <c r="D3" s="10" t="str">
-        <f>A3&amp;B3&amp;C3</f>
+        <f t="shared" si="0"/>
         <v>P25DW01M02</v>
       </c>
       <c r="E3" s="1">
@@ -25786,7 +25437,7 @@
         <v>61</v>
       </c>
       <c r="D4" s="10" t="str">
-        <f>A4&amp;B4&amp;C4</f>
+        <f t="shared" si="0"/>
         <v>P25DW01M03</v>
       </c>
       <c r="E4" s="1">
@@ -25810,7 +25461,7 @@
         <v>61</v>
       </c>
       <c r="D5" s="10" t="str">
-        <f>A5&amp;B5&amp;C5</f>
+        <f t="shared" si="0"/>
         <v>P29DW01M03</v>
       </c>
       <c r="E5" s="4">
@@ -25835,7 +25486,7 @@
         <v>60</v>
       </c>
       <c r="D6" s="10" t="str">
-        <f>A6&amp;B6&amp;C6</f>
+        <f t="shared" si="0"/>
         <v>P03DW01M02</v>
       </c>
       <c r="E6" s="1">
@@ -25859,7 +25510,7 @@
         <v>60</v>
       </c>
       <c r="D7" s="10" t="str">
-        <f>A7&amp;B7&amp;C7</f>
+        <f t="shared" si="0"/>
         <v>P04DW01M02</v>
       </c>
       <c r="E7" s="1">
@@ -25883,7 +25534,7 @@
         <v>60</v>
       </c>
       <c r="D8" s="10" t="str">
-        <f>A8&amp;B8&amp;C8</f>
+        <f t="shared" si="0"/>
         <v>P22DW01M02</v>
       </c>
       <c r="E8" s="1">
@@ -25907,7 +25558,7 @@
         <v>58</v>
       </c>
       <c r="D9" s="10" t="str">
-        <f>A9&amp;B9&amp;C9</f>
+        <f t="shared" si="0"/>
         <v>P23DW01M01</v>
       </c>
       <c r="E9" s="1">
@@ -25931,7 +25582,7 @@
         <v>60</v>
       </c>
       <c r="D10" s="10" t="str">
-        <f>A10&amp;B10&amp;C10</f>
+        <f t="shared" si="0"/>
         <v>P26DW01M02</v>
       </c>
       <c r="E10" s="4">
@@ -25956,7 +25607,7 @@
         <v>58</v>
       </c>
       <c r="D11" s="10" t="str">
-        <f>A11&amp;B11&amp;C11</f>
+        <f t="shared" si="0"/>
         <v>P29DW01M01</v>
       </c>
       <c r="E11" s="4">
@@ -25981,7 +25632,7 @@
         <v>62</v>
       </c>
       <c r="D12" s="10" t="str">
-        <f>A12&amp;B12&amp;C12</f>
+        <f t="shared" si="0"/>
         <v>P02DW01M04</v>
       </c>
       <c r="E12" s="1">
@@ -26005,7 +25656,7 @@
         <v>61</v>
       </c>
       <c r="D13" s="10" t="str">
-        <f>A13&amp;B13&amp;C13</f>
+        <f t="shared" si="0"/>
         <v>P03DW01M03</v>
       </c>
       <c r="E13" s="1">
@@ -26029,7 +25680,7 @@
         <v>62</v>
       </c>
       <c r="D14" s="10" t="str">
-        <f>A14&amp;B14&amp;C14</f>
+        <f t="shared" si="0"/>
         <v>P03DW01M04</v>
       </c>
       <c r="E14" s="1">
@@ -26053,7 +25704,7 @@
         <v>60</v>
       </c>
       <c r="D15" s="10" t="str">
-        <f>A15&amp;B15&amp;C15</f>
+        <f t="shared" si="0"/>
         <v>P23DW01M02</v>
       </c>
       <c r="E15" s="1">
@@ -26077,7 +25728,7 @@
         <v>60</v>
       </c>
       <c r="D16" s="10" t="str">
-        <f>A16&amp;B16&amp;C16</f>
+        <f t="shared" si="0"/>
         <v>P24DW01M02</v>
       </c>
       <c r="E16" s="1">
@@ -26101,7 +25752,7 @@
         <v>61</v>
       </c>
       <c r="D17" s="10" t="str">
-        <f>A17&amp;B17&amp;C17</f>
+        <f t="shared" si="0"/>
         <v>P24DW01M03</v>
       </c>
       <c r="E17" s="1">
@@ -26125,7 +25776,7 @@
         <v>58</v>
       </c>
       <c r="D18" s="10" t="str">
-        <f>A18&amp;B18&amp;C18</f>
+        <f t="shared" si="0"/>
         <v>P26DW01M01</v>
       </c>
       <c r="E18" s="4">
@@ -26150,7 +25801,7 @@
         <v>58</v>
       </c>
       <c r="D19" s="10" t="str">
-        <f>A19&amp;B19&amp;C19</f>
+        <f t="shared" si="0"/>
         <v>P05DW01M01</v>
       </c>
       <c r="E19" s="1">
@@ -26174,7 +25825,7 @@
         <v>60</v>
       </c>
       <c r="D20" s="10" t="str">
-        <f>A20&amp;B20&amp;C20</f>
+        <f t="shared" si="0"/>
         <v>P05DW01M02</v>
       </c>
       <c r="E20" s="1">
@@ -26198,7 +25849,7 @@
         <v>58</v>
       </c>
       <c r="D21" s="10" t="str">
-        <f>A21&amp;B21&amp;C21</f>
+        <f t="shared" si="0"/>
         <v>P06DW01M01</v>
       </c>
       <c r="E21" s="1">
@@ -26222,7 +25873,7 @@
         <v>60</v>
       </c>
       <c r="D22" s="10" t="str">
-        <f>A22&amp;B22&amp;C22</f>
+        <f t="shared" si="0"/>
         <v>P06DW01M02</v>
       </c>
       <c r="E22" s="1">
@@ -26246,7 +25897,7 @@
         <v>58</v>
       </c>
       <c r="D23" s="10" t="str">
-        <f>A23&amp;B23&amp;C23</f>
+        <f t="shared" si="0"/>
         <v>P17DW01M01</v>
       </c>
       <c r="E23" s="1">
@@ -26270,7 +25921,7 @@
         <v>62</v>
       </c>
       <c r="D24" s="10" t="str">
-        <f>A24&amp;B24&amp;C24</f>
+        <f t="shared" si="0"/>
         <v>P21DW01M04</v>
       </c>
       <c r="E24" s="1">
@@ -26294,7 +25945,7 @@
         <v>58</v>
       </c>
       <c r="D25" s="10" t="str">
-        <f>A25&amp;B25&amp;C25</f>
+        <f t="shared" si="0"/>
         <v>P22DW01M01</v>
       </c>
       <c r="E25" s="1">
@@ -26318,7 +25969,7 @@
         <v>58</v>
       </c>
       <c r="D26" s="10" t="str">
-        <f>A26&amp;B26&amp;C26</f>
+        <f t="shared" si="0"/>
         <v>P25DW01M01</v>
       </c>
       <c r="E26" s="1">
@@ -26342,7 +25993,7 @@
         <v>58</v>
       </c>
       <c r="D27" s="10" t="str">
-        <f>A27&amp;B27&amp;C27</f>
+        <f t="shared" si="0"/>
         <v>P27DW01M01</v>
       </c>
       <c r="E27" s="1">
@@ -26366,7 +26017,7 @@
         <v>60</v>
       </c>
       <c r="D28" s="10" t="str">
-        <f>A28&amp;B28&amp;C28</f>
+        <f t="shared" si="0"/>
         <v>P29DW01M02</v>
       </c>
       <c r="E28" s="4">
@@ -26391,7 +26042,7 @@
         <v>58</v>
       </c>
       <c r="D29" s="10" t="str">
-        <f>A29&amp;B29&amp;C29</f>
+        <f t="shared" si="0"/>
         <v>P02DW01M01</v>
       </c>
       <c r="E29" s="1">
@@ -26415,7 +26066,7 @@
         <v>58</v>
       </c>
       <c r="D30" s="10" t="str">
-        <f>A30&amp;B30&amp;C30</f>
+        <f t="shared" si="0"/>
         <v>P04DW01M01</v>
       </c>
       <c r="E30" s="1">
@@ -26439,7 +26090,7 @@
         <v>58</v>
       </c>
       <c r="D31" s="10" t="str">
-        <f>A31&amp;B31&amp;C31</f>
+        <f t="shared" si="0"/>
         <v>P18DW01M01</v>
       </c>
       <c r="E31" s="1">
@@ -26463,7 +26114,7 @@
         <v>58</v>
       </c>
       <c r="D32" s="10" t="str">
-        <f>A32&amp;B32&amp;C32</f>
+        <f t="shared" si="0"/>
         <v>P19DW01M01</v>
       </c>
       <c r="E32" s="1">
@@ -26487,7 +26138,7 @@
         <v>58</v>
       </c>
       <c r="D33" s="10" t="str">
-        <f>A33&amp;B33&amp;C33</f>
+        <f t="shared" si="0"/>
         <v>P20DW01M01</v>
       </c>
       <c r="E33" s="1">
@@ -26511,7 +26162,7 @@
         <v>60</v>
       </c>
       <c r="D34" s="10" t="str">
-        <f>A34&amp;B34&amp;C34</f>
+        <f t="shared" ref="D34:D65" si="1">A34&amp;B34&amp;C34</f>
         <v>P28DW01M02</v>
       </c>
       <c r="E34" s="4">
@@ -26535,7 +26186,7 @@
         <v>60</v>
       </c>
       <c r="D35" s="10" t="str">
-        <f>A35&amp;B35&amp;C35</f>
+        <f t="shared" si="1"/>
         <v>P02DW01M02</v>
       </c>
       <c r="E35" s="1" t="s">
@@ -26559,7 +26210,7 @@
         <v>69</v>
       </c>
       <c r="D36" s="10" t="str">
-        <f>A36&amp;B36&amp;C36</f>
+        <f t="shared" si="1"/>
         <v>P02DW01M05</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -26583,7 +26234,7 @@
         <v>61</v>
       </c>
       <c r="D37" s="10" t="str">
-        <f>A37&amp;B37&amp;C37</f>
+        <f t="shared" si="1"/>
         <v>P04DW01M03</v>
       </c>
       <c r="E37" s="1" t="s">
@@ -26608,7 +26259,7 @@
         <v>62</v>
       </c>
       <c r="D38" s="10" t="str">
-        <f>A38&amp;B38&amp;C38</f>
+        <f t="shared" si="1"/>
         <v>P04DW01M04</v>
       </c>
       <c r="E38" s="1" t="s">
@@ -26632,7 +26283,7 @@
         <v>61</v>
       </c>
       <c r="D39" s="10" t="str">
-        <f>A39&amp;B39&amp;C39</f>
+        <f t="shared" si="1"/>
         <v>P06DW01M03</v>
       </c>
       <c r="E39" s="1" t="s">
@@ -26656,7 +26307,7 @@
         <v>61</v>
       </c>
       <c r="D40" s="10" t="str">
-        <f>A40&amp;B40&amp;C40</f>
+        <f t="shared" si="1"/>
         <v>P17DW01M03</v>
       </c>
       <c r="E40" s="1" t="s">
@@ -26680,7 +26331,7 @@
         <v>147</v>
       </c>
       <c r="D41" s="10" t="str">
-        <f>A41&amp;B41&amp;C41</f>
+        <f t="shared" si="1"/>
         <v>P20DW01M?</v>
       </c>
       <c r="E41" s="1" t="s">
@@ -26704,7 +26355,7 @@
         <v>60</v>
       </c>
       <c r="D42" s="10" t="str">
-        <f>A42&amp;B42&amp;C42</f>
+        <f t="shared" si="1"/>
         <v>P20DW01M02</v>
       </c>
       <c r="E42" s="1" t="s">
@@ -26728,7 +26379,7 @@
         <v>61</v>
       </c>
       <c r="D43" s="10" t="str">
-        <f>A43&amp;B43&amp;C43</f>
+        <f t="shared" si="1"/>
         <v>P20DW01M03</v>
       </c>
       <c r="E43" s="1" t="s">
@@ -26752,7 +26403,7 @@
         <v>62</v>
       </c>
       <c r="D44" s="10" t="str">
-        <f>A44&amp;B44&amp;C44</f>
+        <f t="shared" si="1"/>
         <v>P20DW01M04</v>
       </c>
       <c r="E44" s="1" t="s">
@@ -26776,7 +26427,7 @@
         <v>70</v>
       </c>
       <c r="D45" s="10" t="str">
-        <f>A45&amp;B45&amp;C45</f>
+        <f t="shared" si="1"/>
         <v>P21DW01M06</v>
       </c>
       <c r="E45" s="1" t="s">
@@ -26801,7 +26452,7 @@
         <v>62</v>
       </c>
       <c r="D46" s="10" t="str">
-        <f>A46&amp;B46&amp;C46</f>
+        <f t="shared" si="1"/>
         <v>P25DW01M04</v>
       </c>
       <c r="E46" s="1" t="s">
@@ -26825,7 +26476,7 @@
         <v>69</v>
       </c>
       <c r="D47" s="10" t="str">
-        <f>A47&amp;B47&amp;C47</f>
+        <f t="shared" si="1"/>
         <v>P25DW01M05</v>
       </c>
       <c r="E47" s="4" t="s">
@@ -26850,7 +26501,7 @@
         <v>58</v>
       </c>
       <c r="D48" s="10" t="str">
-        <f>A48&amp;B48&amp;C48</f>
+        <f t="shared" si="1"/>
         <v>P28DW01M01</v>
       </c>
       <c r="E48" s="4" t="s">
@@ -26875,7 +26526,7 @@
         <v>62</v>
       </c>
       <c r="D49" s="11" t="str">
-        <f>A49&amp;B49&amp;C49</f>
+        <f t="shared" si="1"/>
         <v>P18DW01M04</v>
       </c>
       <c r="E49" s="4" t="s">
@@ -26900,7 +26551,7 @@
         <v>69</v>
       </c>
       <c r="D50" s="11" t="str">
-        <f>A50&amp;B50&amp;C50</f>
+        <f t="shared" si="1"/>
         <v>P20DW01M05</v>
       </c>
       <c r="E50" s="4" t="s">
@@ -26925,7 +26576,7 @@
         <v>62</v>
       </c>
       <c r="D51" s="10" t="str">
-        <f>A51&amp;B51&amp;C51</f>
+        <f t="shared" si="1"/>
         <v>P29DW01M04</v>
       </c>
       <c r="E51" s="4" t="s">
@@ -26949,7 +26600,7 @@
         <v>61</v>
       </c>
       <c r="D52" s="10" t="str">
-        <f>A52&amp;B52&amp;C52</f>
+        <f t="shared" si="1"/>
         <v>P02DW01M03</v>
       </c>
       <c r="E52" s="1" t="s">
@@ -26973,7 +26624,7 @@
         <v>58</v>
       </c>
       <c r="D53" s="10" t="str">
-        <f>A53&amp;B53&amp;C53</f>
+        <f t="shared" si="1"/>
         <v>P03DW01M01</v>
       </c>
       <c r="E53" s="1" t="s">
@@ -26997,7 +26648,7 @@
         <v>69</v>
       </c>
       <c r="D54" s="11" t="str">
-        <f>A54&amp;B54&amp;C54</f>
+        <f t="shared" si="1"/>
         <v>P03DW01M05</v>
       </c>
       <c r="E54" s="4" t="s">
@@ -27022,7 +26673,7 @@
         <v>70</v>
       </c>
       <c r="D55" s="10" t="str">
-        <f>A55&amp;B55&amp;C55</f>
+        <f t="shared" si="1"/>
         <v>P03DW01M06</v>
       </c>
       <c r="E55" s="1" t="s">
@@ -27046,7 +26697,7 @@
         <v>71</v>
       </c>
       <c r="D56" s="10" t="str">
-        <f>A56&amp;B56&amp;C56</f>
+        <f t="shared" si="1"/>
         <v>P03DW01M07</v>
       </c>
       <c r="E56" s="1" t="s">
@@ -27070,7 +26721,7 @@
         <v>69</v>
       </c>
       <c r="D57" s="10" t="str">
-        <f>A57&amp;B57&amp;C57</f>
+        <f t="shared" si="1"/>
         <v>P04DW01M05</v>
       </c>
       <c r="E57" s="1" t="s">
@@ -27094,7 +26745,7 @@
         <v>61</v>
       </c>
       <c r="D58" s="10" t="str">
-        <f>A58&amp;B58&amp;C58</f>
+        <f t="shared" si="1"/>
         <v>P05DW01M03</v>
       </c>
       <c r="E58" s="1" t="s">
@@ -27118,7 +26769,7 @@
         <v>62</v>
       </c>
       <c r="D59" s="10" t="str">
-        <f>A59&amp;B59&amp;C59</f>
+        <f t="shared" si="1"/>
         <v>P06DW01M04</v>
       </c>
       <c r="E59" s="1" t="s">
@@ -27142,7 +26793,7 @@
         <v>69</v>
       </c>
       <c r="D60" s="10" t="str">
-        <f>A60&amp;B60&amp;C60</f>
+        <f t="shared" si="1"/>
         <v>P06DW01M05</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -27166,7 +26817,7 @@
         <v>62</v>
       </c>
       <c r="D61" s="10" t="str">
-        <f>A61&amp;B61&amp;C61</f>
+        <f t="shared" si="1"/>
         <v>P17DW01M04</v>
       </c>
       <c r="E61" s="1" t="s">
@@ -27190,7 +26841,7 @@
         <v>60</v>
       </c>
       <c r="D62" s="10" t="str">
-        <f>A62&amp;B62&amp;C62</f>
+        <f t="shared" si="1"/>
         <v>P18DW01M02</v>
       </c>
       <c r="E62" s="1" t="s">
@@ -27214,7 +26865,7 @@
         <v>61</v>
       </c>
       <c r="D63" s="10" t="str">
-        <f>A63&amp;B63&amp;C63</f>
+        <f t="shared" si="1"/>
         <v>P18DW01M03</v>
       </c>
       <c r="E63" s="1" t="s">
@@ -27239,7 +26890,7 @@
         <v>60</v>
       </c>
       <c r="D64" s="10" t="str">
-        <f>A64&amp;B64&amp;C64</f>
+        <f t="shared" si="1"/>
         <v>P19DW01M02</v>
       </c>
       <c r="E64" s="1" t="s">
@@ -27264,7 +26915,7 @@
         <v>61</v>
       </c>
       <c r="D65" s="10" t="str">
-        <f>A65&amp;B65&amp;C65</f>
+        <f t="shared" si="1"/>
         <v>P19DW01M03</v>
       </c>
       <c r="E65" s="4" t="s">
@@ -27290,7 +26941,7 @@
         <v>62</v>
       </c>
       <c r="D66" s="10" t="str">
-        <f>A66&amp;B66&amp;C66</f>
+        <f t="shared" ref="D66:D97" si="2">A66&amp;B66&amp;C66</f>
         <v>P19DW01M04</v>
       </c>
       <c r="E66" s="1" t="s">
@@ -27315,7 +26966,7 @@
         <v>69</v>
       </c>
       <c r="D67" s="10" t="str">
-        <f>A67&amp;B67&amp;C67</f>
+        <f t="shared" si="2"/>
         <v>P19DW01M05</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -27339,7 +26990,7 @@
         <v>58</v>
       </c>
       <c r="D68" s="10" t="str">
-        <f>A68&amp;B68&amp;C68</f>
+        <f t="shared" si="2"/>
         <v>P21DW01M01</v>
       </c>
       <c r="E68" s="1" t="s">
@@ -27364,7 +27015,7 @@
         <v>60</v>
       </c>
       <c r="D69" s="10" t="str">
-        <f>A69&amp;B69&amp;C69</f>
+        <f t="shared" si="2"/>
         <v>P21DW01M02</v>
       </c>
       <c r="E69" s="1" t="s">
@@ -27389,7 +27040,7 @@
         <v>61</v>
       </c>
       <c r="D70" s="10" t="str">
-        <f>A70&amp;B70&amp;C70</f>
+        <f t="shared" si="2"/>
         <v>P21DW01M03</v>
       </c>
       <c r="E70" s="1" t="s">
@@ -27414,7 +27065,7 @@
         <v>69</v>
       </c>
       <c r="D71" s="10" t="str">
-        <f>A71&amp;B71&amp;C71</f>
+        <f t="shared" si="2"/>
         <v>P21DW01M05</v>
       </c>
       <c r="E71" s="1" t="s">
@@ -27439,7 +27090,7 @@
         <v>58</v>
       </c>
       <c r="D72" s="10" t="str">
-        <f>A72&amp;B72&amp;C72</f>
+        <f t="shared" si="2"/>
         <v>P24DW01M01</v>
       </c>
       <c r="E72" s="1" t="s">
@@ -27464,7 +27115,7 @@
         <v>60</v>
       </c>
       <c r="D73" s="10" t="str">
-        <f>A73&amp;B73&amp;C73</f>
+        <f t="shared" si="2"/>
         <v>P27DW01M02</v>
       </c>
       <c r="E73" s="1" t="s">
@@ -27633,7 +27284,7 @@
         <v>58</v>
       </c>
       <c r="D2" s="10" t="str">
-        <f>A2&amp;B2&amp;C2</f>
+        <f t="shared" ref="D2:D33" si="0">A2&amp;B2&amp;C2</f>
         <v>P06SL01M01</v>
       </c>
       <c r="E2" s="1">
@@ -27657,7 +27308,7 @@
         <v>58</v>
       </c>
       <c r="D3" s="10" t="str">
-        <f>A3&amp;B3&amp;C3</f>
+        <f t="shared" si="0"/>
         <v>P19SL01M01</v>
       </c>
       <c r="E3" s="1">
@@ -27681,7 +27332,7 @@
         <v>62</v>
       </c>
       <c r="D4" s="10" t="str">
-        <f>A4&amp;B4&amp;C4</f>
+        <f t="shared" si="0"/>
         <v>P19SL01M04</v>
       </c>
       <c r="E4" s="1">
@@ -27705,7 +27356,7 @@
         <v>70</v>
       </c>
       <c r="D5" s="10" t="str">
-        <f>A5&amp;B5&amp;C5</f>
+        <f t="shared" si="0"/>
         <v>P19SL01M06</v>
       </c>
       <c r="E5" s="1">
@@ -27729,7 +27380,7 @@
         <v>58</v>
       </c>
       <c r="D6" s="10" t="str">
-        <f>A6&amp;B6&amp;C6</f>
+        <f t="shared" si="0"/>
         <v>P24SL01M01</v>
       </c>
       <c r="E6" s="1">
@@ -27753,7 +27404,7 @@
         <v>58</v>
       </c>
       <c r="D7" s="10" t="str">
-        <f>A7&amp;B7&amp;C7</f>
+        <f t="shared" si="0"/>
         <v>P25SL01M01</v>
       </c>
       <c r="E7" s="1">
@@ -27777,7 +27428,7 @@
         <v>61</v>
       </c>
       <c r="D8" s="10" t="str">
-        <f>A8&amp;B8&amp;C8</f>
+        <f t="shared" si="0"/>
         <v>P25SL01M03</v>
       </c>
       <c r="E8" s="1">
@@ -27801,7 +27452,7 @@
         <v>76</v>
       </c>
       <c r="D9" s="10" t="str">
-        <f>A9&amp;B9&amp;C9</f>
+        <f t="shared" si="0"/>
         <v>P25SL01M08</v>
       </c>
       <c r="E9" s="1">
@@ -27825,7 +27476,7 @@
         <v>58</v>
       </c>
       <c r="D10" s="10" t="str">
-        <f>A10&amp;B10&amp;C10</f>
+        <f t="shared" si="0"/>
         <v>P26SL01M01</v>
       </c>
       <c r="E10" s="4">
@@ -27850,7 +27501,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="10" t="str">
-        <f>A11&amp;B11&amp;C11</f>
+        <f t="shared" si="0"/>
         <v>P26SL01M02</v>
       </c>
       <c r="E11" s="4">
@@ -27875,7 +27526,7 @@
         <v>61</v>
       </c>
       <c r="D12" s="10" t="str">
-        <f>A12&amp;B12&amp;C12</f>
+        <f t="shared" si="0"/>
         <v>P26SL01M03</v>
       </c>
       <c r="E12" s="4">
@@ -27900,7 +27551,7 @@
         <v>68</v>
       </c>
       <c r="D13" s="10" t="str">
-        <f>A13&amp;B13&amp;C13</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">P27SL01M01 </v>
       </c>
       <c r="E13" s="1">
@@ -27924,7 +27575,7 @@
         <v>62</v>
       </c>
       <c r="D14" s="10" t="str">
-        <f>A14&amp;B14&amp;C14</f>
+        <f t="shared" si="0"/>
         <v>P27SL01M04</v>
       </c>
       <c r="E14" s="1">
@@ -27948,7 +27599,7 @@
         <v>70</v>
       </c>
       <c r="D15" s="10" t="str">
-        <f>A15&amp;B15&amp;C15</f>
+        <f t="shared" si="0"/>
         <v>P27SL01M06</v>
       </c>
       <c r="E15" s="1">
@@ -27972,7 +27623,7 @@
         <v>58</v>
       </c>
       <c r="D16" s="10" t="str">
-        <f>A16&amp;B16&amp;C16</f>
+        <f t="shared" si="0"/>
         <v>P29SL01M01</v>
       </c>
       <c r="E16" s="4">
@@ -27997,7 +27648,7 @@
         <v>60</v>
       </c>
       <c r="D17" s="10" t="str">
-        <f>A17&amp;B17&amp;C17</f>
+        <f t="shared" si="0"/>
         <v>P19SL01M02</v>
       </c>
       <c r="E17" s="1">
@@ -28021,7 +27672,7 @@
         <v>61</v>
       </c>
       <c r="D18" s="10" t="str">
-        <f>A18&amp;B18&amp;C18</f>
+        <f t="shared" si="0"/>
         <v>P19SL01M03</v>
       </c>
       <c r="E18" s="1">
@@ -28045,7 +27696,7 @@
         <v>58</v>
       </c>
       <c r="D19" s="10" t="str">
-        <f>A19&amp;B19&amp;C19</f>
+        <f t="shared" si="0"/>
         <v>P20SL01M01</v>
       </c>
       <c r="E19" s="1">
@@ -28069,7 +27720,7 @@
         <v>60</v>
       </c>
       <c r="D20" s="10" t="str">
-        <f>A20&amp;B20&amp;C20</f>
+        <f t="shared" si="0"/>
         <v>P20SL01M02</v>
       </c>
       <c r="E20" s="4">
@@ -28094,7 +27745,7 @@
         <v>58</v>
       </c>
       <c r="D21" s="10" t="str">
-        <f>A21&amp;B21&amp;C21</f>
+        <f t="shared" si="0"/>
         <v>P21SL01M01</v>
       </c>
       <c r="E21" s="1">
@@ -28118,7 +27769,7 @@
         <v>80</v>
       </c>
       <c r="D22" s="10" t="str">
-        <f>A22&amp;B22&amp;C22</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">P21SL01M02 </v>
       </c>
       <c r="E22" s="1">
@@ -28142,7 +27793,7 @@
         <v>60</v>
       </c>
       <c r="D23" s="10" t="str">
-        <f>A23&amp;B23&amp;C23</f>
+        <f t="shared" si="0"/>
         <v>P27SL01M02</v>
       </c>
       <c r="E23" s="1">
@@ -28166,7 +27817,7 @@
         <v>60</v>
       </c>
       <c r="D24" s="10" t="str">
-        <f>A24&amp;B24&amp;C24</f>
+        <f t="shared" si="0"/>
         <v>P25SL01M02</v>
       </c>
       <c r="E24" s="1">
@@ -28190,7 +27841,7 @@
         <v>61</v>
       </c>
       <c r="D25" s="10" t="str">
-        <f>A25&amp;B25&amp;C25</f>
+        <f t="shared" si="0"/>
         <v>P27SL01M03</v>
       </c>
       <c r="E25" s="1">
@@ -28214,7 +27865,7 @@
         <v>60</v>
       </c>
       <c r="D26" s="10" t="str">
-        <f>A26&amp;B26&amp;C26</f>
+        <f t="shared" si="0"/>
         <v>P06SL01M02</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -28239,7 +27890,7 @@
         <v>61</v>
       </c>
       <c r="D27" s="10" t="str">
-        <f>A27&amp;B27&amp;C27</f>
+        <f t="shared" si="0"/>
         <v>P06SL01M03</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -28263,7 +27914,7 @@
         <v>62</v>
       </c>
       <c r="D28" s="10" t="str">
-        <f>A28&amp;B28&amp;C28</f>
+        <f t="shared" si="0"/>
         <v>P06SL01M04</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -28288,7 +27939,7 @@
         <v>70</v>
       </c>
       <c r="D29" s="10" t="str">
-        <f>A29&amp;B29&amp;C29</f>
+        <f t="shared" si="0"/>
         <v>P06SL01M06</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -28312,7 +27963,7 @@
         <v>159</v>
       </c>
       <c r="D30" s="10" t="str">
-        <f>A30&amp;B30&amp;C30</f>
+        <f t="shared" si="0"/>
         <v>P06SL01M09</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -28336,7 +27987,7 @@
         <v>61</v>
       </c>
       <c r="D31" s="10" t="str">
-        <f>A31&amp;B31&amp;C31</f>
+        <f t="shared" si="0"/>
         <v>P20SL01M03</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -28360,7 +28011,7 @@
         <v>61</v>
       </c>
       <c r="D32" s="10" t="str">
-        <f>A32&amp;B32&amp;C32</f>
+        <f t="shared" si="0"/>
         <v>P21SL01M03</v>
       </c>
       <c r="E32" s="1" t="s">
@@ -28385,7 +28036,7 @@
         <v>58</v>
       </c>
       <c r="D33" s="10" t="str">
-        <f>A33&amp;B33&amp;C33</f>
+        <f t="shared" si="0"/>
         <v>P22SL01M01</v>
       </c>
       <c r="E33" s="1" t="s">
@@ -28409,7 +28060,7 @@
         <v>60</v>
       </c>
       <c r="D34" s="10" t="str">
-        <f>A34&amp;B34&amp;C34</f>
+        <f t="shared" ref="D34:D65" si="1">A34&amp;B34&amp;C34</f>
         <v>P22SL01M02</v>
       </c>
       <c r="E34" s="1" t="s">
@@ -28433,7 +28084,7 @@
         <v>61</v>
       </c>
       <c r="D35" s="10" t="str">
-        <f>A35&amp;B35&amp;C35</f>
+        <f t="shared" si="1"/>
         <v>P22SL01M03</v>
       </c>
       <c r="E35" s="1" t="s">
@@ -28457,7 +28108,7 @@
         <v>58</v>
       </c>
       <c r="D36" s="10" t="str">
-        <f>A36&amp;B36&amp;C36</f>
+        <f t="shared" si="1"/>
         <v>P23SL01M01</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -28483,7 +28134,7 @@
         <v>60</v>
       </c>
       <c r="D37" s="10" t="str">
-        <f>A37&amp;B37&amp;C37</f>
+        <f t="shared" si="1"/>
         <v>P23SL01M02</v>
       </c>
       <c r="E37" s="1" t="s">
@@ -28509,7 +28160,7 @@
         <v>69</v>
       </c>
       <c r="D38" s="10" t="str">
-        <f>A38&amp;B38&amp;C38</f>
+        <f t="shared" si="1"/>
         <v>P25SL01M05</v>
       </c>
       <c r="E38" s="1" t="s">
@@ -28535,7 +28186,7 @@
         <v>62</v>
       </c>
       <c r="D39" s="10" t="str">
-        <f>A39&amp;B39&amp;C39</f>
+        <f t="shared" si="1"/>
         <v>P26SL01M04</v>
       </c>
       <c r="E39" s="4" t="s">
@@ -28561,7 +28212,7 @@
         <v>69</v>
       </c>
       <c r="D40" s="10" t="str">
-        <f>A40&amp;B40&amp;C40</f>
+        <f t="shared" si="1"/>
         <v>P27SL01M05</v>
       </c>
       <c r="E40" s="1" t="s">
@@ -28587,7 +28238,7 @@
         <v>62</v>
       </c>
       <c r="D41" s="10" t="str">
-        <f>A41&amp;B41&amp;C41</f>
+        <f t="shared" si="1"/>
         <v>P17SL01M04</v>
       </c>
       <c r="E41" s="4" t="s">
@@ -28613,7 +28264,7 @@
         <v>69</v>
       </c>
       <c r="D42" s="10" t="str">
-        <f>A42&amp;B42&amp;C42</f>
+        <f t="shared" si="1"/>
         <v>P17SL01M05</v>
       </c>
       <c r="E42" s="4" t="s">
@@ -28639,7 +28290,7 @@
         <v>149</v>
       </c>
       <c r="D43" s="11" t="str">
-        <f>A43&amp;B43&amp;C43</f>
+        <f t="shared" si="1"/>
         <v>P19SL01M0x</v>
       </c>
       <c r="E43" s="4" t="s">
@@ -28665,7 +28316,7 @@
         <v>58</v>
       </c>
       <c r="D44" s="10" t="str">
-        <f>A44&amp;B44&amp;C44</f>
+        <f t="shared" si="1"/>
         <v>P03SL01M01</v>
       </c>
       <c r="E44" s="1" t="s">
@@ -28691,7 +28342,7 @@
         <v>60</v>
       </c>
       <c r="D45" s="10" t="str">
-        <f>A45&amp;B45&amp;C45</f>
+        <f t="shared" si="1"/>
         <v>P03SL01M02</v>
       </c>
       <c r="E45" s="1" t="s">
@@ -28717,7 +28368,7 @@
         <v>61</v>
       </c>
       <c r="D46" s="10" t="str">
-        <f>A46&amp;B46&amp;C46</f>
+        <f t="shared" si="1"/>
         <v>P03SL01M03</v>
       </c>
       <c r="E46" s="1" t="s">
@@ -28743,7 +28394,7 @@
         <v>69</v>
       </c>
       <c r="D47" s="10" t="str">
-        <f>A47&amp;B47&amp;C47</f>
+        <f t="shared" si="1"/>
         <v>P06SL01M05</v>
       </c>
       <c r="E47" s="1" t="s">
@@ -28769,7 +28420,7 @@
         <v>76</v>
       </c>
       <c r="D48" s="10" t="str">
-        <f>A48&amp;B48&amp;C48</f>
+        <f t="shared" si="1"/>
         <v>P06SL01M08</v>
       </c>
       <c r="E48" s="1" t="s">
@@ -28795,7 +28446,7 @@
         <v>58</v>
       </c>
       <c r="D49" s="10" t="str">
-        <f>A49&amp;B49&amp;C49</f>
+        <f t="shared" si="1"/>
         <v>P17SL01M01</v>
       </c>
       <c r="E49" s="1" t="s">
@@ -28821,7 +28472,7 @@
         <v>60</v>
       </c>
       <c r="D50" s="10" t="str">
-        <f>A50&amp;B50&amp;C50</f>
+        <f t="shared" si="1"/>
         <v>P17SL01M02</v>
       </c>
       <c r="E50" s="1" t="s">
@@ -28847,7 +28498,7 @@
         <v>61</v>
       </c>
       <c r="D51" s="10" t="str">
-        <f>A51&amp;B51&amp;C51</f>
+        <f t="shared" si="1"/>
         <v>P17SL01M03</v>
       </c>
       <c r="E51" s="1" t="s">
@@ -28873,7 +28524,7 @@
         <v>69</v>
       </c>
       <c r="D52" s="10" t="str">
-        <f>A52&amp;B52&amp;C52</f>
+        <f t="shared" si="1"/>
         <v>P19SL01M05</v>
       </c>
       <c r="E52" s="1" t="s">
@@ -28899,7 +28550,7 @@
         <v>71</v>
       </c>
       <c r="D53" s="10" t="str">
-        <f>A53&amp;B53&amp;C53</f>
+        <f t="shared" si="1"/>
         <v>P19SL01M07</v>
       </c>
       <c r="E53" s="1" t="s">
@@ -28925,7 +28576,7 @@
         <v>76</v>
       </c>
       <c r="D54" s="10" t="str">
-        <f>A54&amp;B54&amp;C54</f>
+        <f t="shared" si="1"/>
         <v>P19SL01M08</v>
       </c>
       <c r="E54" s="1" t="s">
@@ -28951,7 +28602,7 @@
         <v>62</v>
       </c>
       <c r="D55" s="10" t="str">
-        <f>A55&amp;B55&amp;C55</f>
+        <f t="shared" si="1"/>
         <v>P20SL01M04</v>
       </c>
       <c r="E55" s="1" t="s">
@@ -28977,7 +28628,7 @@
         <v>69</v>
       </c>
       <c r="D56" s="10" t="str">
-        <f>A56&amp;B56&amp;C56</f>
+        <f t="shared" si="1"/>
         <v>P20SL01M05</v>
       </c>
       <c r="E56" s="1" t="s">
@@ -29003,7 +28654,7 @@
         <v>70</v>
       </c>
       <c r="D57" s="10" t="str">
-        <f>A57&amp;B57&amp;C57</f>
+        <f t="shared" si="1"/>
         <v>P20SL01M06</v>
       </c>
       <c r="E57" s="4" t="s">
@@ -29029,7 +28680,7 @@
         <v>70</v>
       </c>
       <c r="D58" s="10" t="str">
-        <f>A58&amp;B58&amp;C58</f>
+        <f t="shared" si="1"/>
         <v>P20SL01M06</v>
       </c>
       <c r="E58" s="1" t="s">
@@ -29055,7 +28706,7 @@
         <v>62</v>
       </c>
       <c r="D59" s="10" t="str">
-        <f>A59&amp;B59&amp;C59</f>
+        <f t="shared" si="1"/>
         <v>P22SL01M04</v>
       </c>
       <c r="E59" s="1" t="s">
@@ -29081,7 +28732,7 @@
         <v>61</v>
       </c>
       <c r="D60" s="10" t="str">
-        <f>A60&amp;B60&amp;C60</f>
+        <f t="shared" si="1"/>
         <v>P23SL01M03</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -29107,7 +28758,7 @@
         <v>60</v>
       </c>
       <c r="D61" s="10" t="str">
-        <f>A61&amp;B61&amp;C61</f>
+        <f t="shared" si="1"/>
         <v>P24SL01M02</v>
       </c>
       <c r="E61" s="1" t="s">
@@ -29133,7 +28784,7 @@
         <v>61</v>
       </c>
       <c r="D62" s="10" t="str">
-        <f>A62&amp;B62&amp;C62</f>
+        <f t="shared" si="1"/>
         <v>P24SL01M03</v>
       </c>
       <c r="E62" s="1" t="s">
@@ -29159,7 +28810,7 @@
         <v>70</v>
       </c>
       <c r="D63" s="10" t="str">
-        <f>A63&amp;B63&amp;C63</f>
+        <f t="shared" si="1"/>
         <v>P25SL01M06</v>
       </c>
       <c r="E63" s="1" t="s">
@@ -29185,7 +28836,7 @@
         <v>71</v>
       </c>
       <c r="D64" s="10" t="str">
-        <f>A64&amp;B64&amp;C64</f>
+        <f t="shared" si="1"/>
         <v>P25SL01M07</v>
       </c>
       <c r="E64" s="1" t="s">
@@ -29211,7 +28862,7 @@
         <v>71</v>
       </c>
       <c r="D65" s="10" t="str">
-        <f>A65&amp;B65&amp;C65</f>
+        <f t="shared" si="1"/>
         <v>P27SL01M07</v>
       </c>
       <c r="E65" s="1" t="s">
@@ -29237,7 +28888,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="10" t="str">
-        <f>A66&amp;B66&amp;C66</f>
+        <f t="shared" ref="D66:D97" si="2">A66&amp;B66&amp;C66</f>
         <v>P28SL01M01</v>
       </c>
       <c r="E66" s="1" t="s">
@@ -29263,7 +28914,7 @@
         <v>60</v>
       </c>
       <c r="D67" s="10" t="str">
-        <f>A67&amp;B67&amp;C67</f>
+        <f t="shared" si="2"/>
         <v>P28SL01M02</v>
       </c>
       <c r="E67" s="4" t="s">
@@ -29289,7 +28940,7 @@
         <v>61</v>
       </c>
       <c r="D68" s="10" t="str">
-        <f>A68&amp;B68&amp;C68</f>
+        <f t="shared" si="2"/>
         <v>P28SL01M03</v>
       </c>
       <c r="E68" s="4" t="s">
@@ -29372,7 +29023,7 @@
         <v>58</v>
       </c>
       <c r="D2" s="14" t="str">
-        <f>A2&amp;B2&amp;C2</f>
+        <f t="shared" ref="D2:D33" si="0">A2&amp;B2&amp;C2</f>
         <v>P26EP02M01</v>
       </c>
       <c r="E2" s="14" t="s">
@@ -29404,7 +29055,7 @@
         <v>135</v>
       </c>
       <c r="D3" s="10" t="str">
-        <f>A3&amp;B3&amp;C3</f>
+        <f t="shared" si="0"/>
         <v>P02EP02M0X</v>
       </c>
       <c r="E3" s="10" t="s">
@@ -29438,7 +29089,7 @@
         <v>62</v>
       </c>
       <c r="D4" s="10" t="str">
-        <f>A4&amp;B4&amp;C4</f>
+        <f t="shared" si="0"/>
         <v>P03EP03M04</v>
       </c>
       <c r="E4" s="10" t="s">
@@ -29469,7 +29120,7 @@
         <v>61</v>
       </c>
       <c r="D5" s="10" t="str">
-        <f>A5&amp;B5&amp;C5</f>
+        <f t="shared" si="0"/>
         <v>P03EP01M03</v>
       </c>
       <c r="E5" s="10" t="s">
@@ -29499,7 +29150,7 @@
         <v>58</v>
       </c>
       <c r="D6" s="10" t="str">
-        <f>A6&amp;B6&amp;C6</f>
+        <f t="shared" si="0"/>
         <v>P05EP01M01</v>
       </c>
       <c r="E6" s="10" t="s">
@@ -29529,7 +29180,7 @@
         <v>58</v>
       </c>
       <c r="D7" s="10" t="str">
-        <f>A7&amp;B7&amp;C7</f>
+        <f t="shared" si="0"/>
         <v>P06EP01M01</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -29559,7 +29210,7 @@
         <v>58</v>
       </c>
       <c r="D8" s="10" t="str">
-        <f>A8&amp;B8&amp;C8</f>
+        <f t="shared" si="0"/>
         <v>P17EP02M01</v>
       </c>
       <c r="E8" s="10" t="s">
@@ -29589,7 +29240,7 @@
         <v>58</v>
       </c>
       <c r="D9" s="10" t="str">
-        <f>A9&amp;B9&amp;C9</f>
+        <f t="shared" si="0"/>
         <v>P17EP03M01</v>
       </c>
       <c r="E9" s="10" t="s">
@@ -29619,7 +29270,7 @@
         <v>58</v>
       </c>
       <c r="D10" s="10" t="str">
-        <f>A10&amp;B10&amp;C10</f>
+        <f t="shared" si="0"/>
         <v>P19EP01M01</v>
       </c>
       <c r="E10" s="10" t="s">
@@ -29649,7 +29300,7 @@
         <v>58</v>
       </c>
       <c r="D11" s="10" t="str">
-        <f>A11&amp;B11&amp;C11</f>
+        <f t="shared" si="0"/>
         <v>P20EP01M01</v>
       </c>
       <c r="E11" s="10" t="s">
@@ -29679,7 +29330,7 @@
         <v>58</v>
       </c>
       <c r="D12" s="10" t="str">
-        <f>A12&amp;B12&amp;C12</f>
+        <f t="shared" si="0"/>
         <v>P21EP01M01</v>
       </c>
       <c r="E12" s="10" t="s">
@@ -29709,7 +29360,7 @@
         <v>61</v>
       </c>
       <c r="D13" s="10" t="str">
-        <f>A13&amp;B13&amp;C13</f>
+        <f t="shared" si="0"/>
         <v>P23EP02M03</v>
       </c>
       <c r="E13" s="10" t="s">
@@ -29739,7 +29390,7 @@
         <v>60</v>
       </c>
       <c r="D14" s="10" t="str">
-        <f>A14&amp;B14&amp;C14</f>
+        <f t="shared" si="0"/>
         <v>P25EP03M02</v>
       </c>
       <c r="E14" s="10" t="s">
@@ -29769,7 +29420,7 @@
         <v>60</v>
       </c>
       <c r="D15" s="10" t="str">
-        <f>A15&amp;B15&amp;C15</f>
+        <f t="shared" si="0"/>
         <v>P26EP01M02</v>
       </c>
       <c r="E15" s="10" t="s">
@@ -29802,7 +29453,7 @@
         <v>58</v>
       </c>
       <c r="D16" s="10" t="str">
-        <f>A16&amp;B16&amp;C16</f>
+        <f t="shared" si="0"/>
         <v>P28EP01M01</v>
       </c>
       <c r="E16" s="10" t="s">
@@ -29833,7 +29484,7 @@
         <v>58</v>
       </c>
       <c r="D17" s="14" t="str">
-        <f>A17&amp;B17&amp;C17</f>
+        <f t="shared" si="0"/>
         <v>P20EP01M01</v>
       </c>
       <c r="E17" s="14" t="s">
@@ -29865,7 +29516,7 @@
         <v>58</v>
       </c>
       <c r="D18" s="10" t="str">
-        <f>A18&amp;B18&amp;C18</f>
+        <f t="shared" si="0"/>
         <v>P03EP02M01</v>
       </c>
       <c r="E18" s="10" t="s">
@@ -29895,7 +29546,7 @@
         <v>58</v>
       </c>
       <c r="D19" s="10" t="str">
-        <f>A19&amp;B19&amp;C19</f>
+        <f t="shared" si="0"/>
         <v>P04EP01M01</v>
       </c>
       <c r="E19" s="10" t="s">
@@ -29925,7 +29576,7 @@
         <v>61</v>
       </c>
       <c r="D20" s="10" t="str">
-        <f>A20&amp;B20&amp;C20</f>
+        <f t="shared" si="0"/>
         <v>P04EP01M03</v>
       </c>
       <c r="E20" s="10" t="s">
@@ -29957,7 +29608,7 @@
         <v>62</v>
       </c>
       <c r="D21" s="10" t="str">
-        <f>A21&amp;B21&amp;C21</f>
+        <f t="shared" si="0"/>
         <v>P05EP01M04</v>
       </c>
       <c r="E21" s="10" t="s">
@@ -29988,7 +29639,7 @@
         <v>60</v>
       </c>
       <c r="D22" s="10" t="str">
-        <f>A22&amp;B22&amp;C22</f>
+        <f t="shared" si="0"/>
         <v>P17EP01M02</v>
       </c>
       <c r="E22" s="10" t="s">
@@ -30018,7 +29669,7 @@
         <v>58</v>
       </c>
       <c r="D23" s="10" t="str">
-        <f>A23&amp;B23&amp;C23</f>
+        <f t="shared" si="0"/>
         <v>P22EP02M01</v>
       </c>
       <c r="E23" s="10" t="s">
@@ -30048,7 +29699,7 @@
         <v>60</v>
       </c>
       <c r="D24" s="10" t="str">
-        <f>A24&amp;B24&amp;C24</f>
+        <f t="shared" si="0"/>
         <v>P23EP01M02</v>
       </c>
       <c r="E24" s="10" t="s">
@@ -30080,7 +29731,7 @@
         <v>58</v>
       </c>
       <c r="D25" s="10" t="str">
-        <f>A25&amp;B25&amp;C25</f>
+        <f t="shared" si="0"/>
         <v>P23EP02M01</v>
       </c>
       <c r="E25" s="10" t="s">
@@ -30110,7 +29761,7 @@
         <v>71</v>
       </c>
       <c r="D26" s="10" t="str">
-        <f>A26&amp;B26&amp;C26</f>
+        <f t="shared" si="0"/>
         <v>P24EP02M07</v>
       </c>
       <c r="E26" s="10" t="s">
@@ -30140,7 +29791,7 @@
         <v>61</v>
       </c>
       <c r="D27" s="10" t="str">
-        <f>A27&amp;B27&amp;C27</f>
+        <f t="shared" si="0"/>
         <v>P25EP03M03</v>
       </c>
       <c r="E27" s="10" t="s">
@@ -30170,7 +29821,7 @@
         <v>61</v>
       </c>
       <c r="D28" s="10" t="str">
-        <f>A28&amp;B28&amp;C28</f>
+        <f t="shared" si="0"/>
         <v>P25EP02M03</v>
       </c>
       <c r="E28" s="10" t="s">
@@ -30200,7 +29851,7 @@
         <v>60</v>
       </c>
       <c r="D29" s="10" t="str">
-        <f>A29&amp;B29&amp;C29</f>
+        <f t="shared" si="0"/>
         <v>P03EP03M02</v>
       </c>
       <c r="E29" s="10" t="s">
@@ -30493,7 +30144,7 @@
         <v>58</v>
       </c>
       <c r="D30" s="10" t="str">
-        <f>A30&amp;B30&amp;C30</f>
+        <f t="shared" si="0"/>
         <v>P04EP01M01</v>
       </c>
       <c r="E30" s="10" t="s">
@@ -30784,7 +30435,7 @@
         <v>58</v>
       </c>
       <c r="D31" s="10" t="str">
-        <f>A31&amp;B31&amp;C31</f>
+        <f t="shared" si="0"/>
         <v>P03EP02M01</v>
       </c>
       <c r="E31" s="10" t="s">
@@ -31077,7 +30728,7 @@
         <v>60</v>
       </c>
       <c r="D32" s="10" t="str">
-        <f>A32&amp;B32&amp;C32</f>
+        <f t="shared" si="0"/>
         <v>P03EP02M02</v>
       </c>
       <c r="E32" s="10" t="s">
@@ -31370,7 +31021,7 @@
         <v>58</v>
       </c>
       <c r="D33" s="10" t="str">
-        <f>A33&amp;B33&amp;C33</f>
+        <f t="shared" si="0"/>
         <v>P03EP03M01</v>
       </c>
       <c r="E33" s="10" t="s">
@@ -31400,7 +31051,7 @@
         <v>60</v>
       </c>
       <c r="D34" s="10" t="str">
-        <f>A34&amp;B34&amp;C34</f>
+        <f t="shared" ref="D34:D65" si="1">A34&amp;B34&amp;C34</f>
         <v>P03EP03M02</v>
       </c>
       <c r="E34" s="10" t="s">
@@ -31430,7 +31081,7 @@
         <v>58</v>
       </c>
       <c r="D35" s="10" t="str">
-        <f>A35&amp;B35&amp;C35</f>
+        <f t="shared" si="1"/>
         <v>P03EP01M01</v>
       </c>
       <c r="E35" s="10" t="s">
@@ -31460,7 +31111,7 @@
         <v>58</v>
       </c>
       <c r="D36" s="10" t="str">
-        <f>A36&amp;B36&amp;C36</f>
+        <f t="shared" si="1"/>
         <v>P17EP04M01</v>
       </c>
       <c r="E36" s="10" t="s">
@@ -31490,7 +31141,7 @@
         <v>58</v>
       </c>
       <c r="D37" s="10" t="str">
-        <f>A37&amp;B37&amp;C37</f>
+        <f t="shared" si="1"/>
         <v>P22EP02M01</v>
       </c>
       <c r="E37" s="10" t="s">
@@ -31646,7 +31297,7 @@
         <v>58</v>
       </c>
       <c r="D38" s="10" t="str">
-        <f>A38&amp;B38&amp;C38</f>
+        <f t="shared" si="1"/>
         <v>P23EP01M01</v>
       </c>
       <c r="E38" s="10" t="s">
@@ -31804,7 +31455,7 @@
         <v>58</v>
       </c>
       <c r="D39" s="10" t="str">
-        <f>A39&amp;B39&amp;C39</f>
+        <f t="shared" si="1"/>
         <v>P25EP01M01</v>
       </c>
       <c r="E39" s="10" t="s">
@@ -31836,7 +31487,7 @@
         <v>58</v>
       </c>
       <c r="D40" s="10" t="str">
-        <f>A40&amp;B40&amp;C40</f>
+        <f t="shared" si="1"/>
         <v>P25EP02M01</v>
       </c>
       <c r="E40" s="10" t="s">
@@ -31992,7 +31643,7 @@
         <v>58</v>
       </c>
       <c r="D41" s="10" t="str">
-        <f>A41&amp;B41&amp;C41</f>
+        <f t="shared" si="1"/>
         <v>P26EP01M01</v>
       </c>
       <c r="E41" s="10" t="s">
@@ -32023,7 +31674,7 @@
         <v>58</v>
       </c>
       <c r="D42" s="10" t="str">
-        <f>A42&amp;B42&amp;C42</f>
+        <f t="shared" si="1"/>
         <v>P02EP02M01</v>
       </c>
       <c r="E42" s="10" t="s">
@@ -32053,7 +31704,7 @@
         <v>60</v>
       </c>
       <c r="D43" s="10" t="str">
-        <f>A43&amp;B43&amp;C43</f>
+        <f t="shared" si="1"/>
         <v>P03EP03M02</v>
       </c>
       <c r="E43" s="10" t="s">
@@ -32083,7 +31734,7 @@
         <v>60</v>
       </c>
       <c r="D44" s="10" t="str">
-        <f>A44&amp;B44&amp;C44</f>
+        <f t="shared" si="1"/>
         <v>P05EP01M02</v>
       </c>
       <c r="E44" s="10" t="s">
@@ -32113,7 +31764,7 @@
         <v>58</v>
       </c>
       <c r="D45" s="10" t="str">
-        <f>A45&amp;B45&amp;C45</f>
+        <f t="shared" si="1"/>
         <v>P06EP02M01</v>
       </c>
       <c r="E45" s="10" t="s">
@@ -32143,7 +31794,7 @@
         <v>61</v>
       </c>
       <c r="D46" s="10" t="str">
-        <f>A46&amp;B46&amp;C46</f>
+        <f t="shared" si="1"/>
         <v>P06EP02M03</v>
       </c>
       <c r="E46" s="10" t="s">
@@ -32173,7 +31824,7 @@
         <v>58</v>
       </c>
       <c r="D47" s="10" t="str">
-        <f>A47&amp;B47&amp;C47</f>
+        <f t="shared" si="1"/>
         <v>P17EP01M01</v>
       </c>
       <c r="E47" s="10" t="s">
@@ -32206,7 +31857,7 @@
         <v>61</v>
       </c>
       <c r="D48" s="10" t="str">
-        <f>A48&amp;B48&amp;C48</f>
+        <f t="shared" si="1"/>
         <v>P04EP01M03</v>
       </c>
       <c r="E48" s="10" t="s">
@@ -32236,7 +31887,7 @@
         <v>58</v>
       </c>
       <c r="D49" s="10" t="str">
-        <f>A49&amp;B49&amp;C49</f>
+        <f t="shared" si="1"/>
         <v>P06EP02M01</v>
       </c>
       <c r="E49" s="10" t="s">
@@ -32266,7 +31917,7 @@
         <v>61</v>
       </c>
       <c r="D50" s="10" t="str">
-        <f>A50&amp;B50&amp;C50</f>
+        <f t="shared" si="1"/>
         <v>P06EP02M03</v>
       </c>
       <c r="E50" s="10" t="s">
@@ -32296,7 +31947,7 @@
         <v>58</v>
       </c>
       <c r="D51" s="10" t="str">
-        <f>A51&amp;B51&amp;C51</f>
+        <f t="shared" si="1"/>
         <v>P02EP02M01</v>
       </c>
       <c r="E51" s="10" t="s">
@@ -32326,7 +31977,7 @@
         <v>58</v>
       </c>
       <c r="D52" s="10" t="str">
-        <f>A52&amp;B52&amp;C52</f>
+        <f t="shared" si="1"/>
         <v>P02EP01M01</v>
       </c>
       <c r="E52" s="10" t="s">
@@ -32357,7 +32008,7 @@
         <v>60</v>
       </c>
       <c r="D53" s="10" t="str">
-        <f>A53&amp;B53&amp;C53</f>
+        <f t="shared" si="1"/>
         <v>P03EP01M02</v>
       </c>
       <c r="E53" s="10" t="s">
@@ -32387,7 +32038,7 @@
         <v>58</v>
       </c>
       <c r="D54" s="10" t="str">
-        <f>A54&amp;B54&amp;C54</f>
+        <f t="shared" si="1"/>
         <v>P06EP02M01</v>
       </c>
       <c r="E54" s="10" t="s">
@@ -32417,7 +32068,7 @@
         <v>58</v>
       </c>
       <c r="D55" s="10" t="str">
-        <f>A55&amp;B55&amp;C55</f>
+        <f t="shared" si="1"/>
         <v>P22EP01M01</v>
       </c>
       <c r="E55" s="10" t="s">
@@ -32447,7 +32098,7 @@
         <v>58</v>
       </c>
       <c r="D56" s="10" t="str">
-        <f>A56&amp;B56&amp;C56</f>
+        <f t="shared" si="1"/>
         <v>P23EP02M01</v>
       </c>
       <c r="E56" s="10" t="s">
@@ -32477,7 +32128,7 @@
         <v>58</v>
       </c>
       <c r="D57" s="10" t="str">
-        <f>A57&amp;B57&amp;C57</f>
+        <f t="shared" si="1"/>
         <v>P25EP03M01</v>
       </c>
       <c r="E57" s="10" t="s">
@@ -32507,7 +32158,7 @@
         <v>62</v>
       </c>
       <c r="D58" s="10" t="str">
-        <f>A58&amp;B58&amp;C58</f>
+        <f t="shared" si="1"/>
         <v>P03EP02M04</v>
       </c>
       <c r="E58" s="10" t="s">
@@ -32540,7 +32191,7 @@
         <v>60</v>
       </c>
       <c r="D59" s="10" t="str">
-        <f>A59&amp;B59&amp;C59</f>
+        <f t="shared" si="1"/>
         <v>P02EP01M02</v>
       </c>
       <c r="E59" s="10" t="s">
@@ -32570,7 +32221,7 @@
         <v>71</v>
       </c>
       <c r="D60" s="10" t="str">
-        <f>A60&amp;B60&amp;C60</f>
+        <f t="shared" si="1"/>
         <v>P03EP01M07</v>
       </c>
       <c r="E60" s="10" t="s">
@@ -32601,7 +32252,7 @@
         <v>58</v>
       </c>
       <c r="D61" s="10" t="str">
-        <f>A61&amp;B61&amp;C61</f>
+        <f t="shared" si="1"/>
         <v>P04EP01M01</v>
       </c>
       <c r="E61" s="10" t="s">
@@ -32631,7 +32282,7 @@
         <v>58</v>
       </c>
       <c r="D62" s="10" t="str">
-        <f>A62&amp;B62&amp;C62</f>
+        <f t="shared" si="1"/>
         <v>P17EP01M01</v>
       </c>
       <c r="E62" s="10" t="s">
@@ -32661,7 +32312,7 @@
         <v>58</v>
       </c>
       <c r="D63" s="10" t="str">
-        <f>A63&amp;B63&amp;C63</f>
+        <f t="shared" si="1"/>
         <v>P24EP01M01</v>
       </c>
       <c r="E63" s="10" t="s">
@@ -32691,7 +32342,7 @@
         <v>70</v>
       </c>
       <c r="D64" s="10" t="str">
-        <f>A64&amp;B64&amp;C64</f>
+        <f t="shared" si="1"/>
         <v>P24EP02M06</v>
       </c>
       <c r="E64" s="10" t="s">
@@ -32721,7 +32372,7 @@
         <v>61</v>
       </c>
       <c r="D65" s="10" t="str">
-        <f>A65&amp;B65&amp;C65</f>
+        <f t="shared" si="1"/>
         <v>P02EP01M03</v>
       </c>
       <c r="E65" s="10" t="s">
@@ -32751,7 +32402,7 @@
         <v>61</v>
       </c>
       <c r="D66" s="10" t="str">
-        <f>A66&amp;B66&amp;C66</f>
+        <f t="shared" ref="D66:D97" si="2">A66&amp;B66&amp;C66</f>
         <v>P03EP02M03</v>
       </c>
       <c r="E66" s="10" t="s">
@@ -32781,7 +32432,7 @@
         <v>69</v>
       </c>
       <c r="D67" s="10" t="str">
-        <f>A67&amp;B67&amp;C67</f>
+        <f t="shared" si="2"/>
         <v>P03EP03M05</v>
       </c>
       <c r="E67" s="10" t="s">
@@ -32815,7 +32466,7 @@
         <v>61</v>
       </c>
       <c r="D68" s="10" t="str">
-        <f>A68&amp;B68&amp;C68</f>
+        <f t="shared" si="2"/>
         <v>P04EP01M03</v>
       </c>
       <c r="E68" s="10" t="s">
@@ -32848,7 +32499,7 @@
         <v>60</v>
       </c>
       <c r="D69" s="10" t="str">
-        <f>A69&amp;B69&amp;C69</f>
+        <f t="shared" si="2"/>
         <v>P05EP01M02</v>
       </c>
       <c r="E69" s="10" t="s">
@@ -32878,7 +32529,7 @@
         <v>61</v>
       </c>
       <c r="D70" s="10" t="str">
-        <f>A70&amp;B70&amp;C70</f>
+        <f t="shared" si="2"/>
         <v>P05EP01M03</v>
       </c>
       <c r="E70" s="10" t="s">
@@ -32911,7 +32562,7 @@
         <v>62</v>
       </c>
       <c r="D71" s="10" t="str">
-        <f>A71&amp;B71&amp;C71</f>
+        <f t="shared" si="2"/>
         <v>P05EP01M04</v>
       </c>
       <c r="E71" s="10" t="s">
@@ -32942,7 +32593,7 @@
         <v>58</v>
       </c>
       <c r="D72" s="10" t="str">
-        <f>A72&amp;B72&amp;C72</f>
+        <f t="shared" si="2"/>
         <v>P06EP02M01</v>
       </c>
       <c r="E72" s="10" t="s">
@@ -32972,7 +32623,7 @@
         <v>60</v>
       </c>
       <c r="D73" s="10" t="str">
-        <f>A73&amp;B73&amp;C73</f>
+        <f t="shared" si="2"/>
         <v>P06EP02M02</v>
       </c>
       <c r="E73" s="10" t="s">
@@ -33002,7 +32653,7 @@
         <v>60</v>
       </c>
       <c r="D74" s="10" t="str">
-        <f>A74&amp;B74&amp;C74</f>
+        <f t="shared" si="2"/>
         <v>P06EP01M02</v>
       </c>
       <c r="E74" s="10" t="s">
@@ -33032,7 +32683,7 @@
         <v>60</v>
       </c>
       <c r="D75" s="10" t="str">
-        <f>A75&amp;B75&amp;C75</f>
+        <f t="shared" si="2"/>
         <v>P21EP01M02</v>
       </c>
       <c r="E75" s="10" t="s">
@@ -33062,7 +32713,7 @@
         <v>61</v>
       </c>
       <c r="D76" s="10" t="str">
-        <f>A76&amp;B76&amp;C76</f>
+        <f t="shared" si="2"/>
         <v>P22EP01M03</v>
       </c>
       <c r="E76" s="10" t="s">
@@ -33092,7 +32743,7 @@
         <v>60</v>
       </c>
       <c r="D77" s="10" t="str">
-        <f>A77&amp;B77&amp;C77</f>
+        <f t="shared" si="2"/>
         <v>P23EP01M02</v>
       </c>
       <c r="E77" s="10" t="s">
@@ -33122,7 +32773,7 @@
         <v>60</v>
       </c>
       <c r="D78" s="10" t="str">
-        <f>A78&amp;B78&amp;C78</f>
+        <f t="shared" si="2"/>
         <v>P23EP02M02</v>
       </c>
       <c r="E78" s="10" t="s">
@@ -33152,7 +32803,7 @@
         <v>69</v>
       </c>
       <c r="D79" s="10" t="str">
-        <f>A79&amp;B79&amp;C79</f>
+        <f t="shared" si="2"/>
         <v>P24EP02M05</v>
       </c>
       <c r="E79" s="10" t="s">
@@ -33182,7 +32833,7 @@
         <v>58</v>
       </c>
       <c r="D80" s="10" t="str">
-        <f>A80&amp;B80&amp;C80</f>
+        <f t="shared" si="2"/>
         <v>P27EP01M01</v>
       </c>
       <c r="E80" s="10" t="s">
@@ -33212,7 +32863,7 @@
         <v>60</v>
       </c>
       <c r="D81" s="10" t="str">
-        <f>A81&amp;B81&amp;C81</f>
+        <f t="shared" si="2"/>
         <v>P28EP01M02</v>
       </c>
       <c r="E81" s="10" t="s">
@@ -33243,7 +32894,7 @@
         <v>62</v>
       </c>
       <c r="D82" s="10" t="str">
-        <f>A82&amp;B82&amp;C82</f>
+        <f t="shared" si="2"/>
         <v>P02EP02M04</v>
       </c>
       <c r="E82" s="10" t="s">
@@ -33273,7 +32924,7 @@
         <v>58</v>
       </c>
       <c r="D83" s="10" t="str">
-        <f>A83&amp;B83&amp;C83</f>
+        <f t="shared" si="2"/>
         <v>P02EP01M01</v>
       </c>
       <c r="E83" s="10" t="s">
@@ -33303,7 +32954,7 @@
         <v>60</v>
       </c>
       <c r="D84" s="10" t="str">
-        <f>A84&amp;B84&amp;C84</f>
+        <f t="shared" si="2"/>
         <v>P02EP01M02</v>
       </c>
       <c r="E84" s="10" t="s">
@@ -33334,7 +32985,7 @@
         <v>58</v>
       </c>
       <c r="D85" s="10" t="str">
-        <f>A85&amp;B85&amp;C85</f>
+        <f t="shared" si="2"/>
         <v>P03EP03M01</v>
       </c>
       <c r="E85" s="10" t="s">
@@ -33364,7 +33015,7 @@
         <v>58</v>
       </c>
       <c r="D86" s="10" t="str">
-        <f>A86&amp;B86&amp;C86</f>
+        <f t="shared" si="2"/>
         <v>P05EP01M01</v>
       </c>
       <c r="E86" s="10" t="s">
@@ -33394,7 +33045,7 @@
         <v>69</v>
       </c>
       <c r="D87" s="10" t="str">
-        <f>A87&amp;B87&amp;C87</f>
+        <f t="shared" si="2"/>
         <v>P05EP01M05</v>
       </c>
       <c r="E87" s="10" t="s">
@@ -33424,7 +33075,7 @@
         <v>58</v>
       </c>
       <c r="D88" s="10" t="str">
-        <f>A88&amp;B88&amp;C88</f>
+        <f t="shared" si="2"/>
         <v>P17EP04M01</v>
       </c>
       <c r="E88" s="10" t="s">
@@ -33454,7 +33105,7 @@
         <v>60</v>
       </c>
       <c r="D89" s="10" t="str">
-        <f>A89&amp;B89&amp;C89</f>
+        <f t="shared" si="2"/>
         <v>P22EP02M02</v>
       </c>
       <c r="E89" s="10" t="s">
@@ -33484,7 +33135,7 @@
         <v>58</v>
       </c>
       <c r="D90" s="10" t="str">
-        <f>A90&amp;B90&amp;C90</f>
+        <f t="shared" si="2"/>
         <v>P23EP01M01</v>
       </c>
       <c r="E90" s="10" t="s">
@@ -33514,7 +33165,7 @@
         <v>58</v>
       </c>
       <c r="D91" s="10" t="str">
-        <f>A91&amp;B91&amp;C91</f>
+        <f t="shared" si="2"/>
         <v>P03EP03M01</v>
       </c>
       <c r="E91" s="10" t="s">
@@ -33544,7 +33195,7 @@
         <v>58</v>
       </c>
       <c r="D92" s="10" t="str">
-        <f>A92&amp;B92&amp;C92</f>
+        <f t="shared" si="2"/>
         <v>P17EP01M01</v>
       </c>
       <c r="E92" s="10" t="s">
@@ -33575,7 +33226,7 @@
         <v>60</v>
       </c>
       <c r="D93" s="10" t="str">
-        <f>A93&amp;B93&amp;C93</f>
+        <f t="shared" si="2"/>
         <v>P17EP01M02</v>
       </c>
       <c r="E93" s="10" t="s">
@@ -33605,7 +33256,7 @@
         <v>58</v>
       </c>
       <c r="D94" s="10" t="str">
-        <f>A94&amp;B94&amp;C94</f>
+        <f t="shared" si="2"/>
         <v>P29EP01M01</v>
       </c>
       <c r="E94" s="10" t="s">
@@ -33636,7 +33287,7 @@
         <v>58</v>
       </c>
       <c r="D95" s="14" t="str">
-        <f>A95&amp;B95&amp;C95</f>
+        <f t="shared" si="2"/>
         <v>P29EP02M01</v>
       </c>
       <c r="E95" s="14" t="s">
@@ -33668,7 +33319,7 @@
         <v>60</v>
       </c>
       <c r="D96" s="10" t="str">
-        <f>A96&amp;B96&amp;C96</f>
+        <f t="shared" si="2"/>
         <v>P02EP02M02</v>
       </c>
       <c r="E96" s="10" t="s">
@@ -33700,7 +33351,7 @@
         <v>61</v>
       </c>
       <c r="D97" s="10" t="str">
-        <f>A97&amp;B97&amp;C97</f>
+        <f t="shared" si="2"/>
         <v>P02EP02M03</v>
       </c>
       <c r="E97" s="10" t="s">
@@ -33736,7 +33387,7 @@
         <v>62</v>
       </c>
       <c r="D98" s="10" t="str">
-        <f>A98&amp;B98&amp;C98</f>
+        <f t="shared" ref="D98:D129" si="3">A98&amp;B98&amp;C98</f>
         <v>P02EP02M04</v>
       </c>
       <c r="E98" s="10" t="s">
@@ -33769,7 +33420,7 @@
         <v>62</v>
       </c>
       <c r="D99" s="10" t="str">
-        <f>A99&amp;B99&amp;C99</f>
+        <f t="shared" si="3"/>
         <v>P02EP01M04</v>
       </c>
       <c r="E99" s="10" t="s">
@@ -33799,7 +33450,7 @@
         <v>69</v>
       </c>
       <c r="D100" s="10" t="str">
-        <f>A100&amp;B100&amp;C100</f>
+        <f t="shared" si="3"/>
         <v>P02EP01M05</v>
       </c>
       <c r="E100" s="10" t="s">
@@ -33830,7 +33481,7 @@
         <v>70</v>
       </c>
       <c r="D101" s="10" t="str">
-        <f>A101&amp;B101&amp;C101</f>
+        <f t="shared" si="3"/>
         <v>P02EP01M06</v>
       </c>
       <c r="E101" s="10" t="s">
@@ -33861,7 +33512,7 @@
         <v>61</v>
       </c>
       <c r="D102" s="10" t="str">
-        <f>A102&amp;B102&amp;C102</f>
+        <f t="shared" si="3"/>
         <v>P03EP03M03</v>
       </c>
       <c r="E102" s="10" t="s">
@@ -33891,7 +33542,7 @@
         <v>62</v>
       </c>
       <c r="D103" s="10" t="str">
-        <f>A103&amp;B103&amp;C103</f>
+        <f t="shared" si="3"/>
         <v>P03EP01M04</v>
       </c>
       <c r="E103" s="10" t="s">
@@ -33921,7 +33572,7 @@
         <v>69</v>
       </c>
       <c r="D104" s="10" t="str">
-        <f>A104&amp;B104&amp;C104</f>
+        <f t="shared" si="3"/>
         <v>P03EP01M05</v>
       </c>
       <c r="E104" s="10" t="s">
@@ -33951,7 +33602,7 @@
         <v>60</v>
       </c>
       <c r="D105" s="10" t="str">
-        <f>A105&amp;B105&amp;C105</f>
+        <f t="shared" si="3"/>
         <v>P04EP01M02</v>
       </c>
       <c r="E105" s="10" t="s">
@@ -33981,7 +33632,7 @@
         <v>69</v>
       </c>
       <c r="D106" s="10" t="str">
-        <f>A106&amp;B106&amp;C106</f>
+        <f t="shared" si="3"/>
         <v>P05EP01M05</v>
       </c>
       <c r="E106" s="10" t="s">
@@ -34011,7 +33662,7 @@
         <v>60</v>
       </c>
       <c r="D107" s="10" t="str">
-        <f>A107&amp;B107&amp;C107</f>
+        <f t="shared" si="3"/>
         <v>P17EP01M02</v>
       </c>
       <c r="E107" s="10" t="s">
@@ -34041,7 +33692,7 @@
         <v>61</v>
       </c>
       <c r="D108" s="10" t="str">
-        <f>A108&amp;B108&amp;C108</f>
+        <f t="shared" si="3"/>
         <v>P17EP01M03</v>
       </c>
       <c r="E108" s="10" t="s">
@@ -34071,7 +33722,7 @@
         <v>60</v>
       </c>
       <c r="D109" s="10" t="str">
-        <f>A109&amp;B109&amp;C109</f>
+        <f t="shared" si="3"/>
         <v>P17EP02M02</v>
       </c>
       <c r="E109" s="10" t="s">
@@ -34101,7 +33752,7 @@
         <v>61</v>
       </c>
       <c r="D110" s="10" t="str">
-        <f>A110&amp;B110&amp;C110</f>
+        <f t="shared" si="3"/>
         <v>P17EP02M03</v>
       </c>
       <c r="E110" s="10" t="s">
@@ -34134,7 +33785,7 @@
         <v>62</v>
       </c>
       <c r="D111" s="10" t="str">
-        <f>A111&amp;B111&amp;C111</f>
+        <f t="shared" si="3"/>
         <v>P17EP02M04</v>
       </c>
       <c r="E111" s="10" t="s">
@@ -34168,7 +33819,7 @@
         <v>60</v>
       </c>
       <c r="D112" s="10" t="str">
-        <f>A112&amp;B112&amp;C112</f>
+        <f t="shared" si="3"/>
         <v>P17EP03M02</v>
       </c>
       <c r="E112" s="10" t="s">
@@ -34198,7 +33849,7 @@
         <v>58</v>
       </c>
       <c r="D113" s="10" t="str">
-        <f>A113&amp;B113&amp;C113</f>
+        <f t="shared" si="3"/>
         <v>P18EP01M01</v>
       </c>
       <c r="E113" s="10" t="s">
@@ -34228,7 +33879,7 @@
         <v>60</v>
       </c>
       <c r="D114" s="10" t="str">
-        <f>A114&amp;B114&amp;C114</f>
+        <f t="shared" si="3"/>
         <v>P18EP01M02</v>
       </c>
       <c r="E114" s="10" t="s">
@@ -34258,7 +33909,7 @@
         <v>60</v>
       </c>
       <c r="D115" s="10" t="str">
-        <f>A115&amp;B115&amp;C115</f>
+        <f t="shared" si="3"/>
         <v>P22EP02M02</v>
       </c>
       <c r="E115" s="10" t="s">
@@ -34288,7 +33939,7 @@
         <v>61</v>
       </c>
       <c r="D116" s="10" t="str">
-        <f>A116&amp;B116&amp;C116</f>
+        <f t="shared" si="3"/>
         <v>P22EP02M03</v>
       </c>
       <c r="E116" s="10" t="s">
@@ -34318,7 +33969,7 @@
         <v>141</v>
       </c>
       <c r="D117" s="10" t="str">
-        <f>A117&amp;B117&amp;C117</f>
+        <f t="shared" si="3"/>
         <v>P22EP01M0?</v>
       </c>
       <c r="E117" s="10" t="s">
@@ -34349,7 +34000,7 @@
         <v>60</v>
       </c>
       <c r="D118" s="10" t="str">
-        <f>A118&amp;B118&amp;C118</f>
+        <f t="shared" si="3"/>
         <v>P22EP01M02</v>
       </c>
       <c r="E118" s="10" t="s">
@@ -34379,7 +34030,7 @@
         <v>69</v>
       </c>
       <c r="D119" s="10" t="str">
-        <f>A119&amp;B119&amp;C119</f>
+        <f t="shared" si="3"/>
         <v>P22EP01M05</v>
       </c>
       <c r="E119" s="10" t="s">
@@ -34409,7 +34060,7 @@
         <v>61</v>
       </c>
       <c r="D120" s="10" t="str">
-        <f>A120&amp;B120&amp;C120</f>
+        <f t="shared" si="3"/>
         <v>P23EP01M03</v>
       </c>
       <c r="E120" s="10" t="s">
@@ -34440,7 +34091,7 @@
         <v>60</v>
       </c>
       <c r="D121" s="10" t="str">
-        <f>A121&amp;B121&amp;C121</f>
+        <f t="shared" si="3"/>
         <v>P24EP01M02</v>
       </c>
       <c r="E121" s="10" t="s">
@@ -34470,7 +34121,7 @@
         <v>61</v>
       </c>
       <c r="D122" s="10" t="str">
-        <f>A122&amp;B122&amp;C122</f>
+        <f t="shared" si="3"/>
         <v>P24EP01M03</v>
       </c>
       <c r="E122" s="10" t="s">
@@ -34500,7 +34151,7 @@
         <v>62</v>
       </c>
       <c r="D123" s="10" t="str">
-        <f>A123&amp;B123&amp;C123</f>
+        <f t="shared" si="3"/>
         <v>P24EP01M04</v>
       </c>
       <c r="E123" s="10" t="s">
@@ -34530,7 +34181,7 @@
         <v>60</v>
       </c>
       <c r="D124" s="10" t="str">
-        <f>A124&amp;B124&amp;C124</f>
+        <f t="shared" si="3"/>
         <v>P25EP02M02</v>
       </c>
       <c r="E124" s="10" t="s">
@@ -34560,7 +34211,7 @@
         <v>60</v>
       </c>
       <c r="D125" s="10" t="str">
-        <f>A125&amp;B125&amp;C125</f>
+        <f t="shared" si="3"/>
         <v>P27EP01M02</v>
       </c>
       <c r="E125" s="10" t="s">
@@ -34590,7 +34241,7 @@
         <v>69</v>
       </c>
       <c r="D126" s="10" t="str">
-        <f>A126&amp;B126&amp;C126</f>
+        <f t="shared" si="3"/>
         <v>P02EP02M05</v>
       </c>
       <c r="E126" s="10" t="s">
@@ -34623,7 +34274,7 @@
         <v>69</v>
       </c>
       <c r="D127" s="10" t="str">
-        <f>A127&amp;B127&amp;C127</f>
+        <f t="shared" si="3"/>
         <v>P03EP02M05</v>
       </c>
       <c r="E127" s="10" t="s">
@@ -34653,7 +34304,7 @@
         <v>69</v>
       </c>
       <c r="D128" s="10" t="str">
-        <f>A128&amp;B128&amp;C128</f>
+        <f t="shared" si="3"/>
         <v>P03EP03M05</v>
       </c>
       <c r="E128" s="10" t="s">
@@ -34686,7 +34337,7 @@
         <v>58</v>
       </c>
       <c r="D129" s="10" t="str">
-        <f>A129&amp;B129&amp;C129</f>
+        <f t="shared" si="3"/>
         <v>P03EP01M01</v>
       </c>
       <c r="E129" s="10" t="s">
@@ -34716,7 +34367,7 @@
         <v>62</v>
       </c>
       <c r="D130" s="10" t="str">
-        <f>A130&amp;B130&amp;C130</f>
+        <f t="shared" ref="D130:D161" si="4">A130&amp;B130&amp;C130</f>
         <v>P04EP01M04</v>
       </c>
       <c r="E130" s="10" t="s">
@@ -34749,7 +34400,7 @@
         <v>69</v>
       </c>
       <c r="D131" s="10" t="str">
-        <f>A131&amp;B131&amp;C131</f>
+        <f t="shared" si="4"/>
         <v>P04EP01M05</v>
       </c>
       <c r="E131" s="10" t="s">
@@ -34782,7 +34433,7 @@
         <v>61</v>
       </c>
       <c r="D132" s="10" t="str">
-        <f>A132&amp;B132&amp;C132</f>
+        <f t="shared" si="4"/>
         <v>P06EP02M03</v>
       </c>
       <c r="E132" s="10" t="s">
@@ -34813,7 +34464,7 @@
         <v>62</v>
       </c>
       <c r="D133" s="10" t="str">
-        <f>A133&amp;B133&amp;C133</f>
+        <f t="shared" si="4"/>
         <v>P06EP02M04</v>
       </c>
       <c r="E133" s="10" t="s">
@@ -34844,7 +34495,7 @@
         <v>61</v>
       </c>
       <c r="D134" s="10" t="str">
-        <f>A134&amp;B134&amp;C134</f>
+        <f t="shared" si="4"/>
         <v>P17EP01M03</v>
       </c>
       <c r="E134" s="10" t="s">
@@ -34877,7 +34528,7 @@
         <v>61</v>
       </c>
       <c r="D135" s="10" t="str">
-        <f>A135&amp;B135&amp;C135</f>
+        <f t="shared" si="4"/>
         <v>P23EP01M03</v>
       </c>
       <c r="E135" s="10" t="s">
@@ -34907,7 +34558,7 @@
         <v>62</v>
       </c>
       <c r="D136" s="10" t="str">
-        <f>A136&amp;B136&amp;C136</f>
+        <f t="shared" si="4"/>
         <v>P23EP01M04</v>
       </c>
       <c r="E136" s="10" t="s">
@@ -34937,7 +34588,7 @@
         <v>62</v>
       </c>
       <c r="D137" s="10" t="str">
-        <f>A137&amp;B137&amp;C137</f>
+        <f t="shared" si="4"/>
         <v>P25EP03M04</v>
       </c>
       <c r="E137" s="10" t="s">
@@ -34967,7 +34618,7 @@
         <v>62</v>
       </c>
       <c r="D138" s="10" t="str">
-        <f>A138&amp;B138&amp;C138</f>
+        <f t="shared" si="4"/>
         <v>P04EP01M04</v>
       </c>
       <c r="E138" s="10" t="s">
@@ -35000,7 +34651,7 @@
         <v>62</v>
       </c>
       <c r="D139" s="10" t="str">
-        <f>A139&amp;B139&amp;C139</f>
+        <f t="shared" si="4"/>
         <v>P06EP02M04</v>
       </c>
       <c r="E139" s="10" t="s">
@@ -35031,7 +34682,7 @@
         <v>62</v>
       </c>
       <c r="D140" s="10" t="str">
-        <f>A140&amp;B140&amp;C140</f>
+        <f t="shared" si="4"/>
         <v>P06EP02M04</v>
       </c>
       <c r="E140" s="10" t="s">
@@ -35062,7 +34713,7 @@
         <v>61</v>
       </c>
       <c r="D141" s="10" t="str">
-        <f>A141&amp;B141&amp;C141</f>
+        <f t="shared" si="4"/>
         <v>P17EP01M03</v>
       </c>
       <c r="E141" s="10" t="s">
@@ -35095,7 +34746,7 @@
         <v>70</v>
       </c>
       <c r="D142" s="13" t="str">
-        <f>A142&amp;B142&amp;C142</f>
+        <f t="shared" si="4"/>
         <v>P03EP02M06</v>
       </c>
       <c r="E142" s="10" t="s">
@@ -35120,7 +34771,7 @@
         <v>70</v>
       </c>
       <c r="D143" s="10" t="str">
-        <f>A143&amp;B143&amp;C143</f>
+        <f t="shared" si="4"/>
         <v>P03EP01M06</v>
       </c>
       <c r="E143" s="10" t="s">
@@ -35144,7 +34795,7 @@
         <v>70</v>
       </c>
       <c r="D144" s="10" t="str">
-        <f>A144&amp;B144&amp;C144</f>
+        <f t="shared" si="4"/>
         <v>P04EP01M06</v>
       </c>
       <c r="E144" s="10" t="s">
@@ -35171,7 +34822,7 @@
         <v>71</v>
       </c>
       <c r="D145" s="10" t="str">
-        <f>A145&amp;B145&amp;C145</f>
+        <f t="shared" si="4"/>
         <v>P04EP01M07</v>
       </c>
       <c r="E145" s="10" t="s">
@@ -35326,7 +34977,7 @@
         <v>135</v>
       </c>
       <c r="D2" s="10" t="str">
-        <f>A2&amp;B2&amp;C2</f>
+        <f t="shared" ref="D2:D33" si="0">A2&amp;B2&amp;C2</f>
         <v>P02EP02M0X</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -35360,7 +35011,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="10" t="str">
-        <f>A3&amp;B3&amp;C3</f>
+        <f t="shared" si="0"/>
         <v>P03EP01M03</v>
       </c>
       <c r="E3" s="10" t="s">
@@ -35390,7 +35041,7 @@
         <v>62</v>
       </c>
       <c r="D4" s="10" t="str">
-        <f>A4&amp;B4&amp;C4</f>
+        <f t="shared" si="0"/>
         <v>P03EP03M04</v>
       </c>
       <c r="E4" s="10" t="s">
@@ -35420,7 +35071,7 @@
         <v>58</v>
       </c>
       <c r="D5" s="10" t="str">
-        <f>A5&amp;B5&amp;C5</f>
+        <f t="shared" si="0"/>
         <v>P05EP01M01</v>
       </c>
       <c r="E5" s="10" t="s">
@@ -35450,7 +35101,7 @@
         <v>58</v>
       </c>
       <c r="D6" s="10" t="str">
-        <f>A6&amp;B6&amp;C6</f>
+        <f t="shared" si="0"/>
         <v>P06EP01M01</v>
       </c>
       <c r="E6" s="10" t="s">
@@ -35480,7 +35131,7 @@
         <v>58</v>
       </c>
       <c r="D7" s="10" t="str">
-        <f>A7&amp;B7&amp;C7</f>
+        <f t="shared" si="0"/>
         <v>P17EP02M01</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -35510,7 +35161,7 @@
         <v>58</v>
       </c>
       <c r="D8" s="10" t="str">
-        <f>A8&amp;B8&amp;C8</f>
+        <f t="shared" si="0"/>
         <v>P17EP03M01</v>
       </c>
       <c r="E8" s="10" t="s">
@@ -35540,7 +35191,7 @@
         <v>58</v>
       </c>
       <c r="D9" s="10" t="str">
-        <f>A9&amp;B9&amp;C9</f>
+        <f t="shared" si="0"/>
         <v>P19EP01M01</v>
       </c>
       <c r="E9" s="10" t="s">
@@ -35570,7 +35221,7 @@
         <v>58</v>
       </c>
       <c r="D10" s="10" t="str">
-        <f>A10&amp;B10&amp;C10</f>
+        <f t="shared" si="0"/>
         <v>P20EP01M01</v>
       </c>
       <c r="E10" s="13" t="s">
@@ -35600,7 +35251,7 @@
         <v>58</v>
       </c>
       <c r="D11" s="10" t="str">
-        <f>A11&amp;B11&amp;C11</f>
+        <f t="shared" si="0"/>
         <v>P21EP01M01</v>
       </c>
       <c r="E11" s="10" t="s">
@@ -35630,7 +35281,7 @@
         <v>61</v>
       </c>
       <c r="D12" s="10" t="str">
-        <f>A12&amp;B12&amp;C12</f>
+        <f t="shared" si="0"/>
         <v>P23EP02M03</v>
       </c>
       <c r="E12" s="10" t="s">
@@ -35660,7 +35311,7 @@
         <v>60</v>
       </c>
       <c r="D13" s="10" t="str">
-        <f>A13&amp;B13&amp;C13</f>
+        <f t="shared" si="0"/>
         <v>P25EP03M02</v>
       </c>
       <c r="E13" s="10" t="s">
@@ -35690,7 +35341,7 @@
         <v>58</v>
       </c>
       <c r="D14" s="14" t="str">
-        <f>A14&amp;B14&amp;C14</f>
+        <f t="shared" si="0"/>
         <v>P26EP02M01</v>
       </c>
       <c r="E14" s="14" t="s">
@@ -35722,7 +35373,7 @@
         <v>60</v>
       </c>
       <c r="D15" s="10" t="str">
-        <f>A15&amp;B15&amp;C15</f>
+        <f t="shared" si="0"/>
         <v>P26EP01M02</v>
       </c>
       <c r="E15" s="11" t="s">
@@ -35753,7 +35404,7 @@
         <v>58</v>
       </c>
       <c r="D16" s="10" t="str">
-        <f>A16&amp;B16&amp;C16</f>
+        <f t="shared" si="0"/>
         <v>P28EP01M01</v>
       </c>
       <c r="E16" s="10" t="s">
@@ -35784,7 +35435,7 @@
         <v>58</v>
       </c>
       <c r="D17" s="14" t="str">
-        <f>A17&amp;B17&amp;C17</f>
+        <f t="shared" si="0"/>
         <v>P20EP01M01</v>
       </c>
       <c r="E17" s="14" t="s">
@@ -35817,7 +35468,7 @@
         <v>58</v>
       </c>
       <c r="D18" s="10" t="str">
-        <f>A18&amp;B18&amp;C18</f>
+        <f t="shared" si="0"/>
         <v>P03EP01M01</v>
       </c>
       <c r="E18" s="10" t="s">
@@ -35847,7 +35498,7 @@
         <v>58</v>
       </c>
       <c r="D19" s="10" t="str">
-        <f>A19&amp;B19&amp;C19</f>
+        <f t="shared" si="0"/>
         <v>P03EP02M01</v>
       </c>
       <c r="E19" s="10" t="s">
@@ -35878,7 +35529,7 @@
         <v>60</v>
       </c>
       <c r="D20" s="10" t="str">
-        <f>A20&amp;B20&amp;C20</f>
+        <f t="shared" si="0"/>
         <v>P03EP02M02</v>
       </c>
       <c r="E20" s="10" t="s">
@@ -35909,7 +35560,7 @@
         <v>58</v>
       </c>
       <c r="D21" s="10" t="str">
-        <f>A21&amp;B21&amp;C21</f>
+        <f t="shared" si="0"/>
         <v>P03EP03M01</v>
       </c>
       <c r="E21" s="10" t="s">
@@ -35939,7 +35590,7 @@
         <v>60</v>
       </c>
       <c r="D22" s="10" t="str">
-        <f>A22&amp;B22&amp;C22</f>
+        <f t="shared" si="0"/>
         <v>P03EP03M02</v>
       </c>
       <c r="E22" s="10" t="s">
@@ -35971,7 +35622,7 @@
         <v>58</v>
       </c>
       <c r="D23" s="10" t="str">
-        <f>A23&amp;B23&amp;C23</f>
+        <f t="shared" si="0"/>
         <v>P17EP04M01</v>
       </c>
       <c r="E23" s="10" t="s">
@@ -36001,7 +35652,7 @@
         <v>58</v>
       </c>
       <c r="D24" s="10" t="str">
-        <f>A24&amp;B24&amp;C24</f>
+        <f t="shared" si="0"/>
         <v>P22EP02M01</v>
       </c>
       <c r="E24" s="10" t="s">
@@ -36031,7 +35682,7 @@
         <v>58</v>
       </c>
       <c r="D25" s="10" t="str">
-        <f>A25&amp;B25&amp;C25</f>
+        <f t="shared" si="0"/>
         <v>P23EP01M01</v>
       </c>
       <c r="E25" s="10" t="s">
@@ -36061,7 +35712,7 @@
         <v>58</v>
       </c>
       <c r="D26" s="10" t="str">
-        <f>A26&amp;B26&amp;C26</f>
+        <f t="shared" si="0"/>
         <v>P25EP01M01</v>
       </c>
       <c r="E26" s="10" t="s">
@@ -36093,7 +35744,7 @@
         <v>58</v>
       </c>
       <c r="D27" s="10" t="str">
-        <f>A27&amp;B27&amp;C27</f>
+        <f t="shared" si="0"/>
         <v>P25EP02M01</v>
       </c>
       <c r="E27" s="10" t="s">
@@ -36123,7 +35774,7 @@
         <v>58</v>
       </c>
       <c r="D28" s="10" t="str">
-        <f>A28&amp;B28&amp;C28</f>
+        <f t="shared" si="0"/>
         <v>P26EP01M01</v>
       </c>
       <c r="E28" s="11" t="s">
@@ -36154,7 +35805,7 @@
         <v>58</v>
       </c>
       <c r="D29" s="10" t="str">
-        <f>A29&amp;B29&amp;C29</f>
+        <f t="shared" si="0"/>
         <v>P02EP01M01</v>
       </c>
       <c r="E29" s="10" t="s">
@@ -36185,7 +35836,7 @@
         <v>58</v>
       </c>
       <c r="D30" s="10" t="str">
-        <f>A30&amp;B30&amp;C30</f>
+        <f t="shared" si="0"/>
         <v>P02EP02M01</v>
       </c>
       <c r="E30" s="10" t="s">
@@ -36215,7 +35866,7 @@
         <v>60</v>
       </c>
       <c r="D31" s="10" t="str">
-        <f>A31&amp;B31&amp;C31</f>
+        <f t="shared" si="0"/>
         <v>P03EP01M02</v>
       </c>
       <c r="E31" s="10" t="s">
@@ -36508,7 +36159,7 @@
         <v>58</v>
       </c>
       <c r="D32" s="10" t="str">
-        <f>A32&amp;B32&amp;C32</f>
+        <f t="shared" si="0"/>
         <v>P06EP02M01</v>
       </c>
       <c r="E32" s="10" t="s">
@@ -36799,7 +36450,7 @@
         <v>58</v>
       </c>
       <c r="D33" s="10" t="str">
-        <f>A33&amp;B33&amp;C33</f>
+        <f t="shared" si="0"/>
         <v>P22EP01M01</v>
       </c>
       <c r="E33" s="10" t="s">
@@ -37092,7 +36743,7 @@
         <v>58</v>
       </c>
       <c r="D34" s="10" t="str">
-        <f>A34&amp;B34&amp;C34</f>
+        <f t="shared" ref="D34:D65" si="1">A34&amp;B34&amp;C34</f>
         <v>P23EP02M01</v>
       </c>
       <c r="E34" s="10" t="s">
@@ -37385,7 +37036,7 @@
         <v>58</v>
       </c>
       <c r="D35" s="10" t="str">
-        <f>A35&amp;B35&amp;C35</f>
+        <f t="shared" si="1"/>
         <v>P25EP03M01</v>
       </c>
       <c r="E35" s="10" t="s">
@@ -37415,7 +37066,7 @@
         <v>60</v>
       </c>
       <c r="D36" s="10" t="str">
-        <f>A36&amp;B36&amp;C36</f>
+        <f t="shared" si="1"/>
         <v>P02EP01M02</v>
       </c>
       <c r="E36" s="10" t="s">
@@ -37445,7 +37096,7 @@
         <v>71</v>
       </c>
       <c r="D37" s="10" t="str">
-        <f>A37&amp;B37&amp;C37</f>
+        <f t="shared" si="1"/>
         <v>P03EP01M07</v>
       </c>
       <c r="E37" s="10" t="s">
@@ -37475,7 +37126,7 @@
         <v>58</v>
       </c>
       <c r="D38" s="10" t="str">
-        <f>A38&amp;B38&amp;C38</f>
+        <f t="shared" si="1"/>
         <v>P04EP01M01</v>
       </c>
       <c r="E38" s="10" t="s">
@@ -37505,7 +37156,7 @@
         <v>58</v>
       </c>
       <c r="D39" s="10" t="str">
-        <f>A39&amp;B39&amp;C39</f>
+        <f t="shared" si="1"/>
         <v>P17EP01M01</v>
       </c>
       <c r="E39" s="10" t="s">
@@ -37535,7 +37186,7 @@
         <v>58</v>
       </c>
       <c r="D40" s="10" t="str">
-        <f>A40&amp;B40&amp;C40</f>
+        <f t="shared" si="1"/>
         <v>P24EP01M01</v>
       </c>
       <c r="E40" s="10" t="s">
@@ -37567,7 +37218,7 @@
         <v>70</v>
       </c>
       <c r="D41" s="10" t="str">
-        <f>A41&amp;B41&amp;C41</f>
+        <f t="shared" si="1"/>
         <v>P24EP02M06</v>
       </c>
       <c r="E41" s="10" t="s">
@@ -37599,7 +37250,7 @@
         <v>61</v>
       </c>
       <c r="D42" s="10" t="str">
-        <f>A42&amp;B42&amp;C42</f>
+        <f t="shared" si="1"/>
         <v>P02EP01M03</v>
       </c>
       <c r="E42" s="10" t="s">
@@ -37629,7 +37280,7 @@
         <v>61</v>
       </c>
       <c r="D43" s="10" t="str">
-        <f>A43&amp;B43&amp;C43</f>
+        <f t="shared" si="1"/>
         <v>P03EP02M03</v>
       </c>
       <c r="E43" s="10" t="s">
@@ -37659,7 +37310,7 @@
         <v>69</v>
       </c>
       <c r="D44" s="10" t="str">
-        <f>A44&amp;B44&amp;C44</f>
+        <f t="shared" si="1"/>
         <v>P03EP03M05</v>
       </c>
       <c r="E44" s="10" t="s">
@@ -37695,7 +37346,7 @@
         <v>61</v>
       </c>
       <c r="D45" s="10" t="str">
-        <f>A45&amp;B45&amp;C45</f>
+        <f t="shared" si="1"/>
         <v>P04EP01M03</v>
       </c>
       <c r="E45" s="10" t="s">
@@ -37725,7 +37376,7 @@
         <v>60</v>
       </c>
       <c r="D46" s="10" t="str">
-        <f>A46&amp;B46&amp;C46</f>
+        <f t="shared" si="1"/>
         <v>P05EP01M02</v>
       </c>
       <c r="E46" s="10" t="s">
@@ -37755,7 +37406,7 @@
         <v>61</v>
       </c>
       <c r="D47" s="10" t="str">
-        <f>A47&amp;B47&amp;C47</f>
+        <f t="shared" si="1"/>
         <v>P05EP01M03</v>
       </c>
       <c r="E47" s="10" t="s">
@@ -37785,7 +37436,7 @@
         <v>62</v>
       </c>
       <c r="D48" s="10" t="str">
-        <f>A48&amp;B48&amp;C48</f>
+        <f t="shared" si="1"/>
         <v>P05EP01M04</v>
       </c>
       <c r="E48" s="10" t="s">
@@ -37819,7 +37470,7 @@
         <v>60</v>
       </c>
       <c r="D49" s="10" t="str">
-        <f>A49&amp;B49&amp;C49</f>
+        <f t="shared" si="1"/>
         <v>P06EP01M02</v>
       </c>
       <c r="E49" s="10" t="s">
@@ -37849,7 +37500,7 @@
         <v>58</v>
       </c>
       <c r="D50" s="10" t="str">
-        <f>A50&amp;B50&amp;C50</f>
+        <f t="shared" si="1"/>
         <v>P06EP02M01</v>
       </c>
       <c r="E50" s="10" t="s">
@@ -37879,7 +37530,7 @@
         <v>60</v>
       </c>
       <c r="D51" s="10" t="str">
-        <f>A51&amp;B51&amp;C51</f>
+        <f t="shared" si="1"/>
         <v>P06EP02M02</v>
       </c>
       <c r="E51" s="10" t="s">
@@ -37909,7 +37560,7 @@
         <v>60</v>
       </c>
       <c r="D52" s="10" t="str">
-        <f>A52&amp;B52&amp;C52</f>
+        <f t="shared" si="1"/>
         <v>P21EP01M02</v>
       </c>
       <c r="E52" s="10" t="s">
@@ -37939,7 +37590,7 @@
         <v>61</v>
       </c>
       <c r="D53" s="10" t="str">
-        <f>A53&amp;B53&amp;C53</f>
+        <f t="shared" si="1"/>
         <v>P22EP01M03</v>
       </c>
       <c r="E53" s="10" t="s">
@@ -37969,7 +37620,7 @@
         <v>60</v>
       </c>
       <c r="D54" s="10" t="str">
-        <f>A54&amp;B54&amp;C54</f>
+        <f t="shared" si="1"/>
         <v>P23EP01M02</v>
       </c>
       <c r="E54" s="10" t="s">
@@ -37999,7 +37650,7 @@
         <v>60</v>
       </c>
       <c r="D55" s="10" t="str">
-        <f>A55&amp;B55&amp;C55</f>
+        <f t="shared" si="1"/>
         <v>P23EP02M02</v>
       </c>
       <c r="E55" s="10" t="s">
@@ -38029,7 +37680,7 @@
         <v>69</v>
       </c>
       <c r="D56" s="10" t="str">
-        <f>A56&amp;B56&amp;C56</f>
+        <f t="shared" si="1"/>
         <v>P24EP02M05</v>
       </c>
       <c r="E56" s="10" t="s">
@@ -38059,7 +37710,7 @@
         <v>58</v>
       </c>
       <c r="D57" s="10" t="str">
-        <f>A57&amp;B57&amp;C57</f>
+        <f t="shared" si="1"/>
         <v>P27EP01M01</v>
       </c>
       <c r="E57" s="10" t="s">
@@ -38089,7 +37740,7 @@
         <v>60</v>
       </c>
       <c r="D58" s="10" t="str">
-        <f>A58&amp;B58&amp;C58</f>
+        <f t="shared" si="1"/>
         <v>P28EP01M02</v>
       </c>
       <c r="E58" s="10" t="s">
@@ -38120,7 +37771,7 @@
         <v>62</v>
       </c>
       <c r="D59" s="10" t="str">
-        <f>A59&amp;B59&amp;C59</f>
+        <f t="shared" si="1"/>
         <v>P02EP01M04</v>
       </c>
       <c r="E59" s="10" t="s">
@@ -38150,7 +37801,7 @@
         <v>69</v>
       </c>
       <c r="D60" s="10" t="str">
-        <f>A60&amp;B60&amp;C60</f>
+        <f t="shared" si="1"/>
         <v>P02EP01M05</v>
       </c>
       <c r="E60" s="10" t="s">
@@ -38181,7 +37832,7 @@
         <v>70</v>
       </c>
       <c r="D61" s="10" t="str">
-        <f>A61&amp;B61&amp;C61</f>
+        <f t="shared" si="1"/>
         <v>P02EP01M06</v>
       </c>
       <c r="E61" s="10" t="s">
@@ -38212,7 +37863,7 @@
         <v>60</v>
       </c>
       <c r="D62" s="10" t="str">
-        <f>A62&amp;B62&amp;C62</f>
+        <f t="shared" si="1"/>
         <v>P02EP02M02</v>
       </c>
       <c r="E62" s="10" t="s">
@@ -38242,7 +37893,7 @@
         <v>61</v>
       </c>
       <c r="D63" s="10" t="str">
-        <f>A63&amp;B63&amp;C63</f>
+        <f t="shared" si="1"/>
         <v>P02EP02M03</v>
       </c>
       <c r="E63" s="10" t="s">
@@ -38275,7 +37926,7 @@
         <v>62</v>
       </c>
       <c r="D64" s="10" t="str">
-        <f>A64&amp;B64&amp;C64</f>
+        <f t="shared" si="1"/>
         <v>P02EP02M04</v>
       </c>
       <c r="E64" s="10" t="s">
@@ -38305,7 +37956,7 @@
         <v>62</v>
       </c>
       <c r="D65" s="10" t="str">
-        <f>A65&amp;B65&amp;C65</f>
+        <f t="shared" si="1"/>
         <v>P03EP01M04</v>
       </c>
       <c r="E65" s="10" t="s">
@@ -38335,7 +37986,7 @@
         <v>69</v>
       </c>
       <c r="D66" s="10" t="str">
-        <f>A66&amp;B66&amp;C66</f>
+        <f t="shared" ref="D66:D97" si="2">A66&amp;B66&amp;C66</f>
         <v>P03EP01M05</v>
       </c>
       <c r="E66" s="10" t="s">
@@ -38365,7 +38016,7 @@
         <v>61</v>
       </c>
       <c r="D67" s="10" t="str">
-        <f>A67&amp;B67&amp;C67</f>
+        <f t="shared" si="2"/>
         <v>P03EP03M03</v>
       </c>
       <c r="E67" s="10" t="s">
@@ -38395,7 +38046,7 @@
         <v>60</v>
       </c>
       <c r="D68" s="10" t="str">
-        <f>A68&amp;B68&amp;C68</f>
+        <f t="shared" si="2"/>
         <v>P04EP01M02</v>
       </c>
       <c r="E68" s="10" t="s">
@@ -38425,7 +38076,7 @@
         <v>69</v>
       </c>
       <c r="D69" s="10" t="str">
-        <f>A69&amp;B69&amp;C69</f>
+        <f t="shared" si="2"/>
         <v>P05EP01M05</v>
       </c>
       <c r="E69" s="10" t="s">
@@ -38456,7 +38107,7 @@
         <v>60</v>
       </c>
       <c r="D70" s="10" t="str">
-        <f>A70&amp;B70&amp;C70</f>
+        <f t="shared" si="2"/>
         <v>P17EP01M02</v>
       </c>
       <c r="E70" s="10" t="s">
@@ -38486,7 +38137,7 @@
         <v>61</v>
       </c>
       <c r="D71" s="10" t="str">
-        <f>A71&amp;B71&amp;C71</f>
+        <f t="shared" si="2"/>
         <v>P17EP01M03</v>
       </c>
       <c r="E71" s="10" t="s">
@@ -38516,7 +38167,7 @@
         <v>60</v>
       </c>
       <c r="D72" s="10" t="str">
-        <f>A72&amp;B72&amp;C72</f>
+        <f t="shared" si="2"/>
         <v>P17EP02M02</v>
       </c>
       <c r="E72" s="10" t="s">
@@ -38549,7 +38200,7 @@
         <v>61</v>
       </c>
       <c r="D73" s="10" t="str">
-        <f>A73&amp;B73&amp;C73</f>
+        <f t="shared" si="2"/>
         <v>P17EP02M03</v>
       </c>
       <c r="E73" s="10" t="s">
@@ -38582,7 +38233,7 @@
         <v>62</v>
       </c>
       <c r="D74" s="10" t="str">
-        <f>A74&amp;B74&amp;C74</f>
+        <f t="shared" si="2"/>
         <v>P17EP02M04</v>
       </c>
       <c r="E74" s="10" t="s">
@@ -38613,7 +38264,7 @@
         <v>60</v>
       </c>
       <c r="D75" s="10" t="str">
-        <f>A75&amp;B75&amp;C75</f>
+        <f t="shared" si="2"/>
         <v>P17EP03M02</v>
       </c>
       <c r="E75" s="10" t="s">
@@ -38643,7 +38294,7 @@
         <v>141</v>
       </c>
       <c r="D76" s="10" t="str">
-        <f>A76&amp;B76&amp;C76</f>
+        <f t="shared" si="2"/>
         <v>P22EP01M0?</v>
       </c>
       <c r="E76" s="10" t="s">
@@ -38677,7 +38328,7 @@
         <v>60</v>
       </c>
       <c r="D77" s="10" t="str">
-        <f>A77&amp;B77&amp;C77</f>
+        <f t="shared" si="2"/>
         <v>P22EP01M02</v>
       </c>
       <c r="E77" s="10" t="s">
@@ -38707,7 +38358,7 @@
         <v>69</v>
       </c>
       <c r="D78" s="10" t="str">
-        <f>A78&amp;B78&amp;C78</f>
+        <f t="shared" si="2"/>
         <v>P22EP01M05</v>
       </c>
       <c r="E78" s="10" t="s">
@@ -38737,7 +38388,7 @@
         <v>60</v>
       </c>
       <c r="D79" s="10" t="str">
-        <f>A79&amp;B79&amp;C79</f>
+        <f t="shared" si="2"/>
         <v>P22EP02M02</v>
       </c>
       <c r="E79" s="10" t="s">
@@ -38767,7 +38418,7 @@
         <v>61</v>
       </c>
       <c r="D80" s="10" t="str">
-        <f>A80&amp;B80&amp;C80</f>
+        <f t="shared" si="2"/>
         <v>P22EP02M03</v>
       </c>
       <c r="E80" s="10" t="s">
@@ -38797,7 +38448,7 @@
         <v>61</v>
       </c>
       <c r="D81" s="10" t="str">
-        <f>A81&amp;B81&amp;C81</f>
+        <f t="shared" si="2"/>
         <v>P23EP01M03</v>
       </c>
       <c r="E81" s="10" t="s">
@@ -38828,7 +38479,7 @@
         <v>60</v>
       </c>
       <c r="D82" s="10" t="str">
-        <f>A82&amp;B82&amp;C82</f>
+        <f t="shared" si="2"/>
         <v>P24EP01M02</v>
       </c>
       <c r="E82" s="10" t="s">
@@ -38858,7 +38509,7 @@
         <v>61</v>
       </c>
       <c r="D83" s="10" t="str">
-        <f>A83&amp;B83&amp;C83</f>
+        <f t="shared" si="2"/>
         <v>P24EP01M03</v>
       </c>
       <c r="E83" s="10" t="s">
@@ -38888,7 +38539,7 @@
         <v>62</v>
       </c>
       <c r="D84" s="10" t="str">
-        <f>A84&amp;B84&amp;C84</f>
+        <f t="shared" si="2"/>
         <v>P24EP01M04</v>
       </c>
       <c r="E84" s="10" t="s">
@@ -38918,7 +38569,7 @@
         <v>60</v>
       </c>
       <c r="D85" s="10" t="str">
-        <f>A85&amp;B85&amp;C85</f>
+        <f t="shared" si="2"/>
         <v>P25EP02M02</v>
       </c>
       <c r="E85" s="10" t="s">
@@ -38948,7 +38599,7 @@
         <v>60</v>
       </c>
       <c r="D86" s="10" t="str">
-        <f>A86&amp;B86&amp;C86</f>
+        <f t="shared" si="2"/>
         <v>P27EP01M02</v>
       </c>
       <c r="E86" s="10" t="s">
